--- a/Competencia_final/registro_experimento.xlsx
+++ b/Competencia_final/registro_experimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juancho\Desktop\DMEF\labo\Competencia_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51363D10-BD75-4D03-A53E-2968F2185EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2619DE6B-2CB6-424D-BED2-DC2238D829FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F72DCF91-BE68-43C8-A18E-59730E9D26D2}"/>
   </bookViews>
@@ -1999,7 +1999,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2156,96 +2156,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2303,45 +2213,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2399,28 +2270,28 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2428,7 +2299,6 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
@@ -2437,6 +2307,135 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2755,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185828D6-25AC-4D34-9841-603A418DDB2C}">
   <dimension ref="A1:BB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AG21" sqref="AG21"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2817,131 +2816,131 @@
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="40"/>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="62"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="131"/>
       <c r="AB1" s="39"/>
-      <c r="AC1" s="72" t="s">
+      <c r="AC1" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="75"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="120"/>
+      <c r="AG1" s="120"/>
+      <c r="AH1" s="120"/>
       <c r="AI1" s="38"/>
-      <c r="AJ1" s="72" t="s">
+      <c r="AJ1" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="72" t="s">
+      <c r="AK1" s="119"/>
+      <c r="AL1" s="119"/>
+      <c r="AM1" s="119"/>
+      <c r="AN1" s="119"/>
+      <c r="AO1" s="119"/>
+      <c r="AP1" s="119"/>
+      <c r="AQ1" s="119"/>
+      <c r="AR1" s="119"/>
+      <c r="AS1" s="119"/>
+      <c r="AT1" s="119"/>
+      <c r="AU1" s="119"/>
+      <c r="AV1" s="119"/>
+      <c r="AW1" s="119"/>
+      <c r="AX1" s="119"/>
+      <c r="AY1" s="119"/>
+      <c r="AZ1" s="119"/>
+      <c r="BA1" s="117" t="s">
         <v>387</v>
       </c>
-      <c r="BB1" s="74"/>
+      <c r="BB1" s="118"/>
     </row>
     <row r="2" spans="1:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67" t="s">
+      <c r="C2" s="134"/>
+      <c r="D2" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69" t="s">
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="70" t="s">
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
       <c r="O2" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
       <c r="AB2" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="AC2" s="63" t="s">
+      <c r="AC2" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="78" t="s">
+      <c r="AD2" s="121" t="s">
         <v>65</v>
       </c>
       <c r="AE2" s="56"/>
       <c r="AF2" s="56"/>
-      <c r="AG2" s="81" t="s">
+      <c r="AG2" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="AH2" s="81" t="s">
+      <c r="AH2" s="127" t="s">
         <v>67</v>
       </c>
       <c r="AI2" s="44"/>
-      <c r="AJ2" s="79" t="s">
+      <c r="AJ2" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="80"/>
+      <c r="AK2" s="123"/>
+      <c r="AL2" s="124"/>
       <c r="AM2" s="27" t="s">
         <v>61</v>
       </c>
@@ -2949,23 +2948,23 @@
       <c r="AO2" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="AP2" s="76" t="s">
+      <c r="AP2" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="79" t="s">
+      <c r="AQ2" s="126"/>
+      <c r="AR2" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="156"/>
-      <c r="BA2" s="158"/>
-      <c r="BB2" s="159" t="s">
+      <c r="AS2" s="123"/>
+      <c r="AT2" s="123"/>
+      <c r="AU2" s="123"/>
+      <c r="AV2" s="123"/>
+      <c r="AW2" s="123"/>
+      <c r="AX2" s="123"/>
+      <c r="AY2" s="123"/>
+      <c r="AZ2" s="123"/>
+      <c r="BA2" s="112"/>
+      <c r="BB2" s="113" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3050,75 +3049,75 @@
         <v>19</v>
       </c>
       <c r="AB3" s="28"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="78"/>
+      <c r="AC3" s="123"/>
+      <c r="AD3" s="121"/>
       <c r="AE3" s="59" t="s">
         <v>72</v>
       </c>
       <c r="AF3" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="82"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
       <c r="AI3" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="AJ3" s="143" t="s">
+      <c r="AJ3" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="AK3" s="143" t="s">
+      <c r="AK3" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="AL3" s="144" t="s">
+      <c r="AL3" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="AM3" s="143"/>
-      <c r="AN3" s="145" t="s">
+      <c r="AM3" s="98"/>
+      <c r="AN3" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="AO3" s="146" t="s">
+      <c r="AO3" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="AP3" s="147" t="s">
+      <c r="AP3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="AQ3" s="148" t="s">
+      <c r="AQ3" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="AR3" s="149" t="s">
+      <c r="AR3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="150" t="s">
+      <c r="AS3" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="150" t="s">
+      <c r="AT3" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="AU3" s="150" t="s">
+      <c r="AU3" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="AV3" s="150" t="s">
+      <c r="AV3" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="AW3" s="150" t="s">
+      <c r="AW3" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="AX3" s="150" t="s">
+      <c r="AX3" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="AY3" s="150" t="s">
+      <c r="AY3" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="AZ3" s="150" t="s">
+      <c r="AZ3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="BA3" s="160" t="s">
+      <c r="BA3" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="BB3" s="159"/>
+      <c r="BB3" s="113"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="93" t="s">
         <v>363</v>
       </c>
       <c r="B4" s="12"/>
@@ -3140,7 +3139,7 @@
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="139" t="s">
+      <c r="O4" s="94" t="s">
         <v>372</v>
       </c>
       <c r="P4" s="6">
@@ -3165,7 +3164,7 @@
       <c r="AA4" s="17">
         <v>1223</v>
       </c>
-      <c r="AB4" s="140" t="s">
+      <c r="AB4" s="95" t="s">
         <v>373</v>
       </c>
       <c r="AC4" s="22">
@@ -3182,41 +3181,41 @@
       <c r="AH4" s="54">
         <v>945577</v>
       </c>
-      <c r="AI4" s="141" t="s">
+      <c r="AI4" s="96" t="s">
         <v>377</v>
       </c>
-      <c r="AJ4" s="151"/>
-      <c r="AK4" s="151"/>
-      <c r="AL4" s="151"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="106"/>
+      <c r="AL4" s="106"/>
       <c r="AM4" t="s">
         <v>380</v>
       </c>
       <c r="AN4" s="54">
         <v>668111</v>
       </c>
-      <c r="AO4" s="151" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="152"/>
-      <c r="AQ4" s="152"/>
-      <c r="AR4" s="153">
+      <c r="AO4" s="106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="107"/>
+      <c r="AQ4" s="107"/>
+      <c r="AR4" s="108">
         <v>100</v>
       </c>
-      <c r="AS4" s="154"/>
-      <c r="AT4" s="153"/>
-      <c r="AU4" s="155"/>
-      <c r="AV4" s="153"/>
+      <c r="AS4" s="109"/>
+      <c r="AT4" s="108"/>
+      <c r="AU4" s="110"/>
+      <c r="AV4" s="108"/>
       <c r="AW4" s="41"/>
       <c r="AX4" s="41"/>
       <c r="AY4" s="41"/>
-      <c r="AZ4" s="157"/>
-      <c r="BA4" s="161"/>
+      <c r="AZ4" s="111"/>
+      <c r="BA4" s="115"/>
       <c r="BB4" s="41" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="93" t="s">
         <v>364</v>
       </c>
       <c r="B5" s="12"/>
@@ -3238,7 +3237,7 @@
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="139" t="s">
+      <c r="O5" s="94" t="s">
         <v>372</v>
       </c>
       <c r="P5" s="6">
@@ -3263,7 +3262,7 @@
       <c r="AA5" s="17">
         <v>1223</v>
       </c>
-      <c r="AB5" s="140" t="s">
+      <c r="AB5" s="95" t="s">
         <v>374</v>
       </c>
       <c r="AC5" s="22">
@@ -3280,39 +3279,39 @@
       <c r="AH5" s="54">
         <v>945577</v>
       </c>
-      <c r="AI5" s="141" t="s">
+      <c r="AI5" s="96" t="s">
         <v>378</v>
       </c>
-      <c r="AJ5" s="151"/>
-      <c r="AK5" s="151"/>
-      <c r="AL5" s="151"/>
+      <c r="AJ5" s="106"/>
+      <c r="AK5" s="106"/>
+      <c r="AL5" s="106"/>
       <c r="AM5" t="s">
         <v>381</v>
       </c>
       <c r="AN5" s="54">
         <v>668111</v>
       </c>
-      <c r="AO5" s="151" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="152"/>
-      <c r="AQ5" s="152"/>
-      <c r="AR5" s="153"/>
-      <c r="AS5" s="154"/>
-      <c r="AT5" s="153"/>
-      <c r="AU5" s="155"/>
-      <c r="AV5" s="153"/>
+      <c r="AO5" s="106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="107"/>
+      <c r="AQ5" s="107"/>
+      <c r="AR5" s="108"/>
+      <c r="AS5" s="109"/>
+      <c r="AT5" s="108"/>
+      <c r="AU5" s="110"/>
+      <c r="AV5" s="108"/>
       <c r="AW5" s="41"/>
       <c r="AX5" s="41"/>
       <c r="AY5" s="41"/>
-      <c r="AZ5" s="157"/>
-      <c r="BA5" s="161"/>
+      <c r="AZ5" s="111"/>
+      <c r="BA5" s="115"/>
       <c r="BB5" s="41" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="138" t="s">
+      <c r="A6" s="93" t="s">
         <v>365</v>
       </c>
       <c r="B6" s="12"/>
@@ -3334,7 +3333,7 @@
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="139" t="s">
+      <c r="O6" s="94" t="s">
         <v>372</v>
       </c>
       <c r="P6" s="6">
@@ -3359,7 +3358,7 @@
       <c r="AA6" s="17">
         <v>1223</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="95" t="s">
         <v>375</v>
       </c>
       <c r="AC6" s="22">
@@ -3376,39 +3375,39 @@
       <c r="AH6" s="54">
         <v>945577</v>
       </c>
-      <c r="AI6" s="141" t="s">
+      <c r="AI6" s="96" t="s">
         <v>379</v>
       </c>
-      <c r="AJ6" s="151"/>
-      <c r="AK6" s="151"/>
-      <c r="AL6" s="151"/>
+      <c r="AJ6" s="106"/>
+      <c r="AK6" s="106"/>
+      <c r="AL6" s="106"/>
       <c r="AM6" t="s">
         <v>382</v>
       </c>
       <c r="AN6" s="54">
         <v>668111</v>
       </c>
-      <c r="AO6" s="151" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="152"/>
-      <c r="AQ6" s="152"/>
-      <c r="AR6" s="153"/>
+      <c r="AO6" s="106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="107"/>
+      <c r="AQ6" s="107"/>
+      <c r="AR6" s="108"/>
       <c r="AS6" s="41"/>
-      <c r="AT6" s="153"/>
+      <c r="AT6" s="108"/>
       <c r="AU6" s="41"/>
-      <c r="AV6" s="153"/>
+      <c r="AV6" s="108"/>
       <c r="AW6" s="41"/>
       <c r="AX6" s="41"/>
       <c r="AY6" s="41"/>
-      <c r="AZ6" s="157"/>
-      <c r="BA6" s="161"/>
+      <c r="AZ6" s="111"/>
+      <c r="BA6" s="115"/>
       <c r="BB6" s="41" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="93" t="s">
         <v>366</v>
       </c>
       <c r="B7" s="12"/>
@@ -3430,7 +3429,7 @@
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="139" t="s">
+      <c r="O7" s="94" t="s">
         <v>372</v>
       </c>
       <c r="P7" s="7"/>
@@ -3447,7 +3446,7 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="17"/>
-      <c r="AB7" s="140" t="s">
+      <c r="AB7" s="95" t="s">
         <v>376</v>
       </c>
       <c r="AC7" s="22">
@@ -3464,37 +3463,37 @@
       <c r="AH7" s="54">
         <v>945577</v>
       </c>
-      <c r="AI7" s="141" t="s">
+      <c r="AI7" s="96" t="s">
         <v>389</v>
       </c>
-      <c r="AJ7" s="151"/>
-      <c r="AK7" s="151"/>
-      <c r="AL7" s="151"/>
+      <c r="AJ7" s="106"/>
+      <c r="AK7" s="106"/>
+      <c r="AL7" s="106"/>
       <c r="AM7" t="s">
         <v>390</v>
       </c>
       <c r="AN7" s="54">
         <v>668111</v>
       </c>
-      <c r="AO7" s="151"/>
-      <c r="AP7" s="152"/>
-      <c r="AQ7" s="152"/>
-      <c r="AR7" s="153"/>
+      <c r="AO7" s="106"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="108"/>
       <c r="AS7" s="41"/>
-      <c r="AT7" s="153"/>
+      <c r="AT7" s="108"/>
       <c r="AU7" s="41"/>
-      <c r="AV7" s="153"/>
+      <c r="AV7" s="108"/>
       <c r="AW7" s="41"/>
       <c r="AX7" s="41"/>
       <c r="AY7" s="41"/>
-      <c r="AZ7" s="157"/>
-      <c r="BA7" s="161"/>
+      <c r="AZ7" s="111"/>
+      <c r="BA7" s="115"/>
       <c r="BB7" s="41" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="138" t="s">
+      <c r="A8" s="93" t="s">
         <v>367</v>
       </c>
       <c r="B8" s="12"/>
@@ -3516,7 +3515,7 @@
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="139" t="s">
+      <c r="O8" s="94" t="s">
         <v>372</v>
       </c>
       <c r="P8" s="7"/>
@@ -3535,7 +3534,7 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="5"/>
-      <c r="AB8" s="140"/>
+      <c r="AB8" s="95"/>
       <c r="AC8" s="22"/>
       <c r="AD8" s="53"/>
       <c r="AE8" s="53"/>
@@ -3546,30 +3545,30 @@
       <c r="AH8" s="54">
         <v>945577</v>
       </c>
-      <c r="AI8" s="142"/>
-      <c r="AJ8" s="151"/>
-      <c r="AK8" s="151"/>
-      <c r="AL8" s="151"/>
-      <c r="AN8" s="151"/>
-      <c r="AO8" s="151" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="152"/>
+      <c r="AI8" s="97"/>
+      <c r="AJ8" s="106"/>
+      <c r="AK8" s="106"/>
+      <c r="AL8" s="106"/>
+      <c r="AN8" s="106"/>
+      <c r="AO8" s="106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="107"/>
       <c r="AQ8" s="41"/>
       <c r="AR8" s="41"/>
       <c r="AS8" s="41"/>
-      <c r="AT8" s="153"/>
+      <c r="AT8" s="108"/>
       <c r="AU8" s="41"/>
-      <c r="AV8" s="153"/>
+      <c r="AV8" s="108"/>
       <c r="AW8" s="41"/>
       <c r="AX8" s="41"/>
       <c r="AY8" s="41"/>
-      <c r="AZ8" s="157"/>
-      <c r="BA8" s="161"/>
+      <c r="AZ8" s="111"/>
+      <c r="BA8" s="115"/>
       <c r="BB8" s="41"/>
     </row>
     <row r="9" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="93" t="s">
         <v>368</v>
       </c>
       <c r="B9" s="12"/>
@@ -3591,7 +3590,7 @@
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="139" t="s">
+      <c r="O9" s="94" t="s">
         <v>372</v>
       </c>
       <c r="P9" s="6">
@@ -3614,7 +3613,7 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="5"/>
-      <c r="AB9" s="140"/>
+      <c r="AB9" s="95"/>
       <c r="AC9" s="22"/>
       <c r="AD9" s="53"/>
       <c r="AE9" s="53"/>
@@ -3625,30 +3624,30 @@
       <c r="AH9" s="54">
         <v>945577</v>
       </c>
-      <c r="AI9" s="142"/>
-      <c r="AJ9" s="151"/>
-      <c r="AK9" s="151"/>
-      <c r="AL9" s="151"/>
-      <c r="AN9" s="151"/>
-      <c r="AO9" s="151" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="152"/>
-      <c r="AQ9" s="152"/>
-      <c r="AR9" s="153"/>
-      <c r="AS9" s="154"/>
-      <c r="AT9" s="153"/>
-      <c r="AU9" s="155"/>
-      <c r="AV9" s="153"/>
+      <c r="AI9" s="97"/>
+      <c r="AJ9" s="106"/>
+      <c r="AK9" s="106"/>
+      <c r="AL9" s="106"/>
+      <c r="AN9" s="106"/>
+      <c r="AO9" s="106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="107"/>
+      <c r="AQ9" s="107"/>
+      <c r="AR9" s="108"/>
+      <c r="AS9" s="109"/>
+      <c r="AT9" s="108"/>
+      <c r="AU9" s="110"/>
+      <c r="AV9" s="108"/>
       <c r="AW9" s="41"/>
       <c r="AX9" s="41"/>
       <c r="AY9" s="41"/>
-      <c r="AZ9" s="157"/>
-      <c r="BA9" s="161"/>
+      <c r="AZ9" s="111"/>
+      <c r="BA9" s="115"/>
       <c r="BB9" s="41"/>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="93" t="s">
         <v>369</v>
       </c>
       <c r="B10" s="12"/>
@@ -3670,7 +3669,7 @@
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="139" t="s">
+      <c r="O10" s="94" t="s">
         <v>372</v>
       </c>
       <c r="P10" s="6">
@@ -3693,7 +3692,7 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="17"/>
-      <c r="AB10" s="140"/>
+      <c r="AB10" s="95"/>
       <c r="AC10" s="48">
         <v>0.3</v>
       </c>
@@ -3706,12 +3705,12 @@
       <c r="AH10" s="54">
         <v>945577</v>
       </c>
-      <c r="AI10" s="142"/>
-      <c r="AJ10" s="151"/>
-      <c r="AK10" s="151"/>
-      <c r="AL10" s="151"/>
-      <c r="AN10" s="151"/>
-      <c r="AO10" s="151" t="b">
+      <c r="AI10" s="97"/>
+      <c r="AJ10" s="106"/>
+      <c r="AK10" s="106"/>
+      <c r="AL10" s="106"/>
+      <c r="AN10" s="106"/>
+      <c r="AO10" s="106" t="b">
         <v>0</v>
       </c>
       <c r="AP10" s="41"/>
@@ -3725,11 +3724,11 @@
       <c r="AX10" s="41"/>
       <c r="AY10" s="41"/>
       <c r="AZ10" s="40"/>
-      <c r="BA10" s="161"/>
+      <c r="BA10" s="115"/>
       <c r="BB10" s="41"/>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A11" s="138" t="s">
+      <c r="A11" s="93" t="s">
         <v>370</v>
       </c>
       <c r="B11" s="12"/>
@@ -3751,7 +3750,7 @@
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="139" t="s">
+      <c r="O11" s="94" t="s">
         <v>372</v>
       </c>
       <c r="P11" s="6">
@@ -3774,7 +3773,7 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="17"/>
-      <c r="AB11" s="140"/>
+      <c r="AB11" s="95"/>
       <c r="AC11" s="48">
         <v>0.5</v>
       </c>
@@ -3787,12 +3786,12 @@
       <c r="AH11" s="54">
         <v>945577</v>
       </c>
-      <c r="AI11" s="142"/>
+      <c r="AI11" s="97"/>
       <c r="AJ11" s="41"/>
       <c r="AK11" s="41"/>
       <c r="AL11" s="41"/>
-      <c r="AN11" s="151"/>
-      <c r="AO11" s="151" t="b">
+      <c r="AN11" s="106"/>
+      <c r="AO11" s="106" t="b">
         <v>0</v>
       </c>
       <c r="AP11" s="41"/>
@@ -3806,11 +3805,11 @@
       <c r="AX11" s="41"/>
       <c r="AY11" s="41"/>
       <c r="AZ11" s="40"/>
-      <c r="BA11" s="161"/>
+      <c r="BA11" s="115"/>
       <c r="BB11" s="41"/>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="93" t="s">
         <v>371</v>
       </c>
       <c r="B12" s="12"/>
@@ -3832,7 +3831,7 @@
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
-      <c r="O12" s="139" t="s">
+      <c r="O12" s="94" t="s">
         <v>372</v>
       </c>
       <c r="P12" s="6">
@@ -3855,7 +3854,7 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="17"/>
-      <c r="AB12" s="140"/>
+      <c r="AB12" s="95"/>
       <c r="AC12" s="22"/>
       <c r="AD12" s="52"/>
       <c r="AE12" s="52"/>
@@ -3866,12 +3865,12 @@
       <c r="AH12" s="54">
         <v>945577</v>
       </c>
-      <c r="AI12" s="142"/>
+      <c r="AI12" s="97"/>
       <c r="AJ12" s="41"/>
       <c r="AK12" s="41"/>
       <c r="AL12" s="41"/>
-      <c r="AN12" s="151"/>
-      <c r="AO12" s="151" t="b">
+      <c r="AN12" s="106"/>
+      <c r="AO12" s="106" t="b">
         <v>0</v>
       </c>
       <c r="AP12" s="41"/>
@@ -3885,11 +3884,11 @@
       <c r="AX12" s="41"/>
       <c r="AY12" s="41"/>
       <c r="AZ12" s="40"/>
-      <c r="BA12" s="161"/>
+      <c r="BA12" s="115"/>
       <c r="BB12" s="41"/>
     </row>
     <row r="13" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="93" t="s">
         <v>388</v>
       </c>
       <c r="B13" s="12"/>
@@ -3911,7 +3910,7 @@
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="139" t="s">
+      <c r="O13" s="94" t="s">
         <v>372</v>
       </c>
       <c r="P13" s="6">
@@ -3936,7 +3935,7 @@
       </c>
       <c r="Z13" s="6"/>
       <c r="AA13" s="17"/>
-      <c r="AB13" s="140"/>
+      <c r="AB13" s="95"/>
       <c r="AD13" s="55"/>
       <c r="AE13" s="58"/>
       <c r="AF13" s="55"/>
@@ -3946,12 +3945,12 @@
       <c r="AH13" s="54">
         <v>945577</v>
       </c>
-      <c r="AI13" s="142"/>
+      <c r="AI13" s="97"/>
       <c r="AJ13" s="41"/>
       <c r="AK13" s="41"/>
       <c r="AL13" s="41"/>
-      <c r="AN13" s="151"/>
-      <c r="AO13" s="151" t="b">
+      <c r="AN13" s="106"/>
+      <c r="AO13" s="106" t="b">
         <v>0</v>
       </c>
       <c r="AP13" s="41"/>
@@ -3965,11 +3964,18 @@
       <c r="AX13" s="41"/>
       <c r="AY13" s="41"/>
       <c r="AZ13" s="40"/>
-      <c r="BA13" s="162"/>
+      <c r="BA13" s="116"/>
       <c r="BB13" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:AA2"/>
     <mergeCell ref="BA1:BB1"/>
     <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="AC1:AH1"/>
@@ -3979,13 +3985,6 @@
     <mergeCell ref="AR2:AZ2"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4012,64 +4011,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="91" t="s">
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="86" t="s">
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="87" t="s">
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="144" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="89"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="146"/>
       <c r="E2" s="26">
         <v>1</v>
       </c>
@@ -4163,31 +4162,31 @@
       <c r="AI2" s="24">
         <v>7</v>
       </c>
-      <c r="AJ2" s="64"/>
+      <c r="AJ2" s="123"/>
     </row>
     <row r="3" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85">
-        <v>1</v>
-      </c>
-      <c r="B3" s="85">
+      <c r="A3" s="142">
+        <v>1</v>
+      </c>
+      <c r="B3" s="142">
         <v>732497</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="142">
         <v>936659</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="127">
-        <v>0</v>
-      </c>
-      <c r="F3" s="127">
-        <v>0</v>
-      </c>
-      <c r="G3" s="127">
-        <v>0</v>
-      </c>
-      <c r="H3" s="127">
+      <c r="E3" s="82">
+        <v>0</v>
+      </c>
+      <c r="F3" s="82">
+        <v>0</v>
+      </c>
+      <c r="G3" s="82">
+        <v>0</v>
+      </c>
+      <c r="H3" s="82">
         <v>0</v>
       </c>
       <c r="I3" s="20">
@@ -4214,34 +4213,34 @@
       <c r="P3" s="20">
         <v>1</v>
       </c>
-      <c r="Q3" s="124">
-        <v>0</v>
-      </c>
-      <c r="R3" s="124">
-        <v>0</v>
-      </c>
-      <c r="S3" s="124">
-        <v>0</v>
-      </c>
-      <c r="T3" s="124">
-        <v>0</v>
-      </c>
-      <c r="U3" s="124">
-        <v>0</v>
-      </c>
-      <c r="V3" s="124">
-        <v>0</v>
-      </c>
-      <c r="W3" s="124">
-        <v>0</v>
-      </c>
-      <c r="X3" s="124">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="124">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="124">
+      <c r="Q3" s="79">
+        <v>0</v>
+      </c>
+      <c r="R3" s="79">
+        <v>0</v>
+      </c>
+      <c r="S3" s="79">
+        <v>0</v>
+      </c>
+      <c r="T3" s="79">
+        <v>0</v>
+      </c>
+      <c r="U3" s="79">
+        <v>0</v>
+      </c>
+      <c r="V3" s="79">
+        <v>0</v>
+      </c>
+      <c r="W3" s="79">
+        <v>0</v>
+      </c>
+      <c r="X3" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="79">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="79">
         <v>0</v>
       </c>
       <c r="AA3" s="19">
@@ -4268,14 +4267,14 @@
       <c r="AH3" s="18"/>
       <c r="AI3" s="18"/>
       <c r="AJ3" s="46">
-        <f>SUM(E3:AI3)</f>
+        <f t="shared" ref="AJ3:AJ22" si="0">SUM(E3:AI3)</f>
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
+      <c r="A4" s="142"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
       <c r="D4" s="16" t="s">
         <v>2</v>
       </c>
@@ -4291,16 +4290,16 @@
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="125"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
       <c r="AA4" s="14"/>
       <c r="AB4" s="14"/>
       <c r="AC4" s="13"/>
@@ -4313,14 +4312,14 @@
       </c>
       <c r="AI4" s="13"/>
       <c r="AJ4" s="45">
-        <f>SUM(E4:AI4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
+      <c r="A5" s="142"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="142"/>
       <c r="D5" s="16" t="s">
         <v>1</v>
       </c>
@@ -4336,16 +4335,16 @@
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="125"/>
-      <c r="T5" s="125"/>
-      <c r="U5" s="125"/>
-      <c r="V5" s="125"/>
-      <c r="W5" s="125"/>
-      <c r="X5" s="125"/>
-      <c r="Y5" s="125"/>
-      <c r="Z5" s="125"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
       <c r="AA5" s="14"/>
       <c r="AB5" s="14"/>
       <c r="AC5" s="13"/>
@@ -4358,27 +4357,27 @@
         <v>1</v>
       </c>
       <c r="AJ5" s="45">
-        <f>SUM(E5:AI5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
+      <c r="A6" s="142"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
       <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="128">
-        <v>0</v>
-      </c>
-      <c r="F6" s="128">
-        <v>0</v>
-      </c>
-      <c r="G6" s="128">
-        <v>0</v>
-      </c>
-      <c r="H6" s="128">
+      <c r="E6" s="83">
+        <v>0</v>
+      </c>
+      <c r="F6" s="83">
+        <v>0</v>
+      </c>
+      <c r="G6" s="83">
+        <v>0</v>
+      </c>
+      <c r="H6" s="83">
         <v>0</v>
       </c>
       <c r="I6" s="3">
@@ -4405,34 +4404,34 @@
       <c r="P6" s="3">
         <v>1</v>
       </c>
-      <c r="Q6" s="126">
-        <v>0</v>
-      </c>
-      <c r="R6" s="126">
-        <v>0</v>
-      </c>
-      <c r="S6" s="126">
-        <v>0</v>
-      </c>
-      <c r="T6" s="126">
-        <v>0</v>
-      </c>
-      <c r="U6" s="126">
-        <v>0</v>
-      </c>
-      <c r="V6" s="126">
-        <v>0</v>
-      </c>
-      <c r="W6" s="126">
-        <v>0</v>
-      </c>
-      <c r="X6" s="126">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="126">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="126">
+      <c r="Q6" s="81">
+        <v>0</v>
+      </c>
+      <c r="R6" s="81">
+        <v>0</v>
+      </c>
+      <c r="S6" s="81">
+        <v>0</v>
+      </c>
+      <c r="T6" s="81">
+        <v>0</v>
+      </c>
+      <c r="U6" s="81">
+        <v>0</v>
+      </c>
+      <c r="V6" s="81">
+        <v>0</v>
+      </c>
+      <c r="W6" s="81">
+        <v>0</v>
+      </c>
+      <c r="X6" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="81">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="81">
         <v>0</v>
       </c>
       <c r="AA6" s="2">
@@ -4459,18 +4458,18 @@
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="47">
-        <f>SUM(E6:AI6)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83">
+      <c r="A7" s="140">
         <v>2</v>
       </c>
-      <c r="B7" s="85">
+      <c r="B7" s="142">
         <v>732497</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="142">
         <v>936659</v>
       </c>
       <c r="D7" s="21" t="s">
@@ -4527,7 +4526,7 @@
       <c r="U7" s="19">
         <v>1</v>
       </c>
-      <c r="V7" s="124">
+      <c r="V7" s="79">
         <v>0</v>
       </c>
       <c r="W7" s="19">
@@ -4566,14 +4565,14 @@
       <c r="AH7" s="18"/>
       <c r="AI7" s="18"/>
       <c r="AJ7" s="46">
-        <f>SUM(E7:AI7)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
+      <c r="A8" s="141"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="142"/>
       <c r="D8" s="16" t="s">
         <v>2</v>
       </c>
@@ -4611,14 +4610,14 @@
       </c>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="45">
-        <f>SUM(E8:AI8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
+      <c r="A9" s="141"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
       <c r="D9" s="16" t="s">
         <v>1</v>
       </c>
@@ -4656,14 +4655,14 @@
         <v>1</v>
       </c>
       <c r="AJ9" s="45">
-        <f>SUM(E9:AI9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
@@ -4718,7 +4717,7 @@
       <c r="U10" s="2">
         <v>1</v>
       </c>
-      <c r="V10" s="126">
+      <c r="V10" s="81">
         <v>0</v>
       </c>
       <c r="W10" s="2">
@@ -4757,18 +4756,18 @@
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="47">
-        <f>SUM(E10:AI10)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="83">
+      <c r="A11" s="140">
         <v>3</v>
       </c>
-      <c r="B11" s="85">
+      <c r="B11" s="142">
         <v>732497</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="142">
         <v>936659</v>
       </c>
       <c r="D11" s="21" t="s">
@@ -4801,13 +4800,13 @@
       <c r="M11" s="20">
         <v>1</v>
       </c>
-      <c r="N11" s="127">
-        <v>0</v>
-      </c>
-      <c r="O11" s="127">
-        <v>0</v>
-      </c>
-      <c r="P11" s="127">
+      <c r="N11" s="82">
+        <v>0</v>
+      </c>
+      <c r="O11" s="82">
+        <v>0</v>
+      </c>
+      <c r="P11" s="82">
         <v>0</v>
       </c>
       <c r="Q11" s="19">
@@ -4825,7 +4824,7 @@
       <c r="U11" s="19">
         <v>1</v>
       </c>
-      <c r="V11" s="124">
+      <c r="V11" s="79">
         <v>0</v>
       </c>
       <c r="W11" s="19">
@@ -4837,13 +4836,13 @@
       <c r="Y11" s="19">
         <v>1</v>
       </c>
-      <c r="Z11" s="124">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="124">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="124">
+      <c r="Z11" s="79">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="79">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="79">
         <v>0</v>
       </c>
       <c r="AC11" s="18">
@@ -4864,14 +4863,14 @@
       <c r="AH11" s="18"/>
       <c r="AI11" s="18"/>
       <c r="AJ11" s="46">
-        <f>SUM(E11:AI11)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
+      <c r="A12" s="141"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="142"/>
       <c r="D12" s="16" t="s">
         <v>2</v>
       </c>
@@ -4909,14 +4908,14 @@
       </c>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="45">
-        <f>SUM(E12:AI12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
+      <c r="A13" s="141"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="142"/>
       <c r="D13" s="16" t="s">
         <v>1</v>
       </c>
@@ -4954,14 +4953,14 @@
         <v>1</v>
       </c>
       <c r="AJ13" s="45">
-        <f>SUM(E13:AI13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
+      <c r="A14" s="141"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
       <c r="D14" s="4" t="s">
         <v>0</v>
       </c>
@@ -4992,13 +4991,13 @@
       <c r="M14" s="3">
         <v>1</v>
       </c>
-      <c r="N14" s="128">
-        <v>0</v>
-      </c>
-      <c r="O14" s="128">
-        <v>0</v>
-      </c>
-      <c r="P14" s="128">
+      <c r="N14" s="83">
+        <v>0</v>
+      </c>
+      <c r="O14" s="83">
+        <v>0</v>
+      </c>
+      <c r="P14" s="83">
         <v>0</v>
       </c>
       <c r="Q14" s="2">
@@ -5016,7 +5015,7 @@
       <c r="U14" s="2">
         <v>1</v>
       </c>
-      <c r="V14" s="126">
+      <c r="V14" s="81">
         <v>0</v>
       </c>
       <c r="W14" s="2">
@@ -5028,13 +5027,13 @@
       <c r="Y14" s="2">
         <v>1</v>
       </c>
-      <c r="Z14" s="126">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="126">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="126">
+      <c r="Z14" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="81">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="81">
         <v>0</v>
       </c>
       <c r="AC14" s="1">
@@ -5055,39 +5054,39 @@
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="47">
-        <f>SUM(E14:AI14)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="83">
+      <c r="A15" s="140">
         <v>4</v>
       </c>
-      <c r="B15" s="85">
+      <c r="B15" s="142">
         <v>732497</v>
       </c>
-      <c r="C15" s="85">
+      <c r="C15" s="142">
         <v>936659</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="127">
-        <v>0</v>
-      </c>
-      <c r="F15" s="127">
-        <v>0</v>
-      </c>
-      <c r="G15" s="127">
-        <v>0</v>
-      </c>
-      <c r="H15" s="127">
-        <v>0</v>
-      </c>
-      <c r="I15" s="127">
-        <v>0</v>
-      </c>
-      <c r="J15" s="127">
+      <c r="E15" s="82">
+        <v>0</v>
+      </c>
+      <c r="F15" s="82">
+        <v>0</v>
+      </c>
+      <c r="G15" s="82">
+        <v>0</v>
+      </c>
+      <c r="H15" s="82">
+        <v>0</v>
+      </c>
+      <c r="I15" s="82">
+        <v>0</v>
+      </c>
+      <c r="J15" s="82">
         <v>0</v>
       </c>
       <c r="K15" s="20">
@@ -5099,31 +5098,31 @@
       <c r="M15" s="20">
         <v>1</v>
       </c>
-      <c r="N15" s="127">
-        <v>0</v>
-      </c>
-      <c r="O15" s="127">
-        <v>0</v>
-      </c>
-      <c r="P15" s="127">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="124">
-        <v>0</v>
-      </c>
-      <c r="R15" s="124">
-        <v>0</v>
-      </c>
-      <c r="S15" s="124">
-        <v>0</v>
-      </c>
-      <c r="T15" s="124">
-        <v>0</v>
-      </c>
-      <c r="U15" s="124">
-        <v>0</v>
-      </c>
-      <c r="V15" s="124">
+      <c r="N15" s="82">
+        <v>0</v>
+      </c>
+      <c r="O15" s="82">
+        <v>0</v>
+      </c>
+      <c r="P15" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="79">
+        <v>0</v>
+      </c>
+      <c r="R15" s="79">
+        <v>0</v>
+      </c>
+      <c r="S15" s="79">
+        <v>0</v>
+      </c>
+      <c r="T15" s="79">
+        <v>0</v>
+      </c>
+      <c r="U15" s="79">
+        <v>0</v>
+      </c>
+      <c r="V15" s="79">
         <v>0</v>
       </c>
       <c r="W15" s="19">
@@ -5135,13 +5134,13 @@
       <c r="Y15" s="19">
         <v>1</v>
       </c>
-      <c r="Z15" s="124">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="124">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="124">
+      <c r="Z15" s="79">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="79">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="79">
         <v>0</v>
       </c>
       <c r="AC15" s="18">
@@ -5162,14 +5161,14 @@
       <c r="AH15" s="18"/>
       <c r="AI15" s="18"/>
       <c r="AJ15" s="46">
-        <f>SUM(E15:AI15)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
+      <c r="A16" s="141"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="16" t="s">
         <v>2</v>
       </c>
@@ -5207,14 +5206,14 @@
       </c>
       <c r="AI16" s="13"/>
       <c r="AJ16" s="45">
-        <f>SUM(E16:AI16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
+      <c r="A17" s="141"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
       <c r="D17" s="16" t="s">
         <v>1</v>
       </c>
@@ -5252,33 +5251,33 @@
         <v>1</v>
       </c>
       <c r="AJ17" s="45">
-        <f>SUM(E17:AI17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="A18" s="141"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="142"/>
       <c r="D18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="128">
-        <v>0</v>
-      </c>
-      <c r="F18" s="128">
-        <v>0</v>
-      </c>
-      <c r="G18" s="128">
-        <v>0</v>
-      </c>
-      <c r="H18" s="128">
-        <v>0</v>
-      </c>
-      <c r="I18" s="128">
-        <v>0</v>
-      </c>
-      <c r="J18" s="128">
+      <c r="E18" s="83">
+        <v>0</v>
+      </c>
+      <c r="F18" s="83">
+        <v>0</v>
+      </c>
+      <c r="G18" s="83">
+        <v>0</v>
+      </c>
+      <c r="H18" s="83">
+        <v>0</v>
+      </c>
+      <c r="I18" s="83">
+        <v>0</v>
+      </c>
+      <c r="J18" s="83">
         <v>0</v>
       </c>
       <c r="K18" s="3">
@@ -5290,31 +5289,31 @@
       <c r="M18" s="3">
         <v>1</v>
       </c>
-      <c r="N18" s="128">
-        <v>0</v>
-      </c>
-      <c r="O18" s="128">
-        <v>0</v>
-      </c>
-      <c r="P18" s="128">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="126">
-        <v>0</v>
-      </c>
-      <c r="R18" s="126">
-        <v>0</v>
-      </c>
-      <c r="S18" s="126">
-        <v>0</v>
-      </c>
-      <c r="T18" s="126">
-        <v>0</v>
-      </c>
-      <c r="U18" s="126">
-        <v>0</v>
-      </c>
-      <c r="V18" s="126">
+      <c r="N18" s="83">
+        <v>0</v>
+      </c>
+      <c r="O18" s="83">
+        <v>0</v>
+      </c>
+      <c r="P18" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="81">
+        <v>0</v>
+      </c>
+      <c r="R18" s="81">
+        <v>0</v>
+      </c>
+      <c r="S18" s="81">
+        <v>0</v>
+      </c>
+      <c r="T18" s="81">
+        <v>0</v>
+      </c>
+      <c r="U18" s="81">
+        <v>0</v>
+      </c>
+      <c r="V18" s="81">
         <v>0</v>
       </c>
       <c r="W18" s="2">
@@ -5326,13 +5325,13 @@
       <c r="Y18" s="2">
         <v>1</v>
       </c>
-      <c r="Z18" s="126">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="126">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="126">
+      <c r="Z18" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="81">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="81">
         <v>0</v>
       </c>
       <c r="AC18" s="1">
@@ -5353,94 +5352,94 @@
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="47">
-        <f>SUM(E18:AI18)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" s="83">
-        <v>1</v>
-      </c>
-      <c r="B19" s="85">
+      <c r="A19" s="140">
+        <v>1</v>
+      </c>
+      <c r="B19" s="142">
         <v>732497</v>
       </c>
-      <c r="C19" s="85">
+      <c r="C19" s="142">
         <v>936659</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="129">
-        <v>1</v>
-      </c>
-      <c r="J19" s="129">
-        <v>1</v>
-      </c>
-      <c r="K19" s="129">
-        <v>1</v>
-      </c>
-      <c r="L19" s="129">
-        <v>1</v>
-      </c>
-      <c r="M19" s="129">
-        <v>1</v>
-      </c>
-      <c r="N19" s="129">
-        <v>1</v>
-      </c>
-      <c r="O19" s="129">
-        <v>1</v>
-      </c>
-      <c r="P19" s="129">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="124">
-        <v>0</v>
-      </c>
-      <c r="R19" s="124">
-        <v>0</v>
-      </c>
-      <c r="S19" s="124">
-        <v>0</v>
-      </c>
-      <c r="T19" s="124">
-        <v>0</v>
-      </c>
-      <c r="U19" s="124">
-        <v>0</v>
-      </c>
-      <c r="V19" s="124">
-        <v>0</v>
-      </c>
-      <c r="W19" s="124">
-        <v>0</v>
-      </c>
-      <c r="X19" s="124">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="124">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="124">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="132">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="132">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="133">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="133">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="133">
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="84">
+        <v>1</v>
+      </c>
+      <c r="J19" s="84">
+        <v>1</v>
+      </c>
+      <c r="K19" s="84">
+        <v>1</v>
+      </c>
+      <c r="L19" s="84">
+        <v>1</v>
+      </c>
+      <c r="M19" s="84">
+        <v>1</v>
+      </c>
+      <c r="N19" s="84">
+        <v>1</v>
+      </c>
+      <c r="O19" s="84">
+        <v>1</v>
+      </c>
+      <c r="P19" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="79">
+        <v>0</v>
+      </c>
+      <c r="R19" s="79">
+        <v>0</v>
+      </c>
+      <c r="S19" s="79">
+        <v>0</v>
+      </c>
+      <c r="T19" s="79">
+        <v>0</v>
+      </c>
+      <c r="U19" s="79">
+        <v>0</v>
+      </c>
+      <c r="V19" s="79">
+        <v>0</v>
+      </c>
+      <c r="W19" s="79">
+        <v>0</v>
+      </c>
+      <c r="X19" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="79">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="79">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="87">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="87">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="88">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="88">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="88">
         <v>1</v>
       </c>
       <c r="AF19" s="18"/>
@@ -5448,14 +5447,14 @@
       <c r="AH19" s="18"/>
       <c r="AI19" s="18"/>
       <c r="AJ19" s="46">
-        <f>SUM(E19:AI19)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
+      <c r="A20" s="141"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="142"/>
       <c r="D20" s="16" t="s">
         <v>2</v>
       </c>
@@ -5463,29 +5462,29 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="130"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="130"/>
-      <c r="O20" s="130"/>
-      <c r="P20" s="130"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
-      <c r="V20" s="125"/>
-      <c r="W20" s="125"/>
-      <c r="X20" s="125"/>
-      <c r="Y20" s="125"/>
-      <c r="Z20" s="125"/>
-      <c r="AA20" s="134"/>
-      <c r="AB20" s="134"/>
-      <c r="AC20" s="135"/>
-      <c r="AD20" s="135"/>
-      <c r="AE20" s="135"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="80"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="90"/>
+      <c r="AD20" s="90"/>
+      <c r="AE20" s="90"/>
       <c r="AF20" s="13">
         <v>1</v>
       </c>
@@ -5493,14 +5492,14 @@
       <c r="AH20" s="13"/>
       <c r="AI20" s="13"/>
       <c r="AJ20" s="45">
-        <f>SUM(E20:AI20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
+      <c r="A21" s="141"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="16" t="s">
         <v>1</v>
       </c>
@@ -5508,29 +5507,29 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="130"/>
-      <c r="K21" s="130"/>
-      <c r="L21" s="130"/>
-      <c r="M21" s="130"/>
-      <c r="N21" s="130"/>
-      <c r="O21" s="130"/>
-      <c r="P21" s="130"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="125"/>
-      <c r="W21" s="125"/>
-      <c r="X21" s="125"/>
-      <c r="Y21" s="125"/>
-      <c r="Z21" s="125"/>
-      <c r="AA21" s="134"/>
-      <c r="AB21" s="134"/>
-      <c r="AC21" s="135"/>
-      <c r="AD21" s="135"/>
-      <c r="AE21" s="135"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="89"/>
+      <c r="AC21" s="90"/>
+      <c r="AD21" s="90"/>
+      <c r="AE21" s="90"/>
       <c r="AF21" s="13"/>
       <c r="AG21" s="13">
         <v>1</v>
@@ -5538,88 +5537,88 @@
       <c r="AH21" s="13"/>
       <c r="AI21" s="13"/>
       <c r="AJ21" s="45">
-        <f>SUM(E21:AI21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
+      <c r="A22" s="141"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
       <c r="D22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="131">
-        <v>1</v>
-      </c>
-      <c r="J22" s="131">
-        <v>1</v>
-      </c>
-      <c r="K22" s="131">
-        <v>1</v>
-      </c>
-      <c r="L22" s="131">
-        <v>1</v>
-      </c>
-      <c r="M22" s="131">
-        <v>1</v>
-      </c>
-      <c r="N22" s="131">
-        <v>1</v>
-      </c>
-      <c r="O22" s="131">
-        <v>1</v>
-      </c>
-      <c r="P22" s="131">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="126">
-        <v>0</v>
-      </c>
-      <c r="R22" s="126">
-        <v>0</v>
-      </c>
-      <c r="S22" s="126">
-        <v>0</v>
-      </c>
-      <c r="T22" s="126">
-        <v>0</v>
-      </c>
-      <c r="U22" s="126">
-        <v>0</v>
-      </c>
-      <c r="V22" s="126">
-        <v>0</v>
-      </c>
-      <c r="W22" s="126">
-        <v>0</v>
-      </c>
-      <c r="X22" s="126">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="126">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="126">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="136">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="136">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="137">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="137">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="137">
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="86">
+        <v>1</v>
+      </c>
+      <c r="J22" s="86">
+        <v>1</v>
+      </c>
+      <c r="K22" s="86">
+        <v>1</v>
+      </c>
+      <c r="L22" s="86">
+        <v>1</v>
+      </c>
+      <c r="M22" s="86">
+        <v>1</v>
+      </c>
+      <c r="N22" s="86">
+        <v>1</v>
+      </c>
+      <c r="O22" s="86">
+        <v>1</v>
+      </c>
+      <c r="P22" s="86">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="81">
+        <v>0</v>
+      </c>
+      <c r="R22" s="81">
+        <v>0</v>
+      </c>
+      <c r="S22" s="81">
+        <v>0</v>
+      </c>
+      <c r="T22" s="81">
+        <v>0</v>
+      </c>
+      <c r="U22" s="81">
+        <v>0</v>
+      </c>
+      <c r="V22" s="81">
+        <v>0</v>
+      </c>
+      <c r="W22" s="81">
+        <v>0</v>
+      </c>
+      <c r="X22" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="81">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="91">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="91">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="92">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="92">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="92">
         <v>1</v>
       </c>
       <c r="AF22" s="1"/>
@@ -5627,12 +5626,26 @@
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="47">
-        <f>SUM(E22:AI22)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="AC1:AI1"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="Q1:AB1"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
@@ -5642,20 +5655,6 @@
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="C15:C18"/>
-    <mergeCell ref="AC1:AI1"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="Q1:AB1"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5864,2361 +5863,2361 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="I1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="J1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="94" t="s">
+      <c r="K1" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="111">
-        <v>0</v>
-      </c>
-      <c r="B2" s="95">
+      <c r="A2" s="161">
+        <v>0</v>
+      </c>
+      <c r="B2" s="63">
         <v>11000</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="149" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="115" t="s">
+      <c r="F2" s="152" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="95">
+      <c r="G2" s="63">
         <v>786</v>
       </c>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="95">
+      <c r="I2" s="63">
         <v>11</v>
       </c>
-      <c r="J2" s="95" t="s">
+      <c r="J2" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="96">
+      <c r="K2" s="64">
         <v>40938</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112"/>
-      <c r="B3" s="95">
+      <c r="A3" s="150"/>
+      <c r="B3" s="63">
         <v>13500</v>
       </c>
-      <c r="C3" s="95">
+      <c r="C3" s="63">
         <v>49</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="150"/>
+      <c r="E3" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="116"/>
-      <c r="G3" s="95">
+      <c r="F3" s="153"/>
+      <c r="G3" s="63">
         <v>534</v>
       </c>
-      <c r="H3" s="95" t="s">
+      <c r="H3" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="95">
+      <c r="I3" s="63">
         <v>17</v>
       </c>
-      <c r="J3" s="95" t="s">
+      <c r="J3" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="96">
+      <c r="K3" s="64">
         <v>27265</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="112"/>
-      <c r="B4" s="95">
+      <c r="A4" s="150"/>
+      <c r="B4" s="63">
         <v>11250</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="96" t="s">
+      <c r="D4" s="150"/>
+      <c r="E4" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="116"/>
-      <c r="G4" s="95">
+      <c r="F4" s="153"/>
+      <c r="G4" s="63">
         <v>707</v>
       </c>
-      <c r="H4" s="95" t="s">
+      <c r="H4" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="63">
         <v>14</v>
       </c>
-      <c r="J4" s="95" t="s">
+      <c r="J4" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="K4" s="96">
+      <c r="K4" s="64">
         <v>41129</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="112"/>
-      <c r="B5" s="95">
+      <c r="A5" s="150"/>
+      <c r="B5" s="63">
         <v>9500</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="96" t="s">
+      <c r="D5" s="150"/>
+      <c r="E5" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="95">
+      <c r="F5" s="153"/>
+      <c r="G5" s="63">
         <v>930</v>
       </c>
-      <c r="H5" s="95" t="s">
+      <c r="H5" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="95">
+      <c r="I5" s="63">
         <v>66</v>
       </c>
-      <c r="J5" s="95" t="s">
+      <c r="J5" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="96">
+      <c r="K5" s="64">
         <v>10617</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
-      <c r="B6" s="98">
+      <c r="A6" s="151"/>
+      <c r="B6" s="66">
         <v>10250</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="100" t="s">
+      <c r="D6" s="151"/>
+      <c r="E6" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="117"/>
-      <c r="G6" s="98">
+      <c r="F6" s="154"/>
+      <c r="G6" s="66">
         <v>2944</v>
       </c>
-      <c r="H6" s="98" t="s">
+      <c r="H6" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="I6" s="98">
+      <c r="I6" s="66">
         <v>149</v>
       </c>
-      <c r="J6" s="98" t="s">
+      <c r="J6" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="K6" s="100">
+      <c r="K6" s="68">
         <v>12534</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="114">
-        <v>1</v>
-      </c>
-      <c r="B7" s="101">
+      <c r="A7" s="149">
+        <v>1</v>
+      </c>
+      <c r="B7" s="69">
         <v>12000</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="114" t="s">
+      <c r="D7" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="102" t="s">
+      <c r="E7" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="115" t="s">
+      <c r="F7" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="101">
+      <c r="G7" s="69">
         <v>1657</v>
       </c>
-      <c r="H7" s="101" t="s">
+      <c r="H7" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="101">
+      <c r="I7" s="69">
         <v>95</v>
       </c>
-      <c r="J7" s="101" t="s">
+      <c r="J7" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="102">
+      <c r="K7" s="70">
         <v>13746</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="112"/>
-      <c r="B8" s="95">
+      <c r="A8" s="150"/>
+      <c r="B8" s="63">
         <v>11250</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="96" t="s">
+      <c r="D8" s="150"/>
+      <c r="E8" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="116"/>
-      <c r="G8" s="95">
+      <c r="F8" s="153"/>
+      <c r="G8" s="63">
         <v>657</v>
       </c>
-      <c r="H8" s="95" t="s">
+      <c r="H8" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="95">
+      <c r="I8" s="63">
         <v>111</v>
       </c>
-      <c r="J8" s="95" t="s">
+      <c r="J8" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="K8" s="96">
+      <c r="K8" s="64">
         <v>11371</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="112"/>
-      <c r="B9" s="95">
+      <c r="A9" s="150"/>
+      <c r="B9" s="63">
         <v>11750</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="96" t="s">
+      <c r="D9" s="150"/>
+      <c r="E9" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="95">
+      <c r="F9" s="153"/>
+      <c r="G9" s="63">
         <v>841</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="95">
+      <c r="I9" s="63">
         <v>18</v>
       </c>
-      <c r="J9" s="95" t="s">
+      <c r="J9" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="K9" s="96">
+      <c r="K9" s="64">
         <v>39417</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="112"/>
-      <c r="B10" s="95">
+      <c r="A10" s="150"/>
+      <c r="B10" s="63">
         <v>11250</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="112"/>
-      <c r="E10" s="96" t="s">
+      <c r="D10" s="150"/>
+      <c r="E10" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="116"/>
-      <c r="G10" s="95">
+      <c r="F10" s="153"/>
+      <c r="G10" s="63">
         <v>963</v>
       </c>
-      <c r="H10" s="95" t="s">
+      <c r="H10" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="I10" s="95">
+      <c r="I10" s="63">
         <v>20</v>
       </c>
-      <c r="J10" s="95" t="s">
+      <c r="J10" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="K10" s="96">
+      <c r="K10" s="64">
         <v>23164</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="113"/>
-      <c r="B11" s="97">
+      <c r="A11" s="151"/>
+      <c r="B11" s="65">
         <v>10500</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="99" t="s">
+      <c r="D11" s="151"/>
+      <c r="E11" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="117"/>
-      <c r="G11" s="97">
+      <c r="F11" s="154"/>
+      <c r="G11" s="65">
         <v>2745</v>
       </c>
-      <c r="H11" s="97" t="s">
+      <c r="H11" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="I11" s="97">
+      <c r="I11" s="65">
         <v>92</v>
       </c>
-      <c r="J11" s="97" t="s">
+      <c r="J11" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="K11" s="99">
+      <c r="K11" s="67">
         <v>10415</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="114">
+      <c r="A12" s="149">
         <v>2</v>
       </c>
-      <c r="B12" s="95">
+      <c r="B12" s="63">
         <v>11750</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="114" t="s">
+      <c r="D12" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="115" t="s">
+      <c r="F12" s="152" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="95">
+      <c r="G12" s="63">
         <v>4282</v>
       </c>
-      <c r="H12" s="95" t="s">
+      <c r="H12" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="I12" s="95">
+      <c r="I12" s="63">
         <v>34</v>
       </c>
-      <c r="J12" s="95" t="s">
+      <c r="J12" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="K12" s="96">
+      <c r="K12" s="64">
         <v>52347</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="112"/>
-      <c r="B13" s="101">
+      <c r="A13" s="150"/>
+      <c r="B13" s="69">
         <v>11750</v>
       </c>
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="102" t="s">
+      <c r="D13" s="150"/>
+      <c r="E13" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="116"/>
-      <c r="G13" s="101">
+      <c r="F13" s="153"/>
+      <c r="G13" s="69">
         <v>9989</v>
       </c>
-      <c r="H13" s="101" t="s">
+      <c r="H13" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="I13" s="101">
+      <c r="I13" s="69">
         <v>34</v>
       </c>
-      <c r="J13" s="101" t="s">
+      <c r="J13" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="K13" s="102">
+      <c r="K13" s="70">
         <v>53831</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="112"/>
-      <c r="B14" s="95">
+      <c r="A14" s="150"/>
+      <c r="B14" s="63">
         <v>11500</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="96" t="s">
+      <c r="D14" s="150"/>
+      <c r="E14" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="116"/>
-      <c r="G14" s="95">
+      <c r="F14" s="153"/>
+      <c r="G14" s="63">
         <v>2414</v>
       </c>
-      <c r="H14" s="95" t="s">
+      <c r="H14" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="I14" s="95">
+      <c r="I14" s="63">
         <v>36</v>
       </c>
-      <c r="J14" s="95" t="s">
+      <c r="J14" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="K14" s="96">
+      <c r="K14" s="64">
         <v>52321</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="112"/>
-      <c r="B15" s="95">
+      <c r="A15" s="150"/>
+      <c r="B15" s="63">
         <v>10750</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="96" t="s">
+      <c r="D15" s="150"/>
+      <c r="E15" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="116"/>
-      <c r="G15" s="95">
+      <c r="F15" s="153"/>
+      <c r="G15" s="63">
         <v>3244</v>
       </c>
-      <c r="H15" s="95" t="s">
+      <c r="H15" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="I15" s="95">
+      <c r="I15" s="63">
         <v>33</v>
       </c>
-      <c r="J15" s="95" t="s">
+      <c r="J15" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="K15" s="96">
+      <c r="K15" s="64">
         <v>52310</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="113"/>
-      <c r="B16" s="97">
+      <c r="A16" s="151"/>
+      <c r="B16" s="65">
         <v>11250</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="99" t="s">
+      <c r="D16" s="151"/>
+      <c r="E16" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="117"/>
-      <c r="G16" s="97">
+      <c r="F16" s="154"/>
+      <c r="G16" s="65">
         <v>1970</v>
       </c>
-      <c r="H16" s="97" t="s">
+      <c r="H16" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="I16" s="97">
+      <c r="I16" s="65">
         <v>34</v>
       </c>
-      <c r="J16" s="97" t="s">
+      <c r="J16" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="K16" s="99">
+      <c r="K16" s="67">
         <v>54366</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="114">
+      <c r="A17" s="149">
         <v>3</v>
       </c>
-      <c r="B17" s="95">
+      <c r="B17" s="63">
         <v>12500</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="114" t="s">
+      <c r="D17" s="149" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="96" t="s">
+      <c r="E17" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="F17" s="115" t="s">
+      <c r="F17" s="152" t="s">
         <v>146</v>
       </c>
-      <c r="G17" s="95">
+      <c r="G17" s="63">
         <v>1414</v>
       </c>
-      <c r="H17" s="95" t="s">
+      <c r="H17" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="I17" s="95">
+      <c r="I17" s="63">
         <v>21</v>
       </c>
-      <c r="J17" s="95" t="s">
+      <c r="J17" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="K17" s="96">
+      <c r="K17" s="64">
         <v>50167</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="112"/>
-      <c r="B18" s="95">
+      <c r="A18" s="150"/>
+      <c r="B18" s="63">
         <v>12750</v>
       </c>
-      <c r="C18" s="95" t="s">
+      <c r="C18" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="96" t="s">
+      <c r="D18" s="150"/>
+      <c r="E18" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="116"/>
-      <c r="G18" s="95">
+      <c r="F18" s="153"/>
+      <c r="G18" s="63">
         <v>611</v>
       </c>
-      <c r="H18" s="95" t="s">
+      <c r="H18" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="I18" s="95">
+      <c r="I18" s="63">
         <v>6</v>
       </c>
-      <c r="J18" s="95" t="s">
+      <c r="J18" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="K18" s="96">
+      <c r="K18" s="64">
         <v>63508</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="112"/>
-      <c r="B19" s="101">
+      <c r="A19" s="150"/>
+      <c r="B19" s="69">
         <v>11000</v>
       </c>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="112"/>
-      <c r="E19" s="102" t="s">
+      <c r="D19" s="150"/>
+      <c r="E19" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="116"/>
-      <c r="G19" s="101">
+      <c r="F19" s="153"/>
+      <c r="G19" s="69">
         <v>333</v>
       </c>
-      <c r="H19" s="101" t="s">
+      <c r="H19" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="I19" s="101">
+      <c r="I19" s="69">
         <v>28</v>
       </c>
-      <c r="J19" s="101" t="s">
+      <c r="J19" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="K19" s="102">
+      <c r="K19" s="70">
         <v>37152</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="112"/>
-      <c r="B20" s="95">
+      <c r="A20" s="150"/>
+      <c r="B20" s="63">
         <v>10250</v>
       </c>
-      <c r="C20" s="95" t="s">
+      <c r="C20" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="96" t="s">
+      <c r="D20" s="150"/>
+      <c r="E20" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="116"/>
-      <c r="G20" s="95">
+      <c r="F20" s="153"/>
+      <c r="G20" s="63">
         <v>441</v>
       </c>
-      <c r="H20" s="95" t="s">
+      <c r="H20" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="I20" s="95">
+      <c r="I20" s="63">
         <v>6</v>
       </c>
-      <c r="J20" s="95" t="s">
+      <c r="J20" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="K20" s="96">
+      <c r="K20" s="64">
         <v>121996</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="113"/>
-      <c r="B21" s="97">
+      <c r="A21" s="151"/>
+      <c r="B21" s="65">
         <v>12250</v>
       </c>
-      <c r="C21" s="97" t="s">
+      <c r="C21" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D21" s="113"/>
-      <c r="E21" s="99" t="s">
+      <c r="D21" s="151"/>
+      <c r="E21" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="F21" s="117"/>
-      <c r="G21" s="97">
+      <c r="F21" s="154"/>
+      <c r="G21" s="65">
         <v>317</v>
       </c>
-      <c r="H21" s="97" t="s">
+      <c r="H21" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="I21" s="97">
+      <c r="I21" s="65">
         <v>14</v>
       </c>
-      <c r="J21" s="97" t="s">
+      <c r="J21" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="K21" s="99">
+      <c r="K21" s="67">
         <v>59790</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="114">
+      <c r="A22" s="149">
         <v>4</v>
       </c>
-      <c r="B22" s="101">
+      <c r="B22" s="69">
         <v>13000</v>
       </c>
-      <c r="C22" s="101" t="s">
+      <c r="C22" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="114" t="s">
+      <c r="D22" s="149" t="s">
         <v>166</v>
       </c>
-      <c r="E22" s="102" t="s">
+      <c r="E22" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="F22" s="115" t="s">
+      <c r="F22" s="152" t="s">
         <v>168</v>
       </c>
-      <c r="G22" s="101">
+      <c r="G22" s="69">
         <v>619</v>
       </c>
-      <c r="H22" s="101" t="s">
+      <c r="H22" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="101">
+      <c r="I22" s="69">
         <v>38</v>
       </c>
-      <c r="J22" s="101" t="s">
+      <c r="J22" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="K22" s="102">
+      <c r="K22" s="70">
         <v>36901</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="112"/>
-      <c r="B23" s="95">
+      <c r="A23" s="150"/>
+      <c r="B23" s="63">
         <v>11000</v>
       </c>
-      <c r="C23" s="95" t="s">
+      <c r="C23" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="96" t="s">
+      <c r="D23" s="150"/>
+      <c r="E23" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="F23" s="116"/>
-      <c r="G23" s="95">
+      <c r="F23" s="153"/>
+      <c r="G23" s="63">
         <v>113</v>
       </c>
-      <c r="H23" s="95" t="s">
+      <c r="H23" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="I23" s="95">
+      <c r="I23" s="63">
         <v>32</v>
       </c>
-      <c r="J23" s="95" t="s">
+      <c r="J23" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="K23" s="96">
+      <c r="K23" s="64">
         <v>49951</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="112"/>
-      <c r="B24" s="95">
+      <c r="A24" s="150"/>
+      <c r="B24" s="63">
         <v>12750</v>
       </c>
-      <c r="C24" s="95" t="s">
+      <c r="C24" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="112"/>
-      <c r="E24" s="96" t="s">
+      <c r="D24" s="150"/>
+      <c r="E24" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="F24" s="116"/>
-      <c r="G24" s="95">
+      <c r="F24" s="153"/>
+      <c r="G24" s="63">
         <v>4998</v>
       </c>
-      <c r="H24" s="95" t="s">
+      <c r="H24" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="I24" s="95">
+      <c r="I24" s="63">
         <v>11</v>
       </c>
-      <c r="J24" s="95" t="s">
+      <c r="J24" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="K24" s="96">
+      <c r="K24" s="64">
         <v>153394</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="112"/>
-      <c r="B25" s="95">
+      <c r="A25" s="150"/>
+      <c r="B25" s="63">
         <v>12750</v>
       </c>
-      <c r="C25" s="95" t="s">
+      <c r="C25" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="112"/>
-      <c r="E25" s="96" t="s">
+      <c r="D25" s="150"/>
+      <c r="E25" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="F25" s="116"/>
-      <c r="G25" s="95">
+      <c r="F25" s="153"/>
+      <c r="G25" s="63">
         <v>794</v>
       </c>
-      <c r="H25" s="95" t="s">
+      <c r="H25" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="I25" s="95">
+      <c r="I25" s="63">
         <v>9</v>
       </c>
-      <c r="J25" s="95" t="s">
+      <c r="J25" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="K25" s="96">
+      <c r="K25" s="64">
         <v>193986</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="113"/>
-      <c r="B26" s="97">
+      <c r="A26" s="151"/>
+      <c r="B26" s="65">
         <v>12250</v>
       </c>
-      <c r="C26" s="97" t="s">
+      <c r="C26" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="99" t="s">
+      <c r="D26" s="151"/>
+      <c r="E26" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="F26" s="117"/>
-      <c r="G26" s="97">
+      <c r="F26" s="154"/>
+      <c r="G26" s="65">
         <v>1190</v>
       </c>
-      <c r="H26" s="97" t="s">
+      <c r="H26" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="I26" s="97">
+      <c r="I26" s="65">
         <v>8</v>
       </c>
-      <c r="J26" s="97" t="s">
+      <c r="J26" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="K26" s="99">
+      <c r="K26" s="67">
         <v>13459</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="114">
+      <c r="A27" s="149">
         <v>5</v>
       </c>
-      <c r="B27" s="95">
+      <c r="B27" s="63">
         <v>11500</v>
       </c>
-      <c r="C27" s="95" t="s">
+      <c r="C27" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="114" t="s">
+      <c r="D27" s="149" t="s">
         <v>187</v>
       </c>
-      <c r="E27" s="96" t="s">
+      <c r="E27" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="115" t="s">
+      <c r="F27" s="152" t="s">
         <v>189</v>
       </c>
-      <c r="G27" s="95">
+      <c r="G27" s="63">
         <v>710</v>
       </c>
-      <c r="H27" s="95" t="s">
+      <c r="H27" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="I27" s="95">
+      <c r="I27" s="63">
         <v>10</v>
       </c>
-      <c r="J27" s="95" t="s">
+      <c r="J27" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="K27" s="96">
+      <c r="K27" s="64">
         <v>52536</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="112"/>
-      <c r="B28" s="101">
+      <c r="A28" s="150"/>
+      <c r="B28" s="69">
         <v>11250</v>
       </c>
-      <c r="C28" s="101" t="s">
+      <c r="C28" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="D28" s="112"/>
-      <c r="E28" s="102" t="s">
+      <c r="D28" s="150"/>
+      <c r="E28" s="70" t="s">
         <v>193</v>
       </c>
-      <c r="F28" s="116"/>
-      <c r="G28" s="101">
+      <c r="F28" s="153"/>
+      <c r="G28" s="69">
         <v>408</v>
       </c>
-      <c r="H28" s="101" t="s">
+      <c r="H28" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="I28" s="101">
+      <c r="I28" s="69">
         <v>10</v>
       </c>
-      <c r="J28" s="101" t="s">
+      <c r="J28" s="69" t="s">
         <v>195</v>
       </c>
-      <c r="K28" s="102">
+      <c r="K28" s="70">
         <v>49982</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="112"/>
-      <c r="B29" s="95">
+      <c r="A29" s="150"/>
+      <c r="B29" s="63">
         <v>11500</v>
       </c>
-      <c r="C29" s="95" t="s">
+      <c r="C29" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="96" t="s">
+      <c r="D29" s="150"/>
+      <c r="E29" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="116"/>
-      <c r="G29" s="95">
+      <c r="F29" s="153"/>
+      <c r="G29" s="63">
         <v>663</v>
       </c>
-      <c r="H29" s="95" t="s">
+      <c r="H29" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="I29" s="95">
+      <c r="I29" s="63">
         <v>5</v>
       </c>
-      <c r="J29" s="95" t="s">
+      <c r="J29" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="K29" s="96">
+      <c r="K29" s="64">
         <v>43453</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="112"/>
-      <c r="B30" s="95">
+      <c r="A30" s="150"/>
+      <c r="B30" s="63">
         <v>11750</v>
       </c>
-      <c r="C30" s="95" t="s">
+      <c r="C30" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="D30" s="112"/>
-      <c r="E30" s="96" t="s">
+      <c r="D30" s="150"/>
+      <c r="E30" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="F30" s="116"/>
-      <c r="G30" s="95">
+      <c r="F30" s="153"/>
+      <c r="G30" s="63">
         <v>1311</v>
       </c>
-      <c r="H30" s="95" t="s">
+      <c r="H30" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="I30" s="95">
+      <c r="I30" s="63">
         <v>3</v>
       </c>
-      <c r="J30" s="95" t="s">
+      <c r="J30" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="K30" s="96">
+      <c r="K30" s="64">
         <v>50224</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="113"/>
-      <c r="B31" s="97">
+      <c r="A31" s="151"/>
+      <c r="B31" s="65">
         <v>10750</v>
       </c>
-      <c r="C31" s="97" t="s">
+      <c r="C31" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="D31" s="113"/>
-      <c r="E31" s="99" t="s">
+      <c r="D31" s="151"/>
+      <c r="E31" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="F31" s="117"/>
-      <c r="G31" s="97">
+      <c r="F31" s="154"/>
+      <c r="G31" s="65">
         <v>2568</v>
       </c>
-      <c r="H31" s="97" t="s">
+      <c r="H31" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="I31" s="97">
+      <c r="I31" s="65">
         <v>10</v>
       </c>
-      <c r="J31" s="97" t="s">
+      <c r="J31" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="K31" s="99">
+      <c r="K31" s="67">
         <v>51512</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="114">
+      <c r="A32" s="149">
         <v>6</v>
       </c>
-      <c r="B32" s="95">
+      <c r="B32" s="63">
         <v>11500</v>
       </c>
-      <c r="C32" s="95" t="s">
+      <c r="C32" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="D32" s="114" t="s">
+      <c r="D32" s="149" t="s">
         <v>209</v>
       </c>
-      <c r="E32" s="96" t="s">
+      <c r="E32" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="F32" s="115" t="s">
+      <c r="F32" s="152" t="s">
         <v>211</v>
       </c>
-      <c r="G32" s="95">
+      <c r="G32" s="63">
         <v>1076</v>
       </c>
-      <c r="H32" s="95" t="s">
+      <c r="H32" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="I32" s="95">
+      <c r="I32" s="63">
         <v>1116</v>
       </c>
-      <c r="J32" s="95" t="s">
+      <c r="J32" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="K32" s="96">
+      <c r="K32" s="64">
         <v>1163</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="112"/>
-      <c r="B33" s="95">
+      <c r="A33" s="150"/>
+      <c r="B33" s="63">
         <v>11750</v>
       </c>
-      <c r="C33" s="95" t="s">
+      <c r="C33" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="112"/>
-      <c r="E33" s="96" t="s">
+      <c r="D33" s="150"/>
+      <c r="E33" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="F33" s="116"/>
-      <c r="G33" s="95">
+      <c r="F33" s="153"/>
+      <c r="G33" s="63">
         <v>76</v>
       </c>
-      <c r="H33" s="95" t="s">
+      <c r="H33" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="I33" s="95">
+      <c r="I33" s="63">
         <v>19</v>
       </c>
-      <c r="J33" s="95" t="s">
+      <c r="J33" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="K33" s="96">
+      <c r="K33" s="64">
         <v>51365</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="112"/>
-      <c r="B34" s="95">
+      <c r="A34" s="150"/>
+      <c r="B34" s="63">
         <v>11500</v>
       </c>
-      <c r="C34" s="95" t="s">
+      <c r="C34" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="D34" s="112"/>
-      <c r="E34" s="96" t="s">
+      <c r="D34" s="150"/>
+      <c r="E34" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="F34" s="116"/>
-      <c r="G34" s="95">
+      <c r="F34" s="153"/>
+      <c r="G34" s="63">
         <v>55</v>
       </c>
-      <c r="H34" s="95" t="s">
+      <c r="H34" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="I34" s="95">
+      <c r="I34" s="63">
         <v>33</v>
       </c>
-      <c r="J34" s="95" t="s">
+      <c r="J34" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="K34" s="96">
+      <c r="K34" s="64">
         <v>50436</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="112"/>
-      <c r="B35" s="95">
+      <c r="A35" s="150"/>
+      <c r="B35" s="63">
         <v>12750</v>
       </c>
-      <c r="C35" s="95" t="s">
+      <c r="C35" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="112"/>
-      <c r="E35" s="96" t="s">
+      <c r="D35" s="150"/>
+      <c r="E35" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="F35" s="116"/>
-      <c r="G35" s="95">
+      <c r="F35" s="153"/>
+      <c r="G35" s="63">
         <v>163</v>
       </c>
-      <c r="H35" s="95" t="s">
+      <c r="H35" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="I35" s="95">
+      <c r="I35" s="63">
         <v>45</v>
       </c>
-      <c r="J35" s="95" t="s">
+      <c r="J35" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="K35" s="96">
+      <c r="K35" s="64">
         <v>23751</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="113"/>
-      <c r="B36" s="98">
+      <c r="A36" s="151"/>
+      <c r="B36" s="66">
         <v>10500</v>
       </c>
-      <c r="C36" s="98" t="s">
+      <c r="C36" s="66" t="s">
         <v>224</v>
       </c>
-      <c r="D36" s="113"/>
-      <c r="E36" s="100" t="s">
+      <c r="D36" s="151"/>
+      <c r="E36" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="F36" s="117"/>
-      <c r="G36" s="98">
+      <c r="F36" s="154"/>
+      <c r="G36" s="66">
         <v>968</v>
       </c>
-      <c r="H36" s="98" t="s">
+      <c r="H36" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="I36" s="98">
+      <c r="I36" s="66">
         <v>1139</v>
       </c>
-      <c r="J36" s="98" t="s">
+      <c r="J36" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="K36" s="100">
+      <c r="K36" s="68">
         <v>1162</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="114">
+      <c r="A37" s="149">
         <v>7</v>
       </c>
-      <c r="B37" s="95">
+      <c r="B37" s="63">
         <v>13500</v>
       </c>
-      <c r="C37" s="95" t="s">
+      <c r="C37" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="D37" s="114" t="s">
+      <c r="D37" s="149" t="s">
         <v>228</v>
       </c>
-      <c r="E37" s="96" t="s">
+      <c r="E37" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="F37" s="115" t="s">
+      <c r="F37" s="152" t="s">
         <v>230</v>
       </c>
-      <c r="G37" s="95">
+      <c r="G37" s="63">
         <v>694</v>
       </c>
-      <c r="H37" s="95" t="s">
+      <c r="H37" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="I37" s="95">
+      <c r="I37" s="63">
         <v>19</v>
       </c>
-      <c r="J37" s="95" t="s">
+      <c r="J37" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="K37" s="96">
+      <c r="K37" s="64">
         <v>18326</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="112"/>
-      <c r="B38" s="95">
+      <c r="A38" s="150"/>
+      <c r="B38" s="63">
         <v>10250</v>
       </c>
-      <c r="C38" s="95" t="s">
+      <c r="C38" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="112"/>
-      <c r="E38" s="96" t="s">
+      <c r="D38" s="150"/>
+      <c r="E38" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="F38" s="116"/>
-      <c r="G38" s="95">
+      <c r="F38" s="153"/>
+      <c r="G38" s="63">
         <v>82</v>
       </c>
-      <c r="H38" s="95" t="s">
+      <c r="H38" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="I38" s="95">
+      <c r="I38" s="63">
         <v>84</v>
       </c>
-      <c r="J38" s="95" t="s">
+      <c r="J38" s="63" t="s">
         <v>235</v>
       </c>
-      <c r="K38" s="96">
+      <c r="K38" s="64">
         <v>8472</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="112"/>
-      <c r="B39" s="95">
+      <c r="A39" s="150"/>
+      <c r="B39" s="63">
         <v>10000</v>
       </c>
-      <c r="C39" s="95" t="s">
+      <c r="C39" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="D39" s="112"/>
-      <c r="E39" s="96" t="s">
+      <c r="D39" s="150"/>
+      <c r="E39" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="F39" s="116"/>
-      <c r="G39" s="95">
+      <c r="F39" s="153"/>
+      <c r="G39" s="63">
         <v>2045</v>
       </c>
-      <c r="H39" s="95" t="s">
+      <c r="H39" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="I39" s="95">
+      <c r="I39" s="63">
         <v>47</v>
       </c>
-      <c r="J39" s="95" t="s">
+      <c r="J39" s="63" t="s">
         <v>239</v>
       </c>
-      <c r="K39" s="96">
+      <c r="K39" s="64">
         <v>12655</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="112"/>
-      <c r="B40" s="101">
+      <c r="A40" s="150"/>
+      <c r="B40" s="69">
         <v>9750</v>
       </c>
-      <c r="C40" s="101" t="s">
+      <c r="C40" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="112"/>
-      <c r="E40" s="102" t="s">
+      <c r="D40" s="150"/>
+      <c r="E40" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="F40" s="116"/>
-      <c r="G40" s="101">
+      <c r="F40" s="153"/>
+      <c r="G40" s="69">
         <v>2527</v>
       </c>
-      <c r="H40" s="101" t="s">
+      <c r="H40" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="I40" s="101">
+      <c r="I40" s="69">
         <v>84</v>
       </c>
-      <c r="J40" s="101" t="s">
+      <c r="J40" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="K40" s="102">
+      <c r="K40" s="70">
         <v>5603</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="113"/>
-      <c r="B41" s="97">
+      <c r="A41" s="151"/>
+      <c r="B41" s="65">
         <v>12000</v>
       </c>
-      <c r="C41" s="97" t="s">
+      <c r="C41" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="D41" s="113"/>
-      <c r="E41" s="99" t="s">
+      <c r="D41" s="151"/>
+      <c r="E41" s="67" t="s">
         <v>244</v>
       </c>
-      <c r="F41" s="117"/>
-      <c r="G41" s="97">
+      <c r="F41" s="154"/>
+      <c r="G41" s="65">
         <v>374</v>
       </c>
-      <c r="H41" s="97" t="s">
+      <c r="H41" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="I41" s="97">
+      <c r="I41" s="65">
         <v>5</v>
       </c>
-      <c r="J41" s="97" t="s">
+      <c r="J41" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="K41" s="99">
+      <c r="K41" s="67">
         <v>22445</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="114">
+      <c r="A42" s="149">
         <v>8</v>
       </c>
-      <c r="B42" s="95">
+      <c r="B42" s="63">
         <v>11000</v>
       </c>
-      <c r="C42" s="95" t="s">
+      <c r="C42" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D42" s="114" t="s">
+      <c r="D42" s="149" t="s">
         <v>248</v>
       </c>
-      <c r="E42" s="96" t="s">
+      <c r="E42" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="F42" s="115" t="s">
+      <c r="F42" s="152" t="s">
         <v>250</v>
       </c>
-      <c r="G42" s="95">
+      <c r="G42" s="63">
         <v>520</v>
       </c>
-      <c r="H42" s="95" t="s">
+      <c r="H42" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="I42" s="95">
+      <c r="I42" s="63">
         <v>19</v>
       </c>
-      <c r="J42" s="95" t="s">
+      <c r="J42" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="K42" s="96">
+      <c r="K42" s="64">
         <v>38949</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="112"/>
-      <c r="B43" s="95">
+      <c r="A43" s="150"/>
+      <c r="B43" s="63">
         <v>10750</v>
       </c>
-      <c r="C43" s="95" t="s">
+      <c r="C43" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="112"/>
-      <c r="E43" s="96" t="s">
+      <c r="D43" s="150"/>
+      <c r="E43" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="F43" s="116"/>
-      <c r="G43" s="95">
+      <c r="F43" s="153"/>
+      <c r="G43" s="63">
         <v>542</v>
       </c>
-      <c r="H43" s="95" t="s">
+      <c r="H43" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="I43" s="95">
+      <c r="I43" s="63">
         <v>27</v>
       </c>
-      <c r="J43" s="95" t="s">
+      <c r="J43" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="K43" s="96">
+      <c r="K43" s="64">
         <v>28812</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="112"/>
-      <c r="B44" s="95">
+      <c r="A44" s="150"/>
+      <c r="B44" s="63">
         <v>13500</v>
       </c>
-      <c r="C44" s="95" t="s">
+      <c r="C44" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="112"/>
-      <c r="E44" s="96" t="s">
+      <c r="D44" s="150"/>
+      <c r="E44" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="F44" s="116"/>
-      <c r="G44" s="95">
+      <c r="F44" s="153"/>
+      <c r="G44" s="63">
         <v>1769</v>
       </c>
-      <c r="H44" s="95" t="s">
+      <c r="H44" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="I44" s="95">
+      <c r="I44" s="63">
         <v>11</v>
       </c>
-      <c r="J44" s="95" t="s">
+      <c r="J44" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="K44" s="96">
+      <c r="K44" s="64">
         <v>36886</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="112"/>
-      <c r="B45" s="95">
+      <c r="A45" s="150"/>
+      <c r="B45" s="63">
         <v>10500</v>
       </c>
-      <c r="C45" s="95" t="s">
+      <c r="C45" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="D45" s="112"/>
-      <c r="E45" s="96" t="s">
+      <c r="D45" s="150"/>
+      <c r="E45" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="F45" s="116"/>
-      <c r="G45" s="95">
+      <c r="F45" s="153"/>
+      <c r="G45" s="63">
         <v>643</v>
       </c>
-      <c r="H45" s="95" t="s">
+      <c r="H45" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="I45" s="95">
+      <c r="I45" s="63">
         <v>23</v>
       </c>
-      <c r="J45" s="95" t="s">
+      <c r="J45" s="63" t="s">
         <v>262</v>
       </c>
-      <c r="K45" s="96">
+      <c r="K45" s="64">
         <v>20742</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="113"/>
-      <c r="B46" s="98">
+      <c r="A46" s="151"/>
+      <c r="B46" s="66">
         <v>11500</v>
       </c>
-      <c r="C46" s="98" t="s">
+      <c r="C46" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="D46" s="113"/>
-      <c r="E46" s="100" t="s">
+      <c r="D46" s="151"/>
+      <c r="E46" s="68" t="s">
         <v>263</v>
       </c>
-      <c r="F46" s="117"/>
-      <c r="G46" s="98">
+      <c r="F46" s="154"/>
+      <c r="G46" s="66">
         <v>969</v>
       </c>
-      <c r="H46" s="98" t="s">
+      <c r="H46" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="I46" s="98">
+      <c r="I46" s="66">
         <v>18</v>
       </c>
-      <c r="J46" s="98" t="s">
+      <c r="J46" s="66" t="s">
         <v>265</v>
       </c>
-      <c r="K46" s="100">
+      <c r="K46" s="68">
         <v>21985</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="114">
+      <c r="A47" s="149">
         <v>9</v>
       </c>
-      <c r="B47" s="101">
+      <c r="B47" s="69">
         <v>10500</v>
       </c>
-      <c r="C47" s="101" t="s">
+      <c r="C47" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="D47" s="118" t="s">
+      <c r="D47" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="E47" s="102" t="s">
+      <c r="E47" s="70" t="s">
         <v>267</v>
       </c>
-      <c r="F47" s="115" t="s">
+      <c r="F47" s="152" t="s">
         <v>268</v>
       </c>
-      <c r="G47" s="101">
+      <c r="G47" s="69">
         <v>823</v>
       </c>
-      <c r="H47" s="101" t="s">
+      <c r="H47" s="69" t="s">
         <v>269</v>
       </c>
-      <c r="I47" s="101">
+      <c r="I47" s="69">
         <v>14</v>
       </c>
-      <c r="J47" s="101" t="s">
+      <c r="J47" s="69" t="s">
         <v>270</v>
       </c>
-      <c r="K47" s="102">
+      <c r="K47" s="70">
         <v>27273</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="112"/>
-      <c r="B48" s="95">
+      <c r="A48" s="150"/>
+      <c r="B48" s="63">
         <v>13500</v>
       </c>
-      <c r="C48" s="95" t="s">
+      <c r="C48" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="119"/>
-      <c r="E48" s="96" t="s">
+      <c r="D48" s="159"/>
+      <c r="E48" s="64" t="s">
         <v>271</v>
       </c>
-      <c r="F48" s="116"/>
-      <c r="G48" s="95">
+      <c r="F48" s="153"/>
+      <c r="G48" s="63">
         <v>1061</v>
       </c>
-      <c r="H48" s="95" t="s">
+      <c r="H48" s="63" t="s">
         <v>272</v>
       </c>
-      <c r="I48" s="95">
+      <c r="I48" s="63">
         <v>4</v>
       </c>
-      <c r="J48" s="95" t="s">
+      <c r="J48" s="63" t="s">
         <v>273</v>
       </c>
-      <c r="K48" s="96">
+      <c r="K48" s="64">
         <v>96937</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="112"/>
-      <c r="B49" s="95">
+      <c r="A49" s="150"/>
+      <c r="B49" s="63">
         <v>12250</v>
       </c>
-      <c r="C49" s="95" t="s">
+      <c r="C49" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="119"/>
-      <c r="E49" s="96" t="s">
+      <c r="D49" s="159"/>
+      <c r="E49" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="F49" s="116"/>
-      <c r="G49" s="95">
+      <c r="F49" s="153"/>
+      <c r="G49" s="63">
         <v>81</v>
       </c>
-      <c r="H49" s="95" t="s">
+      <c r="H49" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="I49" s="95">
+      <c r="I49" s="63">
         <v>32</v>
       </c>
-      <c r="J49" s="95" t="s">
+      <c r="J49" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="K49" s="96">
+      <c r="K49" s="64">
         <v>51352</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="112"/>
-      <c r="B50" s="95">
+      <c r="A50" s="150"/>
+      <c r="B50" s="63">
         <v>11750</v>
       </c>
-      <c r="C50" s="95" t="s">
+      <c r="C50" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="119"/>
-      <c r="E50" s="96" t="s">
+      <c r="D50" s="159"/>
+      <c r="E50" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="F50" s="116"/>
-      <c r="G50" s="95">
+      <c r="F50" s="153"/>
+      <c r="G50" s="63">
         <v>52</v>
       </c>
-      <c r="H50" s="95" t="s">
+      <c r="H50" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="I50" s="95">
+      <c r="I50" s="63">
         <v>36</v>
       </c>
-      <c r="J50" s="95" t="s">
+      <c r="J50" s="63" t="s">
         <v>277</v>
       </c>
-      <c r="K50" s="96">
+      <c r="K50" s="64">
         <v>39124</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="113"/>
-      <c r="B51" s="97">
+      <c r="A51" s="151"/>
+      <c r="B51" s="65">
         <v>12250</v>
       </c>
-      <c r="C51" s="97" t="s">
+      <c r="C51" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="D51" s="120"/>
-      <c r="E51" s="99" t="s">
+      <c r="D51" s="160"/>
+      <c r="E51" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="F51" s="117"/>
-      <c r="G51" s="97">
+      <c r="F51" s="154"/>
+      <c r="G51" s="65">
         <v>661</v>
       </c>
-      <c r="H51" s="97" t="s">
+      <c r="H51" s="65" t="s">
         <v>280</v>
       </c>
-      <c r="I51" s="97">
+      <c r="I51" s="65">
         <v>6</v>
       </c>
-      <c r="J51" s="97" t="s">
+      <c r="J51" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="K51" s="99">
+      <c r="K51" s="67">
         <v>234940</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="114">
+      <c r="A52" s="149">
         <v>10</v>
       </c>
-      <c r="B52" s="95">
+      <c r="B52" s="63">
         <v>11500</v>
       </c>
-      <c r="C52" s="95" t="s">
+      <c r="C52" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="D52" s="114" t="s">
+      <c r="D52" s="149" t="s">
         <v>283</v>
       </c>
-      <c r="E52" s="96" t="s">
+      <c r="E52" s="64" t="s">
         <v>284</v>
       </c>
-      <c r="F52" s="115" t="s">
+      <c r="F52" s="152" t="s">
         <v>285</v>
       </c>
-      <c r="G52" s="95">
+      <c r="G52" s="63">
         <v>156</v>
       </c>
-      <c r="H52" s="95" t="s">
+      <c r="H52" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="I52" s="95">
+      <c r="I52" s="63">
         <v>74</v>
       </c>
-      <c r="J52" s="95" t="s">
+      <c r="J52" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="K52" s="96">
+      <c r="K52" s="64">
         <v>24744</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="112"/>
-      <c r="B53" s="95">
+      <c r="A53" s="150"/>
+      <c r="B53" s="63">
         <v>12250</v>
       </c>
-      <c r="C53" s="95" t="s">
+      <c r="C53" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="D53" s="112"/>
-      <c r="E53" s="96" t="s">
+      <c r="D53" s="150"/>
+      <c r="E53" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="F53" s="116"/>
-      <c r="G53" s="95">
+      <c r="F53" s="153"/>
+      <c r="G53" s="63">
         <v>1860</v>
       </c>
-      <c r="H53" s="95" t="s">
+      <c r="H53" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="I53" s="95">
+      <c r="I53" s="63">
         <v>15</v>
       </c>
-      <c r="J53" s="95" t="s">
+      <c r="J53" s="63" t="s">
         <v>290</v>
       </c>
-      <c r="K53" s="96">
+      <c r="K53" s="64">
         <v>47195</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="112"/>
-      <c r="B54" s="95">
+      <c r="A54" s="150"/>
+      <c r="B54" s="63">
         <v>12250</v>
       </c>
-      <c r="C54" s="95" t="s">
+      <c r="C54" s="63" t="s">
         <v>291</v>
       </c>
-      <c r="D54" s="112"/>
-      <c r="E54" s="96" t="s">
+      <c r="D54" s="150"/>
+      <c r="E54" s="64" t="s">
         <v>292</v>
       </c>
-      <c r="F54" s="116"/>
-      <c r="G54" s="95">
+      <c r="F54" s="153"/>
+      <c r="G54" s="63">
         <v>1153</v>
       </c>
-      <c r="H54" s="95" t="s">
+      <c r="H54" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="I54" s="95">
+      <c r="I54" s="63">
         <v>22</v>
       </c>
-      <c r="J54" s="95" t="s">
+      <c r="J54" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="K54" s="96">
+      <c r="K54" s="64">
         <v>4513</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="112"/>
-      <c r="B55" s="101">
+      <c r="A55" s="150"/>
+      <c r="B55" s="69">
         <v>11000</v>
       </c>
-      <c r="C55" s="101" t="s">
+      <c r="C55" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="D55" s="112"/>
-      <c r="E55" s="102" t="s">
+      <c r="D55" s="150"/>
+      <c r="E55" s="70" t="s">
         <v>295</v>
       </c>
-      <c r="F55" s="116"/>
-      <c r="G55" s="101">
+      <c r="F55" s="153"/>
+      <c r="G55" s="69">
         <v>1949</v>
       </c>
-      <c r="H55" s="101" t="s">
+      <c r="H55" s="69" t="s">
         <v>296</v>
       </c>
-      <c r="I55" s="101">
+      <c r="I55" s="69">
         <v>44</v>
       </c>
-      <c r="J55" s="101" t="s">
+      <c r="J55" s="69" t="s">
         <v>297</v>
       </c>
-      <c r="K55" s="102">
+      <c r="K55" s="70">
         <v>32643</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="113"/>
-      <c r="B56" s="97">
+      <c r="A56" s="151"/>
+      <c r="B56" s="65">
         <v>11500</v>
       </c>
-      <c r="C56" s="97" t="s">
+      <c r="C56" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="D56" s="113"/>
-      <c r="E56" s="99" t="s">
+      <c r="D56" s="151"/>
+      <c r="E56" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="F56" s="117"/>
-      <c r="G56" s="97">
+      <c r="F56" s="154"/>
+      <c r="G56" s="65">
         <v>131</v>
       </c>
-      <c r="H56" s="97" t="s">
+      <c r="H56" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="I56" s="97">
+      <c r="I56" s="65">
         <v>70</v>
       </c>
-      <c r="J56" s="97" t="s">
+      <c r="J56" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="K56" s="99">
+      <c r="K56" s="67">
         <v>26528</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="114">
+      <c r="A57" s="149">
         <v>11</v>
       </c>
-      <c r="B57" s="95">
+      <c r="B57" s="63">
         <v>11500</v>
       </c>
-      <c r="C57" s="95" t="s">
+      <c r="C57" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="D57" s="114" t="s">
+      <c r="D57" s="149" t="s">
         <v>298</v>
       </c>
-      <c r="E57" s="96" t="s">
+      <c r="E57" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="F57" s="115" t="s">
+      <c r="F57" s="152" t="s">
         <v>304</v>
       </c>
-      <c r="G57" s="95">
+      <c r="G57" s="63">
         <v>99</v>
       </c>
-      <c r="H57" s="95" t="s">
+      <c r="H57" s="63" t="s">
         <v>305</v>
       </c>
-      <c r="I57" s="95">
+      <c r="I57" s="63">
         <v>943</v>
       </c>
-      <c r="J57" s="95" t="s">
+      <c r="J57" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="K57" s="96">
+      <c r="K57" s="64">
         <v>1500</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="112"/>
-      <c r="B58" s="95">
+      <c r="A58" s="150"/>
+      <c r="B58" s="63">
         <v>11250</v>
       </c>
-      <c r="C58" s="95" t="s">
+      <c r="C58" s="63" t="s">
         <v>307</v>
       </c>
-      <c r="D58" s="112"/>
-      <c r="E58" s="96" t="s">
+      <c r="D58" s="150"/>
+      <c r="E58" s="64" t="s">
         <v>308</v>
       </c>
-      <c r="F58" s="116"/>
-      <c r="G58" s="95">
+      <c r="F58" s="153"/>
+      <c r="G58" s="63">
         <v>67</v>
       </c>
-      <c r="H58" s="95" t="s">
+      <c r="H58" s="63" t="s">
         <v>309</v>
       </c>
-      <c r="I58" s="95">
+      <c r="I58" s="63">
         <v>323</v>
       </c>
-      <c r="J58" s="95" t="s">
+      <c r="J58" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="K58" s="96">
+      <c r="K58" s="64">
         <v>5550</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="112"/>
-      <c r="B59" s="95">
+      <c r="A59" s="150"/>
+      <c r="B59" s="63">
         <v>13500</v>
       </c>
-      <c r="C59" s="95" t="s">
+      <c r="C59" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="D59" s="112"/>
-      <c r="E59" s="96" t="s">
+      <c r="D59" s="150"/>
+      <c r="E59" s="64" t="s">
         <v>311</v>
       </c>
-      <c r="F59" s="116"/>
-      <c r="G59" s="95">
+      <c r="F59" s="153"/>
+      <c r="G59" s="63">
         <v>56</v>
       </c>
-      <c r="H59" s="95" t="s">
+      <c r="H59" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="I59" s="95">
+      <c r="I59" s="63">
         <v>188</v>
       </c>
-      <c r="J59" s="95" t="s">
+      <c r="J59" s="63" t="s">
         <v>313</v>
       </c>
-      <c r="K59" s="96">
+      <c r="K59" s="64">
         <v>8367</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="112"/>
-      <c r="B60" s="101">
+      <c r="A60" s="150"/>
+      <c r="B60" s="69">
         <v>10750</v>
       </c>
-      <c r="C60" s="101" t="s">
+      <c r="C60" s="69" t="s">
         <v>314</v>
       </c>
-      <c r="D60" s="112"/>
-      <c r="E60" s="102" t="s">
+      <c r="D60" s="150"/>
+      <c r="E60" s="70" t="s">
         <v>315</v>
       </c>
-      <c r="F60" s="116"/>
-      <c r="G60" s="101">
+      <c r="F60" s="153"/>
+      <c r="G60" s="69">
         <v>72</v>
       </c>
-      <c r="H60" s="101" t="s">
+      <c r="H60" s="69" t="s">
         <v>316</v>
       </c>
-      <c r="I60" s="101">
+      <c r="I60" s="69">
         <v>301</v>
       </c>
-      <c r="J60" s="101" t="s">
+      <c r="J60" s="69" t="s">
         <v>317</v>
       </c>
-      <c r="K60" s="102">
+      <c r="K60" s="70">
         <v>5063</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="113"/>
-      <c r="B61" s="97">
+      <c r="A61" s="151"/>
+      <c r="B61" s="65">
         <v>13250</v>
       </c>
-      <c r="C61" s="97" t="s">
+      <c r="C61" s="65" t="s">
         <v>318</v>
       </c>
-      <c r="D61" s="113"/>
-      <c r="E61" s="99" t="s">
+      <c r="D61" s="151"/>
+      <c r="E61" s="67" t="s">
         <v>319</v>
       </c>
-      <c r="F61" s="117"/>
-      <c r="G61" s="97">
+      <c r="F61" s="154"/>
+      <c r="G61" s="65">
         <v>144</v>
       </c>
-      <c r="H61" s="97" t="s">
+      <c r="H61" s="65" t="s">
         <v>320</v>
       </c>
-      <c r="I61" s="97">
+      <c r="I61" s="65">
         <v>440</v>
       </c>
-      <c r="J61" s="97" t="s">
+      <c r="J61" s="65" t="s">
         <v>321</v>
       </c>
-      <c r="K61" s="99">
+      <c r="K61" s="67">
         <v>3627</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="121">
+      <c r="A62" s="155">
         <v>12</v>
       </c>
-      <c r="B62" s="101">
+      <c r="B62" s="69">
         <v>11750</v>
       </c>
-      <c r="C62" s="101" t="s">
+      <c r="C62" s="69" t="s">
         <v>322</v>
       </c>
-      <c r="D62" s="114" t="s">
+      <c r="D62" s="149" t="s">
         <v>323</v>
       </c>
-      <c r="E62" s="102" t="s">
+      <c r="E62" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="F62" s="115" t="s">
+      <c r="F62" s="152" t="s">
         <v>325</v>
       </c>
-      <c r="G62" s="101">
+      <c r="G62" s="69">
         <v>1962</v>
       </c>
-      <c r="H62" s="101" t="s">
+      <c r="H62" s="69" t="s">
         <v>326</v>
       </c>
-      <c r="I62" s="101">
+      <c r="I62" s="69">
         <v>94</v>
       </c>
-      <c r="J62" s="101" t="s">
+      <c r="J62" s="69" t="s">
         <v>327</v>
       </c>
-      <c r="K62" s="102">
+      <c r="K62" s="70">
         <v>2473</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="122"/>
-      <c r="B63" s="95">
+      <c r="A63" s="156"/>
+      <c r="B63" s="63">
         <v>11750</v>
       </c>
-      <c r="C63" s="95" t="s">
+      <c r="C63" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="D63" s="112"/>
-      <c r="E63" s="96" t="s">
+      <c r="D63" s="150"/>
+      <c r="E63" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="F63" s="116"/>
-      <c r="G63" s="95">
+      <c r="F63" s="153"/>
+      <c r="G63" s="63">
         <v>1968</v>
       </c>
-      <c r="H63" s="95" t="s">
+      <c r="H63" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="I63" s="95">
+      <c r="I63" s="63">
         <v>110</v>
       </c>
-      <c r="J63" s="95" t="s">
+      <c r="J63" s="63" t="s">
         <v>331</v>
       </c>
-      <c r="K63" s="96">
+      <c r="K63" s="64">
         <v>3135</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="122"/>
-      <c r="B64" s="95"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="112"/>
-      <c r="E64" s="96"/>
-      <c r="F64" s="116"/>
-      <c r="G64" s="95"/>
-      <c r="H64" s="95"/>
-      <c r="I64" s="95"/>
-      <c r="J64" s="95"/>
-      <c r="K64" s="96"/>
+      <c r="A64" s="156"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="150"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="153"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="63"/>
+      <c r="K64" s="64"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="122"/>
-      <c r="B65" s="95"/>
-      <c r="C65" s="95"/>
-      <c r="D65" s="112"/>
-      <c r="E65" s="96"/>
-      <c r="F65" s="116"/>
-      <c r="G65" s="95"/>
-      <c r="H65" s="95"/>
-      <c r="I65" s="95"/>
-      <c r="J65" s="95"/>
-      <c r="K65" s="96"/>
+      <c r="A65" s="156"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="150"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="153"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="64"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="123"/>
-      <c r="B66" s="103"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="113"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="117"/>
-      <c r="G66" s="97"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="97"/>
-      <c r="J66" s="97"/>
-      <c r="K66" s="99"/>
+      <c r="A66" s="157"/>
+      <c r="B66" s="71"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="151"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="154"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="65"/>
+      <c r="K66" s="67"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="114">
+      <c r="A67" s="149">
         <v>13</v>
       </c>
-      <c r="B67" s="95">
+      <c r="B67" s="63">
         <v>10750</v>
       </c>
-      <c r="C67" s="95" t="s">
+      <c r="C67" s="63" t="s">
         <v>332</v>
       </c>
-      <c r="D67" s="114" t="s">
+      <c r="D67" s="149" t="s">
         <v>333</v>
       </c>
-      <c r="E67" s="96" t="s">
+      <c r="E67" s="64" t="s">
         <v>334</v>
       </c>
-      <c r="F67" s="115" t="s">
+      <c r="F67" s="152" t="s">
         <v>335</v>
       </c>
-      <c r="G67" s="95">
+      <c r="G67" s="63">
         <v>49</v>
       </c>
-      <c r="H67" s="95" t="s">
+      <c r="H67" s="63" t="s">
         <v>336</v>
       </c>
-      <c r="I67" s="95">
+      <c r="I67" s="63">
         <v>62</v>
       </c>
-      <c r="J67" s="95" t="s">
+      <c r="J67" s="63" t="s">
         <v>337</v>
       </c>
-      <c r="K67" s="96">
+      <c r="K67" s="64">
         <v>9458</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="112"/>
-      <c r="B68" s="95">
+      <c r="A68" s="150"/>
+      <c r="B68" s="63">
         <v>11250</v>
       </c>
-      <c r="C68" s="95" t="s">
+      <c r="C68" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="D68" s="112"/>
-      <c r="E68" s="96" t="s">
+      <c r="D68" s="150"/>
+      <c r="E68" s="64" t="s">
         <v>339</v>
       </c>
-      <c r="F68" s="116"/>
-      <c r="G68" s="95">
+      <c r="F68" s="153"/>
+      <c r="G68" s="63">
         <v>34</v>
       </c>
-      <c r="H68" s="95" t="s">
+      <c r="H68" s="63" t="s">
         <v>340</v>
       </c>
-      <c r="I68" s="95">
+      <c r="I68" s="63">
         <v>30</v>
       </c>
-      <c r="J68" s="95" t="s">
+      <c r="J68" s="63" t="s">
         <v>341</v>
       </c>
-      <c r="K68" s="96">
+      <c r="K68" s="64">
         <v>13755</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="112"/>
-      <c r="B69" s="95">
+      <c r="A69" s="150"/>
+      <c r="B69" s="63">
         <v>10500</v>
       </c>
-      <c r="C69" s="95" t="s">
+      <c r="C69" s="63" t="s">
         <v>342</v>
       </c>
-      <c r="D69" s="112"/>
-      <c r="E69" s="96" t="s">
+      <c r="D69" s="150"/>
+      <c r="E69" s="64" t="s">
         <v>343</v>
       </c>
-      <c r="F69" s="116"/>
-      <c r="G69" s="95">
+      <c r="F69" s="153"/>
+      <c r="G69" s="63">
         <v>4745</v>
       </c>
-      <c r="H69" s="95" t="s">
+      <c r="H69" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="I69" s="95">
+      <c r="I69" s="63">
         <v>11</v>
       </c>
-      <c r="J69" s="95" t="s">
+      <c r="J69" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="K69" s="96">
+      <c r="K69" s="64">
         <v>153394</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="112"/>
-      <c r="B70" s="95">
+      <c r="A70" s="150"/>
+      <c r="B70" s="63">
         <v>11250</v>
       </c>
-      <c r="C70" s="95" t="s">
+      <c r="C70" s="63" t="s">
         <v>344</v>
       </c>
-      <c r="D70" s="112"/>
-      <c r="E70" s="96" t="s">
+      <c r="D70" s="150"/>
+      <c r="E70" s="64" t="s">
         <v>345</v>
       </c>
-      <c r="F70" s="116"/>
-      <c r="G70" s="95">
+      <c r="F70" s="153"/>
+      <c r="G70" s="63">
         <v>48</v>
       </c>
-      <c r="H70" s="95" t="s">
+      <c r="H70" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="I70" s="95">
+      <c r="I70" s="63">
         <v>188</v>
       </c>
-      <c r="J70" s="95" t="s">
+      <c r="J70" s="63" t="s">
         <v>313</v>
       </c>
-      <c r="K70" s="96">
+      <c r="K70" s="64">
         <v>8367</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="113"/>
-      <c r="B71" s="98">
+      <c r="A71" s="151"/>
+      <c r="B71" s="66">
         <v>10750</v>
       </c>
-      <c r="C71" s="98" t="s">
+      <c r="C71" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="D71" s="113"/>
-      <c r="E71" s="100" t="s">
+      <c r="D71" s="151"/>
+      <c r="E71" s="68" t="s">
         <v>346</v>
       </c>
-      <c r="F71" s="117"/>
-      <c r="G71" s="98">
+      <c r="F71" s="154"/>
+      <c r="G71" s="66">
         <v>50</v>
       </c>
-      <c r="H71" s="98" t="s">
+      <c r="H71" s="66" t="s">
         <v>347</v>
       </c>
-      <c r="I71" s="98">
+      <c r="I71" s="66">
         <v>98</v>
       </c>
-      <c r="J71" s="98" t="s">
+      <c r="J71" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="K71" s="100">
+      <c r="K71" s="68">
         <v>8021</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="114">
+      <c r="A72" s="149">
         <v>14</v>
       </c>
-      <c r="B72" s="104"/>
-      <c r="C72" s="104"/>
-      <c r="D72" s="114"/>
-      <c r="E72" s="96"/>
-      <c r="F72" s="115" t="s">
+      <c r="B72" s="72"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="149"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="152" t="s">
         <v>349</v>
       </c>
-      <c r="G72" s="95"/>
-      <c r="H72" s="95"/>
-      <c r="I72" s="95"/>
-      <c r="J72" s="95"/>
-      <c r="K72" s="96"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="63"/>
+      <c r="K72" s="64"/>
     </row>
     <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="112"/>
-      <c r="B73" s="104"/>
-      <c r="C73" s="104"/>
-      <c r="D73" s="112"/>
-      <c r="E73" s="96"/>
-      <c r="F73" s="116"/>
-      <c r="G73" s="95"/>
-      <c r="H73" s="95"/>
-      <c r="I73" s="95"/>
-      <c r="J73" s="95"/>
-      <c r="K73" s="96"/>
+      <c r="A73" s="150"/>
+      <c r="B73" s="72"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="150"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="153"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="63"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="63"/>
+      <c r="K73" s="64"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="112"/>
-      <c r="B74" s="104"/>
-      <c r="C74" s="104"/>
-      <c r="D74" s="112"/>
-      <c r="E74" s="96"/>
-      <c r="F74" s="116"/>
-      <c r="G74" s="95"/>
-      <c r="H74" s="95"/>
-      <c r="I74" s="95"/>
-      <c r="J74" s="95"/>
-      <c r="K74" s="96"/>
+      <c r="A74" s="150"/>
+      <c r="B74" s="72"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="150"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="153"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="63"/>
+      <c r="K74" s="64"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="112"/>
-      <c r="B75" s="104"/>
-      <c r="C75" s="104"/>
-      <c r="D75" s="112"/>
-      <c r="E75" s="96"/>
-      <c r="F75" s="116"/>
-      <c r="G75" s="95"/>
-      <c r="H75" s="95"/>
-      <c r="I75" s="95"/>
-      <c r="J75" s="95"/>
-      <c r="K75" s="96"/>
+      <c r="A75" s="150"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="150"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="153"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="64"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="113"/>
-      <c r="B76" s="103"/>
-      <c r="C76" s="103"/>
-      <c r="D76" s="113"/>
-      <c r="E76" s="99"/>
-      <c r="F76" s="117"/>
-      <c r="G76" s="97"/>
-      <c r="H76" s="97"/>
-      <c r="I76" s="97"/>
-      <c r="J76" s="97"/>
-      <c r="K76" s="99"/>
+      <c r="A76" s="151"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="151"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="154"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="65"/>
+      <c r="J76" s="65"/>
+      <c r="K76" s="67"/>
     </row>
     <row r="77" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="105">
+      <c r="A77" s="73">
         <v>15</v>
       </c>
-      <c r="B77" s="97"/>
-      <c r="C77" s="97"/>
-      <c r="D77" s="105"/>
-      <c r="E77" s="99"/>
-      <c r="F77" s="106" t="s">
+      <c r="B77" s="65"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="74" t="s">
         <v>350</v>
       </c>
-      <c r="G77" s="97"/>
-      <c r="H77" s="97"/>
-      <c r="I77" s="97"/>
-      <c r="J77" s="97"/>
-      <c r="K77" s="99"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="65"/>
+      <c r="J77" s="65"/>
+      <c r="K77" s="67"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="121">
+      <c r="A78" s="155">
         <v>16</v>
       </c>
-      <c r="B78" s="95">
+      <c r="B78" s="63">
         <v>12500</v>
       </c>
-      <c r="C78" s="95" t="s">
+      <c r="C78" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="D78" s="114" t="s">
+      <c r="D78" s="149" t="s">
         <v>351</v>
       </c>
-      <c r="E78" s="96" t="s">
+      <c r="E78" s="64" t="s">
         <v>352</v>
       </c>
-      <c r="F78" s="115" t="s">
+      <c r="F78" s="152" t="s">
         <v>353</v>
       </c>
-      <c r="G78" s="95">
+      <c r="G78" s="63">
         <v>564</v>
       </c>
-      <c r="H78" s="95" t="s">
+      <c r="H78" s="63" t="s">
         <v>354</v>
       </c>
-      <c r="I78" s="95">
+      <c r="I78" s="63">
         <v>119</v>
       </c>
-      <c r="J78" s="95" t="s">
+      <c r="J78" s="63" t="s">
         <v>355</v>
       </c>
-      <c r="K78" s="96">
+      <c r="K78" s="64">
         <v>4304</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="122"/>
-      <c r="B79" s="95">
+      <c r="A79" s="156"/>
+      <c r="B79" s="63">
         <v>13750</v>
       </c>
-      <c r="C79" s="95" t="s">
+      <c r="C79" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="D79" s="112"/>
-      <c r="E79" s="96" t="s">
+      <c r="D79" s="150"/>
+      <c r="E79" s="64" t="s">
         <v>357</v>
       </c>
-      <c r="F79" s="116"/>
-      <c r="G79" s="95">
+      <c r="F79" s="153"/>
+      <c r="G79" s="63">
         <v>3446</v>
       </c>
-      <c r="H79" s="95" t="s">
+      <c r="H79" s="63" t="s">
         <v>358</v>
       </c>
-      <c r="I79" s="95">
+      <c r="I79" s="63">
         <v>1317</v>
       </c>
-      <c r="J79" s="95" t="s">
+      <c r="J79" s="63" t="s">
         <v>359</v>
       </c>
-      <c r="K79" s="96">
+      <c r="K79" s="64">
         <v>436</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="122"/>
-      <c r="B80" s="107">
+      <c r="A80" s="156"/>
+      <c r="B80" s="75">
         <v>11750</v>
       </c>
-      <c r="C80" s="107" t="s">
+      <c r="C80" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="D80" s="112"/>
-      <c r="E80" s="108" t="s">
+      <c r="D80" s="150"/>
+      <c r="E80" s="76" t="s">
         <v>360</v>
       </c>
-      <c r="F80" s="116"/>
-      <c r="G80" s="107">
+      <c r="F80" s="153"/>
+      <c r="G80" s="75">
         <v>1311</v>
       </c>
-      <c r="H80" s="107" t="s">
+      <c r="H80" s="75" t="s">
         <v>361</v>
       </c>
-      <c r="I80" s="107">
+      <c r="I80" s="75">
         <v>179</v>
       </c>
-      <c r="J80" s="107" t="s">
+      <c r="J80" s="75" t="s">
         <v>362</v>
       </c>
-      <c r="K80" s="108">
+      <c r="K80" s="76">
         <v>3379</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="122"/>
-      <c r="B81" s="104"/>
-      <c r="C81" s="104"/>
-      <c r="D81" s="112"/>
-      <c r="E81" s="96"/>
-      <c r="F81" s="116"/>
-      <c r="G81" s="104"/>
-      <c r="H81" s="104"/>
-      <c r="I81" s="104"/>
-      <c r="J81" s="104"/>
-      <c r="K81" s="109"/>
+      <c r="A81" s="156"/>
+      <c r="B81" s="72"/>
+      <c r="C81" s="72"/>
+      <c r="D81" s="150"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="153"/>
+      <c r="G81" s="72"/>
+      <c r="H81" s="72"/>
+      <c r="I81" s="72"/>
+      <c r="J81" s="72"/>
+      <c r="K81" s="77"/>
     </row>
     <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="123"/>
-      <c r="B82" s="103"/>
-      <c r="C82" s="103"/>
-      <c r="D82" s="113"/>
-      <c r="E82" s="99"/>
-      <c r="F82" s="117"/>
-      <c r="G82" s="103"/>
-      <c r="H82" s="103"/>
-      <c r="I82" s="103"/>
-      <c r="J82" s="103"/>
-      <c r="K82" s="110"/>
+      <c r="A82" s="157"/>
+      <c r="B82" s="71"/>
+      <c r="C82" s="71"/>
+      <c r="D82" s="151"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="154"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="71"/>
+      <c r="I82" s="71"/>
+      <c r="J82" s="71"/>
+      <c r="K82" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="F62:F66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="F67:F71"/>
     <mergeCell ref="A72:A76"/>
     <mergeCell ref="D72:D76"/>
     <mergeCell ref="F72:F76"/>
     <mergeCell ref="A78:A82"/>
     <mergeCell ref="D78:D82"/>
     <mergeCell ref="F78:F82"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="F62:F66"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="F7:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Competencia_final/registro_experimento.xlsx
+++ b/Competencia_final/registro_experimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juancho\Desktop\DMEF\labo\Competencia_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2619DE6B-2CB6-424D-BED2-DC2238D829FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CCBBAE-0B31-4FD9-897B-71717435FC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F72DCF91-BE68-43C8-A18E-59730E9D26D2}"/>
   </bookViews>
@@ -2308,6 +2308,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2325,7 +2359,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2339,39 +2372,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2397,15 +2397,18 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2415,6 +2418,15 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2422,18 +2434,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2754,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185828D6-25AC-4D34-9841-603A418DDB2C}">
   <dimension ref="A1:BB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AO19" sqref="AO19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2816,131 +2816,131 @@
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="40"/>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="131"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="119"/>
       <c r="AB1" s="39"/>
-      <c r="AC1" s="117" t="s">
+      <c r="AC1" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="120"/>
-      <c r="AG1" s="120"/>
-      <c r="AH1" s="120"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
+      <c r="AH1" s="132"/>
       <c r="AI1" s="38"/>
-      <c r="AJ1" s="117" t="s">
+      <c r="AJ1" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="119"/>
-      <c r="AM1" s="119"/>
-      <c r="AN1" s="119"/>
-      <c r="AO1" s="119"/>
-      <c r="AP1" s="119"/>
-      <c r="AQ1" s="119"/>
-      <c r="AR1" s="119"/>
-      <c r="AS1" s="119"/>
-      <c r="AT1" s="119"/>
-      <c r="AU1" s="119"/>
-      <c r="AV1" s="119"/>
-      <c r="AW1" s="119"/>
-      <c r="AX1" s="119"/>
-      <c r="AY1" s="119"/>
-      <c r="AZ1" s="119"/>
-      <c r="BA1" s="117" t="s">
+      <c r="AK1" s="131"/>
+      <c r="AL1" s="131"/>
+      <c r="AM1" s="131"/>
+      <c r="AN1" s="131"/>
+      <c r="AO1" s="131"/>
+      <c r="AP1" s="131"/>
+      <c r="AQ1" s="131"/>
+      <c r="AR1" s="131"/>
+      <c r="AS1" s="131"/>
+      <c r="AT1" s="131"/>
+      <c r="AU1" s="131"/>
+      <c r="AV1" s="131"/>
+      <c r="AW1" s="131"/>
+      <c r="AX1" s="131"/>
+      <c r="AY1" s="131"/>
+      <c r="AZ1" s="131"/>
+      <c r="BA1" s="129" t="s">
         <v>387</v>
       </c>
-      <c r="BB1" s="118"/>
+      <c r="BB1" s="130"/>
     </row>
     <row r="2" spans="1:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="135" t="s">
+      <c r="C2" s="123"/>
+      <c r="D2" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="137" t="s">
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="138" t="s">
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
       <c r="O2" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="139" t="s">
+      <c r="P2" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="136"/>
-      <c r="AA2" s="136"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
+      <c r="AA2" s="125"/>
       <c r="AB2" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="AC2" s="132" t="s">
+      <c r="AC2" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="121" t="s">
+      <c r="AD2" s="133" t="s">
         <v>65</v>
       </c>
       <c r="AE2" s="56"/>
       <c r="AF2" s="56"/>
-      <c r="AG2" s="127" t="s">
+      <c r="AG2" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="AH2" s="127" t="s">
+      <c r="AH2" s="138" t="s">
         <v>67</v>
       </c>
       <c r="AI2" s="44"/>
-      <c r="AJ2" s="122" t="s">
+      <c r="AJ2" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="AK2" s="123"/>
-      <c r="AL2" s="124"/>
+      <c r="AK2" s="121"/>
+      <c r="AL2" s="135"/>
       <c r="AM2" s="27" t="s">
         <v>61</v>
       </c>
@@ -2948,21 +2948,21 @@
       <c r="AO2" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="AP2" s="125" t="s">
+      <c r="AP2" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="AQ2" s="126"/>
-      <c r="AR2" s="122" t="s">
+      <c r="AQ2" s="137"/>
+      <c r="AR2" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="AS2" s="123"/>
-      <c r="AT2" s="123"/>
-      <c r="AU2" s="123"/>
-      <c r="AV2" s="123"/>
-      <c r="AW2" s="123"/>
-      <c r="AX2" s="123"/>
-      <c r="AY2" s="123"/>
-      <c r="AZ2" s="123"/>
+      <c r="AS2" s="121"/>
+      <c r="AT2" s="121"/>
+      <c r="AU2" s="121"/>
+      <c r="AV2" s="121"/>
+      <c r="AW2" s="121"/>
+      <c r="AX2" s="121"/>
+      <c r="AY2" s="121"/>
+      <c r="AZ2" s="121"/>
       <c r="BA2" s="112"/>
       <c r="BB2" s="113" t="s">
         <v>61</v>
@@ -3049,16 +3049,16 @@
         <v>19</v>
       </c>
       <c r="AB3" s="28"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="121"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="133"/>
       <c r="AE3" s="59" t="s">
         <v>72</v>
       </c>
       <c r="AF3" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="128"/>
-      <c r="AH3" s="128"/>
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="139"/>
       <c r="AI3" s="36" t="s">
         <v>61</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>376</v>
       </c>
       <c r="AC7" s="22">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD7" s="53">
         <v>2</v>
@@ -3475,7 +3475,9 @@
       <c r="AN7" s="54">
         <v>668111</v>
       </c>
-      <c r="AO7" s="106"/>
+      <c r="AO7" s="106" t="b">
+        <v>0</v>
+      </c>
       <c r="AP7" s="107"/>
       <c r="AQ7" s="107"/>
       <c r="AR7" s="108"/>
@@ -3969,13 +3971,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:AA2"/>
     <mergeCell ref="BA1:BB1"/>
     <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="AC1:AH1"/>
@@ -3985,6 +3980,13 @@
     <mergeCell ref="AR2:AZ2"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3997,7 +3999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA249011-D726-47B3-9440-8B01236A4F88}">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AF22" sqref="AF22"/>
     </sheetView>
   </sheetViews>
@@ -4011,13 +4013,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="138" t="s">
         <v>67</v>
       </c>
       <c r="D1" s="145" t="s">
@@ -4026,48 +4028,48 @@
       <c r="E1" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
       <c r="Q1" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="121"/>
+      <c r="Y1" s="121"/>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="121"/>
+      <c r="AB1" s="121"/>
       <c r="AC1" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
+      <c r="AD1" s="121"/>
+      <c r="AE1" s="121"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="121"/>
+      <c r="AH1" s="121"/>
+      <c r="AI1" s="121"/>
       <c r="AJ1" s="144" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="121"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
+      <c r="A2" s="133"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
       <c r="D2" s="146"/>
       <c r="E2" s="26">
         <v>1</v>
@@ -4162,7 +4164,7 @@
       <c r="AI2" s="24">
         <v>7</v>
       </c>
-      <c r="AJ2" s="123"/>
+      <c r="AJ2" s="121"/>
     </row>
     <row r="3" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="142">
@@ -5632,20 +5634,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="AC1:AI1"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="Q1:AB1"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
@@ -5655,6 +5643,20 @@
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="C15:C18"/>
+    <mergeCell ref="AC1:AI1"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="Q1:AB1"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5898,7 +5900,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="161">
+      <c r="A2" s="149">
         <v>0</v>
       </c>
       <c r="B2" s="63">
@@ -5907,13 +5909,13 @@
       <c r="C2" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="149" t="s">
+      <c r="D2" s="152" t="s">
         <v>81</v>
       </c>
       <c r="E2" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="152" t="s">
+      <c r="F2" s="153" t="s">
         <v>83</v>
       </c>
       <c r="G2" s="63">
@@ -5944,7 +5946,7 @@
       <c r="E3" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="G3" s="63">
         <v>534</v>
       </c>
@@ -5973,7 +5975,7 @@
       <c r="E4" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="153"/>
+      <c r="F4" s="154"/>
       <c r="G4" s="63">
         <v>707</v>
       </c>
@@ -6002,7 +6004,7 @@
       <c r="E5" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="153"/>
+      <c r="F5" s="154"/>
       <c r="G5" s="63">
         <v>930</v>
       </c>
@@ -6031,7 +6033,7 @@
       <c r="E6" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="154"/>
+      <c r="F6" s="155"/>
       <c r="G6" s="66">
         <v>2944</v>
       </c>
@@ -6049,7 +6051,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="149">
+      <c r="A7" s="152">
         <v>1</v>
       </c>
       <c r="B7" s="69">
@@ -6058,13 +6060,13 @@
       <c r="C7" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="149" t="s">
+      <c r="D7" s="152" t="s">
         <v>101</v>
       </c>
       <c r="E7" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="152" t="s">
+      <c r="F7" s="153" t="s">
         <v>103</v>
       </c>
       <c r="G7" s="69">
@@ -6095,7 +6097,7 @@
       <c r="E8" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="153"/>
+      <c r="F8" s="154"/>
       <c r="G8" s="63">
         <v>657</v>
       </c>
@@ -6124,7 +6126,7 @@
       <c r="E9" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="153"/>
+      <c r="F9" s="154"/>
       <c r="G9" s="63">
         <v>841</v>
       </c>
@@ -6153,7 +6155,7 @@
       <c r="E10" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="153"/>
+      <c r="F10" s="154"/>
       <c r="G10" s="63">
         <v>963</v>
       </c>
@@ -6182,7 +6184,7 @@
       <c r="E11" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="154"/>
+      <c r="F11" s="155"/>
       <c r="G11" s="65">
         <v>2745</v>
       </c>
@@ -6200,7 +6202,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="149">
+      <c r="A12" s="152">
         <v>2</v>
       </c>
       <c r="B12" s="63">
@@ -6209,13 +6211,13 @@
       <c r="C12" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="149" t="s">
+      <c r="D12" s="152" t="s">
         <v>123</v>
       </c>
       <c r="E12" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="152" t="s">
+      <c r="F12" s="153" t="s">
         <v>125</v>
       </c>
       <c r="G12" s="63">
@@ -6246,7 +6248,7 @@
       <c r="E13" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="153"/>
+      <c r="F13" s="154"/>
       <c r="G13" s="69">
         <v>9989</v>
       </c>
@@ -6275,7 +6277,7 @@
       <c r="E14" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="153"/>
+      <c r="F14" s="154"/>
       <c r="G14" s="63">
         <v>2414</v>
       </c>
@@ -6304,7 +6306,7 @@
       <c r="E15" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="153"/>
+      <c r="F15" s="154"/>
       <c r="G15" s="63">
         <v>3244</v>
       </c>
@@ -6333,7 +6335,7 @@
       <c r="E16" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="154"/>
+      <c r="F16" s="155"/>
       <c r="G16" s="65">
         <v>1970</v>
       </c>
@@ -6351,7 +6353,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="149">
+      <c r="A17" s="152">
         <v>3</v>
       </c>
       <c r="B17" s="63">
@@ -6360,13 +6362,13 @@
       <c r="C17" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="149" t="s">
+      <c r="D17" s="152" t="s">
         <v>144</v>
       </c>
       <c r="E17" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="F17" s="152" t="s">
+      <c r="F17" s="153" t="s">
         <v>146</v>
       </c>
       <c r="G17" s="63">
@@ -6397,7 +6399,7 @@
       <c r="E18" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="153"/>
+      <c r="F18" s="154"/>
       <c r="G18" s="63">
         <v>611</v>
       </c>
@@ -6426,7 +6428,7 @@
       <c r="E19" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="153"/>
+      <c r="F19" s="154"/>
       <c r="G19" s="69">
         <v>333</v>
       </c>
@@ -6455,7 +6457,7 @@
       <c r="E20" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="153"/>
+      <c r="F20" s="154"/>
       <c r="G20" s="63">
         <v>441</v>
       </c>
@@ -6484,7 +6486,7 @@
       <c r="E21" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="F21" s="154"/>
+      <c r="F21" s="155"/>
       <c r="G21" s="65">
         <v>317</v>
       </c>
@@ -6502,7 +6504,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="149">
+      <c r="A22" s="152">
         <v>4</v>
       </c>
       <c r="B22" s="69">
@@ -6511,13 +6513,13 @@
       <c r="C22" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="149" t="s">
+      <c r="D22" s="152" t="s">
         <v>166</v>
       </c>
       <c r="E22" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="F22" s="152" t="s">
+      <c r="F22" s="153" t="s">
         <v>168</v>
       </c>
       <c r="G22" s="69">
@@ -6548,7 +6550,7 @@
       <c r="E23" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="F23" s="153"/>
+      <c r="F23" s="154"/>
       <c r="G23" s="63">
         <v>113</v>
       </c>
@@ -6577,7 +6579,7 @@
       <c r="E24" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="F24" s="153"/>
+      <c r="F24" s="154"/>
       <c r="G24" s="63">
         <v>4998</v>
       </c>
@@ -6606,7 +6608,7 @@
       <c r="E25" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="F25" s="153"/>
+      <c r="F25" s="154"/>
       <c r="G25" s="63">
         <v>794</v>
       </c>
@@ -6635,7 +6637,7 @@
       <c r="E26" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="F26" s="154"/>
+      <c r="F26" s="155"/>
       <c r="G26" s="65">
         <v>1190</v>
       </c>
@@ -6653,7 +6655,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="149">
+      <c r="A27" s="152">
         <v>5</v>
       </c>
       <c r="B27" s="63">
@@ -6662,13 +6664,13 @@
       <c r="C27" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="149" t="s">
+      <c r="D27" s="152" t="s">
         <v>187</v>
       </c>
       <c r="E27" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="152" t="s">
+      <c r="F27" s="153" t="s">
         <v>189</v>
       </c>
       <c r="G27" s="63">
@@ -6699,7 +6701,7 @@
       <c r="E28" s="70" t="s">
         <v>193</v>
       </c>
-      <c r="F28" s="153"/>
+      <c r="F28" s="154"/>
       <c r="G28" s="69">
         <v>408</v>
       </c>
@@ -6728,7 +6730,7 @@
       <c r="E29" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="153"/>
+      <c r="F29" s="154"/>
       <c r="G29" s="63">
         <v>663</v>
       </c>
@@ -6757,7 +6759,7 @@
       <c r="E30" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="F30" s="153"/>
+      <c r="F30" s="154"/>
       <c r="G30" s="63">
         <v>1311</v>
       </c>
@@ -6786,7 +6788,7 @@
       <c r="E31" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="F31" s="154"/>
+      <c r="F31" s="155"/>
       <c r="G31" s="65">
         <v>2568</v>
       </c>
@@ -6804,7 +6806,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="149">
+      <c r="A32" s="152">
         <v>6</v>
       </c>
       <c r="B32" s="63">
@@ -6813,13 +6815,13 @@
       <c r="C32" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="D32" s="149" t="s">
+      <c r="D32" s="152" t="s">
         <v>209</v>
       </c>
       <c r="E32" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="F32" s="152" t="s">
+      <c r="F32" s="153" t="s">
         <v>211</v>
       </c>
       <c r="G32" s="63">
@@ -6850,7 +6852,7 @@
       <c r="E33" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="F33" s="153"/>
+      <c r="F33" s="154"/>
       <c r="G33" s="63">
         <v>76</v>
       </c>
@@ -6879,7 +6881,7 @@
       <c r="E34" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="F34" s="153"/>
+      <c r="F34" s="154"/>
       <c r="G34" s="63">
         <v>55</v>
       </c>
@@ -6908,7 +6910,7 @@
       <c r="E35" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="F35" s="153"/>
+      <c r="F35" s="154"/>
       <c r="G35" s="63">
         <v>163</v>
       </c>
@@ -6937,7 +6939,7 @@
       <c r="E36" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="F36" s="154"/>
+      <c r="F36" s="155"/>
       <c r="G36" s="66">
         <v>968</v>
       </c>
@@ -6955,7 +6957,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="149">
+      <c r="A37" s="152">
         <v>7</v>
       </c>
       <c r="B37" s="63">
@@ -6964,13 +6966,13 @@
       <c r="C37" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="D37" s="149" t="s">
+      <c r="D37" s="152" t="s">
         <v>228</v>
       </c>
       <c r="E37" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="F37" s="152" t="s">
+      <c r="F37" s="153" t="s">
         <v>230</v>
       </c>
       <c r="G37" s="63">
@@ -7001,7 +7003,7 @@
       <c r="E38" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="F38" s="153"/>
+      <c r="F38" s="154"/>
       <c r="G38" s="63">
         <v>82</v>
       </c>
@@ -7030,7 +7032,7 @@
       <c r="E39" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="F39" s="153"/>
+      <c r="F39" s="154"/>
       <c r="G39" s="63">
         <v>2045</v>
       </c>
@@ -7059,7 +7061,7 @@
       <c r="E40" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="F40" s="153"/>
+      <c r="F40" s="154"/>
       <c r="G40" s="69">
         <v>2527</v>
       </c>
@@ -7088,7 +7090,7 @@
       <c r="E41" s="67" t="s">
         <v>244</v>
       </c>
-      <c r="F41" s="154"/>
+      <c r="F41" s="155"/>
       <c r="G41" s="65">
         <v>374</v>
       </c>
@@ -7106,7 +7108,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="149">
+      <c r="A42" s="152">
         <v>8</v>
       </c>
       <c r="B42" s="63">
@@ -7115,13 +7117,13 @@
       <c r="C42" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D42" s="149" t="s">
+      <c r="D42" s="152" t="s">
         <v>248</v>
       </c>
       <c r="E42" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="F42" s="152" t="s">
+      <c r="F42" s="153" t="s">
         <v>250</v>
       </c>
       <c r="G42" s="63">
@@ -7152,7 +7154,7 @@
       <c r="E43" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="F43" s="153"/>
+      <c r="F43" s="154"/>
       <c r="G43" s="63">
         <v>542</v>
       </c>
@@ -7181,7 +7183,7 @@
       <c r="E44" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="F44" s="153"/>
+      <c r="F44" s="154"/>
       <c r="G44" s="63">
         <v>1769</v>
       </c>
@@ -7210,7 +7212,7 @@
       <c r="E45" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="F45" s="153"/>
+      <c r="F45" s="154"/>
       <c r="G45" s="63">
         <v>643</v>
       </c>
@@ -7239,7 +7241,7 @@
       <c r="E46" s="68" t="s">
         <v>263</v>
       </c>
-      <c r="F46" s="154"/>
+      <c r="F46" s="155"/>
       <c r="G46" s="66">
         <v>969</v>
       </c>
@@ -7257,7 +7259,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="149">
+      <c r="A47" s="152">
         <v>9</v>
       </c>
       <c r="B47" s="69">
@@ -7266,13 +7268,13 @@
       <c r="C47" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="D47" s="158" t="s">
+      <c r="D47" s="156" t="s">
         <v>114</v>
       </c>
       <c r="E47" s="70" t="s">
         <v>267</v>
       </c>
-      <c r="F47" s="152" t="s">
+      <c r="F47" s="153" t="s">
         <v>268</v>
       </c>
       <c r="G47" s="69">
@@ -7299,11 +7301,11 @@
       <c r="C48" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="159"/>
+      <c r="D48" s="157"/>
       <c r="E48" s="64" t="s">
         <v>271</v>
       </c>
-      <c r="F48" s="153"/>
+      <c r="F48" s="154"/>
       <c r="G48" s="63">
         <v>1061</v>
       </c>
@@ -7328,11 +7330,11 @@
       <c r="C49" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="159"/>
+      <c r="D49" s="157"/>
       <c r="E49" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="F49" s="153"/>
+      <c r="F49" s="154"/>
       <c r="G49" s="63">
         <v>81</v>
       </c>
@@ -7357,11 +7359,11 @@
       <c r="C50" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="159"/>
+      <c r="D50" s="157"/>
       <c r="E50" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="F50" s="153"/>
+      <c r="F50" s="154"/>
       <c r="G50" s="63">
         <v>52</v>
       </c>
@@ -7386,11 +7388,11 @@
       <c r="C51" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="D51" s="160"/>
+      <c r="D51" s="158"/>
       <c r="E51" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="F51" s="154"/>
+      <c r="F51" s="155"/>
       <c r="G51" s="65">
         <v>661</v>
       </c>
@@ -7408,7 +7410,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="149">
+      <c r="A52" s="152">
         <v>10</v>
       </c>
       <c r="B52" s="63">
@@ -7417,13 +7419,13 @@
       <c r="C52" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="D52" s="149" t="s">
+      <c r="D52" s="152" t="s">
         <v>283</v>
       </c>
       <c r="E52" s="64" t="s">
         <v>284</v>
       </c>
-      <c r="F52" s="152" t="s">
+      <c r="F52" s="153" t="s">
         <v>285</v>
       </c>
       <c r="G52" s="63">
@@ -7454,7 +7456,7 @@
       <c r="E53" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="F53" s="153"/>
+      <c r="F53" s="154"/>
       <c r="G53" s="63">
         <v>1860</v>
       </c>
@@ -7483,7 +7485,7 @@
       <c r="E54" s="64" t="s">
         <v>292</v>
       </c>
-      <c r="F54" s="153"/>
+      <c r="F54" s="154"/>
       <c r="G54" s="63">
         <v>1153</v>
       </c>
@@ -7512,7 +7514,7 @@
       <c r="E55" s="70" t="s">
         <v>295</v>
       </c>
-      <c r="F55" s="153"/>
+      <c r="F55" s="154"/>
       <c r="G55" s="69">
         <v>1949</v>
       </c>
@@ -7541,7 +7543,7 @@
       <c r="E56" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="F56" s="154"/>
+      <c r="F56" s="155"/>
       <c r="G56" s="65">
         <v>131</v>
       </c>
@@ -7559,7 +7561,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="149">
+      <c r="A57" s="152">
         <v>11</v>
       </c>
       <c r="B57" s="63">
@@ -7568,13 +7570,13 @@
       <c r="C57" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="D57" s="149" t="s">
+      <c r="D57" s="152" t="s">
         <v>298</v>
       </c>
       <c r="E57" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="F57" s="152" t="s">
+      <c r="F57" s="153" t="s">
         <v>304</v>
       </c>
       <c r="G57" s="63">
@@ -7605,7 +7607,7 @@
       <c r="E58" s="64" t="s">
         <v>308</v>
       </c>
-      <c r="F58" s="153"/>
+      <c r="F58" s="154"/>
       <c r="G58" s="63">
         <v>67</v>
       </c>
@@ -7634,7 +7636,7 @@
       <c r="E59" s="64" t="s">
         <v>311</v>
       </c>
-      <c r="F59" s="153"/>
+      <c r="F59" s="154"/>
       <c r="G59" s="63">
         <v>56</v>
       </c>
@@ -7663,7 +7665,7 @@
       <c r="E60" s="70" t="s">
         <v>315</v>
       </c>
-      <c r="F60" s="153"/>
+      <c r="F60" s="154"/>
       <c r="G60" s="69">
         <v>72</v>
       </c>
@@ -7692,7 +7694,7 @@
       <c r="E61" s="67" t="s">
         <v>319</v>
       </c>
-      <c r="F61" s="154"/>
+      <c r="F61" s="155"/>
       <c r="G61" s="65">
         <v>144</v>
       </c>
@@ -7710,7 +7712,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="155">
+      <c r="A62" s="159">
         <v>12</v>
       </c>
       <c r="B62" s="69">
@@ -7719,13 +7721,13 @@
       <c r="C62" s="69" t="s">
         <v>322</v>
       </c>
-      <c r="D62" s="149" t="s">
+      <c r="D62" s="152" t="s">
         <v>323</v>
       </c>
       <c r="E62" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="F62" s="152" t="s">
+      <c r="F62" s="153" t="s">
         <v>325</v>
       </c>
       <c r="G62" s="69">
@@ -7745,7 +7747,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="156"/>
+      <c r="A63" s="160"/>
       <c r="B63" s="63">
         <v>11750</v>
       </c>
@@ -7756,7 +7758,7 @@
       <c r="E63" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="F63" s="153"/>
+      <c r="F63" s="154"/>
       <c r="G63" s="63">
         <v>1968</v>
       </c>
@@ -7774,12 +7776,12 @@
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="156"/>
+      <c r="A64" s="160"/>
       <c r="B64" s="63"/>
       <c r="C64" s="63"/>
       <c r="D64" s="150"/>
       <c r="E64" s="64"/>
-      <c r="F64" s="153"/>
+      <c r="F64" s="154"/>
       <c r="G64" s="63"/>
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
@@ -7787,12 +7789,12 @@
       <c r="K64" s="64"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="156"/>
+      <c r="A65" s="160"/>
       <c r="B65" s="63"/>
       <c r="C65" s="63"/>
       <c r="D65" s="150"/>
       <c r="E65" s="64"/>
-      <c r="F65" s="153"/>
+      <c r="F65" s="154"/>
       <c r="G65" s="63"/>
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
@@ -7800,12 +7802,12 @@
       <c r="K65" s="64"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="157"/>
+      <c r="A66" s="161"/>
       <c r="B66" s="71"/>
       <c r="C66" s="65"/>
       <c r="D66" s="151"/>
       <c r="E66" s="67"/>
-      <c r="F66" s="154"/>
+      <c r="F66" s="155"/>
       <c r="G66" s="65"/>
       <c r="H66" s="65"/>
       <c r="I66" s="65"/>
@@ -7813,7 +7815,7 @@
       <c r="K66" s="67"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="149">
+      <c r="A67" s="152">
         <v>13</v>
       </c>
       <c r="B67" s="63">
@@ -7822,13 +7824,13 @@
       <c r="C67" s="63" t="s">
         <v>332</v>
       </c>
-      <c r="D67" s="149" t="s">
+      <c r="D67" s="152" t="s">
         <v>333</v>
       </c>
       <c r="E67" s="64" t="s">
         <v>334</v>
       </c>
-      <c r="F67" s="152" t="s">
+      <c r="F67" s="153" t="s">
         <v>335</v>
       </c>
       <c r="G67" s="63">
@@ -7859,7 +7861,7 @@
       <c r="E68" s="64" t="s">
         <v>339</v>
       </c>
-      <c r="F68" s="153"/>
+      <c r="F68" s="154"/>
       <c r="G68" s="63">
         <v>34</v>
       </c>
@@ -7888,7 +7890,7 @@
       <c r="E69" s="64" t="s">
         <v>343</v>
       </c>
-      <c r="F69" s="153"/>
+      <c r="F69" s="154"/>
       <c r="G69" s="63">
         <v>4745</v>
       </c>
@@ -7917,7 +7919,7 @@
       <c r="E70" s="64" t="s">
         <v>345</v>
       </c>
-      <c r="F70" s="153"/>
+      <c r="F70" s="154"/>
       <c r="G70" s="63">
         <v>48</v>
       </c>
@@ -7946,7 +7948,7 @@
       <c r="E71" s="68" t="s">
         <v>346</v>
       </c>
-      <c r="F71" s="154"/>
+      <c r="F71" s="155"/>
       <c r="G71" s="66">
         <v>50</v>
       </c>
@@ -7964,14 +7966,14 @@
       </c>
     </row>
     <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="149">
+      <c r="A72" s="152">
         <v>14</v>
       </c>
       <c r="B72" s="72"/>
       <c r="C72" s="72"/>
-      <c r="D72" s="149"/>
+      <c r="D72" s="152"/>
       <c r="E72" s="64"/>
-      <c r="F72" s="152" t="s">
+      <c r="F72" s="153" t="s">
         <v>349</v>
       </c>
       <c r="G72" s="63"/>
@@ -7986,7 +7988,7 @@
       <c r="C73" s="72"/>
       <c r="D73" s="150"/>
       <c r="E73" s="64"/>
-      <c r="F73" s="153"/>
+      <c r="F73" s="154"/>
       <c r="G73" s="63"/>
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
@@ -7999,7 +8001,7 @@
       <c r="C74" s="72"/>
       <c r="D74" s="150"/>
       <c r="E74" s="64"/>
-      <c r="F74" s="153"/>
+      <c r="F74" s="154"/>
       <c r="G74" s="63"/>
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
@@ -8012,7 +8014,7 @@
       <c r="C75" s="72"/>
       <c r="D75" s="150"/>
       <c r="E75" s="64"/>
-      <c r="F75" s="153"/>
+      <c r="F75" s="154"/>
       <c r="G75" s="63"/>
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
@@ -8025,7 +8027,7 @@
       <c r="C76" s="71"/>
       <c r="D76" s="151"/>
       <c r="E76" s="67"/>
-      <c r="F76" s="154"/>
+      <c r="F76" s="155"/>
       <c r="G76" s="65"/>
       <c r="H76" s="65"/>
       <c r="I76" s="65"/>
@@ -8050,7 +8052,7 @@
       <c r="K77" s="67"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="155">
+      <c r="A78" s="159">
         <v>16</v>
       </c>
       <c r="B78" s="63">
@@ -8059,13 +8061,13 @@
       <c r="C78" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="D78" s="149" t="s">
+      <c r="D78" s="152" t="s">
         <v>351</v>
       </c>
       <c r="E78" s="64" t="s">
         <v>352</v>
       </c>
-      <c r="F78" s="152" t="s">
+      <c r="F78" s="153" t="s">
         <v>353</v>
       </c>
       <c r="G78" s="63">
@@ -8085,7 +8087,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="156"/>
+      <c r="A79" s="160"/>
       <c r="B79" s="63">
         <v>13750</v>
       </c>
@@ -8096,7 +8098,7 @@
       <c r="E79" s="64" t="s">
         <v>357</v>
       </c>
-      <c r="F79" s="153"/>
+      <c r="F79" s="154"/>
       <c r="G79" s="63">
         <v>3446</v>
       </c>
@@ -8114,7 +8116,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="156"/>
+      <c r="A80" s="160"/>
       <c r="B80" s="75">
         <v>11750</v>
       </c>
@@ -8125,7 +8127,7 @@
       <c r="E80" s="76" t="s">
         <v>360</v>
       </c>
-      <c r="F80" s="153"/>
+      <c r="F80" s="154"/>
       <c r="G80" s="75">
         <v>1311</v>
       </c>
@@ -8143,12 +8145,12 @@
       </c>
     </row>
     <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="156"/>
+      <c r="A81" s="160"/>
       <c r="B81" s="72"/>
       <c r="C81" s="72"/>
       <c r="D81" s="150"/>
       <c r="E81" s="64"/>
-      <c r="F81" s="153"/>
+      <c r="F81" s="154"/>
       <c r="G81" s="72"/>
       <c r="H81" s="72"/>
       <c r="I81" s="72"/>
@@ -8156,12 +8158,12 @@
       <c r="K81" s="77"/>
     </row>
     <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="157"/>
+      <c r="A82" s="161"/>
       <c r="B82" s="71"/>
       <c r="C82" s="71"/>
       <c r="D82" s="151"/>
       <c r="E82" s="67"/>
-      <c r="F82" s="154"/>
+      <c r="F82" s="155"/>
       <c r="G82" s="71"/>
       <c r="H82" s="71"/>
       <c r="I82" s="71"/>
@@ -8170,54 +8172,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="F72:F76"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="F78:F82"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="F62:F66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="F17:F21"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="F2:F6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="D7:D11"/>
     <mergeCell ref="F7:F11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="F62:F66"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="F72:F76"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="F78:F82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Competencia_final/registro_experimento.xlsx
+++ b/Competencia_final/registro_experimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juancho\Desktop\DMEF\labo\Competencia_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CCBBAE-0B31-4FD9-897B-71717435FC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C136C9-6A6E-48FB-B961-39B86FCE363F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F72DCF91-BE68-43C8-A18E-59730E9D26D2}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="415">
   <si>
     <t>Final Train</t>
   </si>
@@ -1259,6 +1259,78 @@
   </si>
   <si>
     <t>HT9420KF3</t>
+  </si>
+  <si>
+    <t>FE9250KF4</t>
+  </si>
+  <si>
+    <t>TS9320KF4</t>
+  </si>
+  <si>
+    <t>HT9420KF4</t>
+  </si>
+  <si>
+    <t>ZZ9420KF4</t>
+  </si>
+  <si>
+    <t>ZZ9420KF5</t>
+  </si>
+  <si>
+    <t>HT9420KF5</t>
+  </si>
+  <si>
+    <t>HT9420KF6</t>
+  </si>
+  <si>
+    <t>HT9420KF7</t>
+  </si>
+  <si>
+    <t>HT9420KF8</t>
+  </si>
+  <si>
+    <t>HT9420KF9</t>
+  </si>
+  <si>
+    <t>ZZ9420KF6</t>
+  </si>
+  <si>
+    <t>ZZ9420KF7</t>
+  </si>
+  <si>
+    <t>ZZ9420KF8</t>
+  </si>
+  <si>
+    <t>ZZ9420KF9</t>
+  </si>
+  <si>
+    <t>TS9320KF5</t>
+  </si>
+  <si>
+    <t>TS9320KF6</t>
+  </si>
+  <si>
+    <t>TS9320KF7</t>
+  </si>
+  <si>
+    <t>TS9320KF8</t>
+  </si>
+  <si>
+    <t>TS9320KF9</t>
+  </si>
+  <si>
+    <t>FE9250KF5</t>
+  </si>
+  <si>
+    <t>FE9250KF6</t>
+  </si>
+  <si>
+    <t>FE9250KF7</t>
+  </si>
+  <si>
+    <t>FE9250KF8</t>
+  </si>
+  <si>
+    <t>FE9250KF9</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1340,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1423,8 +1495,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1511,6 +1590,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1994,12 +2078,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2011,9 +2096,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2265,9 +2347,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2308,40 +2387,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2359,6 +2404,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2372,6 +2418,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2397,49 +2476,56 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2754,8 +2840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185828D6-25AC-4D34-9841-603A418DDB2C}">
   <dimension ref="A1:BB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AO19" sqref="AO19"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2790,7 +2876,7 @@
     <col min="32" max="32" width="5.7109375" customWidth="1"/>
     <col min="33" max="33" width="10" customWidth="1"/>
     <col min="34" max="34" width="9.140625" customWidth="1"/>
-    <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -2811,148 +2897,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="117" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="118"/>
-      <c r="Y1" s="118"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="129" t="s">
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
-      <c r="AH1" s="132"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="129" t="s">
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="AK1" s="131"/>
-      <c r="AL1" s="131"/>
-      <c r="AM1" s="131"/>
-      <c r="AN1" s="131"/>
-      <c r="AO1" s="131"/>
-      <c r="AP1" s="131"/>
-      <c r="AQ1" s="131"/>
-      <c r="AR1" s="131"/>
-      <c r="AS1" s="131"/>
-      <c r="AT1" s="131"/>
-      <c r="AU1" s="131"/>
-      <c r="AV1" s="131"/>
-      <c r="AW1" s="131"/>
-      <c r="AX1" s="131"/>
-      <c r="AY1" s="131"/>
-      <c r="AZ1" s="131"/>
-      <c r="BA1" s="129" t="s">
+      <c r="AK1" s="117"/>
+      <c r="AL1" s="117"/>
+      <c r="AM1" s="117"/>
+      <c r="AN1" s="117"/>
+      <c r="AO1" s="117"/>
+      <c r="AP1" s="117"/>
+      <c r="AQ1" s="117"/>
+      <c r="AR1" s="117"/>
+      <c r="AS1" s="117"/>
+      <c r="AT1" s="117"/>
+      <c r="AU1" s="117"/>
+      <c r="AV1" s="117"/>
+      <c r="AW1" s="117"/>
+      <c r="AX1" s="117"/>
+      <c r="AY1" s="117"/>
+      <c r="AZ1" s="117"/>
+      <c r="BA1" s="115" t="s">
         <v>387</v>
       </c>
-      <c r="BB1" s="130"/>
+      <c r="BB1" s="116"/>
     </row>
     <row r="2" spans="1:54" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="124" t="s">
+      <c r="C2" s="132"/>
+      <c r="D2" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="126" t="s">
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="127" t="s">
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="30" t="s">
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="128" t="s">
+      <c r="P2" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
-      <c r="AA2" s="125"/>
-      <c r="AB2" s="43" t="s">
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="134"/>
+      <c r="AB2" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="AC2" s="120" t="s">
+      <c r="AC2" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="133" t="s">
+      <c r="AD2" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="138" t="s">
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="AH2" s="138" t="s">
+      <c r="AH2" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="134" t="s">
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="120" t="s">
         <v>44</v>
       </c>
       <c r="AK2" s="121"/>
-      <c r="AL2" s="135"/>
-      <c r="AM2" s="27" t="s">
+      <c r="AL2" s="122"/>
+      <c r="AM2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="57" t="s">
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AP2" s="136" t="s">
+      <c r="AP2" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="AQ2" s="137"/>
-      <c r="AR2" s="134" t="s">
+      <c r="AQ2" s="124"/>
+      <c r="AR2" s="120" t="s">
         <v>42</v>
       </c>
       <c r="AS2" s="121"/>
@@ -2963,1014 +3049,1089 @@
       <c r="AX2" s="121"/>
       <c r="AY2" s="121"/>
       <c r="AZ2" s="121"/>
-      <c r="BA2" s="112"/>
-      <c r="BB2" s="113" t="s">
+      <c r="BA2" s="110"/>
+      <c r="BB2" s="111" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:54" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="29" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="29" t="s">
+      <c r="Q3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="R3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="S3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="28" t="s">
+      <c r="U3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="28" t="s">
+      <c r="V3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="28" t="s">
+      <c r="W3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="28" t="s">
+      <c r="X3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" s="28" t="s">
+      <c r="Y3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Z3" s="28" t="s">
+      <c r="Z3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="28" t="s">
+      <c r="AA3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AB3" s="28"/>
+      <c r="AB3" s="27"/>
       <c r="AC3" s="121"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="59" t="s">
+      <c r="AD3" s="119"/>
+      <c r="AE3" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="AF3" s="59" t="s">
+      <c r="AF3" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="36" t="s">
+      <c r="AG3" s="126"/>
+      <c r="AH3" s="126"/>
+      <c r="AI3" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="AJ3" s="98" t="s">
+      <c r="AJ3" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="AK3" s="98" t="s">
+      <c r="AK3" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="AL3" s="99" t="s">
+      <c r="AL3" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="AM3" s="98"/>
-      <c r="AN3" s="100" t="s">
+      <c r="AM3" s="96"/>
+      <c r="AN3" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="AO3" s="101" t="s">
+      <c r="AO3" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="AP3" s="102" t="s">
+      <c r="AP3" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="AQ3" s="103" t="s">
+      <c r="AQ3" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="AR3" s="104" t="s">
+      <c r="AR3" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="105" t="s">
+      <c r="AS3" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="105" t="s">
+      <c r="AT3" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="AU3" s="105" t="s">
+      <c r="AU3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="AV3" s="105" t="s">
+      <c r="AV3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="AW3" s="105" t="s">
+      <c r="AW3" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="AX3" s="105" t="s">
+      <c r="AX3" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="AY3" s="105" t="s">
+      <c r="AY3" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="AZ3" s="105" t="s">
+      <c r="AZ3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="BA3" s="114" t="s">
+      <c r="BA3" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="BB3" s="113"/>
+      <c r="BB3" s="111"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="92" t="s">
         <v>363</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8">
-        <v>1</v>
-      </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="94" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="93" t="s">
         <v>372</v>
       </c>
-      <c r="P4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>1</v>
-      </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6">
-        <v>1</v>
-      </c>
-      <c r="U4" s="6">
+      <c r="P4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>1</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5">
+        <v>1</v>
+      </c>
+      <c r="U4" s="5">
         <v>3</v>
       </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="17">
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="16">
         <v>1223</v>
       </c>
-      <c r="AB4" s="95" t="s">
+      <c r="AB4" s="94" t="s">
         <v>373</v>
       </c>
-      <c r="AC4" s="22">
+      <c r="AC4" s="21">
         <v>0.4</v>
       </c>
-      <c r="AD4" s="53">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="54">
+      <c r="AD4" s="52">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="53">
         <v>668111</v>
       </c>
-      <c r="AH4" s="54">
+      <c r="AH4" s="53">
         <v>945577</v>
       </c>
-      <c r="AI4" s="96" t="s">
+      <c r="AI4" s="95" t="s">
         <v>377</v>
       </c>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="106"/>
-      <c r="AL4" s="106"/>
-      <c r="AM4" t="s">
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="104"/>
+      <c r="AL4" s="104"/>
+      <c r="AM4" s="160" t="s">
         <v>380</v>
       </c>
-      <c r="AN4" s="54">
+      <c r="AN4" s="53">
         <v>668111</v>
       </c>
-      <c r="AO4" s="106" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="107"/>
-      <c r="AQ4" s="107"/>
-      <c r="AR4" s="108">
+      <c r="AO4" s="104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="105"/>
+      <c r="AQ4" s="105"/>
+      <c r="AR4" s="106">
         <v>100</v>
       </c>
-      <c r="AS4" s="109"/>
-      <c r="AT4" s="108"/>
-      <c r="AU4" s="110"/>
-      <c r="AV4" s="108"/>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41"/>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="111"/>
-      <c r="BA4" s="115"/>
-      <c r="BB4" s="41" t="s">
+      <c r="AS4" s="107"/>
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="108"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="40"/>
+      <c r="AX4" s="40"/>
+      <c r="AY4" s="40"/>
+      <c r="AZ4" s="109"/>
+      <c r="BA4" s="113"/>
+      <c r="BB4" s="162" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="92" t="s">
         <v>364</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9">
-        <v>1</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8">
-        <v>1</v>
-      </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="94" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="93" t="s">
         <v>372</v>
       </c>
-      <c r="P5" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6">
-        <v>1</v>
-      </c>
-      <c r="U5" s="7">
+      <c r="P5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>1</v>
+      </c>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5">
+        <v>1</v>
+      </c>
+      <c r="U5" s="6">
         <v>4</v>
       </c>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="17">
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="16">
         <v>1223</v>
       </c>
-      <c r="AB5" s="95" t="s">
+      <c r="AB5" s="94" t="s">
         <v>374</v>
       </c>
-      <c r="AC5" s="22">
+      <c r="AC5" s="21">
         <v>0.4</v>
       </c>
-      <c r="AD5" s="53">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="54">
+      <c r="AD5" s="52">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="53">
         <v>668111</v>
       </c>
-      <c r="AH5" s="54">
+      <c r="AH5" s="53">
         <v>945577</v>
       </c>
-      <c r="AI5" s="96" t="s">
+      <c r="AI5" s="95" t="s">
         <v>378</v>
       </c>
-      <c r="AJ5" s="106"/>
-      <c r="AK5" s="106"/>
-      <c r="AL5" s="106"/>
-      <c r="AM5" t="s">
+      <c r="AJ5" s="104"/>
+      <c r="AK5" s="104"/>
+      <c r="AL5" s="104"/>
+      <c r="AM5" s="160" t="s">
         <v>381</v>
       </c>
-      <c r="AN5" s="54">
+      <c r="AN5" s="53">
         <v>668111</v>
       </c>
-      <c r="AO5" s="106" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="107"/>
-      <c r="AQ5" s="107"/>
-      <c r="AR5" s="108"/>
-      <c r="AS5" s="109"/>
-      <c r="AT5" s="108"/>
-      <c r="AU5" s="110"/>
-      <c r="AV5" s="108"/>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="41"/>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="111"/>
-      <c r="BA5" s="115"/>
-      <c r="BB5" s="41" t="s">
+      <c r="AO5" s="104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="105"/>
+      <c r="AQ5" s="105"/>
+      <c r="AR5" s="106"/>
+      <c r="AS5" s="107"/>
+      <c r="AT5" s="106"/>
+      <c r="AU5" s="108"/>
+      <c r="AV5" s="106"/>
+      <c r="AW5" s="40"/>
+      <c r="AX5" s="40"/>
+      <c r="AY5" s="40"/>
+      <c r="AZ5" s="109"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="161" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="92" t="s">
         <v>365</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9">
-        <v>1</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8">
-        <v>1</v>
-      </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="94" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="93" t="s">
         <v>372</v>
       </c>
-      <c r="P6" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>1</v>
-      </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6">
-        <v>1</v>
-      </c>
-      <c r="U6" s="7">
+      <c r="P6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5">
+        <v>1</v>
+      </c>
+      <c r="U6" s="6">
         <v>6</v>
       </c>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="17">
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="16">
         <v>1223</v>
       </c>
-      <c r="AB6" s="95" t="s">
+      <c r="AB6" s="94" t="s">
         <v>375</v>
       </c>
-      <c r="AC6" s="22">
+      <c r="AC6" s="21">
         <v>0.4</v>
       </c>
-      <c r="AD6" s="53">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="54">
+      <c r="AD6" s="52">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="53">
         <v>668111</v>
       </c>
-      <c r="AH6" s="54">
+      <c r="AH6" s="53">
         <v>945577</v>
       </c>
-      <c r="AI6" s="96" t="s">
+      <c r="AI6" s="95" t="s">
         <v>379</v>
       </c>
-      <c r="AJ6" s="106"/>
-      <c r="AK6" s="106"/>
-      <c r="AL6" s="106"/>
-      <c r="AM6" t="s">
+      <c r="AJ6" s="104"/>
+      <c r="AK6" s="104"/>
+      <c r="AL6" s="104"/>
+      <c r="AM6" s="160" t="s">
         <v>382</v>
       </c>
-      <c r="AN6" s="54">
+      <c r="AN6" s="53">
         <v>668111</v>
       </c>
-      <c r="AO6" s="106" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="107"/>
-      <c r="AQ6" s="107"/>
-      <c r="AR6" s="108"/>
-      <c r="AS6" s="41"/>
-      <c r="AT6" s="108"/>
-      <c r="AU6" s="41"/>
-      <c r="AV6" s="108"/>
-      <c r="AW6" s="41"/>
-      <c r="AX6" s="41"/>
-      <c r="AY6" s="41"/>
-      <c r="AZ6" s="111"/>
-      <c r="BA6" s="115"/>
-      <c r="BB6" s="41" t="s">
+      <c r="AO6" s="104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="105"/>
+      <c r="AQ6" s="105"/>
+      <c r="AR6" s="106"/>
+      <c r="AS6" s="40"/>
+      <c r="AT6" s="106"/>
+      <c r="AU6" s="40"/>
+      <c r="AV6" s="106"/>
+      <c r="AW6" s="40"/>
+      <c r="AX6" s="40"/>
+      <c r="AY6" s="40"/>
+      <c r="AZ6" s="109"/>
+      <c r="BA6" s="113"/>
+      <c r="BB6" s="162" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="92" t="s">
         <v>366</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9">
-        <v>1</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8">
-        <v>1</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="94" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="93" t="s">
         <v>372</v>
       </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6">
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5">
         <v>3</v>
       </c>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="95" t="s">
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="94" t="s">
         <v>376</v>
       </c>
-      <c r="AC7" s="22">
+      <c r="AC7" s="21">
         <v>0.7</v>
       </c>
-      <c r="AD7" s="53">
+      <c r="AD7" s="52">
         <v>2</v>
       </c>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="54">
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="53">
         <v>668111</v>
       </c>
-      <c r="AH7" s="54">
+      <c r="AH7" s="53">
         <v>945577</v>
       </c>
-      <c r="AI7" s="96" t="s">
+      <c r="AI7" s="95" t="s">
         <v>389</v>
       </c>
-      <c r="AJ7" s="106"/>
-      <c r="AK7" s="106"/>
-      <c r="AL7" s="106"/>
-      <c r="AM7" t="s">
+      <c r="AJ7" s="104"/>
+      <c r="AK7" s="104"/>
+      <c r="AL7" s="104"/>
+      <c r="AM7" s="163" t="s">
         <v>390</v>
       </c>
-      <c r="AN7" s="54">
+      <c r="AN7" s="53">
         <v>668111</v>
       </c>
-      <c r="AO7" s="106" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="107"/>
-      <c r="AQ7" s="107"/>
-      <c r="AR7" s="108"/>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="108"/>
-      <c r="AU7" s="41"/>
-      <c r="AV7" s="108"/>
-      <c r="AW7" s="41"/>
-      <c r="AX7" s="41"/>
-      <c r="AY7" s="41"/>
-      <c r="AZ7" s="111"/>
-      <c r="BA7" s="115"/>
-      <c r="BB7" s="41" t="s">
+      <c r="AO7" s="104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="106"/>
+      <c r="AS7" s="40"/>
+      <c r="AT7" s="106"/>
+      <c r="AU7" s="40"/>
+      <c r="AV7" s="106"/>
+      <c r="AW7" s="40"/>
+      <c r="AX7" s="40"/>
+      <c r="AY7" s="40"/>
+      <c r="AZ7" s="109"/>
+      <c r="BA7" s="113"/>
+      <c r="BB7" s="40" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="92" t="s">
         <v>367</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8">
-        <v>1</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="94" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="93" t="s">
         <v>372</v>
       </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6">
-        <v>1</v>
-      </c>
-      <c r="U8" s="6">
+      <c r="P8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>1</v>
+      </c>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5">
+        <v>1</v>
+      </c>
+      <c r="U8" s="5">
         <v>3</v>
       </c>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="53"/>
-      <c r="AE8" s="53"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="54">
+      <c r="AB8" s="94" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC8" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="AD8" s="52">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="53">
         <v>668111</v>
       </c>
-      <c r="AH8" s="54">
+      <c r="AH8" s="53">
         <v>945577</v>
       </c>
-      <c r="AI8" s="97"/>
-      <c r="AJ8" s="106"/>
-      <c r="AK8" s="106"/>
-      <c r="AL8" s="106"/>
-      <c r="AN8" s="106"/>
-      <c r="AO8" s="106" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="107"/>
-      <c r="AQ8" s="41"/>
-      <c r="AR8" s="41"/>
-      <c r="AS8" s="41"/>
-      <c r="AT8" s="108"/>
-      <c r="AU8" s="41"/>
-      <c r="AV8" s="108"/>
-      <c r="AW8" s="41"/>
-      <c r="AX8" s="41"/>
-      <c r="AY8" s="41"/>
-      <c r="AZ8" s="111"/>
-      <c r="BA8" s="115"/>
-      <c r="BB8" s="41"/>
-    </row>
-    <row r="9" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
+      <c r="AI8" s="95" t="s">
+        <v>392</v>
+      </c>
+      <c r="AJ8" s="104"/>
+      <c r="AK8" s="104"/>
+      <c r="AL8" s="104"/>
+      <c r="AM8" t="s">
+        <v>393</v>
+      </c>
+      <c r="AN8" s="104"/>
+      <c r="AO8" s="104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="105"/>
+      <c r="AQ8" s="40"/>
+      <c r="AR8" s="40"/>
+      <c r="AS8" s="40"/>
+      <c r="AT8" s="106"/>
+      <c r="AU8" s="40"/>
+      <c r="AV8" s="106"/>
+      <c r="AW8" s="40"/>
+      <c r="AX8" s="40"/>
+      <c r="AY8" s="40"/>
+      <c r="AZ8" s="109"/>
+      <c r="BA8" s="113"/>
+      <c r="BB8" s="40" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A9" s="92" t="s">
         <v>368</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8">
-        <v>1</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="94" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="93" t="s">
         <v>372</v>
       </c>
-      <c r="P9" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>1</v>
-      </c>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6">
-        <v>1</v>
-      </c>
-      <c r="U9" s="6">
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>1</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5">
+        <v>1</v>
+      </c>
+      <c r="U9" s="5">
         <v>3</v>
       </c>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="53"/>
-      <c r="AE9" s="53"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="54">
+      <c r="AB9" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC9" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="AD9" s="52">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="53">
         <v>668111</v>
       </c>
-      <c r="AH9" s="54">
+      <c r="AH9" s="53">
         <v>945577</v>
       </c>
-      <c r="AI9" s="97"/>
-      <c r="AJ9" s="106"/>
-      <c r="AK9" s="106"/>
-      <c r="AL9" s="106"/>
-      <c r="AN9" s="106"/>
-      <c r="AO9" s="106" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="107"/>
-      <c r="AQ9" s="107"/>
-      <c r="AR9" s="108"/>
-      <c r="AS9" s="109"/>
-      <c r="AT9" s="108"/>
-      <c r="AU9" s="110"/>
-      <c r="AV9" s="108"/>
-      <c r="AW9" s="41"/>
-      <c r="AX9" s="41"/>
-      <c r="AY9" s="41"/>
-      <c r="AZ9" s="111"/>
-      <c r="BA9" s="115"/>
-      <c r="BB9" s="41"/>
+      <c r="AI9" s="95" t="s">
+        <v>405</v>
+      </c>
+      <c r="AJ9" s="104"/>
+      <c r="AK9" s="104"/>
+      <c r="AL9" s="104"/>
+      <c r="AM9" s="164" t="s">
+        <v>396</v>
+      </c>
+      <c r="AN9" s="104"/>
+      <c r="AO9" s="104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="105"/>
+      <c r="AQ9" s="105"/>
+      <c r="AR9" s="106"/>
+      <c r="AS9" s="107"/>
+      <c r="AT9" s="106"/>
+      <c r="AU9" s="108"/>
+      <c r="AV9" s="106"/>
+      <c r="AW9" s="40"/>
+      <c r="AX9" s="40"/>
+      <c r="AY9" s="40"/>
+      <c r="AZ9" s="109"/>
+      <c r="BA9" s="113"/>
+      <c r="BB9" s="165" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="92" t="s">
         <v>369</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8">
-        <v>1</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="94" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="93" t="s">
         <v>372</v>
       </c>
-      <c r="P10" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>1</v>
-      </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6">
-        <v>1</v>
-      </c>
-      <c r="U10" s="6">
+      <c r="P10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1</v>
+      </c>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5">
+        <v>1</v>
+      </c>
+      <c r="U10" s="5">
         <v>3</v>
       </c>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="95"/>
-      <c r="AC10" s="48">
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="94" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC10" s="47">
         <v>0.3</v>
       </c>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="54">
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="53">
         <v>668111</v>
       </c>
-      <c r="AH10" s="54">
+      <c r="AH10" s="53">
         <v>945577</v>
       </c>
-      <c r="AI10" s="97"/>
-      <c r="AJ10" s="106"/>
-      <c r="AK10" s="106"/>
-      <c r="AL10" s="106"/>
-      <c r="AN10" s="106"/>
-      <c r="AO10" s="106" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="41"/>
-      <c r="AQ10" s="41"/>
-      <c r="AR10" s="41"/>
-      <c r="AS10" s="41"/>
-      <c r="AT10" s="41"/>
-      <c r="AU10" s="41"/>
-      <c r="AV10" s="41"/>
-      <c r="AW10" s="41"/>
-      <c r="AX10" s="41"/>
-      <c r="AY10" s="41"/>
-      <c r="AZ10" s="40"/>
-      <c r="BA10" s="115"/>
-      <c r="BB10" s="41"/>
+      <c r="AI10" s="95" t="s">
+        <v>406</v>
+      </c>
+      <c r="AJ10" s="104"/>
+      <c r="AK10" s="104"/>
+      <c r="AL10" s="104"/>
+      <c r="AM10" s="164" t="s">
+        <v>397</v>
+      </c>
+      <c r="AN10" s="104"/>
+      <c r="AO10" s="104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="40"/>
+      <c r="AQ10" s="40"/>
+      <c r="AR10" s="40"/>
+      <c r="AS10" s="40"/>
+      <c r="AT10" s="40"/>
+      <c r="AU10" s="40"/>
+      <c r="AV10" s="40"/>
+      <c r="AW10" s="40"/>
+      <c r="AX10" s="40"/>
+      <c r="AY10" s="40"/>
+      <c r="AZ10" s="39"/>
+      <c r="BA10" s="113"/>
+      <c r="BB10" s="165" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="92" t="s">
         <v>370</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9">
-        <v>1</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8">
-        <v>1</v>
-      </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="94" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="93" t="s">
         <v>372</v>
       </c>
-      <c r="P11" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>1</v>
-      </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6">
-        <v>1</v>
-      </c>
-      <c r="U11" s="6">
+      <c r="P11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>1</v>
+      </c>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5">
+        <v>1</v>
+      </c>
+      <c r="U11" s="5">
         <v>3</v>
       </c>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="48">
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="94" t="s">
+        <v>412</v>
+      </c>
+      <c r="AC11" s="47">
         <v>0.5</v>
       </c>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="54">
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="53">
         <v>668111</v>
       </c>
-      <c r="AH11" s="54">
+      <c r="AH11" s="53">
         <v>945577</v>
       </c>
-      <c r="AI11" s="97"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="41"/>
-      <c r="AL11" s="41"/>
-      <c r="AN11" s="106"/>
-      <c r="AO11" s="106" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="41"/>
-      <c r="AQ11" s="41"/>
-      <c r="AR11" s="41"/>
-      <c r="AS11" s="41"/>
-      <c r="AT11" s="41"/>
-      <c r="AU11" s="41"/>
-      <c r="AV11" s="41"/>
-      <c r="AW11" s="41"/>
-      <c r="AX11" s="41"/>
-      <c r="AY11" s="41"/>
-      <c r="AZ11" s="40"/>
-      <c r="BA11" s="115"/>
-      <c r="BB11" s="41"/>
+      <c r="AI11" s="95" t="s">
+        <v>407</v>
+      </c>
+      <c r="AJ11" s="40"/>
+      <c r="AK11" s="40"/>
+      <c r="AL11" s="40"/>
+      <c r="AM11" s="164" t="s">
+        <v>398</v>
+      </c>
+      <c r="AN11" s="104"/>
+      <c r="AO11" s="104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="40"/>
+      <c r="AQ11" s="40"/>
+      <c r="AR11" s="40"/>
+      <c r="AS11" s="40"/>
+      <c r="AT11" s="40"/>
+      <c r="AU11" s="40"/>
+      <c r="AV11" s="40"/>
+      <c r="AW11" s="40"/>
+      <c r="AX11" s="40"/>
+      <c r="AY11" s="40"/>
+      <c r="AZ11" s="39"/>
+      <c r="BA11" s="113"/>
+      <c r="BB11" s="165" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="92" t="s">
         <v>371</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9">
-        <v>1</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8">
-        <v>1</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="94" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="93" t="s">
         <v>372</v>
       </c>
-      <c r="P12" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>1</v>
-      </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6">
-        <v>1</v>
-      </c>
-      <c r="U12" s="6">
+      <c r="P12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>1</v>
+      </c>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5">
+        <v>1</v>
+      </c>
+      <c r="U12" s="5">
         <v>3</v>
       </c>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="54">
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="94" t="s">
+        <v>413</v>
+      </c>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="53">
         <v>668111</v>
       </c>
-      <c r="AH12" s="54">
+      <c r="AH12" s="53">
         <v>945577</v>
       </c>
-      <c r="AI12" s="97"/>
-      <c r="AJ12" s="41"/>
-      <c r="AK12" s="41"/>
-      <c r="AL12" s="41"/>
-      <c r="AN12" s="106"/>
-      <c r="AO12" s="106" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="41"/>
-      <c r="AQ12" s="41"/>
-      <c r="AR12" s="41"/>
-      <c r="AS12" s="41"/>
-      <c r="AT12" s="41"/>
-      <c r="AU12" s="41"/>
-      <c r="AV12" s="41"/>
-      <c r="AW12" s="41"/>
-      <c r="AX12" s="41"/>
-      <c r="AY12" s="41"/>
-      <c r="AZ12" s="40"/>
-      <c r="BA12" s="115"/>
-      <c r="BB12" s="41"/>
+      <c r="AI12" s="95" t="s">
+        <v>408</v>
+      </c>
+      <c r="AJ12" s="40"/>
+      <c r="AK12" s="40"/>
+      <c r="AL12" s="40"/>
+      <c r="AM12" s="164" t="s">
+        <v>399</v>
+      </c>
+      <c r="AN12" s="104"/>
+      <c r="AO12" s="104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="40"/>
+      <c r="AQ12" s="40"/>
+      <c r="AR12" s="40"/>
+      <c r="AS12" s="40"/>
+      <c r="AT12" s="40"/>
+      <c r="AU12" s="40"/>
+      <c r="AV12" s="40"/>
+      <c r="AW12" s="40"/>
+      <c r="AX12" s="40"/>
+      <c r="AY12" s="40"/>
+      <c r="AZ12" s="39"/>
+      <c r="BA12" s="113"/>
+      <c r="BB12" s="165" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="13" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="92" t="s">
         <v>388</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8">
-        <v>1</v>
-      </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="94" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="93" t="s">
         <v>372</v>
       </c>
-      <c r="P13" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>1</v>
-      </c>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6">
-        <v>1</v>
-      </c>
-      <c r="U13" s="6">
+      <c r="P13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>1</v>
+      </c>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5">
+        <v>1</v>
+      </c>
+      <c r="U13" s="5">
         <v>3</v>
       </c>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="95"/>
-      <c r="AD13" s="55"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="55"/>
-      <c r="AG13" s="54">
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="94" t="s">
+        <v>414</v>
+      </c>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="54"/>
+      <c r="AG13" s="53">
         <v>668111</v>
       </c>
-      <c r="AH13" s="54">
+      <c r="AH13" s="53">
         <v>945577</v>
       </c>
-      <c r="AI13" s="97"/>
-      <c r="AJ13" s="41"/>
-      <c r="AK13" s="41"/>
-      <c r="AL13" s="41"/>
-      <c r="AN13" s="106"/>
-      <c r="AO13" s="106" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="41"/>
-      <c r="AQ13" s="41"/>
-      <c r="AR13" s="41"/>
-      <c r="AS13" s="41"/>
-      <c r="AT13" s="41"/>
-      <c r="AU13" s="41"/>
-      <c r="AV13" s="41"/>
-      <c r="AW13" s="41"/>
-      <c r="AX13" s="41"/>
-      <c r="AY13" s="41"/>
-      <c r="AZ13" s="40"/>
-      <c r="BA13" s="116"/>
-      <c r="BB13" s="41"/>
+      <c r="AI13" s="95" t="s">
+        <v>409</v>
+      </c>
+      <c r="AJ13" s="40"/>
+      <c r="AK13" s="40"/>
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="164" t="s">
+        <v>400</v>
+      </c>
+      <c r="AN13" s="104"/>
+      <c r="AO13" s="104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="40"/>
+      <c r="AQ13" s="40"/>
+      <c r="AR13" s="40"/>
+      <c r="AS13" s="40"/>
+      <c r="AT13" s="40"/>
+      <c r="AU13" s="40"/>
+      <c r="AV13" s="40"/>
+      <c r="AW13" s="40"/>
+      <c r="AX13" s="40"/>
+      <c r="AY13" s="40"/>
+      <c r="AZ13" s="39"/>
+      <c r="BA13" s="114"/>
+      <c r="BB13" s="165" t="s">
+        <v>404</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:AA2"/>
     <mergeCell ref="BA1:BB1"/>
     <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="AC1:AH1"/>
@@ -3980,13 +4141,6 @@
     <mergeCell ref="AR2:AZ2"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3999,7 +4153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA249011-D726-47B3-9440-8B01236A4F88}">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AF22" sqref="AF22"/>
     </sheetView>
   </sheetViews>
@@ -4013,19 +4167,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="138" t="s">
+      <c r="C1" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="145" t="s">
+      <c r="D1" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="147" t="s">
+      <c r="E1" s="145" t="s">
         <v>48</v>
       </c>
       <c r="F1" s="121"/>
@@ -4039,7 +4193,7 @@
       <c r="N1" s="121"/>
       <c r="O1" s="121"/>
       <c r="P1" s="121"/>
-      <c r="Q1" s="148" t="s">
+      <c r="Q1" s="146" t="s">
         <v>47</v>
       </c>
       <c r="R1" s="121"/>
@@ -4053,7 +4207,7 @@
       <c r="Z1" s="121"/>
       <c r="AA1" s="121"/>
       <c r="AB1" s="121"/>
-      <c r="AC1" s="143" t="s">
+      <c r="AC1" s="141" t="s">
         <v>46</v>
       </c>
       <c r="AD1" s="121"/>
@@ -4062,324 +4216,324 @@
       <c r="AG1" s="121"/>
       <c r="AH1" s="121"/>
       <c r="AI1" s="121"/>
-      <c r="AJ1" s="144" t="s">
+      <c r="AJ1" s="142" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="133"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="26">
-        <v>1</v>
-      </c>
-      <c r="F2" s="26">
+      <c r="A2" s="119"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="25">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25">
         <v>2</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="25">
         <v>3</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="25">
         <v>4</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="25">
         <v>5</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="25">
         <v>6</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="25">
         <v>7</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="25">
         <v>8</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="25">
         <v>9</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="25">
         <v>10</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="25">
         <v>11</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="25">
         <v>12</v>
       </c>
-      <c r="Q2" s="25">
-        <v>1</v>
-      </c>
-      <c r="R2" s="25">
+      <c r="Q2" s="24">
+        <v>1</v>
+      </c>
+      <c r="R2" s="24">
         <v>2</v>
       </c>
-      <c r="S2" s="25">
+      <c r="S2" s="24">
         <v>3</v>
       </c>
-      <c r="T2" s="25">
+      <c r="T2" s="24">
         <v>4</v>
       </c>
-      <c r="U2" s="25">
+      <c r="U2" s="24">
         <v>5</v>
       </c>
-      <c r="V2" s="25">
+      <c r="V2" s="24">
         <v>6</v>
       </c>
-      <c r="W2" s="25">
+      <c r="W2" s="24">
         <v>7</v>
       </c>
-      <c r="X2" s="25">
+      <c r="X2" s="24">
         <v>8</v>
       </c>
-      <c r="Y2" s="25">
+      <c r="Y2" s="24">
         <v>9</v>
       </c>
-      <c r="Z2" s="25">
+      <c r="Z2" s="24">
         <v>10</v>
       </c>
-      <c r="AA2" s="25">
+      <c r="AA2" s="24">
         <v>11</v>
       </c>
-      <c r="AB2" s="25">
+      <c r="AB2" s="24">
         <v>12</v>
       </c>
-      <c r="AC2" s="24">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="24">
+      <c r="AC2" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="23">
         <v>2</v>
       </c>
-      <c r="AE2" s="24">
+      <c r="AE2" s="23">
         <v>3</v>
       </c>
-      <c r="AF2" s="24">
+      <c r="AF2" s="23">
         <v>4</v>
       </c>
-      <c r="AG2" s="24">
+      <c r="AG2" s="23">
         <v>5</v>
       </c>
-      <c r="AH2" s="24">
+      <c r="AH2" s="23">
         <v>6</v>
       </c>
-      <c r="AI2" s="24">
+      <c r="AI2" s="23">
         <v>7</v>
       </c>
       <c r="AJ2" s="121"/>
     </row>
     <row r="3" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="142">
-        <v>1</v>
-      </c>
-      <c r="B3" s="142">
+      <c r="A3" s="140">
+        <v>1</v>
+      </c>
+      <c r="B3" s="140">
         <v>732497</v>
       </c>
-      <c r="C3" s="142">
+      <c r="C3" s="140">
         <v>936659</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="82">
-        <v>0</v>
-      </c>
-      <c r="F3" s="82">
-        <v>0</v>
-      </c>
-      <c r="G3" s="82">
-        <v>0</v>
-      </c>
-      <c r="H3" s="82">
-        <v>0</v>
-      </c>
-      <c r="I3" s="20">
-        <v>1</v>
-      </c>
-      <c r="J3" s="20">
-        <v>1</v>
-      </c>
-      <c r="K3" s="20">
-        <v>1</v>
-      </c>
-      <c r="L3" s="20">
-        <v>1</v>
-      </c>
-      <c r="M3" s="20">
-        <v>1</v>
-      </c>
-      <c r="N3" s="20">
-        <v>1</v>
-      </c>
-      <c r="O3" s="20">
-        <v>1</v>
-      </c>
-      <c r="P3" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="79">
-        <v>0</v>
-      </c>
-      <c r="R3" s="79">
-        <v>0</v>
-      </c>
-      <c r="S3" s="79">
-        <v>0</v>
-      </c>
-      <c r="T3" s="79">
-        <v>0</v>
-      </c>
-      <c r="U3" s="79">
-        <v>0</v>
-      </c>
-      <c r="V3" s="79">
-        <v>0</v>
-      </c>
-      <c r="W3" s="79">
-        <v>0</v>
-      </c>
-      <c r="X3" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="79">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="79">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="19">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="18">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="18">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="18">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="18">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="46">
+      <c r="E3" s="81">
+        <v>0</v>
+      </c>
+      <c r="F3" s="81">
+        <v>0</v>
+      </c>
+      <c r="G3" s="81">
+        <v>0</v>
+      </c>
+      <c r="H3" s="81">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19">
+        <v>1</v>
+      </c>
+      <c r="J3" s="19">
+        <v>1</v>
+      </c>
+      <c r="K3" s="19">
+        <v>1</v>
+      </c>
+      <c r="L3" s="19">
+        <v>1</v>
+      </c>
+      <c r="M3" s="19">
+        <v>1</v>
+      </c>
+      <c r="N3" s="19">
+        <v>1</v>
+      </c>
+      <c r="O3" s="19">
+        <v>1</v>
+      </c>
+      <c r="P3" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="78">
+        <v>0</v>
+      </c>
+      <c r="R3" s="78">
+        <v>0</v>
+      </c>
+      <c r="S3" s="78">
+        <v>0</v>
+      </c>
+      <c r="T3" s="78">
+        <v>0</v>
+      </c>
+      <c r="U3" s="78">
+        <v>0</v>
+      </c>
+      <c r="V3" s="78">
+        <v>0</v>
+      </c>
+      <c r="W3" s="78">
+        <v>0</v>
+      </c>
+      <c r="X3" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="78">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="17">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="17">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="17">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="45">
         <f t="shared" ref="AJ3:AJ22" si="0">SUM(E3:AI3)</f>
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="142"/>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="16" t="s">
+      <c r="A4" s="140"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="45">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="142"/>
-      <c r="B5" s="142"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="45">
+      <c r="A5" s="140"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="142"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
+      <c r="A6" s="140"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
       <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="83">
-        <v>0</v>
-      </c>
-      <c r="F6" s="83">
-        <v>0</v>
-      </c>
-      <c r="G6" s="83">
-        <v>0</v>
-      </c>
-      <c r="H6" s="83">
+      <c r="E6" s="82">
+        <v>0</v>
+      </c>
+      <c r="F6" s="82">
+        <v>0</v>
+      </c>
+      <c r="G6" s="82">
+        <v>0</v>
+      </c>
+      <c r="H6" s="82">
         <v>0</v>
       </c>
       <c r="I6" s="3">
@@ -4406,34 +4560,34 @@
       <c r="P6" s="3">
         <v>1</v>
       </c>
-      <c r="Q6" s="81">
-        <v>0</v>
-      </c>
-      <c r="R6" s="81">
-        <v>0</v>
-      </c>
-      <c r="S6" s="81">
-        <v>0</v>
-      </c>
-      <c r="T6" s="81">
-        <v>0</v>
-      </c>
-      <c r="U6" s="81">
-        <v>0</v>
-      </c>
-      <c r="V6" s="81">
-        <v>0</v>
-      </c>
-      <c r="W6" s="81">
-        <v>0</v>
-      </c>
-      <c r="X6" s="81">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="81">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="81">
+      <c r="Q6" s="80">
+        <v>0</v>
+      </c>
+      <c r="R6" s="80">
+        <v>0</v>
+      </c>
+      <c r="S6" s="80">
+        <v>0</v>
+      </c>
+      <c r="T6" s="80">
+        <v>0</v>
+      </c>
+      <c r="U6" s="80">
+        <v>0</v>
+      </c>
+      <c r="V6" s="80">
+        <v>0</v>
+      </c>
+      <c r="W6" s="80">
+        <v>0</v>
+      </c>
+      <c r="X6" s="80">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="80">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="80">
         <v>0</v>
       </c>
       <c r="AA6" s="2">
@@ -4459,212 +4613,212 @@
       </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
-      <c r="AJ6" s="47">
+      <c r="AJ6" s="46">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="140">
+      <c r="A7" s="138">
         <v>2</v>
       </c>
-      <c r="B7" s="142">
+      <c r="B7" s="140">
         <v>732497</v>
       </c>
-      <c r="C7" s="142">
+      <c r="C7" s="140">
         <v>936659</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="20">
-        <v>1</v>
-      </c>
-      <c r="F7" s="20">
-        <v>1</v>
-      </c>
-      <c r="G7" s="20">
-        <v>1</v>
-      </c>
-      <c r="H7" s="20">
-        <v>1</v>
-      </c>
-      <c r="I7" s="20">
-        <v>1</v>
-      </c>
-      <c r="J7" s="20">
-        <v>1</v>
-      </c>
-      <c r="K7" s="20">
-        <v>1</v>
-      </c>
-      <c r="L7" s="20">
-        <v>1</v>
-      </c>
-      <c r="M7" s="20">
-        <v>1</v>
-      </c>
-      <c r="N7" s="20">
-        <v>1</v>
-      </c>
-      <c r="O7" s="20">
-        <v>1</v>
-      </c>
-      <c r="P7" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="19">
-        <v>1</v>
-      </c>
-      <c r="R7" s="19">
-        <v>1</v>
-      </c>
-      <c r="S7" s="19">
-        <v>1</v>
-      </c>
-      <c r="T7" s="19">
-        <v>1</v>
-      </c>
-      <c r="U7" s="19">
-        <v>1</v>
-      </c>
-      <c r="V7" s="79">
-        <v>0</v>
-      </c>
-      <c r="W7" s="19">
-        <v>1</v>
-      </c>
-      <c r="X7" s="19">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="19">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="19">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="19">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="18">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="18">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="18">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="18">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="46">
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19">
+        <v>1</v>
+      </c>
+      <c r="L7" s="19">
+        <v>1</v>
+      </c>
+      <c r="M7" s="19">
+        <v>1</v>
+      </c>
+      <c r="N7" s="19">
+        <v>1</v>
+      </c>
+      <c r="O7" s="19">
+        <v>1</v>
+      </c>
+      <c r="P7" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>1</v>
+      </c>
+      <c r="R7" s="18">
+        <v>1</v>
+      </c>
+      <c r="S7" s="18">
+        <v>1</v>
+      </c>
+      <c r="T7" s="18">
+        <v>1</v>
+      </c>
+      <c r="U7" s="18">
+        <v>1</v>
+      </c>
+      <c r="V7" s="78">
+        <v>0</v>
+      </c>
+      <c r="W7" s="18">
+        <v>1</v>
+      </c>
+      <c r="X7" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="45">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="141"/>
-      <c r="B8" s="142"/>
-      <c r="C8" s="142"/>
-      <c r="D8" s="16" t="s">
+      <c r="A8" s="139"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="45">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="141"/>
-      <c r="B9" s="142"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="45">
+      <c r="A9" s="139"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="141"/>
-      <c r="B10" s="142"/>
-      <c r="C10" s="142"/>
+      <c r="A10" s="139"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="140"/>
       <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
@@ -4719,7 +4873,7 @@
       <c r="U10" s="2">
         <v>1</v>
       </c>
-      <c r="V10" s="81">
+      <c r="V10" s="80">
         <v>0</v>
       </c>
       <c r="W10" s="2">
@@ -4757,212 +4911,212 @@
       </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
-      <c r="AJ10" s="47">
+      <c r="AJ10" s="46">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="140">
+      <c r="A11" s="138">
         <v>3</v>
       </c>
-      <c r="B11" s="142">
+      <c r="B11" s="140">
         <v>732497</v>
       </c>
-      <c r="C11" s="142">
+      <c r="C11" s="140">
         <v>936659</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="20">
-        <v>1</v>
-      </c>
-      <c r="F11" s="20">
-        <v>1</v>
-      </c>
-      <c r="G11" s="20">
-        <v>1</v>
-      </c>
-      <c r="H11" s="20">
-        <v>1</v>
-      </c>
-      <c r="I11" s="20">
-        <v>1</v>
-      </c>
-      <c r="J11" s="20">
-        <v>1</v>
-      </c>
-      <c r="K11" s="20">
-        <v>1</v>
-      </c>
-      <c r="L11" s="20">
-        <v>1</v>
-      </c>
-      <c r="M11" s="20">
-        <v>1</v>
-      </c>
-      <c r="N11" s="82">
-        <v>0</v>
-      </c>
-      <c r="O11" s="82">
-        <v>0</v>
-      </c>
-      <c r="P11" s="82">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="19">
-        <v>1</v>
-      </c>
-      <c r="R11" s="19">
-        <v>1</v>
-      </c>
-      <c r="S11" s="19">
-        <v>1</v>
-      </c>
-      <c r="T11" s="19">
-        <v>1</v>
-      </c>
-      <c r="U11" s="19">
-        <v>1</v>
-      </c>
-      <c r="V11" s="79">
-        <v>0</v>
-      </c>
-      <c r="W11" s="19">
-        <v>1</v>
-      </c>
-      <c r="X11" s="19">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="19">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="79">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="79">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="79">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="18">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="18">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="18">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="18">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="46">
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19">
+        <v>1</v>
+      </c>
+      <c r="L11" s="19">
+        <v>1</v>
+      </c>
+      <c r="M11" s="19">
+        <v>1</v>
+      </c>
+      <c r="N11" s="81">
+        <v>0</v>
+      </c>
+      <c r="O11" s="81">
+        <v>0</v>
+      </c>
+      <c r="P11" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>1</v>
+      </c>
+      <c r="R11" s="18">
+        <v>1</v>
+      </c>
+      <c r="S11" s="18">
+        <v>1</v>
+      </c>
+      <c r="T11" s="18">
+        <v>1</v>
+      </c>
+      <c r="U11" s="18">
+        <v>1</v>
+      </c>
+      <c r="V11" s="78">
+        <v>0</v>
+      </c>
+      <c r="W11" s="18">
+        <v>1</v>
+      </c>
+      <c r="X11" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="78">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="78">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="17">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="17">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="17">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="45">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="141"/>
-      <c r="B12" s="142"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="16" t="s">
+      <c r="A12" s="139"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="45">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="141"/>
-      <c r="B13" s="142"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ13" s="45">
+      <c r="A13" s="139"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="141"/>
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
+      <c r="A14" s="139"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
       <c r="D14" s="4" t="s">
         <v>0</v>
       </c>
@@ -4993,13 +5147,13 @@
       <c r="M14" s="3">
         <v>1</v>
       </c>
-      <c r="N14" s="83">
-        <v>0</v>
-      </c>
-      <c r="O14" s="83">
-        <v>0</v>
-      </c>
-      <c r="P14" s="83">
+      <c r="N14" s="82">
+        <v>0</v>
+      </c>
+      <c r="O14" s="82">
+        <v>0</v>
+      </c>
+      <c r="P14" s="82">
         <v>0</v>
       </c>
       <c r="Q14" s="2">
@@ -5017,7 +5171,7 @@
       <c r="U14" s="2">
         <v>1</v>
       </c>
-      <c r="V14" s="81">
+      <c r="V14" s="80">
         <v>0</v>
       </c>
       <c r="W14" s="2">
@@ -5029,13 +5183,13 @@
       <c r="Y14" s="2">
         <v>1</v>
       </c>
-      <c r="Z14" s="81">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="81">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="81">
+      <c r="Z14" s="80">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="80">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="80">
         <v>0</v>
       </c>
       <c r="AC14" s="1">
@@ -5055,231 +5209,231 @@
       </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
-      <c r="AJ14" s="47">
+      <c r="AJ14" s="46">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="140">
+      <c r="A15" s="138">
         <v>4</v>
       </c>
-      <c r="B15" s="142">
+      <c r="B15" s="140">
         <v>732497</v>
       </c>
-      <c r="C15" s="142">
+      <c r="C15" s="140">
         <v>936659</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="82">
-        <v>0</v>
-      </c>
-      <c r="F15" s="82">
-        <v>0</v>
-      </c>
-      <c r="G15" s="82">
-        <v>0</v>
-      </c>
-      <c r="H15" s="82">
-        <v>0</v>
-      </c>
-      <c r="I15" s="82">
-        <v>0</v>
-      </c>
-      <c r="J15" s="82">
-        <v>0</v>
-      </c>
-      <c r="K15" s="20">
-        <v>1</v>
-      </c>
-      <c r="L15" s="20">
-        <v>1</v>
-      </c>
-      <c r="M15" s="20">
-        <v>1</v>
-      </c>
-      <c r="N15" s="82">
-        <v>0</v>
-      </c>
-      <c r="O15" s="82">
-        <v>0</v>
-      </c>
-      <c r="P15" s="82">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="79">
-        <v>0</v>
-      </c>
-      <c r="R15" s="79">
-        <v>0</v>
-      </c>
-      <c r="S15" s="79">
-        <v>0</v>
-      </c>
-      <c r="T15" s="79">
-        <v>0</v>
-      </c>
-      <c r="U15" s="79">
-        <v>0</v>
-      </c>
-      <c r="V15" s="79">
-        <v>0</v>
-      </c>
-      <c r="W15" s="19">
-        <v>1</v>
-      </c>
-      <c r="X15" s="19">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="19">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="79">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="79">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="79">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="18">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="18">
-        <v>1</v>
-      </c>
-      <c r="AF15" s="18">
-        <v>1</v>
-      </c>
-      <c r="AG15" s="18">
-        <v>1</v>
-      </c>
-      <c r="AH15" s="18"/>
-      <c r="AI15" s="18"/>
-      <c r="AJ15" s="46">
+      <c r="E15" s="81">
+        <v>0</v>
+      </c>
+      <c r="F15" s="81">
+        <v>0</v>
+      </c>
+      <c r="G15" s="81">
+        <v>0</v>
+      </c>
+      <c r="H15" s="81">
+        <v>0</v>
+      </c>
+      <c r="I15" s="81">
+        <v>0</v>
+      </c>
+      <c r="J15" s="81">
+        <v>0</v>
+      </c>
+      <c r="K15" s="19">
+        <v>1</v>
+      </c>
+      <c r="L15" s="19">
+        <v>1</v>
+      </c>
+      <c r="M15" s="19">
+        <v>1</v>
+      </c>
+      <c r="N15" s="81">
+        <v>0</v>
+      </c>
+      <c r="O15" s="81">
+        <v>0</v>
+      </c>
+      <c r="P15" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="78">
+        <v>0</v>
+      </c>
+      <c r="R15" s="78">
+        <v>0</v>
+      </c>
+      <c r="S15" s="78">
+        <v>0</v>
+      </c>
+      <c r="T15" s="78">
+        <v>0</v>
+      </c>
+      <c r="U15" s="78">
+        <v>0</v>
+      </c>
+      <c r="V15" s="78">
+        <v>0</v>
+      </c>
+      <c r="W15" s="18">
+        <v>1</v>
+      </c>
+      <c r="X15" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="78">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="78">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="45">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="141"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="16" t="s">
+      <c r="A16" s="139"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="45">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="141"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="45">
+      <c r="A17" s="139"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="141"/>
-      <c r="B18" s="142"/>
-      <c r="C18" s="142"/>
+      <c r="A18" s="139"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
       <c r="D18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="83">
-        <v>0</v>
-      </c>
-      <c r="F18" s="83">
-        <v>0</v>
-      </c>
-      <c r="G18" s="83">
-        <v>0</v>
-      </c>
-      <c r="H18" s="83">
-        <v>0</v>
-      </c>
-      <c r="I18" s="83">
-        <v>0</v>
-      </c>
-      <c r="J18" s="83">
+      <c r="E18" s="82">
+        <v>0</v>
+      </c>
+      <c r="F18" s="82">
+        <v>0</v>
+      </c>
+      <c r="G18" s="82">
+        <v>0</v>
+      </c>
+      <c r="H18" s="82">
+        <v>0</v>
+      </c>
+      <c r="I18" s="82">
+        <v>0</v>
+      </c>
+      <c r="J18" s="82">
         <v>0</v>
       </c>
       <c r="K18" s="3">
@@ -5291,31 +5445,31 @@
       <c r="M18" s="3">
         <v>1</v>
       </c>
-      <c r="N18" s="83">
-        <v>0</v>
-      </c>
-      <c r="O18" s="83">
-        <v>0</v>
-      </c>
-      <c r="P18" s="83">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="81">
-        <v>0</v>
-      </c>
-      <c r="R18" s="81">
-        <v>0</v>
-      </c>
-      <c r="S18" s="81">
-        <v>0</v>
-      </c>
-      <c r="T18" s="81">
-        <v>0</v>
-      </c>
-      <c r="U18" s="81">
-        <v>0</v>
-      </c>
-      <c r="V18" s="81">
+      <c r="N18" s="82">
+        <v>0</v>
+      </c>
+      <c r="O18" s="82">
+        <v>0</v>
+      </c>
+      <c r="P18" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="80">
+        <v>0</v>
+      </c>
+      <c r="R18" s="80">
+        <v>0</v>
+      </c>
+      <c r="S18" s="80">
+        <v>0</v>
+      </c>
+      <c r="T18" s="80">
+        <v>0</v>
+      </c>
+      <c r="U18" s="80">
+        <v>0</v>
+      </c>
+      <c r="V18" s="80">
         <v>0</v>
       </c>
       <c r="W18" s="2">
@@ -5327,13 +5481,13 @@
       <c r="Y18" s="2">
         <v>1</v>
       </c>
-      <c r="Z18" s="81">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="81">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="81">
+      <c r="Z18" s="80">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="80">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="80">
         <v>0</v>
       </c>
       <c r="AC18" s="1">
@@ -5353,287 +5507,301 @@
       </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
-      <c r="AJ18" s="47">
+      <c r="AJ18" s="46">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" s="140">
-        <v>1</v>
-      </c>
-      <c r="B19" s="142">
+      <c r="A19" s="138">
+        <v>1</v>
+      </c>
+      <c r="B19" s="140">
         <v>732497</v>
       </c>
-      <c r="C19" s="142">
+      <c r="C19" s="140">
         <v>936659</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="84">
-        <v>1</v>
-      </c>
-      <c r="J19" s="84">
-        <v>1</v>
-      </c>
-      <c r="K19" s="84">
-        <v>1</v>
-      </c>
-      <c r="L19" s="84">
-        <v>1</v>
-      </c>
-      <c r="M19" s="84">
-        <v>1</v>
-      </c>
-      <c r="N19" s="84">
-        <v>1</v>
-      </c>
-      <c r="O19" s="84">
-        <v>1</v>
-      </c>
-      <c r="P19" s="84">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="79">
-        <v>0</v>
-      </c>
-      <c r="R19" s="79">
-        <v>0</v>
-      </c>
-      <c r="S19" s="79">
-        <v>0</v>
-      </c>
-      <c r="T19" s="79">
-        <v>0</v>
-      </c>
-      <c r="U19" s="79">
-        <v>0</v>
-      </c>
-      <c r="V19" s="79">
-        <v>0</v>
-      </c>
-      <c r="W19" s="79">
-        <v>0</v>
-      </c>
-      <c r="X19" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="79">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="79">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="87">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="87">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="88">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="88">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="88">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="18"/>
-      <c r="AJ19" s="46">
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="83">
+        <v>1</v>
+      </c>
+      <c r="J19" s="83">
+        <v>1</v>
+      </c>
+      <c r="K19" s="83">
+        <v>1</v>
+      </c>
+      <c r="L19" s="83">
+        <v>1</v>
+      </c>
+      <c r="M19" s="83">
+        <v>1</v>
+      </c>
+      <c r="N19" s="83">
+        <v>1</v>
+      </c>
+      <c r="O19" s="83">
+        <v>1</v>
+      </c>
+      <c r="P19" s="83">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="78">
+        <v>0</v>
+      </c>
+      <c r="R19" s="78">
+        <v>0</v>
+      </c>
+      <c r="S19" s="78">
+        <v>0</v>
+      </c>
+      <c r="T19" s="78">
+        <v>0</v>
+      </c>
+      <c r="U19" s="78">
+        <v>0</v>
+      </c>
+      <c r="V19" s="78">
+        <v>0</v>
+      </c>
+      <c r="W19" s="78">
+        <v>0</v>
+      </c>
+      <c r="X19" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="78">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="86">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="86">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="87">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="87">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="87">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="45">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="141"/>
-      <c r="B20" s="142"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="16" t="s">
+      <c r="A20" s="139"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="80"/>
-      <c r="X20" s="80"/>
-      <c r="Y20" s="80"/>
-      <c r="Z20" s="80"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="89"/>
-      <c r="AC20" s="90"/>
-      <c r="AD20" s="90"/>
-      <c r="AE20" s="90"/>
-      <c r="AF20" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="45">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="88"/>
+      <c r="AB20" s="88"/>
+      <c r="AC20" s="89"/>
+      <c r="AD20" s="89"/>
+      <c r="AE20" s="89"/>
+      <c r="AF20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="141"/>
-      <c r="B21" s="142"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="80"/>
-      <c r="X21" s="80"/>
-      <c r="Y21" s="80"/>
-      <c r="Z21" s="80"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="89"/>
-      <c r="AC21" s="90"/>
-      <c r="AD21" s="90"/>
-      <c r="AE21" s="90"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="45">
+      <c r="A21" s="139"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="88"/>
+      <c r="AB21" s="88"/>
+      <c r="AC21" s="89"/>
+      <c r="AD21" s="89"/>
+      <c r="AE21" s="89"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="141"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="142"/>
+      <c r="A22" s="139"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="140"/>
       <c r="D22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="86">
-        <v>1</v>
-      </c>
-      <c r="J22" s="86">
-        <v>1</v>
-      </c>
-      <c r="K22" s="86">
-        <v>1</v>
-      </c>
-      <c r="L22" s="86">
-        <v>1</v>
-      </c>
-      <c r="M22" s="86">
-        <v>1</v>
-      </c>
-      <c r="N22" s="86">
-        <v>1</v>
-      </c>
-      <c r="O22" s="86">
-        <v>1</v>
-      </c>
-      <c r="P22" s="86">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="81">
-        <v>0</v>
-      </c>
-      <c r="R22" s="81">
-        <v>0</v>
-      </c>
-      <c r="S22" s="81">
-        <v>0</v>
-      </c>
-      <c r="T22" s="81">
-        <v>0</v>
-      </c>
-      <c r="U22" s="81">
-        <v>0</v>
-      </c>
-      <c r="V22" s="81">
-        <v>0</v>
-      </c>
-      <c r="W22" s="81">
-        <v>0</v>
-      </c>
-      <c r="X22" s="81">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="81">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="81">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="91">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="91">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="92">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="92">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="92">
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="85">
+        <v>1</v>
+      </c>
+      <c r="J22" s="85">
+        <v>1</v>
+      </c>
+      <c r="K22" s="85">
+        <v>1</v>
+      </c>
+      <c r="L22" s="85">
+        <v>1</v>
+      </c>
+      <c r="M22" s="85">
+        <v>1</v>
+      </c>
+      <c r="N22" s="85">
+        <v>1</v>
+      </c>
+      <c r="O22" s="85">
+        <v>1</v>
+      </c>
+      <c r="P22" s="85">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="80">
+        <v>0</v>
+      </c>
+      <c r="R22" s="80">
+        <v>0</v>
+      </c>
+      <c r="S22" s="80">
+        <v>0</v>
+      </c>
+      <c r="T22" s="80">
+        <v>0</v>
+      </c>
+      <c r="U22" s="80">
+        <v>0</v>
+      </c>
+      <c r="V22" s="80">
+        <v>0</v>
+      </c>
+      <c r="W22" s="80">
+        <v>0</v>
+      </c>
+      <c r="X22" s="80">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="80">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="80">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="90">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="91">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="91">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="91">
         <v>1</v>
       </c>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
-      <c r="AJ22" s="47">
+      <c r="AJ22" s="46">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="AC1:AI1"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="Q1:AB1"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
@@ -5643,20 +5811,6 @@
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="C15:C18"/>
-    <mergeCell ref="AC1:AI1"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="Q1:AB1"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5693,13 +5847,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="50">
         <v>49.272089999999999</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="48">
         <v>47.892699999999998</v>
       </c>
       <c r="D2">
@@ -5707,13 +5861,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="50">
         <v>50.511850000000003</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="48">
         <v>48.290579999999999</v>
       </c>
       <c r="D3">
@@ -5721,13 +5875,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="50">
         <v>51.311700000000002</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="48">
         <v>48.374780000000001</v>
       </c>
       <c r="D4">
@@ -5735,13 +5889,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="50">
         <v>50.791759999999996</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="48">
         <v>48.865299999999998</v>
       </c>
       <c r="D5">
@@ -5749,13 +5903,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="50">
         <v>49.991880000000002</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="48">
         <v>49.033700000000003</v>
       </c>
       <c r="D6">
@@ -5763,13 +5917,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="49">
         <v>51.111660000000001</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="48">
         <v>49.35369</v>
       </c>
       <c r="D7">
@@ -5777,13 +5931,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="49">
         <v>51.791530000000002</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="48">
         <v>49.023130000000002</v>
       </c>
       <c r="D8">
@@ -5791,13 +5945,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="49">
         <v>52.67136</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="48">
         <v>49.103110000000001</v>
       </c>
       <c r="D9">
@@ -5805,13 +5959,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="49">
         <v>53.351230000000001</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="48">
         <v>48.94097</v>
       </c>
       <c r="D10">
@@ -5819,13 +5973,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="49">
         <v>52.711320000000001</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="48">
         <v>48.174610000000001</v>
       </c>
       <c r="D11">
@@ -5865,2361 +6019,2361 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="61" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="149">
-        <v>0</v>
-      </c>
-      <c r="B2" s="63">
+      <c r="A2" s="159">
+        <v>0</v>
+      </c>
+      <c r="B2" s="62">
         <v>11000</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="152" t="s">
+      <c r="D2" s="147" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="153" t="s">
+      <c r="F2" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="62">
         <v>786</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="63">
+      <c r="I2" s="62">
         <v>11</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="64">
+      <c r="K2" s="63">
         <v>40938</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="150"/>
-      <c r="B3" s="63">
+      <c r="A3" s="148"/>
+      <c r="B3" s="62">
         <v>13500</v>
       </c>
-      <c r="C3" s="63">
+      <c r="C3" s="62">
         <v>49</v>
       </c>
-      <c r="D3" s="150"/>
-      <c r="E3" s="64" t="s">
+      <c r="D3" s="148"/>
+      <c r="E3" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="63">
+      <c r="F3" s="151"/>
+      <c r="G3" s="62">
         <v>534</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="63">
+      <c r="I3" s="62">
         <v>17</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="64">
+      <c r="K3" s="63">
         <v>27265</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="150"/>
-      <c r="B4" s="63">
+      <c r="A4" s="148"/>
+      <c r="B4" s="62">
         <v>11250</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="150"/>
-      <c r="E4" s="64" t="s">
+      <c r="D4" s="148"/>
+      <c r="E4" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="154"/>
-      <c r="G4" s="63">
+      <c r="F4" s="151"/>
+      <c r="G4" s="62">
         <v>707</v>
       </c>
-      <c r="H4" s="63" t="s">
+      <c r="H4" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="62">
         <v>14</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="63">
         <v>41129</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="150"/>
-      <c r="B5" s="63">
+      <c r="A5" s="148"/>
+      <c r="B5" s="62">
         <v>9500</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="150"/>
-      <c r="E5" s="64" t="s">
+      <c r="D5" s="148"/>
+      <c r="E5" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="154"/>
-      <c r="G5" s="63">
+      <c r="F5" s="151"/>
+      <c r="G5" s="62">
         <v>930</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="62">
         <v>66</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="64">
+      <c r="K5" s="63">
         <v>10617</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="151"/>
-      <c r="B6" s="66">
+      <c r="A6" s="149"/>
+      <c r="B6" s="65">
         <v>10250</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="151"/>
-      <c r="E6" s="68" t="s">
+      <c r="D6" s="149"/>
+      <c r="E6" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="155"/>
-      <c r="G6" s="66">
+      <c r="F6" s="152"/>
+      <c r="G6" s="65">
         <v>2944</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="I6" s="66">
+      <c r="I6" s="65">
         <v>149</v>
       </c>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="K6" s="68">
+      <c r="K6" s="67">
         <v>12534</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="152">
-        <v>1</v>
-      </c>
-      <c r="B7" s="69">
+      <c r="A7" s="147">
+        <v>1</v>
+      </c>
+      <c r="B7" s="68">
         <v>12000</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="152" t="s">
+      <c r="D7" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="153" t="s">
+      <c r="F7" s="150" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="68">
         <v>1657</v>
       </c>
-      <c r="H7" s="69" t="s">
+      <c r="H7" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="69">
+      <c r="I7" s="68">
         <v>95</v>
       </c>
-      <c r="J7" s="69" t="s">
+      <c r="J7" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="70">
+      <c r="K7" s="69">
         <v>13746</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="150"/>
-      <c r="B8" s="63">
+      <c r="A8" s="148"/>
+      <c r="B8" s="62">
         <v>11250</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="150"/>
-      <c r="E8" s="64" t="s">
+      <c r="D8" s="148"/>
+      <c r="E8" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="154"/>
-      <c r="G8" s="63">
+      <c r="F8" s="151"/>
+      <c r="G8" s="62">
         <v>657</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="63">
+      <c r="I8" s="62">
         <v>111</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="K8" s="64">
+      <c r="K8" s="63">
         <v>11371</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="150"/>
-      <c r="B9" s="63">
+      <c r="A9" s="148"/>
+      <c r="B9" s="62">
         <v>11750</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="150"/>
-      <c r="E9" s="64" t="s">
+      <c r="D9" s="148"/>
+      <c r="E9" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="154"/>
-      <c r="G9" s="63">
+      <c r="F9" s="151"/>
+      <c r="G9" s="62">
         <v>841</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="63">
+      <c r="I9" s="62">
         <v>18</v>
       </c>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="K9" s="64">
+      <c r="K9" s="63">
         <v>39417</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="150"/>
-      <c r="B10" s="63">
+      <c r="A10" s="148"/>
+      <c r="B10" s="62">
         <v>11250</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="150"/>
-      <c r="E10" s="64" t="s">
+      <c r="D10" s="148"/>
+      <c r="E10" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="154"/>
-      <c r="G10" s="63">
+      <c r="F10" s="151"/>
+      <c r="G10" s="62">
         <v>963</v>
       </c>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="I10" s="63">
+      <c r="I10" s="62">
         <v>20</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="K10" s="64">
+      <c r="K10" s="63">
         <v>23164</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="151"/>
-      <c r="B11" s="65">
+      <c r="A11" s="149"/>
+      <c r="B11" s="64">
         <v>10500</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="151"/>
-      <c r="E11" s="67" t="s">
+      <c r="D11" s="149"/>
+      <c r="E11" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="155"/>
-      <c r="G11" s="65">
+      <c r="F11" s="152"/>
+      <c r="G11" s="64">
         <v>2745</v>
       </c>
-      <c r="H11" s="65" t="s">
+      <c r="H11" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="64">
         <v>92</v>
       </c>
-      <c r="J11" s="65" t="s">
+      <c r="J11" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="K11" s="67">
+      <c r="K11" s="66">
         <v>10415</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="152">
+      <c r="A12" s="147">
         <v>2</v>
       </c>
-      <c r="B12" s="63">
+      <c r="B12" s="62">
         <v>11750</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="152" t="s">
+      <c r="D12" s="147" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="153" t="s">
+      <c r="F12" s="150" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="62">
         <v>4282</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I12" s="62">
         <v>34</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="K12" s="64">
+      <c r="K12" s="63">
         <v>52347</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="150"/>
-      <c r="B13" s="69">
+      <c r="A13" s="148"/>
+      <c r="B13" s="68">
         <v>11750</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="150"/>
-      <c r="E13" s="70" t="s">
+      <c r="D13" s="148"/>
+      <c r="E13" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="154"/>
-      <c r="G13" s="69">
+      <c r="F13" s="151"/>
+      <c r="G13" s="68">
         <v>9989</v>
       </c>
-      <c r="H13" s="69" t="s">
+      <c r="H13" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="I13" s="69">
+      <c r="I13" s="68">
         <v>34</v>
       </c>
-      <c r="J13" s="69" t="s">
+      <c r="J13" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="K13" s="70">
+      <c r="K13" s="69">
         <v>53831</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="150"/>
-      <c r="B14" s="63">
+      <c r="A14" s="148"/>
+      <c r="B14" s="62">
         <v>11500</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="150"/>
-      <c r="E14" s="64" t="s">
+      <c r="D14" s="148"/>
+      <c r="E14" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="154"/>
-      <c r="G14" s="63">
+      <c r="F14" s="151"/>
+      <c r="G14" s="62">
         <v>2414</v>
       </c>
-      <c r="H14" s="63" t="s">
+      <c r="H14" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="I14" s="63">
+      <c r="I14" s="62">
         <v>36</v>
       </c>
-      <c r="J14" s="63" t="s">
+      <c r="J14" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="K14" s="64">
+      <c r="K14" s="63">
         <v>52321</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="150"/>
-      <c r="B15" s="63">
+      <c r="A15" s="148"/>
+      <c r="B15" s="62">
         <v>10750</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="150"/>
-      <c r="E15" s="64" t="s">
+      <c r="D15" s="148"/>
+      <c r="E15" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="154"/>
-      <c r="G15" s="63">
+      <c r="F15" s="151"/>
+      <c r="G15" s="62">
         <v>3244</v>
       </c>
-      <c r="H15" s="63" t="s">
+      <c r="H15" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="I15" s="63">
+      <c r="I15" s="62">
         <v>33</v>
       </c>
-      <c r="J15" s="63" t="s">
+      <c r="J15" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="K15" s="64">
+      <c r="K15" s="63">
         <v>52310</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="151"/>
-      <c r="B16" s="65">
+      <c r="A16" s="149"/>
+      <c r="B16" s="64">
         <v>11250</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="151"/>
-      <c r="E16" s="67" t="s">
+      <c r="D16" s="149"/>
+      <c r="E16" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="155"/>
-      <c r="G16" s="65">
+      <c r="F16" s="152"/>
+      <c r="G16" s="64">
         <v>1970</v>
       </c>
-      <c r="H16" s="65" t="s">
+      <c r="H16" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="I16" s="65">
+      <c r="I16" s="64">
         <v>34</v>
       </c>
-      <c r="J16" s="65" t="s">
+      <c r="J16" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="K16" s="67">
+      <c r="K16" s="66">
         <v>54366</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="152">
+      <c r="A17" s="147">
         <v>3</v>
       </c>
-      <c r="B17" s="63">
+      <c r="B17" s="62">
         <v>12500</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="152" t="s">
+      <c r="D17" s="147" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="F17" s="153" t="s">
+      <c r="F17" s="150" t="s">
         <v>146</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="62">
         <v>1414</v>
       </c>
-      <c r="H17" s="63" t="s">
+      <c r="H17" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="I17" s="63">
+      <c r="I17" s="62">
         <v>21</v>
       </c>
-      <c r="J17" s="63" t="s">
+      <c r="J17" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="K17" s="64">
+      <c r="K17" s="63">
         <v>50167</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="150"/>
-      <c r="B18" s="63">
+      <c r="A18" s="148"/>
+      <c r="B18" s="62">
         <v>12750</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="150"/>
-      <c r="E18" s="64" t="s">
+      <c r="D18" s="148"/>
+      <c r="E18" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="154"/>
-      <c r="G18" s="63">
+      <c r="F18" s="151"/>
+      <c r="G18" s="62">
         <v>611</v>
       </c>
-      <c r="H18" s="63" t="s">
+      <c r="H18" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="I18" s="63">
+      <c r="I18" s="62">
         <v>6</v>
       </c>
-      <c r="J18" s="63" t="s">
+      <c r="J18" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="K18" s="64">
+      <c r="K18" s="63">
         <v>63508</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="150"/>
-      <c r="B19" s="69">
+      <c r="A19" s="148"/>
+      <c r="B19" s="68">
         <v>11000</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="150"/>
-      <c r="E19" s="70" t="s">
+      <c r="D19" s="148"/>
+      <c r="E19" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="154"/>
-      <c r="G19" s="69">
+      <c r="F19" s="151"/>
+      <c r="G19" s="68">
         <v>333</v>
       </c>
-      <c r="H19" s="69" t="s">
+      <c r="H19" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="I19" s="69">
+      <c r="I19" s="68">
         <v>28</v>
       </c>
-      <c r="J19" s="69" t="s">
+      <c r="J19" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="K19" s="70">
+      <c r="K19" s="69">
         <v>37152</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="150"/>
-      <c r="B20" s="63">
+      <c r="A20" s="148"/>
+      <c r="B20" s="62">
         <v>10250</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="150"/>
-      <c r="E20" s="64" t="s">
+      <c r="D20" s="148"/>
+      <c r="E20" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="154"/>
-      <c r="G20" s="63">
+      <c r="F20" s="151"/>
+      <c r="G20" s="62">
         <v>441</v>
       </c>
-      <c r="H20" s="63" t="s">
+      <c r="H20" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="I20" s="63">
+      <c r="I20" s="62">
         <v>6</v>
       </c>
-      <c r="J20" s="63" t="s">
+      <c r="J20" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="K20" s="64">
+      <c r="K20" s="63">
         <v>121996</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="151"/>
-      <c r="B21" s="65">
+      <c r="A21" s="149"/>
+      <c r="B21" s="64">
         <v>12250</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="D21" s="151"/>
-      <c r="E21" s="67" t="s">
+      <c r="D21" s="149"/>
+      <c r="E21" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="F21" s="155"/>
-      <c r="G21" s="65">
+      <c r="F21" s="152"/>
+      <c r="G21" s="64">
         <v>317</v>
       </c>
-      <c r="H21" s="65" t="s">
+      <c r="H21" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="I21" s="65">
+      <c r="I21" s="64">
         <v>14</v>
       </c>
-      <c r="J21" s="65" t="s">
+      <c r="J21" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="K21" s="67">
+      <c r="K21" s="66">
         <v>59790</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="152">
+      <c r="A22" s="147">
         <v>4</v>
       </c>
-      <c r="B22" s="69">
+      <c r="B22" s="68">
         <v>13000</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="152" t="s">
+      <c r="D22" s="147" t="s">
         <v>166</v>
       </c>
-      <c r="E22" s="70" t="s">
+      <c r="E22" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="F22" s="153" t="s">
+      <c r="F22" s="150" t="s">
         <v>168</v>
       </c>
-      <c r="G22" s="69">
+      <c r="G22" s="68">
         <v>619</v>
       </c>
-      <c r="H22" s="69" t="s">
+      <c r="H22" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="69">
+      <c r="I22" s="68">
         <v>38</v>
       </c>
-      <c r="J22" s="69" t="s">
+      <c r="J22" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="K22" s="70">
+      <c r="K22" s="69">
         <v>36901</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="150"/>
-      <c r="B23" s="63">
+      <c r="A23" s="148"/>
+      <c r="B23" s="62">
         <v>11000</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="150"/>
-      <c r="E23" s="64" t="s">
+      <c r="D23" s="148"/>
+      <c r="E23" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="F23" s="154"/>
-      <c r="G23" s="63">
+      <c r="F23" s="151"/>
+      <c r="G23" s="62">
         <v>113</v>
       </c>
-      <c r="H23" s="63" t="s">
+      <c r="H23" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="I23" s="63">
+      <c r="I23" s="62">
         <v>32</v>
       </c>
-      <c r="J23" s="63" t="s">
+      <c r="J23" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="K23" s="64">
+      <c r="K23" s="63">
         <v>49951</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="150"/>
-      <c r="B24" s="63">
+      <c r="A24" s="148"/>
+      <c r="B24" s="62">
         <v>12750</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="150"/>
-      <c r="E24" s="64" t="s">
+      <c r="D24" s="148"/>
+      <c r="E24" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="F24" s="154"/>
-      <c r="G24" s="63">
+      <c r="F24" s="151"/>
+      <c r="G24" s="62">
         <v>4998</v>
       </c>
-      <c r="H24" s="63" t="s">
+      <c r="H24" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="I24" s="63">
+      <c r="I24" s="62">
         <v>11</v>
       </c>
-      <c r="J24" s="63" t="s">
+      <c r="J24" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="K24" s="64">
+      <c r="K24" s="63">
         <v>153394</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="150"/>
-      <c r="B25" s="63">
+      <c r="A25" s="148"/>
+      <c r="B25" s="62">
         <v>12750</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="150"/>
-      <c r="E25" s="64" t="s">
+      <c r="D25" s="148"/>
+      <c r="E25" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="F25" s="154"/>
-      <c r="G25" s="63">
+      <c r="F25" s="151"/>
+      <c r="G25" s="62">
         <v>794</v>
       </c>
-      <c r="H25" s="63" t="s">
+      <c r="H25" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="I25" s="63">
+      <c r="I25" s="62">
         <v>9</v>
       </c>
-      <c r="J25" s="63" t="s">
+      <c r="J25" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="K25" s="64">
+      <c r="K25" s="63">
         <v>193986</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="151"/>
-      <c r="B26" s="65">
+      <c r="A26" s="149"/>
+      <c r="B26" s="64">
         <v>12250</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="D26" s="151"/>
-      <c r="E26" s="67" t="s">
+      <c r="D26" s="149"/>
+      <c r="E26" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="F26" s="155"/>
-      <c r="G26" s="65">
+      <c r="F26" s="152"/>
+      <c r="G26" s="64">
         <v>1190</v>
       </c>
-      <c r="H26" s="65" t="s">
+      <c r="H26" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="I26" s="65">
+      <c r="I26" s="64">
         <v>8</v>
       </c>
-      <c r="J26" s="65" t="s">
+      <c r="J26" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="K26" s="67">
+      <c r="K26" s="66">
         <v>13459</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="152">
+      <c r="A27" s="147">
         <v>5</v>
       </c>
-      <c r="B27" s="63">
+      <c r="B27" s="62">
         <v>11500</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="152" t="s">
+      <c r="D27" s="147" t="s">
         <v>187</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="E27" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="153" t="s">
+      <c r="F27" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="G27" s="63">
+      <c r="G27" s="62">
         <v>710</v>
       </c>
-      <c r="H27" s="63" t="s">
+      <c r="H27" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="I27" s="63">
+      <c r="I27" s="62">
         <v>10</v>
       </c>
-      <c r="J27" s="63" t="s">
+      <c r="J27" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="K27" s="64">
+      <c r="K27" s="63">
         <v>52536</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="150"/>
-      <c r="B28" s="69">
+      <c r="A28" s="148"/>
+      <c r="B28" s="68">
         <v>11250</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="D28" s="150"/>
-      <c r="E28" s="70" t="s">
+      <c r="D28" s="148"/>
+      <c r="E28" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="F28" s="154"/>
-      <c r="G28" s="69">
+      <c r="F28" s="151"/>
+      <c r="G28" s="68">
         <v>408</v>
       </c>
-      <c r="H28" s="69" t="s">
+      <c r="H28" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="I28" s="69">
+      <c r="I28" s="68">
         <v>10</v>
       </c>
-      <c r="J28" s="69" t="s">
+      <c r="J28" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="K28" s="70">
+      <c r="K28" s="69">
         <v>49982</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="150"/>
-      <c r="B29" s="63">
+      <c r="A29" s="148"/>
+      <c r="B29" s="62">
         <v>11500</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D29" s="150"/>
-      <c r="E29" s="64" t="s">
+      <c r="D29" s="148"/>
+      <c r="E29" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="154"/>
-      <c r="G29" s="63">
+      <c r="F29" s="151"/>
+      <c r="G29" s="62">
         <v>663</v>
       </c>
-      <c r="H29" s="63" t="s">
+      <c r="H29" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="I29" s="63">
+      <c r="I29" s="62">
         <v>5</v>
       </c>
-      <c r="J29" s="63" t="s">
+      <c r="J29" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="K29" s="64">
+      <c r="K29" s="63">
         <v>43453</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="150"/>
-      <c r="B30" s="63">
+      <c r="A30" s="148"/>
+      <c r="B30" s="62">
         <v>11750</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D30" s="150"/>
-      <c r="E30" s="64" t="s">
+      <c r="D30" s="148"/>
+      <c r="E30" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="F30" s="154"/>
-      <c r="G30" s="63">
+      <c r="F30" s="151"/>
+      <c r="G30" s="62">
         <v>1311</v>
       </c>
-      <c r="H30" s="63" t="s">
+      <c r="H30" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="I30" s="63">
+      <c r="I30" s="62">
         <v>3</v>
       </c>
-      <c r="J30" s="63" t="s">
+      <c r="J30" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="K30" s="64">
+      <c r="K30" s="63">
         <v>50224</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="151"/>
-      <c r="B31" s="65">
+      <c r="A31" s="149"/>
+      <c r="B31" s="64">
         <v>10750</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="D31" s="151"/>
-      <c r="E31" s="67" t="s">
+      <c r="D31" s="149"/>
+      <c r="E31" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="F31" s="155"/>
-      <c r="G31" s="65">
+      <c r="F31" s="152"/>
+      <c r="G31" s="64">
         <v>2568</v>
       </c>
-      <c r="H31" s="65" t="s">
+      <c r="H31" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="I31" s="65">
+      <c r="I31" s="64">
         <v>10</v>
       </c>
-      <c r="J31" s="65" t="s">
+      <c r="J31" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="K31" s="67">
+      <c r="K31" s="66">
         <v>51512</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="152">
+      <c r="A32" s="147">
         <v>6</v>
       </c>
-      <c r="B32" s="63">
+      <c r="B32" s="62">
         <v>11500</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D32" s="152" t="s">
+      <c r="D32" s="147" t="s">
         <v>209</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="E32" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="F32" s="153" t="s">
+      <c r="F32" s="150" t="s">
         <v>211</v>
       </c>
-      <c r="G32" s="63">
+      <c r="G32" s="62">
         <v>1076</v>
       </c>
-      <c r="H32" s="63" t="s">
+      <c r="H32" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="I32" s="63">
+      <c r="I32" s="62">
         <v>1116</v>
       </c>
-      <c r="J32" s="63" t="s">
+      <c r="J32" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="K32" s="64">
+      <c r="K32" s="63">
         <v>1163</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="150"/>
-      <c r="B33" s="63">
+      <c r="A33" s="148"/>
+      <c r="B33" s="62">
         <v>11750</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="150"/>
-      <c r="E33" s="64" t="s">
+      <c r="D33" s="148"/>
+      <c r="E33" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="F33" s="154"/>
-      <c r="G33" s="63">
+      <c r="F33" s="151"/>
+      <c r="G33" s="62">
         <v>76</v>
       </c>
-      <c r="H33" s="63" t="s">
+      <c r="H33" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="I33" s="63">
+      <c r="I33" s="62">
         <v>19</v>
       </c>
-      <c r="J33" s="63" t="s">
+      <c r="J33" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="K33" s="64">
+      <c r="K33" s="63">
         <v>51365</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="150"/>
-      <c r="B34" s="63">
+      <c r="A34" s="148"/>
+      <c r="B34" s="62">
         <v>11500</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D34" s="150"/>
-      <c r="E34" s="64" t="s">
+      <c r="D34" s="148"/>
+      <c r="E34" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="F34" s="154"/>
-      <c r="G34" s="63">
+      <c r="F34" s="151"/>
+      <c r="G34" s="62">
         <v>55</v>
       </c>
-      <c r="H34" s="63" t="s">
+      <c r="H34" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="I34" s="63">
+      <c r="I34" s="62">
         <v>33</v>
       </c>
-      <c r="J34" s="63" t="s">
+      <c r="J34" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="K34" s="64">
+      <c r="K34" s="63">
         <v>50436</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="150"/>
-      <c r="B35" s="63">
+      <c r="A35" s="148"/>
+      <c r="B35" s="62">
         <v>12750</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="150"/>
-      <c r="E35" s="64" t="s">
+      <c r="D35" s="148"/>
+      <c r="E35" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="F35" s="154"/>
-      <c r="G35" s="63">
+      <c r="F35" s="151"/>
+      <c r="G35" s="62">
         <v>163</v>
       </c>
-      <c r="H35" s="63" t="s">
+      <c r="H35" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="I35" s="63">
+      <c r="I35" s="62">
         <v>45</v>
       </c>
-      <c r="J35" s="63" t="s">
+      <c r="J35" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="K35" s="64">
+      <c r="K35" s="63">
         <v>23751</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="151"/>
-      <c r="B36" s="66">
+      <c r="A36" s="149"/>
+      <c r="B36" s="65">
         <v>10500</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="D36" s="151"/>
-      <c r="E36" s="68" t="s">
+      <c r="D36" s="149"/>
+      <c r="E36" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="F36" s="155"/>
-      <c r="G36" s="66">
+      <c r="F36" s="152"/>
+      <c r="G36" s="65">
         <v>968</v>
       </c>
-      <c r="H36" s="66" t="s">
+      <c r="H36" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="I36" s="66">
+      <c r="I36" s="65">
         <v>1139</v>
       </c>
-      <c r="J36" s="66" t="s">
+      <c r="J36" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="K36" s="68">
+      <c r="K36" s="67">
         <v>1162</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="152">
+      <c r="A37" s="147">
         <v>7</v>
       </c>
-      <c r="B37" s="63">
+      <c r="B37" s="62">
         <v>13500</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="D37" s="152" t="s">
+      <c r="D37" s="147" t="s">
         <v>228</v>
       </c>
-      <c r="E37" s="64" t="s">
+      <c r="E37" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="F37" s="153" t="s">
+      <c r="F37" s="150" t="s">
         <v>230</v>
       </c>
-      <c r="G37" s="63">
+      <c r="G37" s="62">
         <v>694</v>
       </c>
-      <c r="H37" s="63" t="s">
+      <c r="H37" s="62" t="s">
         <v>231</v>
       </c>
-      <c r="I37" s="63">
+      <c r="I37" s="62">
         <v>19</v>
       </c>
-      <c r="J37" s="63" t="s">
+      <c r="J37" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="K37" s="64">
+      <c r="K37" s="63">
         <v>18326</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="150"/>
-      <c r="B38" s="63">
+      <c r="A38" s="148"/>
+      <c r="B38" s="62">
         <v>10250</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="150"/>
-      <c r="E38" s="64" t="s">
+      <c r="D38" s="148"/>
+      <c r="E38" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="F38" s="154"/>
-      <c r="G38" s="63">
+      <c r="F38" s="151"/>
+      <c r="G38" s="62">
         <v>82</v>
       </c>
-      <c r="H38" s="63" t="s">
+      <c r="H38" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="I38" s="63">
+      <c r="I38" s="62">
         <v>84</v>
       </c>
-      <c r="J38" s="63" t="s">
+      <c r="J38" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="K38" s="64">
+      <c r="K38" s="63">
         <v>8472</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="150"/>
-      <c r="B39" s="63">
+      <c r="A39" s="148"/>
+      <c r="B39" s="62">
         <v>10000</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="D39" s="150"/>
-      <c r="E39" s="64" t="s">
+      <c r="D39" s="148"/>
+      <c r="E39" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="F39" s="154"/>
-      <c r="G39" s="63">
+      <c r="F39" s="151"/>
+      <c r="G39" s="62">
         <v>2045</v>
       </c>
-      <c r="H39" s="63" t="s">
+      <c r="H39" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="I39" s="63">
+      <c r="I39" s="62">
         <v>47</v>
       </c>
-      <c r="J39" s="63" t="s">
+      <c r="J39" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="K39" s="64">
+      <c r="K39" s="63">
         <v>12655</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="150"/>
-      <c r="B40" s="69">
+      <c r="A40" s="148"/>
+      <c r="B40" s="68">
         <v>9750</v>
       </c>
-      <c r="C40" s="69" t="s">
+      <c r="C40" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="150"/>
-      <c r="E40" s="70" t="s">
+      <c r="D40" s="148"/>
+      <c r="E40" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="F40" s="154"/>
-      <c r="G40" s="69">
+      <c r="F40" s="151"/>
+      <c r="G40" s="68">
         <v>2527</v>
       </c>
-      <c r="H40" s="69" t="s">
+      <c r="H40" s="68" t="s">
         <v>241</v>
       </c>
-      <c r="I40" s="69">
+      <c r="I40" s="68">
         <v>84</v>
       </c>
-      <c r="J40" s="69" t="s">
+      <c r="J40" s="68" t="s">
         <v>242</v>
       </c>
-      <c r="K40" s="70">
+      <c r="K40" s="69">
         <v>5603</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="151"/>
-      <c r="B41" s="65">
+      <c r="A41" s="149"/>
+      <c r="B41" s="64">
         <v>12000</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="D41" s="151"/>
-      <c r="E41" s="67" t="s">
+      <c r="D41" s="149"/>
+      <c r="E41" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="F41" s="155"/>
-      <c r="G41" s="65">
+      <c r="F41" s="152"/>
+      <c r="G41" s="64">
         <v>374</v>
       </c>
-      <c r="H41" s="65" t="s">
+      <c r="H41" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="I41" s="65">
+      <c r="I41" s="64">
         <v>5</v>
       </c>
-      <c r="J41" s="65" t="s">
+      <c r="J41" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="K41" s="67">
+      <c r="K41" s="66">
         <v>22445</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="152">
+      <c r="A42" s="147">
         <v>8</v>
       </c>
-      <c r="B42" s="63">
+      <c r="B42" s="62">
         <v>11000</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="D42" s="152" t="s">
+      <c r="D42" s="147" t="s">
         <v>248</v>
       </c>
-      <c r="E42" s="64" t="s">
+      <c r="E42" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="F42" s="153" t="s">
+      <c r="F42" s="150" t="s">
         <v>250</v>
       </c>
-      <c r="G42" s="63">
+      <c r="G42" s="62">
         <v>520</v>
       </c>
-      <c r="H42" s="63" t="s">
+      <c r="H42" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="I42" s="63">
+      <c r="I42" s="62">
         <v>19</v>
       </c>
-      <c r="J42" s="63" t="s">
+      <c r="J42" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="K42" s="64">
+      <c r="K42" s="63">
         <v>38949</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="150"/>
-      <c r="B43" s="63">
+      <c r="A43" s="148"/>
+      <c r="B43" s="62">
         <v>10750</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="150"/>
-      <c r="E43" s="64" t="s">
+      <c r="D43" s="148"/>
+      <c r="E43" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="F43" s="154"/>
-      <c r="G43" s="63">
+      <c r="F43" s="151"/>
+      <c r="G43" s="62">
         <v>542</v>
       </c>
-      <c r="H43" s="63" t="s">
+      <c r="H43" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="I43" s="63">
+      <c r="I43" s="62">
         <v>27</v>
       </c>
-      <c r="J43" s="63" t="s">
+      <c r="J43" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="K43" s="64">
+      <c r="K43" s="63">
         <v>28812</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="150"/>
-      <c r="B44" s="63">
+      <c r="A44" s="148"/>
+      <c r="B44" s="62">
         <v>13500</v>
       </c>
-      <c r="C44" s="63" t="s">
+      <c r="C44" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="150"/>
-      <c r="E44" s="64" t="s">
+      <c r="D44" s="148"/>
+      <c r="E44" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="F44" s="154"/>
-      <c r="G44" s="63">
+      <c r="F44" s="151"/>
+      <c r="G44" s="62">
         <v>1769</v>
       </c>
-      <c r="H44" s="63" t="s">
+      <c r="H44" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="I44" s="63">
+      <c r="I44" s="62">
         <v>11</v>
       </c>
-      <c r="J44" s="63" t="s">
+      <c r="J44" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="K44" s="64">
+      <c r="K44" s="63">
         <v>36886</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="150"/>
-      <c r="B45" s="63">
+      <c r="A45" s="148"/>
+      <c r="B45" s="62">
         <v>10500</v>
       </c>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="D45" s="150"/>
-      <c r="E45" s="64" t="s">
+      <c r="D45" s="148"/>
+      <c r="E45" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="F45" s="154"/>
-      <c r="G45" s="63">
+      <c r="F45" s="151"/>
+      <c r="G45" s="62">
         <v>643</v>
       </c>
-      <c r="H45" s="63" t="s">
+      <c r="H45" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="I45" s="63">
+      <c r="I45" s="62">
         <v>23</v>
       </c>
-      <c r="J45" s="63" t="s">
+      <c r="J45" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="K45" s="64">
+      <c r="K45" s="63">
         <v>20742</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="151"/>
-      <c r="B46" s="66">
+      <c r="A46" s="149"/>
+      <c r="B46" s="65">
         <v>11500</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="D46" s="151"/>
-      <c r="E46" s="68" t="s">
+      <c r="D46" s="149"/>
+      <c r="E46" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="F46" s="155"/>
-      <c r="G46" s="66">
+      <c r="F46" s="152"/>
+      <c r="G46" s="65">
         <v>969</v>
       </c>
-      <c r="H46" s="66" t="s">
+      <c r="H46" s="65" t="s">
         <v>264</v>
       </c>
-      <c r="I46" s="66">
+      <c r="I46" s="65">
         <v>18</v>
       </c>
-      <c r="J46" s="66" t="s">
+      <c r="J46" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="K46" s="68">
+      <c r="K46" s="67">
         <v>21985</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="152">
+      <c r="A47" s="147">
         <v>9</v>
       </c>
-      <c r="B47" s="69">
+      <c r="B47" s="68">
         <v>10500</v>
       </c>
-      <c r="C47" s="69" t="s">
+      <c r="C47" s="68" t="s">
         <v>266</v>
       </c>
       <c r="D47" s="156" t="s">
         <v>114</v>
       </c>
-      <c r="E47" s="70" t="s">
+      <c r="E47" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="F47" s="153" t="s">
+      <c r="F47" s="150" t="s">
         <v>268</v>
       </c>
-      <c r="G47" s="69">
+      <c r="G47" s="68">
         <v>823</v>
       </c>
-      <c r="H47" s="69" t="s">
+      <c r="H47" s="68" t="s">
         <v>269</v>
       </c>
-      <c r="I47" s="69">
+      <c r="I47" s="68">
         <v>14</v>
       </c>
-      <c r="J47" s="69" t="s">
+      <c r="J47" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="K47" s="70">
+      <c r="K47" s="69">
         <v>27273</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="150"/>
-      <c r="B48" s="63">
+      <c r="A48" s="148"/>
+      <c r="B48" s="62">
         <v>13500</v>
       </c>
-      <c r="C48" s="63" t="s">
+      <c r="C48" s="62" t="s">
         <v>196</v>
       </c>
       <c r="D48" s="157"/>
-      <c r="E48" s="64" t="s">
+      <c r="E48" s="63" t="s">
         <v>271</v>
       </c>
-      <c r="F48" s="154"/>
-      <c r="G48" s="63">
+      <c r="F48" s="151"/>
+      <c r="G48" s="62">
         <v>1061</v>
       </c>
-      <c r="H48" s="63" t="s">
+      <c r="H48" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="I48" s="63">
+      <c r="I48" s="62">
         <v>4</v>
       </c>
-      <c r="J48" s="63" t="s">
+      <c r="J48" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="K48" s="64">
+      <c r="K48" s="63">
         <v>96937</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="150"/>
-      <c r="B49" s="63">
+      <c r="A49" s="148"/>
+      <c r="B49" s="62">
         <v>12250</v>
       </c>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="62" t="s">
         <v>114</v>
       </c>
       <c r="D49" s="157"/>
-      <c r="E49" s="64" t="s">
+      <c r="E49" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="F49" s="154"/>
-      <c r="G49" s="63">
+      <c r="F49" s="151"/>
+      <c r="G49" s="62">
         <v>81</v>
       </c>
-      <c r="H49" s="63" t="s">
+      <c r="H49" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="I49" s="63">
+      <c r="I49" s="62">
         <v>32</v>
       </c>
-      <c r="J49" s="63" t="s">
+      <c r="J49" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="K49" s="64">
+      <c r="K49" s="63">
         <v>51352</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="150"/>
-      <c r="B50" s="63">
+      <c r="A50" s="148"/>
+      <c r="B50" s="62">
         <v>11750</v>
       </c>
-      <c r="C50" s="63" t="s">
+      <c r="C50" s="62" t="s">
         <v>110</v>
       </c>
       <c r="D50" s="157"/>
-      <c r="E50" s="64" t="s">
+      <c r="E50" s="63" t="s">
         <v>275</v>
       </c>
-      <c r="F50" s="154"/>
-      <c r="G50" s="63">
+      <c r="F50" s="151"/>
+      <c r="G50" s="62">
         <v>52</v>
       </c>
-      <c r="H50" s="63" t="s">
+      <c r="H50" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="I50" s="63">
+      <c r="I50" s="62">
         <v>36</v>
       </c>
-      <c r="J50" s="63" t="s">
+      <c r="J50" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="K50" s="64">
+      <c r="K50" s="63">
         <v>39124</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="151"/>
-      <c r="B51" s="65">
+      <c r="A51" s="149"/>
+      <c r="B51" s="64">
         <v>12250</v>
       </c>
-      <c r="C51" s="65" t="s">
+      <c r="C51" s="64" t="s">
         <v>278</v>
       </c>
       <c r="D51" s="158"/>
-      <c r="E51" s="67" t="s">
+      <c r="E51" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="F51" s="155"/>
-      <c r="G51" s="65">
+      <c r="F51" s="152"/>
+      <c r="G51" s="64">
         <v>661</v>
       </c>
-      <c r="H51" s="65" t="s">
+      <c r="H51" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="I51" s="65">
+      <c r="I51" s="64">
         <v>6</v>
       </c>
-      <c r="J51" s="65" t="s">
+      <c r="J51" s="64" t="s">
         <v>281</v>
       </c>
-      <c r="K51" s="67">
+      <c r="K51" s="66">
         <v>234940</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="152">
+      <c r="A52" s="147">
         <v>10</v>
       </c>
-      <c r="B52" s="63">
+      <c r="B52" s="62">
         <v>11500</v>
       </c>
-      <c r="C52" s="63" t="s">
+      <c r="C52" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="D52" s="152" t="s">
+      <c r="D52" s="147" t="s">
         <v>283</v>
       </c>
-      <c r="E52" s="64" t="s">
+      <c r="E52" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="F52" s="153" t="s">
+      <c r="F52" s="150" t="s">
         <v>285</v>
       </c>
-      <c r="G52" s="63">
+      <c r="G52" s="62">
         <v>156</v>
       </c>
-      <c r="H52" s="63" t="s">
+      <c r="H52" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="I52" s="63">
+      <c r="I52" s="62">
         <v>74</v>
       </c>
-      <c r="J52" s="63" t="s">
+      <c r="J52" s="62" t="s">
         <v>287</v>
       </c>
-      <c r="K52" s="64">
+      <c r="K52" s="63">
         <v>24744</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="150"/>
-      <c r="B53" s="63">
+      <c r="A53" s="148"/>
+      <c r="B53" s="62">
         <v>12250</v>
       </c>
-      <c r="C53" s="63" t="s">
+      <c r="C53" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D53" s="150"/>
-      <c r="E53" s="64" t="s">
+      <c r="D53" s="148"/>
+      <c r="E53" s="63" t="s">
         <v>288</v>
       </c>
-      <c r="F53" s="154"/>
-      <c r="G53" s="63">
+      <c r="F53" s="151"/>
+      <c r="G53" s="62">
         <v>1860</v>
       </c>
-      <c r="H53" s="63" t="s">
+      <c r="H53" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="I53" s="63">
+      <c r="I53" s="62">
         <v>15</v>
       </c>
-      <c r="J53" s="63" t="s">
+      <c r="J53" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="K53" s="64">
+      <c r="K53" s="63">
         <v>47195</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="150"/>
-      <c r="B54" s="63">
+      <c r="A54" s="148"/>
+      <c r="B54" s="62">
         <v>12250</v>
       </c>
-      <c r="C54" s="63" t="s">
+      <c r="C54" s="62" t="s">
         <v>291</v>
       </c>
-      <c r="D54" s="150"/>
-      <c r="E54" s="64" t="s">
+      <c r="D54" s="148"/>
+      <c r="E54" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="F54" s="154"/>
-      <c r="G54" s="63">
+      <c r="F54" s="151"/>
+      <c r="G54" s="62">
         <v>1153</v>
       </c>
-      <c r="H54" s="63" t="s">
+      <c r="H54" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="I54" s="63">
+      <c r="I54" s="62">
         <v>22</v>
       </c>
-      <c r="J54" s="63" t="s">
+      <c r="J54" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="K54" s="64">
+      <c r="K54" s="63">
         <v>4513</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="150"/>
-      <c r="B55" s="69">
+      <c r="A55" s="148"/>
+      <c r="B55" s="68">
         <v>11000</v>
       </c>
-      <c r="C55" s="69" t="s">
+      <c r="C55" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="D55" s="150"/>
-      <c r="E55" s="70" t="s">
+      <c r="D55" s="148"/>
+      <c r="E55" s="69" t="s">
         <v>295</v>
       </c>
-      <c r="F55" s="154"/>
-      <c r="G55" s="69">
+      <c r="F55" s="151"/>
+      <c r="G55" s="68">
         <v>1949</v>
       </c>
-      <c r="H55" s="69" t="s">
+      <c r="H55" s="68" t="s">
         <v>296</v>
       </c>
-      <c r="I55" s="69">
+      <c r="I55" s="68">
         <v>44</v>
       </c>
-      <c r="J55" s="69" t="s">
+      <c r="J55" s="68" t="s">
         <v>297</v>
       </c>
-      <c r="K55" s="70">
+      <c r="K55" s="69">
         <v>32643</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="151"/>
-      <c r="B56" s="65">
+      <c r="A56" s="149"/>
+      <c r="B56" s="64">
         <v>11500</v>
       </c>
-      <c r="C56" s="65" t="s">
+      <c r="C56" s="64" t="s">
         <v>298</v>
       </c>
-      <c r="D56" s="151"/>
-      <c r="E56" s="67" t="s">
+      <c r="D56" s="149"/>
+      <c r="E56" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="F56" s="155"/>
-      <c r="G56" s="65">
+      <c r="F56" s="152"/>
+      <c r="G56" s="64">
         <v>131</v>
       </c>
-      <c r="H56" s="65" t="s">
+      <c r="H56" s="64" t="s">
         <v>300</v>
       </c>
-      <c r="I56" s="65">
+      <c r="I56" s="64">
         <v>70</v>
       </c>
-      <c r="J56" s="65" t="s">
+      <c r="J56" s="64" t="s">
         <v>301</v>
       </c>
-      <c r="K56" s="67">
+      <c r="K56" s="66">
         <v>26528</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="152">
+      <c r="A57" s="147">
         <v>11</v>
       </c>
-      <c r="B57" s="63">
+      <c r="B57" s="62">
         <v>11500</v>
       </c>
-      <c r="C57" s="63" t="s">
+      <c r="C57" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="D57" s="152" t="s">
+      <c r="D57" s="147" t="s">
         <v>298</v>
       </c>
-      <c r="E57" s="64" t="s">
+      <c r="E57" s="63" t="s">
         <v>303</v>
       </c>
-      <c r="F57" s="153" t="s">
+      <c r="F57" s="150" t="s">
         <v>304</v>
       </c>
-      <c r="G57" s="63">
+      <c r="G57" s="62">
         <v>99</v>
       </c>
-      <c r="H57" s="63" t="s">
+      <c r="H57" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="I57" s="63">
+      <c r="I57" s="62">
         <v>943</v>
       </c>
-      <c r="J57" s="63" t="s">
+      <c r="J57" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="K57" s="64">
+      <c r="K57" s="63">
         <v>1500</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="150"/>
-      <c r="B58" s="63">
+      <c r="A58" s="148"/>
+      <c r="B58" s="62">
         <v>11250</v>
       </c>
-      <c r="C58" s="63" t="s">
+      <c r="C58" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="D58" s="150"/>
-      <c r="E58" s="64" t="s">
+      <c r="D58" s="148"/>
+      <c r="E58" s="63" t="s">
         <v>308</v>
       </c>
-      <c r="F58" s="154"/>
-      <c r="G58" s="63">
+      <c r="F58" s="151"/>
+      <c r="G58" s="62">
         <v>67</v>
       </c>
-      <c r="H58" s="63" t="s">
+      <c r="H58" s="62" t="s">
         <v>309</v>
       </c>
-      <c r="I58" s="63">
+      <c r="I58" s="62">
         <v>323</v>
       </c>
-      <c r="J58" s="63" t="s">
+      <c r="J58" s="62" t="s">
         <v>310</v>
       </c>
-      <c r="K58" s="64">
+      <c r="K58" s="63">
         <v>5550</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="150"/>
-      <c r="B59" s="63">
+      <c r="A59" s="148"/>
+      <c r="B59" s="62">
         <v>13500</v>
       </c>
-      <c r="C59" s="63" t="s">
+      <c r="C59" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="D59" s="150"/>
-      <c r="E59" s="64" t="s">
+      <c r="D59" s="148"/>
+      <c r="E59" s="63" t="s">
         <v>311</v>
       </c>
-      <c r="F59" s="154"/>
-      <c r="G59" s="63">
+      <c r="F59" s="151"/>
+      <c r="G59" s="62">
         <v>56</v>
       </c>
-      <c r="H59" s="63" t="s">
+      <c r="H59" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="I59" s="63">
+      <c r="I59" s="62">
         <v>188</v>
       </c>
-      <c r="J59" s="63" t="s">
+      <c r="J59" s="62" t="s">
         <v>313</v>
       </c>
-      <c r="K59" s="64">
+      <c r="K59" s="63">
         <v>8367</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="150"/>
-      <c r="B60" s="69">
+      <c r="A60" s="148"/>
+      <c r="B60" s="68">
         <v>10750</v>
       </c>
-      <c r="C60" s="69" t="s">
+      <c r="C60" s="68" t="s">
         <v>314</v>
       </c>
-      <c r="D60" s="150"/>
-      <c r="E60" s="70" t="s">
+      <c r="D60" s="148"/>
+      <c r="E60" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="F60" s="154"/>
-      <c r="G60" s="69">
+      <c r="F60" s="151"/>
+      <c r="G60" s="68">
         <v>72</v>
       </c>
-      <c r="H60" s="69" t="s">
+      <c r="H60" s="68" t="s">
         <v>316</v>
       </c>
-      <c r="I60" s="69">
+      <c r="I60" s="68">
         <v>301</v>
       </c>
-      <c r="J60" s="69" t="s">
+      <c r="J60" s="68" t="s">
         <v>317</v>
       </c>
-      <c r="K60" s="70">
+      <c r="K60" s="69">
         <v>5063</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="151"/>
-      <c r="B61" s="65">
+      <c r="A61" s="149"/>
+      <c r="B61" s="64">
         <v>13250</v>
       </c>
-      <c r="C61" s="65" t="s">
+      <c r="C61" s="64" t="s">
         <v>318</v>
       </c>
-      <c r="D61" s="151"/>
-      <c r="E61" s="67" t="s">
+      <c r="D61" s="149"/>
+      <c r="E61" s="66" t="s">
         <v>319</v>
       </c>
-      <c r="F61" s="155"/>
-      <c r="G61" s="65">
+      <c r="F61" s="152"/>
+      <c r="G61" s="64">
         <v>144</v>
       </c>
-      <c r="H61" s="65" t="s">
+      <c r="H61" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="I61" s="65">
+      <c r="I61" s="64">
         <v>440</v>
       </c>
-      <c r="J61" s="65" t="s">
+      <c r="J61" s="64" t="s">
         <v>321</v>
       </c>
-      <c r="K61" s="67">
+      <c r="K61" s="66">
         <v>3627</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="159">
+      <c r="A62" s="153">
         <v>12</v>
       </c>
-      <c r="B62" s="69">
+      <c r="B62" s="68">
         <v>11750</v>
       </c>
-      <c r="C62" s="69" t="s">
+      <c r="C62" s="68" t="s">
         <v>322</v>
       </c>
-      <c r="D62" s="152" t="s">
+      <c r="D62" s="147" t="s">
         <v>323</v>
       </c>
-      <c r="E62" s="70" t="s">
+      <c r="E62" s="69" t="s">
         <v>324</v>
       </c>
-      <c r="F62" s="153" t="s">
+      <c r="F62" s="150" t="s">
         <v>325</v>
       </c>
-      <c r="G62" s="69">
+      <c r="G62" s="68">
         <v>1962</v>
       </c>
-      <c r="H62" s="69" t="s">
+      <c r="H62" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="I62" s="69">
+      <c r="I62" s="68">
         <v>94</v>
       </c>
-      <c r="J62" s="69" t="s">
+      <c r="J62" s="68" t="s">
         <v>327</v>
       </c>
-      <c r="K62" s="70">
+      <c r="K62" s="69">
         <v>2473</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="160"/>
-      <c r="B63" s="63">
+      <c r="A63" s="154"/>
+      <c r="B63" s="62">
         <v>11750</v>
       </c>
-      <c r="C63" s="63" t="s">
+      <c r="C63" s="62" t="s">
         <v>328</v>
       </c>
-      <c r="D63" s="150"/>
-      <c r="E63" s="64" t="s">
+      <c r="D63" s="148"/>
+      <c r="E63" s="63" t="s">
         <v>329</v>
       </c>
-      <c r="F63" s="154"/>
-      <c r="G63" s="63">
+      <c r="F63" s="151"/>
+      <c r="G63" s="62">
         <v>1968</v>
       </c>
-      <c r="H63" s="63" t="s">
+      <c r="H63" s="62" t="s">
         <v>330</v>
       </c>
-      <c r="I63" s="63">
+      <c r="I63" s="62">
         <v>110</v>
       </c>
-      <c r="J63" s="63" t="s">
+      <c r="J63" s="62" t="s">
         <v>331</v>
       </c>
-      <c r="K63" s="64">
+      <c r="K63" s="63">
         <v>3135</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="160"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="150"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="154"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="63"/>
-      <c r="K64" s="64"/>
+      <c r="A64" s="154"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="148"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="151"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="62"/>
+      <c r="J64" s="62"/>
+      <c r="K64" s="63"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="160"/>
-      <c r="B65" s="63"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="150"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="154"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="63"/>
-      <c r="I65" s="63"/>
-      <c r="J65" s="63"/>
-      <c r="K65" s="64"/>
+      <c r="A65" s="154"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="148"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="151"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="63"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="161"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="151"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="155"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="65"/>
-      <c r="K66" s="67"/>
+      <c r="A66" s="155"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="149"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="152"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="66"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="152">
+      <c r="A67" s="147">
         <v>13</v>
       </c>
-      <c r="B67" s="63">
+      <c r="B67" s="62">
         <v>10750</v>
       </c>
-      <c r="C67" s="63" t="s">
+      <c r="C67" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="D67" s="152" t="s">
+      <c r="D67" s="147" t="s">
         <v>333</v>
       </c>
-      <c r="E67" s="64" t="s">
+      <c r="E67" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="F67" s="153" t="s">
+      <c r="F67" s="150" t="s">
         <v>335</v>
       </c>
-      <c r="G67" s="63">
+      <c r="G67" s="62">
         <v>49</v>
       </c>
-      <c r="H67" s="63" t="s">
+      <c r="H67" s="62" t="s">
         <v>336</v>
       </c>
-      <c r="I67" s="63">
+      <c r="I67" s="62">
         <v>62</v>
       </c>
-      <c r="J67" s="63" t="s">
+      <c r="J67" s="62" t="s">
         <v>337</v>
       </c>
-      <c r="K67" s="64">
+      <c r="K67" s="63">
         <v>9458</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="150"/>
-      <c r="B68" s="63">
+      <c r="A68" s="148"/>
+      <c r="B68" s="62">
         <v>11250</v>
       </c>
-      <c r="C68" s="63" t="s">
+      <c r="C68" s="62" t="s">
         <v>338</v>
       </c>
-      <c r="D68" s="150"/>
-      <c r="E68" s="64" t="s">
+      <c r="D68" s="148"/>
+      <c r="E68" s="63" t="s">
         <v>339</v>
       </c>
-      <c r="F68" s="154"/>
-      <c r="G68" s="63">
+      <c r="F68" s="151"/>
+      <c r="G68" s="62">
         <v>34</v>
       </c>
-      <c r="H68" s="63" t="s">
+      <c r="H68" s="62" t="s">
         <v>340</v>
       </c>
-      <c r="I68" s="63">
+      <c r="I68" s="62">
         <v>30</v>
       </c>
-      <c r="J68" s="63" t="s">
+      <c r="J68" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="K68" s="64">
+      <c r="K68" s="63">
         <v>13755</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="150"/>
-      <c r="B69" s="63">
+      <c r="A69" s="148"/>
+      <c r="B69" s="62">
         <v>10500</v>
       </c>
-      <c r="C69" s="63" t="s">
+      <c r="C69" s="62" t="s">
         <v>342</v>
       </c>
-      <c r="D69" s="150"/>
-      <c r="E69" s="64" t="s">
+      <c r="D69" s="148"/>
+      <c r="E69" s="63" t="s">
         <v>343</v>
       </c>
-      <c r="F69" s="154"/>
-      <c r="G69" s="63">
+      <c r="F69" s="151"/>
+      <c r="G69" s="62">
         <v>4745</v>
       </c>
-      <c r="H69" s="63" t="s">
+      <c r="H69" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="I69" s="63">
+      <c r="I69" s="62">
         <v>11</v>
       </c>
-      <c r="J69" s="63" t="s">
+      <c r="J69" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="K69" s="64">
+      <c r="K69" s="63">
         <v>153394</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="150"/>
-      <c r="B70" s="63">
+      <c r="A70" s="148"/>
+      <c r="B70" s="62">
         <v>11250</v>
       </c>
-      <c r="C70" s="63" t="s">
+      <c r="C70" s="62" t="s">
         <v>344</v>
       </c>
-      <c r="D70" s="150"/>
-      <c r="E70" s="64" t="s">
+      <c r="D70" s="148"/>
+      <c r="E70" s="63" t="s">
         <v>345</v>
       </c>
-      <c r="F70" s="154"/>
-      <c r="G70" s="63">
+      <c r="F70" s="151"/>
+      <c r="G70" s="62">
         <v>48</v>
       </c>
-      <c r="H70" s="63" t="s">
+      <c r="H70" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="I70" s="63">
+      <c r="I70" s="62">
         <v>188</v>
       </c>
-      <c r="J70" s="63" t="s">
+      <c r="J70" s="62" t="s">
         <v>313</v>
       </c>
-      <c r="K70" s="64">
+      <c r="K70" s="63">
         <v>8367</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="151"/>
-      <c r="B71" s="66">
+      <c r="A71" s="149"/>
+      <c r="B71" s="65">
         <v>10750</v>
       </c>
-      <c r="C71" s="66" t="s">
+      <c r="C71" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="D71" s="151"/>
-      <c r="E71" s="68" t="s">
+      <c r="D71" s="149"/>
+      <c r="E71" s="67" t="s">
         <v>346</v>
       </c>
-      <c r="F71" s="155"/>
-      <c r="G71" s="66">
+      <c r="F71" s="152"/>
+      <c r="G71" s="65">
         <v>50</v>
       </c>
-      <c r="H71" s="66" t="s">
+      <c r="H71" s="65" t="s">
         <v>347</v>
       </c>
-      <c r="I71" s="66">
+      <c r="I71" s="65">
         <v>98</v>
       </c>
-      <c r="J71" s="66" t="s">
+      <c r="J71" s="65" t="s">
         <v>348</v>
       </c>
-      <c r="K71" s="68">
+      <c r="K71" s="67">
         <v>8021</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="152">
+      <c r="A72" s="147">
         <v>14</v>
       </c>
-      <c r="B72" s="72"/>
-      <c r="C72" s="72"/>
-      <c r="D72" s="152"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="153" t="s">
+      <c r="B72" s="71"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="147"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="150" t="s">
         <v>349</v>
       </c>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="63"/>
-      <c r="K72" s="64"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="63"/>
     </row>
     <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="150"/>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="150"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="154"/>
-      <c r="G73" s="63"/>
-      <c r="H73" s="63"/>
-      <c r="I73" s="63"/>
-      <c r="J73" s="63"/>
-      <c r="K73" s="64"/>
+      <c r="A73" s="148"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="148"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="151"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="62"/>
+      <c r="J73" s="62"/>
+      <c r="K73" s="63"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="150"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="150"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="154"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="63"/>
-      <c r="K74" s="64"/>
+      <c r="A74" s="148"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="148"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="151"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="62"/>
+      <c r="K74" s="63"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="150"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="72"/>
-      <c r="D75" s="150"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="154"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="63"/>
-      <c r="K75" s="64"/>
+      <c r="A75" s="148"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="148"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="151"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="63"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="151"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="151"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="155"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="65"/>
-      <c r="J76" s="65"/>
-      <c r="K76" s="67"/>
+      <c r="A76" s="149"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="149"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="152"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
+      <c r="J76" s="64"/>
+      <c r="K76" s="66"/>
     </row>
     <row r="77" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="73">
+      <c r="A77" s="72">
         <v>15</v>
       </c>
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="73"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="74" t="s">
+      <c r="B77" s="64"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="73" t="s">
         <v>350</v>
       </c>
-      <c r="G77" s="65"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="65"/>
-      <c r="J77" s="65"/>
-      <c r="K77" s="67"/>
+      <c r="G77" s="64"/>
+      <c r="H77" s="64"/>
+      <c r="I77" s="64"/>
+      <c r="J77" s="64"/>
+      <c r="K77" s="66"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="159">
+      <c r="A78" s="153">
         <v>16</v>
       </c>
-      <c r="B78" s="63">
+      <c r="B78" s="62">
         <v>12500</v>
       </c>
-      <c r="C78" s="63" t="s">
+      <c r="C78" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="D78" s="152" t="s">
+      <c r="D78" s="147" t="s">
         <v>351</v>
       </c>
-      <c r="E78" s="64" t="s">
+      <c r="E78" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="F78" s="153" t="s">
+      <c r="F78" s="150" t="s">
         <v>353</v>
       </c>
-      <c r="G78" s="63">
+      <c r="G78" s="62">
         <v>564</v>
       </c>
-      <c r="H78" s="63" t="s">
+      <c r="H78" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="I78" s="63">
+      <c r="I78" s="62">
         <v>119</v>
       </c>
-      <c r="J78" s="63" t="s">
+      <c r="J78" s="62" t="s">
         <v>355</v>
       </c>
-      <c r="K78" s="64">
+      <c r="K78" s="63">
         <v>4304</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="160"/>
-      <c r="B79" s="63">
+      <c r="A79" s="154"/>
+      <c r="B79" s="62">
         <v>13750</v>
       </c>
-      <c r="C79" s="63" t="s">
+      <c r="C79" s="62" t="s">
         <v>356</v>
       </c>
-      <c r="D79" s="150"/>
-      <c r="E79" s="64" t="s">
+      <c r="D79" s="148"/>
+      <c r="E79" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F79" s="154"/>
-      <c r="G79" s="63">
+      <c r="F79" s="151"/>
+      <c r="G79" s="62">
         <v>3446</v>
       </c>
-      <c r="H79" s="63" t="s">
+      <c r="H79" s="62" t="s">
         <v>358</v>
       </c>
-      <c r="I79" s="63">
+      <c r="I79" s="62">
         <v>1317</v>
       </c>
-      <c r="J79" s="63" t="s">
+      <c r="J79" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="K79" s="64">
+      <c r="K79" s="63">
         <v>436</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="160"/>
-      <c r="B80" s="75">
+      <c r="A80" s="154"/>
+      <c r="B80" s="74">
         <v>11750</v>
       </c>
-      <c r="C80" s="75" t="s">
+      <c r="C80" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="D80" s="150"/>
-      <c r="E80" s="76" t="s">
+      <c r="D80" s="148"/>
+      <c r="E80" s="75" t="s">
         <v>360</v>
       </c>
-      <c r="F80" s="154"/>
-      <c r="G80" s="75">
+      <c r="F80" s="151"/>
+      <c r="G80" s="74">
         <v>1311</v>
       </c>
-      <c r="H80" s="75" t="s">
+      <c r="H80" s="74" t="s">
         <v>361</v>
       </c>
-      <c r="I80" s="75">
+      <c r="I80" s="74">
         <v>179</v>
       </c>
-      <c r="J80" s="75" t="s">
+      <c r="J80" s="74" t="s">
         <v>362</v>
       </c>
-      <c r="K80" s="76">
+      <c r="K80" s="75">
         <v>3379</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="160"/>
-      <c r="B81" s="72"/>
-      <c r="C81" s="72"/>
-      <c r="D81" s="150"/>
-      <c r="E81" s="64"/>
-      <c r="F81" s="154"/>
-      <c r="G81" s="72"/>
-      <c r="H81" s="72"/>
-      <c r="I81" s="72"/>
-      <c r="J81" s="72"/>
-      <c r="K81" s="77"/>
+      <c r="A81" s="154"/>
+      <c r="B81" s="71"/>
+      <c r="C81" s="71"/>
+      <c r="D81" s="148"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="151"/>
+      <c r="G81" s="71"/>
+      <c r="H81" s="71"/>
+      <c r="I81" s="71"/>
+      <c r="J81" s="71"/>
+      <c r="K81" s="76"/>
     </row>
     <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="161"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="151"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="155"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="71"/>
-      <c r="J82" s="71"/>
-      <c r="K82" s="78"/>
+      <c r="A82" s="155"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="149"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="152"/>
+      <c r="G82" s="70"/>
+      <c r="H82" s="70"/>
+      <c r="I82" s="70"/>
+      <c r="J82" s="70"/>
+      <c r="K82" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="F62:F66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="F67:F71"/>
     <mergeCell ref="A72:A76"/>
     <mergeCell ref="D72:D76"/>
     <mergeCell ref="F72:F76"/>
     <mergeCell ref="A78:A82"/>
     <mergeCell ref="D78:D82"/>
     <mergeCell ref="F78:F82"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="F62:F66"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="F7:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Competencia_final/registro_experimento.xlsx
+++ b/Competencia_final/registro_experimento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juancho\Desktop\DMEF\labo\Competencia_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C136C9-6A6E-48FB-B961-39B86FCE363F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68484592-AB4D-4D33-8A25-AA5B530BC508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F72DCF91-BE68-43C8-A18E-59730E9D26D2}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="18000" windowHeight="9397" xr2:uid="{F72DCF91-BE68-43C8-A18E-59730E9D26D2}"/>
   </bookViews>
   <sheets>
     <sheet name="registros" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="414">
   <si>
     <t>Final Train</t>
   </si>
@@ -1316,9 +1316,6 @@
   </si>
   <si>
     <t>TS9320KF9</t>
-  </si>
-  <si>
-    <t>FE9250KF5</t>
   </si>
   <si>
     <t>FE9250KF6</t>
@@ -2386,6 +2383,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2404,7 +2440,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2418,39 +2453,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2476,15 +2478,18 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2494,6 +2499,15 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2503,24 +2517,9 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2840,193 +2839,193 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185828D6-25AC-4D34-9841-603A418DDB2C}">
   <dimension ref="A1:BB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AE17" sqref="AE17"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AM9" sqref="AM9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.59765625" customWidth="1"/>
+    <col min="16" max="16" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="5.59765625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.73046875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="8" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.7109375" customWidth="1"/>
+    <col min="32" max="32" width="5.73046875" customWidth="1"/>
     <col min="33" max="33" width="10" customWidth="1"/>
-    <col min="34" max="34" width="9.140625" customWidth="1"/>
-    <col min="35" max="35" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.28515625" customWidth="1"/>
+    <col min="34" max="34" width="9.1328125" customWidth="1"/>
+    <col min="35" max="35" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.265625" customWidth="1"/>
     <col min="40" max="40" width="8" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="41" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="39"/>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="128"/>
-      <c r="AA1" s="129"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="121"/>
+      <c r="Y1" s="121"/>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="122"/>
       <c r="AB1" s="38"/>
-      <c r="AC1" s="115" t="s">
+      <c r="AC1" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="118"/>
-      <c r="AG1" s="118"/>
-      <c r="AH1" s="118"/>
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="135"/>
+      <c r="AH1" s="135"/>
       <c r="AI1" s="37"/>
-      <c r="AJ1" s="115" t="s">
+      <c r="AJ1" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="AK1" s="117"/>
-      <c r="AL1" s="117"/>
-      <c r="AM1" s="117"/>
-      <c r="AN1" s="117"/>
-      <c r="AO1" s="117"/>
-      <c r="AP1" s="117"/>
-      <c r="AQ1" s="117"/>
-      <c r="AR1" s="117"/>
-      <c r="AS1" s="117"/>
-      <c r="AT1" s="117"/>
-      <c r="AU1" s="117"/>
-      <c r="AV1" s="117"/>
-      <c r="AW1" s="117"/>
-      <c r="AX1" s="117"/>
-      <c r="AY1" s="117"/>
-      <c r="AZ1" s="117"/>
-      <c r="BA1" s="115" t="s">
+      <c r="AK1" s="134"/>
+      <c r="AL1" s="134"/>
+      <c r="AM1" s="134"/>
+      <c r="AN1" s="134"/>
+      <c r="AO1" s="134"/>
+      <c r="AP1" s="134"/>
+      <c r="AQ1" s="134"/>
+      <c r="AR1" s="134"/>
+      <c r="AS1" s="134"/>
+      <c r="AT1" s="134"/>
+      <c r="AU1" s="134"/>
+      <c r="AV1" s="134"/>
+      <c r="AW1" s="134"/>
+      <c r="AX1" s="134"/>
+      <c r="AY1" s="134"/>
+      <c r="AZ1" s="134"/>
+      <c r="BA1" s="132" t="s">
         <v>387</v>
       </c>
-      <c r="BB1" s="116"/>
-    </row>
-    <row r="2" spans="1:54" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BB1" s="133"/>
+    </row>
+    <row r="2" spans="1:54" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="133" t="s">
+      <c r="C2" s="126"/>
+      <c r="D2" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="135" t="s">
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="136" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
       <c r="O2" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="137" t="s">
+      <c r="P2" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
       <c r="AB2" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="AC2" s="130" t="s">
+      <c r="AC2" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="119" t="s">
+      <c r="AD2" s="136" t="s">
         <v>65</v>
       </c>
       <c r="AE2" s="55"/>
       <c r="AF2" s="55"/>
-      <c r="AG2" s="125" t="s">
+      <c r="AG2" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="AH2" s="125" t="s">
+      <c r="AH2" s="141" t="s">
         <v>67</v>
       </c>
       <c r="AI2" s="43"/>
-      <c r="AJ2" s="120" t="s">
+      <c r="AJ2" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="AK2" s="121"/>
-      <c r="AL2" s="122"/>
+      <c r="AK2" s="124"/>
+      <c r="AL2" s="138"/>
       <c r="AM2" s="26" t="s">
         <v>61</v>
       </c>
@@ -3034,27 +3033,27 @@
       <c r="AO2" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AP2" s="123" t="s">
+      <c r="AP2" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="AQ2" s="124"/>
-      <c r="AR2" s="120" t="s">
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="AS2" s="121"/>
-      <c r="AT2" s="121"/>
-      <c r="AU2" s="121"/>
-      <c r="AV2" s="121"/>
-      <c r="AW2" s="121"/>
-      <c r="AX2" s="121"/>
-      <c r="AY2" s="121"/>
-      <c r="AZ2" s="121"/>
+      <c r="AS2" s="124"/>
+      <c r="AT2" s="124"/>
+      <c r="AU2" s="124"/>
+      <c r="AV2" s="124"/>
+      <c r="AW2" s="124"/>
+      <c r="AX2" s="124"/>
+      <c r="AY2" s="124"/>
+      <c r="AZ2" s="124"/>
       <c r="BA2" s="110"/>
       <c r="BB2" s="111" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:54" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A3" s="34" t="s">
         <v>41</v>
       </c>
@@ -3135,16 +3134,16 @@
         <v>19</v>
       </c>
       <c r="AB3" s="27"/>
-      <c r="AC3" s="121"/>
-      <c r="AD3" s="119"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="136"/>
       <c r="AE3" s="58" t="s">
         <v>72</v>
       </c>
       <c r="AF3" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="126"/>
-      <c r="AH3" s="126"/>
+      <c r="AG3" s="142"/>
+      <c r="AH3" s="142"/>
       <c r="AI3" s="35" t="s">
         <v>61</v>
       </c>
@@ -3202,7 +3201,7 @@
       </c>
       <c r="BB3" s="111"/>
     </row>
-    <row r="4" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="92" t="s">
         <v>363</v>
       </c>
@@ -3273,7 +3272,7 @@
       <c r="AJ4" s="104"/>
       <c r="AK4" s="104"/>
       <c r="AL4" s="104"/>
-      <c r="AM4" s="160" t="s">
+      <c r="AM4" s="115" t="s">
         <v>380</v>
       </c>
       <c r="AN4" s="53">
@@ -3296,11 +3295,11 @@
       <c r="AY4" s="40"/>
       <c r="AZ4" s="109"/>
       <c r="BA4" s="113"/>
-      <c r="BB4" s="162" t="s">
+      <c r="BB4" s="116" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="92" t="s">
         <v>364</v>
       </c>
@@ -3371,7 +3370,7 @@
       <c r="AJ5" s="104"/>
       <c r="AK5" s="104"/>
       <c r="AL5" s="104"/>
-      <c r="AM5" s="160" t="s">
+      <c r="AM5" s="115" t="s">
         <v>381</v>
       </c>
       <c r="AN5" s="53">
@@ -3392,11 +3391,11 @@
       <c r="AY5" s="40"/>
       <c r="AZ5" s="109"/>
       <c r="BA5" s="113"/>
-      <c r="BB5" s="161" t="s">
+      <c r="BB5" s="116" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="92" t="s">
         <v>365</v>
       </c>
@@ -3467,7 +3466,7 @@
       <c r="AJ6" s="104"/>
       <c r="AK6" s="104"/>
       <c r="AL6" s="104"/>
-      <c r="AM6" s="160" t="s">
+      <c r="AM6" s="115" t="s">
         <v>382</v>
       </c>
       <c r="AN6" s="53">
@@ -3488,11 +3487,11 @@
       <c r="AY6" s="40"/>
       <c r="AZ6" s="109"/>
       <c r="BA6" s="113"/>
-      <c r="BB6" s="162" t="s">
+      <c r="BB6" s="116" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="92" t="s">
         <v>366</v>
       </c>
@@ -3555,7 +3554,7 @@
       <c r="AJ7" s="104"/>
       <c r="AK7" s="104"/>
       <c r="AL7" s="104"/>
-      <c r="AM7" s="163" t="s">
+      <c r="AM7" s="117" t="s">
         <v>390</v>
       </c>
       <c r="AN7" s="53">
@@ -3576,11 +3575,11 @@
       <c r="AY7" s="40"/>
       <c r="AZ7" s="109"/>
       <c r="BA7" s="113"/>
-      <c r="BB7" s="40" t="s">
+      <c r="BB7" s="119" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="92" t="s">
         <v>367</v>
       </c>
@@ -3645,13 +3644,13 @@
       <c r="AH8" s="53">
         <v>945577</v>
       </c>
-      <c r="AI8" s="95" t="s">
+      <c r="AI8" s="165" t="s">
         <v>392</v>
       </c>
       <c r="AJ8" s="104"/>
       <c r="AK8" s="104"/>
       <c r="AL8" s="104"/>
-      <c r="AM8" t="s">
+      <c r="AM8" s="118" t="s">
         <v>393</v>
       </c>
       <c r="AN8" s="104"/>
@@ -3670,11 +3669,11 @@
       <c r="AY8" s="40"/>
       <c r="AZ8" s="109"/>
       <c r="BA8" s="113"/>
-      <c r="BB8" s="40" t="s">
+      <c r="BB8" s="119" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A9" s="92" t="s">
         <v>368</v>
       </c>
@@ -3721,7 +3720,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="94" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="AC9" s="21">
         <v>0.4</v>
@@ -3743,7 +3742,7 @@
       <c r="AJ9" s="104"/>
       <c r="AK9" s="104"/>
       <c r="AL9" s="104"/>
-      <c r="AM9" s="164" t="s">
+      <c r="AM9" s="118" t="s">
         <v>396</v>
       </c>
       <c r="AN9" s="104"/>
@@ -3762,11 +3761,11 @@
       <c r="AY9" s="40"/>
       <c r="AZ9" s="109"/>
       <c r="BA9" s="113"/>
-      <c r="BB9" s="165" t="s">
+      <c r="BB9" s="119" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A10" s="92" t="s">
         <v>369</v>
       </c>
@@ -3813,7 +3812,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="16"/>
       <c r="AB10" s="94" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AC10" s="47">
         <v>0.3</v>
@@ -3833,7 +3832,7 @@
       <c r="AJ10" s="104"/>
       <c r="AK10" s="104"/>
       <c r="AL10" s="104"/>
-      <c r="AM10" s="164" t="s">
+      <c r="AM10" s="118" t="s">
         <v>397</v>
       </c>
       <c r="AN10" s="104"/>
@@ -3852,11 +3851,11 @@
       <c r="AY10" s="40"/>
       <c r="AZ10" s="39"/>
       <c r="BA10" s="113"/>
-      <c r="BB10" s="165" t="s">
+      <c r="BB10" s="119" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A11" s="92" t="s">
         <v>370</v>
       </c>
@@ -3903,7 +3902,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="16"/>
       <c r="AB11" s="94" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AC11" s="47">
         <v>0.5</v>
@@ -3923,7 +3922,7 @@
       <c r="AJ11" s="40"/>
       <c r="AK11" s="40"/>
       <c r="AL11" s="40"/>
-      <c r="AM11" s="164" t="s">
+      <c r="AM11" s="118" t="s">
         <v>398</v>
       </c>
       <c r="AN11" s="104"/>
@@ -3942,11 +3941,11 @@
       <c r="AY11" s="40"/>
       <c r="AZ11" s="39"/>
       <c r="BA11" s="113"/>
-      <c r="BB11" s="165" t="s">
+      <c r="BB11" s="119" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A12" s="92" t="s">
         <v>371</v>
       </c>
@@ -3993,7 +3992,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="16"/>
       <c r="AB12" s="94" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AC12" s="21"/>
       <c r="AD12" s="51"/>
@@ -4011,7 +4010,7 @@
       <c r="AJ12" s="40"/>
       <c r="AK12" s="40"/>
       <c r="AL12" s="40"/>
-      <c r="AM12" s="164" t="s">
+      <c r="AM12" s="118" t="s">
         <v>399</v>
       </c>
       <c r="AN12" s="104"/>
@@ -4030,11 +4029,11 @@
       <c r="AY12" s="40"/>
       <c r="AZ12" s="39"/>
       <c r="BA12" s="113"/>
-      <c r="BB12" s="165" t="s">
+      <c r="BB12" s="119" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="13" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="92" t="s">
         <v>388</v>
       </c>
@@ -4083,7 +4082,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="16"/>
       <c r="AB13" s="94" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AD13" s="54"/>
       <c r="AE13" s="57"/>
@@ -4100,7 +4099,7 @@
       <c r="AJ13" s="40"/>
       <c r="AK13" s="40"/>
       <c r="AL13" s="40"/>
-      <c r="AM13" s="164" t="s">
+      <c r="AM13" s="118" t="s">
         <v>400</v>
       </c>
       <c r="AN13" s="104"/>
@@ -4119,19 +4118,12 @@
       <c r="AY13" s="40"/>
       <c r="AZ13" s="39"/>
       <c r="BA13" s="114"/>
-      <c r="BB13" s="165" t="s">
+      <c r="BB13" s="119" t="s">
         <v>404</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:AA2"/>
     <mergeCell ref="BA1:BB1"/>
     <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="AC1:AH1"/>
@@ -4141,6 +4133,13 @@
     <mergeCell ref="AR2:AZ2"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4153,78 +4152,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA249011-D726-47B3-9440-8B01236A4F88}">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF22" sqref="AF22"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AI14" sqref="AI14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="13" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="25" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="35" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="2.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="3.1328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="25" width="2.1328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="3.1328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="35" width="2.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A1" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="143" t="s">
+      <c r="D1" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="145" t="s">
+      <c r="E1" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="146" t="s">
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="121"/>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="141" t="s">
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="124"/>
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="124"/>
+      <c r="AB1" s="124"/>
+      <c r="AC1" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="121"/>
-      <c r="AE1" s="121"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="121"/>
-      <c r="AH1" s="121"/>
-      <c r="AI1" s="121"/>
-      <c r="AJ1" s="142" t="s">
+      <c r="AD1" s="124"/>
+      <c r="AE1" s="124"/>
+      <c r="AF1" s="124"/>
+      <c r="AG1" s="124"/>
+      <c r="AH1" s="124"/>
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="147" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="119"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="144"/>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A2" s="136"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="149"/>
       <c r="E2" s="25">
         <v>1</v>
       </c>
@@ -4318,16 +4317,16 @@
       <c r="AI2" s="23">
         <v>7</v>
       </c>
-      <c r="AJ2" s="121"/>
-    </row>
-    <row r="3" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="140">
-        <v>1</v>
-      </c>
-      <c r="B3" s="140">
+      <c r="AJ2" s="124"/>
+    </row>
+    <row r="3" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="145">
+        <v>1</v>
+      </c>
+      <c r="B3" s="145">
         <v>732497</v>
       </c>
-      <c r="C3" s="140">
+      <c r="C3" s="145">
         <v>936659</v>
       </c>
       <c r="D3" s="20" t="s">
@@ -4427,10 +4426,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
+    <row r="4" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="145"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
@@ -4472,10 +4471,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="140"/>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
+    <row r="5" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="145"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
       <c r="D5" s="15" t="s">
         <v>1</v>
       </c>
@@ -4517,10 +4516,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="140"/>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
+    <row r="6" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="145"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
       <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
@@ -4618,14 +4617,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="138">
+    <row r="7" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="143">
         <v>2</v>
       </c>
-      <c r="B7" s="140">
+      <c r="B7" s="145">
         <v>732497</v>
       </c>
-      <c r="C7" s="140">
+      <c r="C7" s="145">
         <v>936659</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -4725,10 +4724,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="139"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
+    <row r="8" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="144"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
       <c r="D8" s="15" t="s">
         <v>2</v>
       </c>
@@ -4770,10 +4769,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="139"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
+    <row r="9" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="144"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="145"/>
       <c r="D9" s="15" t="s">
         <v>1</v>
       </c>
@@ -4815,10 +4814,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="139"/>
-      <c r="B10" s="140"/>
-      <c r="C10" s="140"/>
+    <row r="10" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="144"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="145"/>
       <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
@@ -4916,14 +4915,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="138">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A11" s="143">
         <v>3</v>
       </c>
-      <c r="B11" s="140">
+      <c r="B11" s="145">
         <v>732497</v>
       </c>
-      <c r="C11" s="140">
+      <c r="C11" s="145">
         <v>936659</v>
       </c>
       <c r="D11" s="20" t="s">
@@ -5023,10 +5022,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="139"/>
-      <c r="B12" s="140"/>
-      <c r="C12" s="140"/>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A12" s="144"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="145"/>
       <c r="D12" s="15" t="s">
         <v>2</v>
       </c>
@@ -5068,10 +5067,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="139"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A13" s="144"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="145"/>
       <c r="D13" s="15" t="s">
         <v>1</v>
       </c>
@@ -5113,10 +5112,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="139"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A14" s="144"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="145"/>
       <c r="D14" s="4" t="s">
         <v>0</v>
       </c>
@@ -5214,14 +5213,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="138">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A15" s="143">
         <v>4</v>
       </c>
-      <c r="B15" s="140">
+      <c r="B15" s="145">
         <v>732497</v>
       </c>
-      <c r="C15" s="140">
+      <c r="C15" s="145">
         <v>936659</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -5321,10 +5320,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="139"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="140"/>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A16" s="144"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
       <c r="D16" s="15" t="s">
         <v>2</v>
       </c>
@@ -5366,10 +5365,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="139"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="140"/>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A17" s="144"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="145"/>
       <c r="D17" s="15" t="s">
         <v>1</v>
       </c>
@@ -5411,10 +5410,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="139"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A18" s="144"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="145"/>
       <c r="D18" s="4" t="s">
         <v>0</v>
       </c>
@@ -5512,14 +5511,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" s="138">
-        <v>1</v>
-      </c>
-      <c r="B19" s="140">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A19" s="143">
+        <v>1</v>
+      </c>
+      <c r="B19" s="145">
         <v>732497</v>
       </c>
-      <c r="C19" s="140">
+      <c r="C19" s="145">
         <v>936659</v>
       </c>
       <c r="D19" s="20" t="s">
@@ -5607,10 +5606,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="139"/>
-      <c r="B20" s="140"/>
-      <c r="C20" s="140"/>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A20" s="144"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="145"/>
       <c r="D20" s="15" t="s">
         <v>2</v>
       </c>
@@ -5652,10 +5651,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="139"/>
-      <c r="B21" s="140"/>
-      <c r="C21" s="140"/>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A21" s="144"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
       <c r="D21" s="15" t="s">
         <v>1</v>
       </c>
@@ -5697,10 +5696,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="139"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="140"/>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A22" s="144"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
       <c r="D22" s="4" t="s">
         <v>0</v>
       </c>
@@ -5788,20 +5787,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="AC1:AI1"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="Q1:AB1"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
@@ -5811,6 +5796,20 @@
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="C15:C18"/>
+    <mergeCell ref="AC1:AI1"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="Q1:AB1"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5825,14 +5824,14 @@
       <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -5846,7 +5845,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
@@ -5860,7 +5859,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
@@ -5874,7 +5873,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A4" s="22" t="s">
         <v>4</v>
       </c>
@@ -5888,7 +5887,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
@@ -5902,7 +5901,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A6" s="22" t="s">
         <v>4</v>
       </c>
@@ -5916,7 +5915,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A7" s="22" t="s">
         <v>4</v>
       </c>
@@ -5930,7 +5929,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A8" s="22" t="s">
         <v>4</v>
       </c>
@@ -5944,7 +5943,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A9" s="22" t="s">
         <v>4</v>
       </c>
@@ -5958,7 +5957,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A10" s="22" t="s">
         <v>4</v>
       </c>
@@ -5972,7 +5971,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A11" s="22" t="s">
         <v>4</v>
       </c>
@@ -6006,19 +6005,19 @@
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.86328125" customWidth="1"/>
+    <col min="2" max="5" width="12.3984375" customWidth="1"/>
+    <col min="6" max="6" width="28.59765625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.1328125" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" customWidth="1"/>
+    <col min="10" max="10" width="18.1328125" customWidth="1"/>
+    <col min="11" max="11" width="19.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="59" t="s">
         <v>68</v>
       </c>
@@ -6053,8 +6052,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="159">
+    <row r="2" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="152">
         <v>0</v>
       </c>
       <c r="B2" s="62">
@@ -6063,13 +6062,13 @@
       <c r="C2" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="147" t="s">
+      <c r="D2" s="155" t="s">
         <v>81</v>
       </c>
       <c r="E2" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="150" t="s">
+      <c r="F2" s="156" t="s">
         <v>83</v>
       </c>
       <c r="G2" s="62">
@@ -6088,19 +6087,19 @@
         <v>40938</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="148"/>
+    <row r="3" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="153"/>
       <c r="B3" s="62">
         <v>13500</v>
       </c>
       <c r="C3" s="62">
         <v>49</v>
       </c>
-      <c r="D3" s="148"/>
+      <c r="D3" s="153"/>
       <c r="E3" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="151"/>
+      <c r="F3" s="157"/>
       <c r="G3" s="62">
         <v>534</v>
       </c>
@@ -6117,19 +6116,19 @@
         <v>27265</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="148"/>
+    <row r="4" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="153"/>
       <c r="B4" s="62">
         <v>11250</v>
       </c>
       <c r="C4" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="148"/>
+      <c r="D4" s="153"/>
       <c r="E4" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="151"/>
+      <c r="F4" s="157"/>
       <c r="G4" s="62">
         <v>707</v>
       </c>
@@ -6146,19 +6145,19 @@
         <v>41129</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="148"/>
+    <row r="5" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="153"/>
       <c r="B5" s="62">
         <v>9500</v>
       </c>
       <c r="C5" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="148"/>
+      <c r="D5" s="153"/>
       <c r="E5" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="151"/>
+      <c r="F5" s="157"/>
       <c r="G5" s="62">
         <v>930</v>
       </c>
@@ -6175,19 +6174,19 @@
         <v>10617</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="149"/>
+    <row r="6" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="154"/>
       <c r="B6" s="65">
         <v>10250</v>
       </c>
       <c r="C6" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="149"/>
+      <c r="D6" s="154"/>
       <c r="E6" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="152"/>
+      <c r="F6" s="158"/>
       <c r="G6" s="65">
         <v>2944</v>
       </c>
@@ -6204,8 +6203,8 @@
         <v>12534</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="147">
+    <row r="7" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="155">
         <v>1</v>
       </c>
       <c r="B7" s="68">
@@ -6214,13 +6213,13 @@
       <c r="C7" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="147" t="s">
+      <c r="D7" s="155" t="s">
         <v>101</v>
       </c>
       <c r="E7" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="150" t="s">
+      <c r="F7" s="156" t="s">
         <v>103</v>
       </c>
       <c r="G7" s="68">
@@ -6239,19 +6238,19 @@
         <v>13746</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="148"/>
+    <row r="8" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="153"/>
       <c r="B8" s="62">
         <v>11250</v>
       </c>
       <c r="C8" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="148"/>
+      <c r="D8" s="153"/>
       <c r="E8" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="151"/>
+      <c r="F8" s="157"/>
       <c r="G8" s="62">
         <v>657</v>
       </c>
@@ -6268,19 +6267,19 @@
         <v>11371</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="148"/>
+    <row r="9" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="153"/>
       <c r="B9" s="62">
         <v>11750</v>
       </c>
       <c r="C9" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="148"/>
+      <c r="D9" s="153"/>
       <c r="E9" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="151"/>
+      <c r="F9" s="157"/>
       <c r="G9" s="62">
         <v>841</v>
       </c>
@@ -6297,19 +6296,19 @@
         <v>39417</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="148"/>
+    <row r="10" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="153"/>
       <c r="B10" s="62">
         <v>11250</v>
       </c>
       <c r="C10" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="148"/>
+      <c r="D10" s="153"/>
       <c r="E10" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="151"/>
+      <c r="F10" s="157"/>
       <c r="G10" s="62">
         <v>963</v>
       </c>
@@ -6326,19 +6325,19 @@
         <v>23164</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="149"/>
+    <row r="11" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="154"/>
       <c r="B11" s="64">
         <v>10500</v>
       </c>
       <c r="C11" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="149"/>
+      <c r="D11" s="154"/>
       <c r="E11" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="152"/>
+      <c r="F11" s="158"/>
       <c r="G11" s="64">
         <v>2745</v>
       </c>
@@ -6355,8 +6354,8 @@
         <v>10415</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="147">
+    <row r="12" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="155">
         <v>2</v>
       </c>
       <c r="B12" s="62">
@@ -6365,13 +6364,13 @@
       <c r="C12" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="147" t="s">
+      <c r="D12" s="155" t="s">
         <v>123</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="150" t="s">
+      <c r="F12" s="156" t="s">
         <v>125</v>
       </c>
       <c r="G12" s="62">
@@ -6390,19 +6389,19 @@
         <v>52347</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="148"/>
+    <row r="13" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="153"/>
       <c r="B13" s="68">
         <v>11750</v>
       </c>
       <c r="C13" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="148"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="151"/>
+      <c r="F13" s="157"/>
       <c r="G13" s="68">
         <v>9989</v>
       </c>
@@ -6419,19 +6418,19 @@
         <v>53831</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="148"/>
+    <row r="14" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="153"/>
       <c r="B14" s="62">
         <v>11500</v>
       </c>
       <c r="C14" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="148"/>
+      <c r="D14" s="153"/>
       <c r="E14" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="151"/>
+      <c r="F14" s="157"/>
       <c r="G14" s="62">
         <v>2414</v>
       </c>
@@ -6448,19 +6447,19 @@
         <v>52321</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="148"/>
+    <row r="15" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="153"/>
       <c r="B15" s="62">
         <v>10750</v>
       </c>
       <c r="C15" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="148"/>
+      <c r="D15" s="153"/>
       <c r="E15" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="151"/>
+      <c r="F15" s="157"/>
       <c r="G15" s="62">
         <v>3244</v>
       </c>
@@ -6477,19 +6476,19 @@
         <v>52310</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="149"/>
+    <row r="16" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="154"/>
       <c r="B16" s="64">
         <v>11250</v>
       </c>
       <c r="C16" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="149"/>
+      <c r="D16" s="154"/>
       <c r="E16" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="152"/>
+      <c r="F16" s="158"/>
       <c r="G16" s="64">
         <v>1970</v>
       </c>
@@ -6506,8 +6505,8 @@
         <v>54366</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="147">
+    <row r="17" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="155">
         <v>3</v>
       </c>
       <c r="B17" s="62">
@@ -6516,13 +6515,13 @@
       <c r="C17" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="147" t="s">
+      <c r="D17" s="155" t="s">
         <v>144</v>
       </c>
       <c r="E17" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="F17" s="150" t="s">
+      <c r="F17" s="156" t="s">
         <v>146</v>
       </c>
       <c r="G17" s="62">
@@ -6541,19 +6540,19 @@
         <v>50167</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="148"/>
+    <row r="18" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="153"/>
       <c r="B18" s="62">
         <v>12750</v>
       </c>
       <c r="C18" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="148"/>
+      <c r="D18" s="153"/>
       <c r="E18" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="151"/>
+      <c r="F18" s="157"/>
       <c r="G18" s="62">
         <v>611</v>
       </c>
@@ -6570,19 +6569,19 @@
         <v>63508</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="148"/>
+    <row r="19" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="153"/>
       <c r="B19" s="68">
         <v>11000</v>
       </c>
       <c r="C19" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="148"/>
+      <c r="D19" s="153"/>
       <c r="E19" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="151"/>
+      <c r="F19" s="157"/>
       <c r="G19" s="68">
         <v>333</v>
       </c>
@@ -6599,19 +6598,19 @@
         <v>37152</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="148"/>
+    <row r="20" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="153"/>
       <c r="B20" s="62">
         <v>10250</v>
       </c>
       <c r="C20" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="148"/>
+      <c r="D20" s="153"/>
       <c r="E20" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="151"/>
+      <c r="F20" s="157"/>
       <c r="G20" s="62">
         <v>441</v>
       </c>
@@ -6628,19 +6627,19 @@
         <v>121996</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="149"/>
+    <row r="21" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="154"/>
       <c r="B21" s="64">
         <v>12250</v>
       </c>
       <c r="C21" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="D21" s="149"/>
+      <c r="D21" s="154"/>
       <c r="E21" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="F21" s="152"/>
+      <c r="F21" s="158"/>
       <c r="G21" s="64">
         <v>317</v>
       </c>
@@ -6657,8 +6656,8 @@
         <v>59790</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="147">
+    <row r="22" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="155">
         <v>4</v>
       </c>
       <c r="B22" s="68">
@@ -6667,13 +6666,13 @@
       <c r="C22" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="147" t="s">
+      <c r="D22" s="155" t="s">
         <v>166</v>
       </c>
       <c r="E22" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="F22" s="150" t="s">
+      <c r="F22" s="156" t="s">
         <v>168</v>
       </c>
       <c r="G22" s="68">
@@ -6692,19 +6691,19 @@
         <v>36901</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="148"/>
+    <row r="23" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="153"/>
       <c r="B23" s="62">
         <v>11000</v>
       </c>
       <c r="C23" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="148"/>
+      <c r="D23" s="153"/>
       <c r="E23" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="F23" s="151"/>
+      <c r="F23" s="157"/>
       <c r="G23" s="62">
         <v>113</v>
       </c>
@@ -6721,19 +6720,19 @@
         <v>49951</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="148"/>
+    <row r="24" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="153"/>
       <c r="B24" s="62">
         <v>12750</v>
       </c>
       <c r="C24" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="148"/>
+      <c r="D24" s="153"/>
       <c r="E24" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="F24" s="151"/>
+      <c r="F24" s="157"/>
       <c r="G24" s="62">
         <v>4998</v>
       </c>
@@ -6750,19 +6749,19 @@
         <v>153394</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="148"/>
+    <row r="25" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="153"/>
       <c r="B25" s="62">
         <v>12750</v>
       </c>
       <c r="C25" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="148"/>
+      <c r="D25" s="153"/>
       <c r="E25" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="F25" s="151"/>
+      <c r="F25" s="157"/>
       <c r="G25" s="62">
         <v>794</v>
       </c>
@@ -6779,19 +6778,19 @@
         <v>193986</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="149"/>
+    <row r="26" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="154"/>
       <c r="B26" s="64">
         <v>12250</v>
       </c>
       <c r="C26" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="D26" s="149"/>
+      <c r="D26" s="154"/>
       <c r="E26" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="F26" s="152"/>
+      <c r="F26" s="158"/>
       <c r="G26" s="64">
         <v>1190</v>
       </c>
@@ -6808,8 +6807,8 @@
         <v>13459</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="147">
+    <row r="27" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="155">
         <v>5</v>
       </c>
       <c r="B27" s="62">
@@ -6818,13 +6817,13 @@
       <c r="C27" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="147" t="s">
+      <c r="D27" s="155" t="s">
         <v>187</v>
       </c>
       <c r="E27" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="150" t="s">
+      <c r="F27" s="156" t="s">
         <v>189</v>
       </c>
       <c r="G27" s="62">
@@ -6843,19 +6842,19 @@
         <v>52536</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="148"/>
+    <row r="28" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="153"/>
       <c r="B28" s="68">
         <v>11250</v>
       </c>
       <c r="C28" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="D28" s="148"/>
+      <c r="D28" s="153"/>
       <c r="E28" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="F28" s="151"/>
+      <c r="F28" s="157"/>
       <c r="G28" s="68">
         <v>408</v>
       </c>
@@ -6872,19 +6871,19 @@
         <v>49982</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="148"/>
+    <row r="29" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="153"/>
       <c r="B29" s="62">
         <v>11500</v>
       </c>
       <c r="C29" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D29" s="148"/>
+      <c r="D29" s="153"/>
       <c r="E29" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="151"/>
+      <c r="F29" s="157"/>
       <c r="G29" s="62">
         <v>663</v>
       </c>
@@ -6901,19 +6900,19 @@
         <v>43453</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="148"/>
+    <row r="30" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="153"/>
       <c r="B30" s="62">
         <v>11750</v>
       </c>
       <c r="C30" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D30" s="148"/>
+      <c r="D30" s="153"/>
       <c r="E30" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="F30" s="151"/>
+      <c r="F30" s="157"/>
       <c r="G30" s="62">
         <v>1311</v>
       </c>
@@ -6930,19 +6929,19 @@
         <v>50224</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="149"/>
+    <row r="31" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="154"/>
       <c r="B31" s="64">
         <v>10750</v>
       </c>
       <c r="C31" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="D31" s="149"/>
+      <c r="D31" s="154"/>
       <c r="E31" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="F31" s="152"/>
+      <c r="F31" s="158"/>
       <c r="G31" s="64">
         <v>2568</v>
       </c>
@@ -6959,8 +6958,8 @@
         <v>51512</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="147">
+    <row r="32" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="155">
         <v>6</v>
       </c>
       <c r="B32" s="62">
@@ -6969,13 +6968,13 @@
       <c r="C32" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D32" s="147" t="s">
+      <c r="D32" s="155" t="s">
         <v>209</v>
       </c>
       <c r="E32" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="F32" s="150" t="s">
+      <c r="F32" s="156" t="s">
         <v>211</v>
       </c>
       <c r="G32" s="62">
@@ -6994,19 +6993,19 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="148"/>
+    <row r="33" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="153"/>
       <c r="B33" s="62">
         <v>11750</v>
       </c>
       <c r="C33" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="148"/>
+      <c r="D33" s="153"/>
       <c r="E33" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="F33" s="151"/>
+      <c r="F33" s="157"/>
       <c r="G33" s="62">
         <v>76</v>
       </c>
@@ -7023,19 +7022,19 @@
         <v>51365</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="148"/>
+    <row r="34" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="153"/>
       <c r="B34" s="62">
         <v>11500</v>
       </c>
       <c r="C34" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D34" s="148"/>
+      <c r="D34" s="153"/>
       <c r="E34" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="F34" s="151"/>
+      <c r="F34" s="157"/>
       <c r="G34" s="62">
         <v>55</v>
       </c>
@@ -7052,19 +7051,19 @@
         <v>50436</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="148"/>
+    <row r="35" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="153"/>
       <c r="B35" s="62">
         <v>12750</v>
       </c>
       <c r="C35" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="148"/>
+      <c r="D35" s="153"/>
       <c r="E35" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="F35" s="151"/>
+      <c r="F35" s="157"/>
       <c r="G35" s="62">
         <v>163</v>
       </c>
@@ -7081,19 +7080,19 @@
         <v>23751</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="149"/>
+    <row r="36" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="154"/>
       <c r="B36" s="65">
         <v>10500</v>
       </c>
       <c r="C36" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="D36" s="149"/>
+      <c r="D36" s="154"/>
       <c r="E36" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="F36" s="152"/>
+      <c r="F36" s="158"/>
       <c r="G36" s="65">
         <v>968</v>
       </c>
@@ -7110,8 +7109,8 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="147">
+    <row r="37" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="155">
         <v>7</v>
       </c>
       <c r="B37" s="62">
@@ -7120,13 +7119,13 @@
       <c r="C37" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="D37" s="147" t="s">
+      <c r="D37" s="155" t="s">
         <v>228</v>
       </c>
       <c r="E37" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="F37" s="150" t="s">
+      <c r="F37" s="156" t="s">
         <v>230</v>
       </c>
       <c r="G37" s="62">
@@ -7145,19 +7144,19 @@
         <v>18326</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="148"/>
+    <row r="38" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="153"/>
       <c r="B38" s="62">
         <v>10250</v>
       </c>
       <c r="C38" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="148"/>
+      <c r="D38" s="153"/>
       <c r="E38" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="F38" s="151"/>
+      <c r="F38" s="157"/>
       <c r="G38" s="62">
         <v>82</v>
       </c>
@@ -7174,19 +7173,19 @@
         <v>8472</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="148"/>
+    <row r="39" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="153"/>
       <c r="B39" s="62">
         <v>10000</v>
       </c>
       <c r="C39" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="D39" s="148"/>
+      <c r="D39" s="153"/>
       <c r="E39" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="F39" s="151"/>
+      <c r="F39" s="157"/>
       <c r="G39" s="62">
         <v>2045</v>
       </c>
@@ -7203,19 +7202,19 @@
         <v>12655</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="148"/>
+    <row r="40" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="153"/>
       <c r="B40" s="68">
         <v>9750</v>
       </c>
       <c r="C40" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="148"/>
+      <c r="D40" s="153"/>
       <c r="E40" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="F40" s="151"/>
+      <c r="F40" s="157"/>
       <c r="G40" s="68">
         <v>2527</v>
       </c>
@@ -7232,19 +7231,19 @@
         <v>5603</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="149"/>
+    <row r="41" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="154"/>
       <c r="B41" s="64">
         <v>12000</v>
       </c>
       <c r="C41" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="D41" s="149"/>
+      <c r="D41" s="154"/>
       <c r="E41" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="F41" s="152"/>
+      <c r="F41" s="158"/>
       <c r="G41" s="64">
         <v>374</v>
       </c>
@@ -7261,8 +7260,8 @@
         <v>22445</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="147">
+    <row r="42" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="155">
         <v>8</v>
       </c>
       <c r="B42" s="62">
@@ -7271,13 +7270,13 @@
       <c r="C42" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="D42" s="147" t="s">
+      <c r="D42" s="155" t="s">
         <v>248</v>
       </c>
       <c r="E42" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="F42" s="150" t="s">
+      <c r="F42" s="156" t="s">
         <v>250</v>
       </c>
       <c r="G42" s="62">
@@ -7296,19 +7295,19 @@
         <v>38949</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="148"/>
+    <row r="43" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="153"/>
       <c r="B43" s="62">
         <v>10750</v>
       </c>
       <c r="C43" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="148"/>
+      <c r="D43" s="153"/>
       <c r="E43" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="F43" s="151"/>
+      <c r="F43" s="157"/>
       <c r="G43" s="62">
         <v>542</v>
       </c>
@@ -7325,19 +7324,19 @@
         <v>28812</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="148"/>
+    <row r="44" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="153"/>
       <c r="B44" s="62">
         <v>13500</v>
       </c>
       <c r="C44" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="148"/>
+      <c r="D44" s="153"/>
       <c r="E44" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="F44" s="151"/>
+      <c r="F44" s="157"/>
       <c r="G44" s="62">
         <v>1769</v>
       </c>
@@ -7354,19 +7353,19 @@
         <v>36886</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="148"/>
+    <row r="45" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="153"/>
       <c r="B45" s="62">
         <v>10500</v>
       </c>
       <c r="C45" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="D45" s="148"/>
+      <c r="D45" s="153"/>
       <c r="E45" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="F45" s="151"/>
+      <c r="F45" s="157"/>
       <c r="G45" s="62">
         <v>643</v>
       </c>
@@ -7383,19 +7382,19 @@
         <v>20742</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="149"/>
+    <row r="46" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="154"/>
       <c r="B46" s="65">
         <v>11500</v>
       </c>
       <c r="C46" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="D46" s="149"/>
+      <c r="D46" s="154"/>
       <c r="E46" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="F46" s="152"/>
+      <c r="F46" s="158"/>
       <c r="G46" s="65">
         <v>969</v>
       </c>
@@ -7412,8 +7411,8 @@
         <v>21985</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="147">
+    <row r="47" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="155">
         <v>9</v>
       </c>
       <c r="B47" s="68">
@@ -7422,13 +7421,13 @@
       <c r="C47" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="D47" s="156" t="s">
+      <c r="D47" s="159" t="s">
         <v>114</v>
       </c>
       <c r="E47" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="F47" s="150" t="s">
+      <c r="F47" s="156" t="s">
         <v>268</v>
       </c>
       <c r="G47" s="68">
@@ -7447,19 +7446,19 @@
         <v>27273</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="148"/>
+    <row r="48" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="153"/>
       <c r="B48" s="62">
         <v>13500</v>
       </c>
       <c r="C48" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="157"/>
+      <c r="D48" s="160"/>
       <c r="E48" s="63" t="s">
         <v>271</v>
       </c>
-      <c r="F48" s="151"/>
+      <c r="F48" s="157"/>
       <c r="G48" s="62">
         <v>1061</v>
       </c>
@@ -7476,19 +7475,19 @@
         <v>96937</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="148"/>
+    <row r="49" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="153"/>
       <c r="B49" s="62">
         <v>12250</v>
       </c>
       <c r="C49" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="157"/>
+      <c r="D49" s="160"/>
       <c r="E49" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="F49" s="151"/>
+      <c r="F49" s="157"/>
       <c r="G49" s="62">
         <v>81</v>
       </c>
@@ -7505,19 +7504,19 @@
         <v>51352</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="148"/>
+    <row r="50" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="153"/>
       <c r="B50" s="62">
         <v>11750</v>
       </c>
       <c r="C50" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="157"/>
+      <c r="D50" s="160"/>
       <c r="E50" s="63" t="s">
         <v>275</v>
       </c>
-      <c r="F50" s="151"/>
+      <c r="F50" s="157"/>
       <c r="G50" s="62">
         <v>52</v>
       </c>
@@ -7534,19 +7533,19 @@
         <v>39124</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="149"/>
+    <row r="51" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="154"/>
       <c r="B51" s="64">
         <v>12250</v>
       </c>
       <c r="C51" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="D51" s="158"/>
+      <c r="D51" s="161"/>
       <c r="E51" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="F51" s="152"/>
+      <c r="F51" s="158"/>
       <c r="G51" s="64">
         <v>661</v>
       </c>
@@ -7563,8 +7562,8 @@
         <v>234940</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="147">
+    <row r="52" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="155">
         <v>10</v>
       </c>
       <c r="B52" s="62">
@@ -7573,13 +7572,13 @@
       <c r="C52" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="D52" s="147" t="s">
+      <c r="D52" s="155" t="s">
         <v>283</v>
       </c>
       <c r="E52" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="F52" s="150" t="s">
+      <c r="F52" s="156" t="s">
         <v>285</v>
       </c>
       <c r="G52" s="62">
@@ -7598,19 +7597,19 @@
         <v>24744</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="148"/>
+    <row r="53" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="153"/>
       <c r="B53" s="62">
         <v>12250</v>
       </c>
       <c r="C53" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D53" s="148"/>
+      <c r="D53" s="153"/>
       <c r="E53" s="63" t="s">
         <v>288</v>
       </c>
-      <c r="F53" s="151"/>
+      <c r="F53" s="157"/>
       <c r="G53" s="62">
         <v>1860</v>
       </c>
@@ -7627,19 +7626,19 @@
         <v>47195</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="148"/>
+    <row r="54" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="153"/>
       <c r="B54" s="62">
         <v>12250</v>
       </c>
       <c r="C54" s="62" t="s">
         <v>291</v>
       </c>
-      <c r="D54" s="148"/>
+      <c r="D54" s="153"/>
       <c r="E54" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="F54" s="151"/>
+      <c r="F54" s="157"/>
       <c r="G54" s="62">
         <v>1153</v>
       </c>
@@ -7656,19 +7655,19 @@
         <v>4513</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="148"/>
+    <row r="55" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="153"/>
       <c r="B55" s="68">
         <v>11000</v>
       </c>
       <c r="C55" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="D55" s="148"/>
+      <c r="D55" s="153"/>
       <c r="E55" s="69" t="s">
         <v>295</v>
       </c>
-      <c r="F55" s="151"/>
+      <c r="F55" s="157"/>
       <c r="G55" s="68">
         <v>1949</v>
       </c>
@@ -7685,19 +7684,19 @@
         <v>32643</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="149"/>
+    <row r="56" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="154"/>
       <c r="B56" s="64">
         <v>11500</v>
       </c>
       <c r="C56" s="64" t="s">
         <v>298</v>
       </c>
-      <c r="D56" s="149"/>
+      <c r="D56" s="154"/>
       <c r="E56" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="F56" s="152"/>
+      <c r="F56" s="158"/>
       <c r="G56" s="64">
         <v>131</v>
       </c>
@@ -7714,8 +7713,8 @@
         <v>26528</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="147">
+    <row r="57" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="155">
         <v>11</v>
       </c>
       <c r="B57" s="62">
@@ -7724,13 +7723,13 @@
       <c r="C57" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="D57" s="147" t="s">
+      <c r="D57" s="155" t="s">
         <v>298</v>
       </c>
       <c r="E57" s="63" t="s">
         <v>303</v>
       </c>
-      <c r="F57" s="150" t="s">
+      <c r="F57" s="156" t="s">
         <v>304</v>
       </c>
       <c r="G57" s="62">
@@ -7749,19 +7748,19 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="148"/>
+    <row r="58" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="153"/>
       <c r="B58" s="62">
         <v>11250</v>
       </c>
       <c r="C58" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="D58" s="148"/>
+      <c r="D58" s="153"/>
       <c r="E58" s="63" t="s">
         <v>308</v>
       </c>
-      <c r="F58" s="151"/>
+      <c r="F58" s="157"/>
       <c r="G58" s="62">
         <v>67</v>
       </c>
@@ -7778,19 +7777,19 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="148"/>
+    <row r="59" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="153"/>
       <c r="B59" s="62">
         <v>13500</v>
       </c>
       <c r="C59" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="D59" s="148"/>
+      <c r="D59" s="153"/>
       <c r="E59" s="63" t="s">
         <v>311</v>
       </c>
-      <c r="F59" s="151"/>
+      <c r="F59" s="157"/>
       <c r="G59" s="62">
         <v>56</v>
       </c>
@@ -7807,19 +7806,19 @@
         <v>8367</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="148"/>
+    <row r="60" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="153"/>
       <c r="B60" s="68">
         <v>10750</v>
       </c>
       <c r="C60" s="68" t="s">
         <v>314</v>
       </c>
-      <c r="D60" s="148"/>
+      <c r="D60" s="153"/>
       <c r="E60" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="F60" s="151"/>
+      <c r="F60" s="157"/>
       <c r="G60" s="68">
         <v>72</v>
       </c>
@@ -7836,19 +7835,19 @@
         <v>5063</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="149"/>
+    <row r="61" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="154"/>
       <c r="B61" s="64">
         <v>13250</v>
       </c>
       <c r="C61" s="64" t="s">
         <v>318</v>
       </c>
-      <c r="D61" s="149"/>
+      <c r="D61" s="154"/>
       <c r="E61" s="66" t="s">
         <v>319</v>
       </c>
-      <c r="F61" s="152"/>
+      <c r="F61" s="158"/>
       <c r="G61" s="64">
         <v>144</v>
       </c>
@@ -7865,8 +7864,8 @@
         <v>3627</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="153">
+    <row r="62" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="162">
         <v>12</v>
       </c>
       <c r="B62" s="68">
@@ -7875,13 +7874,13 @@
       <c r="C62" s="68" t="s">
         <v>322</v>
       </c>
-      <c r="D62" s="147" t="s">
+      <c r="D62" s="155" t="s">
         <v>323</v>
       </c>
       <c r="E62" s="69" t="s">
         <v>324</v>
       </c>
-      <c r="F62" s="150" t="s">
+      <c r="F62" s="156" t="s">
         <v>325</v>
       </c>
       <c r="G62" s="68">
@@ -7900,19 +7899,19 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="154"/>
+    <row r="63" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A63" s="163"/>
       <c r="B63" s="62">
         <v>11750</v>
       </c>
       <c r="C63" s="62" t="s">
         <v>328</v>
       </c>
-      <c r="D63" s="148"/>
+      <c r="D63" s="153"/>
       <c r="E63" s="63" t="s">
         <v>329</v>
       </c>
-      <c r="F63" s="151"/>
+      <c r="F63" s="157"/>
       <c r="G63" s="62">
         <v>1968</v>
       </c>
@@ -7929,47 +7928,47 @@
         <v>3135</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="154"/>
+    <row r="64" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="163"/>
       <c r="B64" s="62"/>
       <c r="C64" s="62"/>
-      <c r="D64" s="148"/>
+      <c r="D64" s="153"/>
       <c r="E64" s="63"/>
-      <c r="F64" s="151"/>
+      <c r="F64" s="157"/>
       <c r="G64" s="62"/>
       <c r="H64" s="62"/>
       <c r="I64" s="62"/>
       <c r="J64" s="62"/>
       <c r="K64" s="63"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="154"/>
+    <row r="65" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="163"/>
       <c r="B65" s="62"/>
       <c r="C65" s="62"/>
-      <c r="D65" s="148"/>
+      <c r="D65" s="153"/>
       <c r="E65" s="63"/>
-      <c r="F65" s="151"/>
+      <c r="F65" s="157"/>
       <c r="G65" s="62"/>
       <c r="H65" s="62"/>
       <c r="I65" s="62"/>
       <c r="J65" s="62"/>
       <c r="K65" s="63"/>
     </row>
-    <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="155"/>
+    <row r="66" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="164"/>
       <c r="B66" s="70"/>
       <c r="C66" s="64"/>
-      <c r="D66" s="149"/>
+      <c r="D66" s="154"/>
       <c r="E66" s="66"/>
-      <c r="F66" s="152"/>
+      <c r="F66" s="158"/>
       <c r="G66" s="64"/>
       <c r="H66" s="64"/>
       <c r="I66" s="64"/>
       <c r="J66" s="64"/>
       <c r="K66" s="66"/>
     </row>
-    <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="147">
+    <row r="67" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="155">
         <v>13</v>
       </c>
       <c r="B67" s="62">
@@ -7978,13 +7977,13 @@
       <c r="C67" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="D67" s="147" t="s">
+      <c r="D67" s="155" t="s">
         <v>333</v>
       </c>
       <c r="E67" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="F67" s="150" t="s">
+      <c r="F67" s="156" t="s">
         <v>335</v>
       </c>
       <c r="G67" s="62">
@@ -8003,19 +8002,19 @@
         <v>9458</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="148"/>
+    <row r="68" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A68" s="153"/>
       <c r="B68" s="62">
         <v>11250</v>
       </c>
       <c r="C68" s="62" t="s">
         <v>338</v>
       </c>
-      <c r="D68" s="148"/>
+      <c r="D68" s="153"/>
       <c r="E68" s="63" t="s">
         <v>339</v>
       </c>
-      <c r="F68" s="151"/>
+      <c r="F68" s="157"/>
       <c r="G68" s="62">
         <v>34</v>
       </c>
@@ -8032,19 +8031,19 @@
         <v>13755</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="148"/>
+    <row r="69" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A69" s="153"/>
       <c r="B69" s="62">
         <v>10500</v>
       </c>
       <c r="C69" s="62" t="s">
         <v>342</v>
       </c>
-      <c r="D69" s="148"/>
+      <c r="D69" s="153"/>
       <c r="E69" s="63" t="s">
         <v>343</v>
       </c>
-      <c r="F69" s="151"/>
+      <c r="F69" s="157"/>
       <c r="G69" s="62">
         <v>4745</v>
       </c>
@@ -8061,19 +8060,19 @@
         <v>153394</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="148"/>
+    <row r="70" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="153"/>
       <c r="B70" s="62">
         <v>11250</v>
       </c>
       <c r="C70" s="62" t="s">
         <v>344</v>
       </c>
-      <c r="D70" s="148"/>
+      <c r="D70" s="153"/>
       <c r="E70" s="63" t="s">
         <v>345</v>
       </c>
-      <c r="F70" s="151"/>
+      <c r="F70" s="157"/>
       <c r="G70" s="62">
         <v>48</v>
       </c>
@@ -8090,19 +8089,19 @@
         <v>8367</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="149"/>
+    <row r="71" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="154"/>
       <c r="B71" s="65">
         <v>10750</v>
       </c>
       <c r="C71" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="D71" s="149"/>
+      <c r="D71" s="154"/>
       <c r="E71" s="67" t="s">
         <v>346</v>
       </c>
-      <c r="F71" s="152"/>
+      <c r="F71" s="158"/>
       <c r="G71" s="65">
         <v>50</v>
       </c>
@@ -8119,15 +8118,15 @@
         <v>8021</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="147">
+    <row r="72" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A72" s="155">
         <v>14</v>
       </c>
       <c r="B72" s="71"/>
       <c r="C72" s="71"/>
-      <c r="D72" s="147"/>
+      <c r="D72" s="155"/>
       <c r="E72" s="63"/>
-      <c r="F72" s="150" t="s">
+      <c r="F72" s="156" t="s">
         <v>349</v>
       </c>
       <c r="G72" s="62"/>
@@ -8136,59 +8135,59 @@
       <c r="J72" s="62"/>
       <c r="K72" s="63"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="148"/>
+    <row r="73" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A73" s="153"/>
       <c r="B73" s="71"/>
       <c r="C73" s="71"/>
-      <c r="D73" s="148"/>
+      <c r="D73" s="153"/>
       <c r="E73" s="63"/>
-      <c r="F73" s="151"/>
+      <c r="F73" s="157"/>
       <c r="G73" s="62"/>
       <c r="H73" s="62"/>
       <c r="I73" s="62"/>
       <c r="J73" s="62"/>
       <c r="K73" s="63"/>
     </row>
-    <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="148"/>
+    <row r="74" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A74" s="153"/>
       <c r="B74" s="71"/>
       <c r="C74" s="71"/>
-      <c r="D74" s="148"/>
+      <c r="D74" s="153"/>
       <c r="E74" s="63"/>
-      <c r="F74" s="151"/>
+      <c r="F74" s="157"/>
       <c r="G74" s="62"/>
       <c r="H74" s="62"/>
       <c r="I74" s="62"/>
       <c r="J74" s="62"/>
       <c r="K74" s="63"/>
     </row>
-    <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="148"/>
+    <row r="75" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A75" s="153"/>
       <c r="B75" s="71"/>
       <c r="C75" s="71"/>
-      <c r="D75" s="148"/>
+      <c r="D75" s="153"/>
       <c r="E75" s="63"/>
-      <c r="F75" s="151"/>
+      <c r="F75" s="157"/>
       <c r="G75" s="62"/>
       <c r="H75" s="62"/>
       <c r="I75" s="62"/>
       <c r="J75" s="62"/>
       <c r="K75" s="63"/>
     </row>
-    <row r="76" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="149"/>
+    <row r="76" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A76" s="154"/>
       <c r="B76" s="70"/>
       <c r="C76" s="70"/>
-      <c r="D76" s="149"/>
+      <c r="D76" s="154"/>
       <c r="E76" s="66"/>
-      <c r="F76" s="152"/>
+      <c r="F76" s="158"/>
       <c r="G76" s="64"/>
       <c r="H76" s="64"/>
       <c r="I76" s="64"/>
       <c r="J76" s="64"/>
       <c r="K76" s="66"/>
     </row>
-    <row r="77" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77" s="72">
         <v>15</v>
       </c>
@@ -8205,8 +8204,8 @@
       <c r="J77" s="64"/>
       <c r="K77" s="66"/>
     </row>
-    <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="153">
+    <row r="78" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A78" s="162">
         <v>16</v>
       </c>
       <c r="B78" s="62">
@@ -8215,13 +8214,13 @@
       <c r="C78" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="D78" s="147" t="s">
+      <c r="D78" s="155" t="s">
         <v>351</v>
       </c>
       <c r="E78" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="F78" s="150" t="s">
+      <c r="F78" s="156" t="s">
         <v>353</v>
       </c>
       <c r="G78" s="62">
@@ -8240,19 +8239,19 @@
         <v>4304</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="154"/>
+    <row r="79" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A79" s="163"/>
       <c r="B79" s="62">
         <v>13750</v>
       </c>
       <c r="C79" s="62" t="s">
         <v>356</v>
       </c>
-      <c r="D79" s="148"/>
+      <c r="D79" s="153"/>
       <c r="E79" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F79" s="151"/>
+      <c r="F79" s="157"/>
       <c r="G79" s="62">
         <v>3446</v>
       </c>
@@ -8269,19 +8268,19 @@
         <v>436</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="154"/>
+    <row r="80" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A80" s="163"/>
       <c r="B80" s="74">
         <v>11750</v>
       </c>
       <c r="C80" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="D80" s="148"/>
+      <c r="D80" s="153"/>
       <c r="E80" s="75" t="s">
         <v>360</v>
       </c>
-      <c r="F80" s="151"/>
+      <c r="F80" s="157"/>
       <c r="G80" s="74">
         <v>1311</v>
       </c>
@@ -8298,26 +8297,26 @@
         <v>3379</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="154"/>
+    <row r="81" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A81" s="163"/>
       <c r="B81" s="71"/>
       <c r="C81" s="71"/>
-      <c r="D81" s="148"/>
+      <c r="D81" s="153"/>
       <c r="E81" s="63"/>
-      <c r="F81" s="151"/>
+      <c r="F81" s="157"/>
       <c r="G81" s="71"/>
       <c r="H81" s="71"/>
       <c r="I81" s="71"/>
       <c r="J81" s="71"/>
       <c r="K81" s="76"/>
     </row>
-    <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="155"/>
+    <row r="82" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A82" s="164"/>
       <c r="B82" s="70"/>
       <c r="C82" s="70"/>
-      <c r="D82" s="149"/>
+      <c r="D82" s="154"/>
       <c r="E82" s="66"/>
-      <c r="F82" s="152"/>
+      <c r="F82" s="158"/>
       <c r="G82" s="70"/>
       <c r="H82" s="70"/>
       <c r="I82" s="70"/>
@@ -8326,54 +8325,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="F72:F76"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="F78:F82"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="F62:F66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="F17:F21"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="F2:F6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="D7:D11"/>
     <mergeCell ref="F7:F11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="F62:F66"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="F72:F76"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="F78:F82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Competencia_final/registro_experimento.xlsx
+++ b/Competencia_final/registro_experimento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juancho\Desktop\DMEF\labo\Competencia_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68484592-AB4D-4D33-8A25-AA5B530BC508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48129186-1B0E-4021-BDE7-7279CB3F082A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="18000" windowHeight="9397" xr2:uid="{F72DCF91-BE68-43C8-A18E-59730E9D26D2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" activeTab="1" xr2:uid="{F72DCF91-BE68-43C8-A18E-59730E9D26D2}"/>
   </bookViews>
   <sheets>
     <sheet name="registros" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="401">
   <si>
     <t>Final Train</t>
   </si>
@@ -1282,52 +1282,13 @@
     <t>HT9420KF6</t>
   </si>
   <si>
-    <t>HT9420KF7</t>
-  </si>
-  <si>
-    <t>HT9420KF8</t>
-  </si>
-  <si>
-    <t>HT9420KF9</t>
-  </si>
-  <si>
     <t>ZZ9420KF6</t>
   </si>
   <si>
-    <t>ZZ9420KF7</t>
-  </si>
-  <si>
-    <t>ZZ9420KF8</t>
-  </si>
-  <si>
-    <t>ZZ9420KF9</t>
-  </si>
-  <si>
     <t>TS9320KF5</t>
   </si>
   <si>
     <t>TS9320KF6</t>
-  </si>
-  <si>
-    <t>TS9320KF7</t>
-  </si>
-  <si>
-    <t>TS9320KF8</t>
-  </si>
-  <si>
-    <t>TS9320KF9</t>
-  </si>
-  <si>
-    <t>FE9250KF6</t>
-  </si>
-  <si>
-    <t>FE9250KF7</t>
-  </si>
-  <si>
-    <t>FE9250KF8</t>
-  </si>
-  <si>
-    <t>FE9250KF9</t>
   </si>
 </sst>
 </file>
@@ -2081,7 +2042,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2388,39 +2349,8 @@
     <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2440,6 +2370,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2453,6 +2384,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2478,47 +2442,50 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2839,8 +2806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185828D6-25AC-4D34-9841-603A418DDB2C}">
   <dimension ref="A1:BB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AM9" sqref="AM9"/>
+    <sheetView topLeftCell="AE1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AM10" sqref="AM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2901,131 +2868,131 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="39"/>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="122"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="134"/>
+      <c r="AA1" s="135"/>
       <c r="AB1" s="38"/>
-      <c r="AC1" s="132" t="s">
+      <c r="AC1" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="135"/>
-      <c r="AH1" s="135"/>
+      <c r="AD1" s="124"/>
+      <c r="AE1" s="124"/>
+      <c r="AF1" s="124"/>
+      <c r="AG1" s="124"/>
+      <c r="AH1" s="124"/>
       <c r="AI1" s="37"/>
-      <c r="AJ1" s="132" t="s">
+      <c r="AJ1" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="AK1" s="134"/>
-      <c r="AL1" s="134"/>
-      <c r="AM1" s="134"/>
-      <c r="AN1" s="134"/>
-      <c r="AO1" s="134"/>
-      <c r="AP1" s="134"/>
-      <c r="AQ1" s="134"/>
-      <c r="AR1" s="134"/>
-      <c r="AS1" s="134"/>
-      <c r="AT1" s="134"/>
-      <c r="AU1" s="134"/>
-      <c r="AV1" s="134"/>
-      <c r="AW1" s="134"/>
-      <c r="AX1" s="134"/>
-      <c r="AY1" s="134"/>
-      <c r="AZ1" s="134"/>
-      <c r="BA1" s="132" t="s">
+      <c r="AK1" s="123"/>
+      <c r="AL1" s="123"/>
+      <c r="AM1" s="123"/>
+      <c r="AN1" s="123"/>
+      <c r="AO1" s="123"/>
+      <c r="AP1" s="123"/>
+      <c r="AQ1" s="123"/>
+      <c r="AR1" s="123"/>
+      <c r="AS1" s="123"/>
+      <c r="AT1" s="123"/>
+      <c r="AU1" s="123"/>
+      <c r="AV1" s="123"/>
+      <c r="AW1" s="123"/>
+      <c r="AX1" s="123"/>
+      <c r="AY1" s="123"/>
+      <c r="AZ1" s="123"/>
+      <c r="BA1" s="121" t="s">
         <v>387</v>
       </c>
-      <c r="BB1" s="133"/>
+      <c r="BB1" s="122"/>
     </row>
     <row r="2" spans="1:54" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="127" t="s">
+      <c r="C2" s="138"/>
+      <c r="D2" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="129" t="s">
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="130" t="s">
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
       <c r="O2" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="131" t="s">
+      <c r="P2" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
       <c r="AB2" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="AC2" s="123" t="s">
+      <c r="AC2" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="136" t="s">
+      <c r="AD2" s="125" t="s">
         <v>65</v>
       </c>
       <c r="AE2" s="55"/>
       <c r="AF2" s="55"/>
-      <c r="AG2" s="141" t="s">
+      <c r="AG2" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="AH2" s="141" t="s">
+      <c r="AH2" s="131" t="s">
         <v>67</v>
       </c>
       <c r="AI2" s="43"/>
-      <c r="AJ2" s="137" t="s">
+      <c r="AJ2" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="AK2" s="124"/>
-      <c r="AL2" s="138"/>
+      <c r="AK2" s="127"/>
+      <c r="AL2" s="128"/>
       <c r="AM2" s="26" t="s">
         <v>61</v>
       </c>
@@ -3033,21 +3000,21 @@
       <c r="AO2" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AP2" s="139" t="s">
+      <c r="AP2" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="137" t="s">
+      <c r="AQ2" s="130"/>
+      <c r="AR2" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="AS2" s="124"/>
-      <c r="AT2" s="124"/>
-      <c r="AU2" s="124"/>
-      <c r="AV2" s="124"/>
-      <c r="AW2" s="124"/>
-      <c r="AX2" s="124"/>
-      <c r="AY2" s="124"/>
-      <c r="AZ2" s="124"/>
+      <c r="AS2" s="127"/>
+      <c r="AT2" s="127"/>
+      <c r="AU2" s="127"/>
+      <c r="AV2" s="127"/>
+      <c r="AW2" s="127"/>
+      <c r="AX2" s="127"/>
+      <c r="AY2" s="127"/>
+      <c r="AZ2" s="127"/>
       <c r="BA2" s="110"/>
       <c r="BB2" s="111" t="s">
         <v>61</v>
@@ -3134,16 +3101,16 @@
         <v>19</v>
       </c>
       <c r="AB3" s="27"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="136"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="125"/>
       <c r="AE3" s="58" t="s">
         <v>72</v>
       </c>
       <c r="AF3" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="142"/>
-      <c r="AH3" s="142"/>
+      <c r="AG3" s="132"/>
+      <c r="AH3" s="132"/>
       <c r="AI3" s="35" t="s">
         <v>61</v>
       </c>
@@ -3202,7 +3169,7 @@
       <c r="BB3" s="111"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="166" t="s">
         <v>363</v>
       </c>
       <c r="B4" s="11"/>
@@ -3300,7 +3267,7 @@
       </c>
     </row>
     <row r="5" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="166" t="s">
         <v>364</v>
       </c>
       <c r="B5" s="11"/>
@@ -3396,7 +3363,7 @@
       </c>
     </row>
     <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="166" t="s">
         <v>365</v>
       </c>
       <c r="B6" s="11"/>
@@ -3492,7 +3459,7 @@
       </c>
     </row>
     <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="167" t="s">
         <v>366</v>
       </c>
       <c r="B7" s="11"/>
@@ -3580,7 +3547,7 @@
       </c>
     </row>
     <row r="8" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="167" t="s">
         <v>367</v>
       </c>
       <c r="B8" s="11"/>
@@ -3644,7 +3611,7 @@
       <c r="AH8" s="53">
         <v>945577</v>
       </c>
-      <c r="AI8" s="165" t="s">
+      <c r="AI8" s="120" t="s">
         <v>392</v>
       </c>
       <c r="AJ8" s="104"/>
@@ -3674,7 +3641,7 @@
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="167" t="s">
         <v>368</v>
       </c>
       <c r="B9" s="11"/>
@@ -3736,8 +3703,8 @@
       <c r="AH9" s="53">
         <v>945577</v>
       </c>
-      <c r="AI9" s="95" t="s">
-        <v>405</v>
+      <c r="AI9" s="120" t="s">
+        <v>399</v>
       </c>
       <c r="AJ9" s="104"/>
       <c r="AK9" s="104"/>
@@ -3812,12 +3779,14 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="16"/>
       <c r="AB10" s="94" t="s">
-        <v>410</v>
-      </c>
-      <c r="AC10" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="AD10" s="52"/>
+        <v>373</v>
+      </c>
+      <c r="AC10" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="AD10" s="52">
+        <v>4</v>
+      </c>
       <c r="AE10" s="52"/>
       <c r="AF10" s="52"/>
       <c r="AG10" s="53">
@@ -3826,8 +3795,8 @@
       <c r="AH10" s="53">
         <v>945577</v>
       </c>
-      <c r="AI10" s="95" t="s">
-        <v>406</v>
+      <c r="AI10" s="120" t="s">
+        <v>400</v>
       </c>
       <c r="AJ10" s="104"/>
       <c r="AK10" s="104"/>
@@ -3852,7 +3821,7 @@
       <c r="AZ10" s="39"/>
       <c r="BA10" s="113"/>
       <c r="BB10" s="119" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.45">
@@ -3901,9 +3870,7 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="16"/>
-      <c r="AB11" s="94" t="s">
-        <v>411</v>
-      </c>
+      <c r="AB11" s="94"/>
       <c r="AC11" s="47">
         <v>0.5</v>
       </c>
@@ -3916,15 +3883,11 @@
       <c r="AH11" s="53">
         <v>945577</v>
       </c>
-      <c r="AI11" s="95" t="s">
-        <v>407</v>
-      </c>
+      <c r="AI11" s="95"/>
       <c r="AJ11" s="40"/>
       <c r="AK11" s="40"/>
       <c r="AL11" s="40"/>
-      <c r="AM11" s="118" t="s">
-        <v>398</v>
-      </c>
+      <c r="AM11" s="118"/>
       <c r="AN11" s="104"/>
       <c r="AO11" s="104" t="b">
         <v>0</v>
@@ -3941,9 +3904,7 @@
       <c r="AY11" s="40"/>
       <c r="AZ11" s="39"/>
       <c r="BA11" s="113"/>
-      <c r="BB11" s="119" t="s">
-        <v>402</v>
-      </c>
+      <c r="BB11" s="119"/>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A12" s="92" t="s">
@@ -3991,9 +3952,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="16"/>
-      <c r="AB12" s="94" t="s">
-        <v>412</v>
-      </c>
+      <c r="AB12" s="94"/>
       <c r="AC12" s="21"/>
       <c r="AD12" s="51"/>
       <c r="AE12" s="51"/>
@@ -4004,15 +3963,11 @@
       <c r="AH12" s="53">
         <v>945577</v>
       </c>
-      <c r="AI12" s="95" t="s">
-        <v>408</v>
-      </c>
+      <c r="AI12" s="95"/>
       <c r="AJ12" s="40"/>
       <c r="AK12" s="40"/>
       <c r="AL12" s="40"/>
-      <c r="AM12" s="118" t="s">
-        <v>399</v>
-      </c>
+      <c r="AM12" s="118"/>
       <c r="AN12" s="104"/>
       <c r="AO12" s="104" t="b">
         <v>0</v>
@@ -4029,9 +3984,7 @@
       <c r="AY12" s="40"/>
       <c r="AZ12" s="39"/>
       <c r="BA12" s="113"/>
-      <c r="BB12" s="119" t="s">
-        <v>403</v>
-      </c>
+      <c r="BB12" s="119"/>
     </row>
     <row r="13" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="92" t="s">
@@ -4081,9 +4034,7 @@
       </c>
       <c r="Z13" s="5"/>
       <c r="AA13" s="16"/>
-      <c r="AB13" s="94" t="s">
-        <v>413</v>
-      </c>
+      <c r="AB13" s="94"/>
       <c r="AD13" s="54"/>
       <c r="AE13" s="57"/>
       <c r="AF13" s="54"/>
@@ -4093,15 +4044,11 @@
       <c r="AH13" s="53">
         <v>945577</v>
       </c>
-      <c r="AI13" s="95" t="s">
-        <v>409</v>
-      </c>
+      <c r="AI13" s="95"/>
       <c r="AJ13" s="40"/>
       <c r="AK13" s="40"/>
       <c r="AL13" s="40"/>
-      <c r="AM13" s="118" t="s">
-        <v>400</v>
-      </c>
+      <c r="AM13" s="118"/>
       <c r="AN13" s="104"/>
       <c r="AO13" s="104" t="b">
         <v>0</v>
@@ -4118,12 +4065,17 @@
       <c r="AY13" s="40"/>
       <c r="AZ13" s="39"/>
       <c r="BA13" s="114"/>
-      <c r="BB13" s="119" t="s">
-        <v>404</v>
-      </c>
+      <c r="BB13" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:AA2"/>
     <mergeCell ref="BA1:BB1"/>
     <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="AC1:AH1"/>
@@ -4133,13 +4085,6 @@
     <mergeCell ref="AR2:AZ2"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4152,8 +4097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA249011-D726-47B3-9440-8B01236A4F88}">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AI14" sqref="AI14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4166,64 +4111,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="141" t="s">
+      <c r="C1" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="148" t="s">
+      <c r="D1" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="150" t="s">
+      <c r="E1" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="151" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="146" t="s">
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="124"/>
-      <c r="AH1" s="124"/>
-      <c r="AI1" s="124"/>
-      <c r="AJ1" s="147" t="s">
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
+      <c r="AH1" s="127"/>
+      <c r="AI1" s="127"/>
+      <c r="AJ1" s="148" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A2" s="136"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="149"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="150"/>
       <c r="E2" s="25">
         <v>1</v>
       </c>
@@ -4317,16 +4262,16 @@
       <c r="AI2" s="23">
         <v>7</v>
       </c>
-      <c r="AJ2" s="124"/>
+      <c r="AJ2" s="127"/>
     </row>
     <row r="3" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="145">
-        <v>1</v>
-      </c>
-      <c r="B3" s="145">
+      <c r="A3" s="146">
+        <v>1</v>
+      </c>
+      <c r="B3" s="146">
         <v>732497</v>
       </c>
-      <c r="C3" s="145">
+      <c r="C3" s="146">
         <v>936659</v>
       </c>
       <c r="D3" s="20" t="s">
@@ -4427,9 +4372,9 @@
       </c>
     </row>
     <row r="4" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="145"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
+      <c r="A4" s="146"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
@@ -4472,9 +4417,9 @@
       </c>
     </row>
     <row r="5" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="145"/>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
+      <c r="A5" s="146"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="146"/>
       <c r="D5" s="15" t="s">
         <v>1</v>
       </c>
@@ -4517,9 +4462,9 @@
       </c>
     </row>
     <row r="6" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="145"/>
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
+      <c r="A6" s="146"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="146"/>
       <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
@@ -4618,13 +4563,13 @@
       </c>
     </row>
     <row r="7" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="143">
+      <c r="A7" s="144">
         <v>2</v>
       </c>
-      <c r="B7" s="145">
+      <c r="B7" s="146">
         <v>732497</v>
       </c>
-      <c r="C7" s="145">
+      <c r="C7" s="146">
         <v>936659</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -4725,9 +4670,9 @@
       </c>
     </row>
     <row r="8" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="144"/>
-      <c r="B8" s="145"/>
-      <c r="C8" s="145"/>
+      <c r="A8" s="145"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="146"/>
       <c r="D8" s="15" t="s">
         <v>2</v>
       </c>
@@ -4770,9 +4715,9 @@
       </c>
     </row>
     <row r="9" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="144"/>
-      <c r="B9" s="145"/>
-      <c r="C9" s="145"/>
+      <c r="A9" s="145"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="146"/>
       <c r="D9" s="15" t="s">
         <v>1</v>
       </c>
@@ -4815,9 +4760,9 @@
       </c>
     </row>
     <row r="10" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="144"/>
-      <c r="B10" s="145"/>
-      <c r="C10" s="145"/>
+      <c r="A10" s="145"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="146"/>
       <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
@@ -4916,13 +4861,13 @@
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A11" s="143">
+      <c r="A11" s="144">
         <v>3</v>
       </c>
-      <c r="B11" s="145">
+      <c r="B11" s="146">
         <v>732497</v>
       </c>
-      <c r="C11" s="145">
+      <c r="C11" s="146">
         <v>936659</v>
       </c>
       <c r="D11" s="20" t="s">
@@ -5023,9 +4968,9 @@
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A12" s="144"/>
-      <c r="B12" s="145"/>
-      <c r="C12" s="145"/>
+      <c r="A12" s="145"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="146"/>
       <c r="D12" s="15" t="s">
         <v>2</v>
       </c>
@@ -5068,9 +5013,9 @@
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A13" s="144"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="145"/>
+      <c r="A13" s="145"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="146"/>
       <c r="D13" s="15" t="s">
         <v>1</v>
       </c>
@@ -5113,9 +5058,9 @@
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A14" s="144"/>
-      <c r="B14" s="145"/>
-      <c r="C14" s="145"/>
+      <c r="A14" s="145"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
       <c r="D14" s="4" t="s">
         <v>0</v>
       </c>
@@ -5214,13 +5159,13 @@
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A15" s="143">
+      <c r="A15" s="144">
         <v>4</v>
       </c>
-      <c r="B15" s="145">
+      <c r="B15" s="146">
         <v>732497</v>
       </c>
-      <c r="C15" s="145">
+      <c r="C15" s="146">
         <v>936659</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -5321,9 +5266,9 @@
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A16" s="144"/>
-      <c r="B16" s="145"/>
-      <c r="C16" s="145"/>
+      <c r="A16" s="145"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
       <c r="D16" s="15" t="s">
         <v>2</v>
       </c>
@@ -5366,9 +5311,9 @@
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A17" s="144"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="145"/>
+      <c r="A17" s="145"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
       <c r="D17" s="15" t="s">
         <v>1</v>
       </c>
@@ -5411,9 +5356,9 @@
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A18" s="144"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="145"/>
+      <c r="A18" s="145"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="146"/>
       <c r="D18" s="4" t="s">
         <v>0</v>
       </c>
@@ -5512,13 +5457,13 @@
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A19" s="143">
-        <v>1</v>
-      </c>
-      <c r="B19" s="145">
+      <c r="A19" s="144">
+        <v>1</v>
+      </c>
+      <c r="B19" s="146">
         <v>732497</v>
       </c>
-      <c r="C19" s="145">
+      <c r="C19" s="146">
         <v>936659</v>
       </c>
       <c r="D19" s="20" t="s">
@@ -5607,9 +5552,9 @@
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A20" s="144"/>
-      <c r="B20" s="145"/>
-      <c r="C20" s="145"/>
+      <c r="A20" s="145"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
       <c r="D20" s="15" t="s">
         <v>2</v>
       </c>
@@ -5652,9 +5597,9 @@
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A21" s="144"/>
-      <c r="B21" s="145"/>
-      <c r="C21" s="145"/>
+      <c r="A21" s="145"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="146"/>
       <c r="D21" s="15" t="s">
         <v>1</v>
       </c>
@@ -5697,9 +5642,9 @@
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A22" s="144"/>
-      <c r="B22" s="145"/>
-      <c r="C22" s="145"/>
+      <c r="A22" s="145"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="146"/>
       <c r="D22" s="4" t="s">
         <v>0</v>
       </c>
@@ -5787,6 +5732,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="AC1:AI1"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="Q1:AB1"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
@@ -5796,20 +5755,6 @@
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="C15:C18"/>
-    <mergeCell ref="AC1:AI1"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="Q1:AB1"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6053,7 +5998,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="152">
+      <c r="A2" s="165">
         <v>0</v>
       </c>
       <c r="B2" s="62">
@@ -6062,7 +6007,7 @@
       <c r="C2" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="155" t="s">
+      <c r="D2" s="153" t="s">
         <v>81</v>
       </c>
       <c r="E2" s="63" t="s">
@@ -6088,14 +6033,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="153"/>
+      <c r="A3" s="154"/>
       <c r="B3" s="62">
         <v>13500</v>
       </c>
       <c r="C3" s="62">
         <v>49</v>
       </c>
-      <c r="D3" s="153"/>
+      <c r="D3" s="154"/>
       <c r="E3" s="63" t="s">
         <v>86</v>
       </c>
@@ -6117,14 +6062,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="153"/>
+      <c r="A4" s="154"/>
       <c r="B4" s="62">
         <v>11250</v>
       </c>
       <c r="C4" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="153"/>
+      <c r="D4" s="154"/>
       <c r="E4" s="63" t="s">
         <v>90</v>
       </c>
@@ -6146,14 +6091,14 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="153"/>
+      <c r="A5" s="154"/>
       <c r="B5" s="62">
         <v>9500</v>
       </c>
       <c r="C5" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="153"/>
+      <c r="D5" s="154"/>
       <c r="E5" s="63" t="s">
         <v>94</v>
       </c>
@@ -6175,14 +6120,14 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="154"/>
+      <c r="A6" s="155"/>
       <c r="B6" s="65">
         <v>10250</v>
       </c>
       <c r="C6" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="154"/>
+      <c r="D6" s="155"/>
       <c r="E6" s="67" t="s">
         <v>98</v>
       </c>
@@ -6204,7 +6149,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="155">
+      <c r="A7" s="153">
         <v>1</v>
       </c>
       <c r="B7" s="68">
@@ -6213,7 +6158,7 @@
       <c r="C7" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="155" t="s">
+      <c r="D7" s="153" t="s">
         <v>101</v>
       </c>
       <c r="E7" s="69" t="s">
@@ -6239,14 +6184,14 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="153"/>
+      <c r="A8" s="154"/>
       <c r="B8" s="62">
         <v>11250</v>
       </c>
       <c r="C8" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="153"/>
+      <c r="D8" s="154"/>
       <c r="E8" s="63" t="s">
         <v>107</v>
       </c>
@@ -6268,14 +6213,14 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="153"/>
+      <c r="A9" s="154"/>
       <c r="B9" s="62">
         <v>11750</v>
       </c>
       <c r="C9" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="153"/>
+      <c r="D9" s="154"/>
       <c r="E9" s="63" t="s">
         <v>111</v>
       </c>
@@ -6297,14 +6242,14 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="153"/>
+      <c r="A10" s="154"/>
       <c r="B10" s="62">
         <v>11250</v>
       </c>
       <c r="C10" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="153"/>
+      <c r="D10" s="154"/>
       <c r="E10" s="63" t="s">
         <v>115</v>
       </c>
@@ -6326,14 +6271,14 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="154"/>
+      <c r="A11" s="155"/>
       <c r="B11" s="64">
         <v>10500</v>
       </c>
       <c r="C11" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="154"/>
+      <c r="D11" s="155"/>
       <c r="E11" s="66" t="s">
         <v>119</v>
       </c>
@@ -6355,7 +6300,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="155">
+      <c r="A12" s="153">
         <v>2</v>
       </c>
       <c r="B12" s="62">
@@ -6364,7 +6309,7 @@
       <c r="C12" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="155" t="s">
+      <c r="D12" s="153" t="s">
         <v>123</v>
       </c>
       <c r="E12" s="63" t="s">
@@ -6390,14 +6335,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="153"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="68">
         <v>11750</v>
       </c>
       <c r="C13" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="153"/>
+      <c r="D13" s="154"/>
       <c r="E13" s="69" t="s">
         <v>128</v>
       </c>
@@ -6419,14 +6364,14 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="153"/>
+      <c r="A14" s="154"/>
       <c r="B14" s="62">
         <v>11500</v>
       </c>
       <c r="C14" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="153"/>
+      <c r="D14" s="154"/>
       <c r="E14" s="63" t="s">
         <v>132</v>
       </c>
@@ -6448,14 +6393,14 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="153"/>
+      <c r="A15" s="154"/>
       <c r="B15" s="62">
         <v>10750</v>
       </c>
       <c r="C15" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="153"/>
+      <c r="D15" s="154"/>
       <c r="E15" s="63" t="s">
         <v>136</v>
       </c>
@@ -6477,14 +6422,14 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="154"/>
+      <c r="A16" s="155"/>
       <c r="B16" s="64">
         <v>11250</v>
       </c>
       <c r="C16" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="154"/>
+      <c r="D16" s="155"/>
       <c r="E16" s="66" t="s">
         <v>140</v>
       </c>
@@ -6506,7 +6451,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="155">
+      <c r="A17" s="153">
         <v>3</v>
       </c>
       <c r="B17" s="62">
@@ -6515,7 +6460,7 @@
       <c r="C17" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="155" t="s">
+      <c r="D17" s="153" t="s">
         <v>144</v>
       </c>
       <c r="E17" s="63" t="s">
@@ -6541,14 +6486,14 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="153"/>
+      <c r="A18" s="154"/>
       <c r="B18" s="62">
         <v>12750</v>
       </c>
       <c r="C18" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="153"/>
+      <c r="D18" s="154"/>
       <c r="E18" s="63" t="s">
         <v>150</v>
       </c>
@@ -6570,14 +6515,14 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="153"/>
+      <c r="A19" s="154"/>
       <c r="B19" s="68">
         <v>11000</v>
       </c>
       <c r="C19" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="153"/>
+      <c r="D19" s="154"/>
       <c r="E19" s="69" t="s">
         <v>154</v>
       </c>
@@ -6599,14 +6544,14 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="153"/>
+      <c r="A20" s="154"/>
       <c r="B20" s="62">
         <v>10250</v>
       </c>
       <c r="C20" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="153"/>
+      <c r="D20" s="154"/>
       <c r="E20" s="63" t="s">
         <v>158</v>
       </c>
@@ -6628,14 +6573,14 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="154"/>
+      <c r="A21" s="155"/>
       <c r="B21" s="64">
         <v>12250</v>
       </c>
       <c r="C21" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="D21" s="154"/>
+      <c r="D21" s="155"/>
       <c r="E21" s="66" t="s">
         <v>162</v>
       </c>
@@ -6657,7 +6602,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="155">
+      <c r="A22" s="153">
         <v>4</v>
       </c>
       <c r="B22" s="68">
@@ -6666,7 +6611,7 @@
       <c r="C22" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="155" t="s">
+      <c r="D22" s="153" t="s">
         <v>166</v>
       </c>
       <c r="E22" s="69" t="s">
@@ -6692,14 +6637,14 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="153"/>
+      <c r="A23" s="154"/>
       <c r="B23" s="62">
         <v>11000</v>
       </c>
       <c r="C23" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="153"/>
+      <c r="D23" s="154"/>
       <c r="E23" s="63" t="s">
         <v>172</v>
       </c>
@@ -6721,14 +6666,14 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="153"/>
+      <c r="A24" s="154"/>
       <c r="B24" s="62">
         <v>12750</v>
       </c>
       <c r="C24" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="153"/>
+      <c r="D24" s="154"/>
       <c r="E24" s="63" t="s">
         <v>176</v>
       </c>
@@ -6750,14 +6695,14 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="153"/>
+      <c r="A25" s="154"/>
       <c r="B25" s="62">
         <v>12750</v>
       </c>
       <c r="C25" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="153"/>
+      <c r="D25" s="154"/>
       <c r="E25" s="63" t="s">
         <v>180</v>
       </c>
@@ -6779,14 +6724,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="154"/>
+      <c r="A26" s="155"/>
       <c r="B26" s="64">
         <v>12250</v>
       </c>
       <c r="C26" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="D26" s="154"/>
+      <c r="D26" s="155"/>
       <c r="E26" s="66" t="s">
         <v>184</v>
       </c>
@@ -6808,7 +6753,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="155">
+      <c r="A27" s="153">
         <v>5</v>
       </c>
       <c r="B27" s="62">
@@ -6817,7 +6762,7 @@
       <c r="C27" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="155" t="s">
+      <c r="D27" s="153" t="s">
         <v>187</v>
       </c>
       <c r="E27" s="63" t="s">
@@ -6843,14 +6788,14 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="153"/>
+      <c r="A28" s="154"/>
       <c r="B28" s="68">
         <v>11250</v>
       </c>
       <c r="C28" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="D28" s="153"/>
+      <c r="D28" s="154"/>
       <c r="E28" s="69" t="s">
         <v>193</v>
       </c>
@@ -6872,14 +6817,14 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="153"/>
+      <c r="A29" s="154"/>
       <c r="B29" s="62">
         <v>11500</v>
       </c>
       <c r="C29" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D29" s="153"/>
+      <c r="D29" s="154"/>
       <c r="E29" s="63" t="s">
         <v>197</v>
       </c>
@@ -6901,14 +6846,14 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="153"/>
+      <c r="A30" s="154"/>
       <c r="B30" s="62">
         <v>11750</v>
       </c>
       <c r="C30" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D30" s="153"/>
+      <c r="D30" s="154"/>
       <c r="E30" s="63" t="s">
         <v>201</v>
       </c>
@@ -6930,14 +6875,14 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="154"/>
+      <c r="A31" s="155"/>
       <c r="B31" s="64">
         <v>10750</v>
       </c>
       <c r="C31" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="D31" s="154"/>
+      <c r="D31" s="155"/>
       <c r="E31" s="66" t="s">
         <v>205</v>
       </c>
@@ -6959,7 +6904,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="155">
+      <c r="A32" s="153">
         <v>6</v>
       </c>
       <c r="B32" s="62">
@@ -6968,7 +6913,7 @@
       <c r="C32" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D32" s="155" t="s">
+      <c r="D32" s="153" t="s">
         <v>209</v>
       </c>
       <c r="E32" s="63" t="s">
@@ -6994,14 +6939,14 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="153"/>
+      <c r="A33" s="154"/>
       <c r="B33" s="62">
         <v>11750</v>
       </c>
       <c r="C33" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="153"/>
+      <c r="D33" s="154"/>
       <c r="E33" s="63" t="s">
         <v>214</v>
       </c>
@@ -7023,14 +6968,14 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="153"/>
+      <c r="A34" s="154"/>
       <c r="B34" s="62">
         <v>11500</v>
       </c>
       <c r="C34" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D34" s="153"/>
+      <c r="D34" s="154"/>
       <c r="E34" s="63" t="s">
         <v>218</v>
       </c>
@@ -7052,14 +6997,14 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="153"/>
+      <c r="A35" s="154"/>
       <c r="B35" s="62">
         <v>12750</v>
       </c>
       <c r="C35" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="153"/>
+      <c r="D35" s="154"/>
       <c r="E35" s="63" t="s">
         <v>221</v>
       </c>
@@ -7081,14 +7026,14 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="154"/>
+      <c r="A36" s="155"/>
       <c r="B36" s="65">
         <v>10500</v>
       </c>
       <c r="C36" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="D36" s="154"/>
+      <c r="D36" s="155"/>
       <c r="E36" s="67" t="s">
         <v>225</v>
       </c>
@@ -7110,7 +7055,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="155">
+      <c r="A37" s="153">
         <v>7</v>
       </c>
       <c r="B37" s="62">
@@ -7119,7 +7064,7 @@
       <c r="C37" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="D37" s="155" t="s">
+      <c r="D37" s="153" t="s">
         <v>228</v>
       </c>
       <c r="E37" s="63" t="s">
@@ -7145,14 +7090,14 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="153"/>
+      <c r="A38" s="154"/>
       <c r="B38" s="62">
         <v>10250</v>
       </c>
       <c r="C38" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="153"/>
+      <c r="D38" s="154"/>
       <c r="E38" s="63" t="s">
         <v>233</v>
       </c>
@@ -7174,14 +7119,14 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="153"/>
+      <c r="A39" s="154"/>
       <c r="B39" s="62">
         <v>10000</v>
       </c>
       <c r="C39" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="D39" s="153"/>
+      <c r="D39" s="154"/>
       <c r="E39" s="63" t="s">
         <v>237</v>
       </c>
@@ -7203,14 +7148,14 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="153"/>
+      <c r="A40" s="154"/>
       <c r="B40" s="68">
         <v>9750</v>
       </c>
       <c r="C40" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="153"/>
+      <c r="D40" s="154"/>
       <c r="E40" s="69" t="s">
         <v>240</v>
       </c>
@@ -7232,14 +7177,14 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="154"/>
+      <c r="A41" s="155"/>
       <c r="B41" s="64">
         <v>12000</v>
       </c>
       <c r="C41" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="D41" s="154"/>
+      <c r="D41" s="155"/>
       <c r="E41" s="66" t="s">
         <v>244</v>
       </c>
@@ -7261,7 +7206,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="155">
+      <c r="A42" s="153">
         <v>8</v>
       </c>
       <c r="B42" s="62">
@@ -7270,7 +7215,7 @@
       <c r="C42" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="D42" s="155" t="s">
+      <c r="D42" s="153" t="s">
         <v>248</v>
       </c>
       <c r="E42" s="63" t="s">
@@ -7296,14 +7241,14 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="153"/>
+      <c r="A43" s="154"/>
       <c r="B43" s="62">
         <v>10750</v>
       </c>
       <c r="C43" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="153"/>
+      <c r="D43" s="154"/>
       <c r="E43" s="63" t="s">
         <v>253</v>
       </c>
@@ -7325,14 +7270,14 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="153"/>
+      <c r="A44" s="154"/>
       <c r="B44" s="62">
         <v>13500</v>
       </c>
       <c r="C44" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="153"/>
+      <c r="D44" s="154"/>
       <c r="E44" s="63" t="s">
         <v>256</v>
       </c>
@@ -7354,14 +7299,14 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="153"/>
+      <c r="A45" s="154"/>
       <c r="B45" s="62">
         <v>10500</v>
       </c>
       <c r="C45" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="D45" s="153"/>
+      <c r="D45" s="154"/>
       <c r="E45" s="63" t="s">
         <v>260</v>
       </c>
@@ -7383,14 +7328,14 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="154"/>
+      <c r="A46" s="155"/>
       <c r="B46" s="65">
         <v>11500</v>
       </c>
       <c r="C46" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="D46" s="154"/>
+      <c r="D46" s="155"/>
       <c r="E46" s="67" t="s">
         <v>263</v>
       </c>
@@ -7412,7 +7357,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="155">
+      <c r="A47" s="153">
         <v>9</v>
       </c>
       <c r="B47" s="68">
@@ -7421,7 +7366,7 @@
       <c r="C47" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="D47" s="159" t="s">
+      <c r="D47" s="162" t="s">
         <v>114</v>
       </c>
       <c r="E47" s="69" t="s">
@@ -7447,14 +7392,14 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="153"/>
+      <c r="A48" s="154"/>
       <c r="B48" s="62">
         <v>13500</v>
       </c>
       <c r="C48" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="160"/>
+      <c r="D48" s="163"/>
       <c r="E48" s="63" t="s">
         <v>271</v>
       </c>
@@ -7476,14 +7421,14 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="153"/>
+      <c r="A49" s="154"/>
       <c r="B49" s="62">
         <v>12250</v>
       </c>
       <c r="C49" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="160"/>
+      <c r="D49" s="163"/>
       <c r="E49" s="63" t="s">
         <v>274</v>
       </c>
@@ -7505,14 +7450,14 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="153"/>
+      <c r="A50" s="154"/>
       <c r="B50" s="62">
         <v>11750</v>
       </c>
       <c r="C50" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="160"/>
+      <c r="D50" s="163"/>
       <c r="E50" s="63" t="s">
         <v>275</v>
       </c>
@@ -7534,14 +7479,14 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="154"/>
+      <c r="A51" s="155"/>
       <c r="B51" s="64">
         <v>12250</v>
       </c>
       <c r="C51" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="D51" s="161"/>
+      <c r="D51" s="164"/>
       <c r="E51" s="66" t="s">
         <v>279</v>
       </c>
@@ -7563,7 +7508,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="155">
+      <c r="A52" s="153">
         <v>10</v>
       </c>
       <c r="B52" s="62">
@@ -7572,7 +7517,7 @@
       <c r="C52" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="D52" s="155" t="s">
+      <c r="D52" s="153" t="s">
         <v>283</v>
       </c>
       <c r="E52" s="63" t="s">
@@ -7598,14 +7543,14 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="153"/>
+      <c r="A53" s="154"/>
       <c r="B53" s="62">
         <v>12250</v>
       </c>
       <c r="C53" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D53" s="153"/>
+      <c r="D53" s="154"/>
       <c r="E53" s="63" t="s">
         <v>288</v>
       </c>
@@ -7627,14 +7572,14 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="153"/>
+      <c r="A54" s="154"/>
       <c r="B54" s="62">
         <v>12250</v>
       </c>
       <c r="C54" s="62" t="s">
         <v>291</v>
       </c>
-      <c r="D54" s="153"/>
+      <c r="D54" s="154"/>
       <c r="E54" s="63" t="s">
         <v>292</v>
       </c>
@@ -7656,14 +7601,14 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="153"/>
+      <c r="A55" s="154"/>
       <c r="B55" s="68">
         <v>11000</v>
       </c>
       <c r="C55" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="D55" s="153"/>
+      <c r="D55" s="154"/>
       <c r="E55" s="69" t="s">
         <v>295</v>
       </c>
@@ -7685,14 +7630,14 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="154"/>
+      <c r="A56" s="155"/>
       <c r="B56" s="64">
         <v>11500</v>
       </c>
       <c r="C56" s="64" t="s">
         <v>298</v>
       </c>
-      <c r="D56" s="154"/>
+      <c r="D56" s="155"/>
       <c r="E56" s="66" t="s">
         <v>299</v>
       </c>
@@ -7714,7 +7659,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="155">
+      <c r="A57" s="153">
         <v>11</v>
       </c>
       <c r="B57" s="62">
@@ -7723,7 +7668,7 @@
       <c r="C57" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="D57" s="155" t="s">
+      <c r="D57" s="153" t="s">
         <v>298</v>
       </c>
       <c r="E57" s="63" t="s">
@@ -7749,14 +7694,14 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="153"/>
+      <c r="A58" s="154"/>
       <c r="B58" s="62">
         <v>11250</v>
       </c>
       <c r="C58" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="D58" s="153"/>
+      <c r="D58" s="154"/>
       <c r="E58" s="63" t="s">
         <v>308</v>
       </c>
@@ -7778,14 +7723,14 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="153"/>
+      <c r="A59" s="154"/>
       <c r="B59" s="62">
         <v>13500</v>
       </c>
       <c r="C59" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="D59" s="153"/>
+      <c r="D59" s="154"/>
       <c r="E59" s="63" t="s">
         <v>311</v>
       </c>
@@ -7807,14 +7752,14 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="153"/>
+      <c r="A60" s="154"/>
       <c r="B60" s="68">
         <v>10750</v>
       </c>
       <c r="C60" s="68" t="s">
         <v>314</v>
       </c>
-      <c r="D60" s="153"/>
+      <c r="D60" s="154"/>
       <c r="E60" s="69" t="s">
         <v>315</v>
       </c>
@@ -7836,14 +7781,14 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="154"/>
+      <c r="A61" s="155"/>
       <c r="B61" s="64">
         <v>13250</v>
       </c>
       <c r="C61" s="64" t="s">
         <v>318</v>
       </c>
-      <c r="D61" s="154"/>
+      <c r="D61" s="155"/>
       <c r="E61" s="66" t="s">
         <v>319</v>
       </c>
@@ -7865,7 +7810,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="162">
+      <c r="A62" s="159">
         <v>12</v>
       </c>
       <c r="B62" s="68">
@@ -7874,7 +7819,7 @@
       <c r="C62" s="68" t="s">
         <v>322</v>
       </c>
-      <c r="D62" s="155" t="s">
+      <c r="D62" s="153" t="s">
         <v>323</v>
       </c>
       <c r="E62" s="69" t="s">
@@ -7900,14 +7845,14 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="163"/>
+      <c r="A63" s="160"/>
       <c r="B63" s="62">
         <v>11750</v>
       </c>
       <c r="C63" s="62" t="s">
         <v>328</v>
       </c>
-      <c r="D63" s="153"/>
+      <c r="D63" s="154"/>
       <c r="E63" s="63" t="s">
         <v>329</v>
       </c>
@@ -7929,10 +7874,10 @@
       </c>
     </row>
     <row r="64" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A64" s="163"/>
+      <c r="A64" s="160"/>
       <c r="B64" s="62"/>
       <c r="C64" s="62"/>
-      <c r="D64" s="153"/>
+      <c r="D64" s="154"/>
       <c r="E64" s="63"/>
       <c r="F64" s="157"/>
       <c r="G64" s="62"/>
@@ -7942,10 +7887,10 @@
       <c r="K64" s="63"/>
     </row>
     <row r="65" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="163"/>
+      <c r="A65" s="160"/>
       <c r="B65" s="62"/>
       <c r="C65" s="62"/>
-      <c r="D65" s="153"/>
+      <c r="D65" s="154"/>
       <c r="E65" s="63"/>
       <c r="F65" s="157"/>
       <c r="G65" s="62"/>
@@ -7955,10 +7900,10 @@
       <c r="K65" s="63"/>
     </row>
     <row r="66" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="164"/>
+      <c r="A66" s="161"/>
       <c r="B66" s="70"/>
       <c r="C66" s="64"/>
-      <c r="D66" s="154"/>
+      <c r="D66" s="155"/>
       <c r="E66" s="66"/>
       <c r="F66" s="158"/>
       <c r="G66" s="64"/>
@@ -7968,7 +7913,7 @@
       <c r="K66" s="66"/>
     </row>
     <row r="67" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A67" s="155">
+      <c r="A67" s="153">
         <v>13</v>
       </c>
       <c r="B67" s="62">
@@ -7977,7 +7922,7 @@
       <c r="C67" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="D67" s="155" t="s">
+      <c r="D67" s="153" t="s">
         <v>333</v>
       </c>
       <c r="E67" s="63" t="s">
@@ -8003,14 +7948,14 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A68" s="153"/>
+      <c r="A68" s="154"/>
       <c r="B68" s="62">
         <v>11250</v>
       </c>
       <c r="C68" s="62" t="s">
         <v>338</v>
       </c>
-      <c r="D68" s="153"/>
+      <c r="D68" s="154"/>
       <c r="E68" s="63" t="s">
         <v>339</v>
       </c>
@@ -8032,14 +7977,14 @@
       </c>
     </row>
     <row r="69" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="153"/>
+      <c r="A69" s="154"/>
       <c r="B69" s="62">
         <v>10500</v>
       </c>
       <c r="C69" s="62" t="s">
         <v>342</v>
       </c>
-      <c r="D69" s="153"/>
+      <c r="D69" s="154"/>
       <c r="E69" s="63" t="s">
         <v>343</v>
       </c>
@@ -8061,14 +8006,14 @@
       </c>
     </row>
     <row r="70" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="153"/>
+      <c r="A70" s="154"/>
       <c r="B70" s="62">
         <v>11250</v>
       </c>
       <c r="C70" s="62" t="s">
         <v>344</v>
       </c>
-      <c r="D70" s="153"/>
+      <c r="D70" s="154"/>
       <c r="E70" s="63" t="s">
         <v>345</v>
       </c>
@@ -8090,14 +8035,14 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="154"/>
+      <c r="A71" s="155"/>
       <c r="B71" s="65">
         <v>10750</v>
       </c>
       <c r="C71" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="D71" s="154"/>
+      <c r="D71" s="155"/>
       <c r="E71" s="67" t="s">
         <v>346</v>
       </c>
@@ -8119,12 +8064,12 @@
       </c>
     </row>
     <row r="72" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="155">
+      <c r="A72" s="153">
         <v>14</v>
       </c>
       <c r="B72" s="71"/>
       <c r="C72" s="71"/>
-      <c r="D72" s="155"/>
+      <c r="D72" s="153"/>
       <c r="E72" s="63"/>
       <c r="F72" s="156" t="s">
         <v>349</v>
@@ -8136,10 +8081,10 @@
       <c r="K72" s="63"/>
     </row>
     <row r="73" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="153"/>
+      <c r="A73" s="154"/>
       <c r="B73" s="71"/>
       <c r="C73" s="71"/>
-      <c r="D73" s="153"/>
+      <c r="D73" s="154"/>
       <c r="E73" s="63"/>
       <c r="F73" s="157"/>
       <c r="G73" s="62"/>
@@ -8149,10 +8094,10 @@
       <c r="K73" s="63"/>
     </row>
     <row r="74" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A74" s="153"/>
+      <c r="A74" s="154"/>
       <c r="B74" s="71"/>
       <c r="C74" s="71"/>
-      <c r="D74" s="153"/>
+      <c r="D74" s="154"/>
       <c r="E74" s="63"/>
       <c r="F74" s="157"/>
       <c r="G74" s="62"/>
@@ -8162,10 +8107,10 @@
       <c r="K74" s="63"/>
     </row>
     <row r="75" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="153"/>
+      <c r="A75" s="154"/>
       <c r="B75" s="71"/>
       <c r="C75" s="71"/>
-      <c r="D75" s="153"/>
+      <c r="D75" s="154"/>
       <c r="E75" s="63"/>
       <c r="F75" s="157"/>
       <c r="G75" s="62"/>
@@ -8175,10 +8120,10 @@
       <c r="K75" s="63"/>
     </row>
     <row r="76" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A76" s="154"/>
+      <c r="A76" s="155"/>
       <c r="B76" s="70"/>
       <c r="C76" s="70"/>
-      <c r="D76" s="154"/>
+      <c r="D76" s="155"/>
       <c r="E76" s="66"/>
       <c r="F76" s="158"/>
       <c r="G76" s="64"/>
@@ -8205,7 +8150,7 @@
       <c r="K77" s="66"/>
     </row>
     <row r="78" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="162">
+      <c r="A78" s="159">
         <v>16</v>
       </c>
       <c r="B78" s="62">
@@ -8214,7 +8159,7 @@
       <c r="C78" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="D78" s="155" t="s">
+      <c r="D78" s="153" t="s">
         <v>351</v>
       </c>
       <c r="E78" s="63" t="s">
@@ -8240,14 +8185,14 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A79" s="163"/>
+      <c r="A79" s="160"/>
       <c r="B79" s="62">
         <v>13750</v>
       </c>
       <c r="C79" s="62" t="s">
         <v>356</v>
       </c>
-      <c r="D79" s="153"/>
+      <c r="D79" s="154"/>
       <c r="E79" s="63" t="s">
         <v>357</v>
       </c>
@@ -8269,14 +8214,14 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A80" s="163"/>
+      <c r="A80" s="160"/>
       <c r="B80" s="74">
         <v>11750</v>
       </c>
       <c r="C80" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="D80" s="153"/>
+      <c r="D80" s="154"/>
       <c r="E80" s="75" t="s">
         <v>360</v>
       </c>
@@ -8298,10 +8243,10 @@
       </c>
     </row>
     <row r="81" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A81" s="163"/>
+      <c r="A81" s="160"/>
       <c r="B81" s="71"/>
       <c r="C81" s="71"/>
-      <c r="D81" s="153"/>
+      <c r="D81" s="154"/>
       <c r="E81" s="63"/>
       <c r="F81" s="157"/>
       <c r="G81" s="71"/>
@@ -8311,10 +8256,10 @@
       <c r="K81" s="76"/>
     </row>
     <row r="82" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A82" s="164"/>
+      <c r="A82" s="161"/>
       <c r="B82" s="70"/>
       <c r="C82" s="70"/>
-      <c r="D82" s="154"/>
+      <c r="D82" s="155"/>
       <c r="E82" s="66"/>
       <c r="F82" s="158"/>
       <c r="G82" s="70"/>
@@ -8325,54 +8270,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="F62:F66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="F67:F71"/>
     <mergeCell ref="A72:A76"/>
     <mergeCell ref="D72:D76"/>
     <mergeCell ref="F72:F76"/>
     <mergeCell ref="A78:A82"/>
     <mergeCell ref="D78:D82"/>
     <mergeCell ref="F78:F82"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="F62:F66"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="F7:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Competencia_final/registro_experimento.xlsx
+++ b/Competencia_final/registro_experimento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juancho\Desktop\DMEF\labo\Competencia_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48129186-1B0E-4021-BDE7-7279CB3F082A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77E9755-89DA-423D-9F78-0C49E5B8AE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" activeTab="1" xr2:uid="{F72DCF91-BE68-43C8-A18E-59730E9D26D2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{F72DCF91-BE68-43C8-A18E-59730E9D26D2}"/>
   </bookViews>
   <sheets>
     <sheet name="registros" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="404">
   <si>
     <t>Final Train</t>
   </si>
@@ -1289,6 +1289,15 @@
   </si>
   <si>
     <t>TS9320KF6</t>
+  </si>
+  <si>
+    <t>TS9320KF7</t>
+  </si>
+  <si>
+    <t>HT9420KF7</t>
+  </si>
+  <si>
+    <t>ZZ9420KF7</t>
   </si>
 </sst>
 </file>
@@ -2042,7 +2051,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2349,8 +2358,11 @@
     <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2480,12 +2492,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2806,8 +2812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185828D6-25AC-4D34-9841-603A418DDB2C}">
   <dimension ref="A1:BB13"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2868,131 +2874,131 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="39"/>
-      <c r="D1" s="133" t="s">
+      <c r="D1" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="136"/>
       <c r="AB1" s="38"/>
-      <c r="AC1" s="121" t="s">
+      <c r="AC1" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="124"/>
-      <c r="AH1" s="124"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="125"/>
       <c r="AI1" s="37"/>
-      <c r="AJ1" s="121" t="s">
+      <c r="AJ1" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="AK1" s="123"/>
-      <c r="AL1" s="123"/>
-      <c r="AM1" s="123"/>
-      <c r="AN1" s="123"/>
-      <c r="AO1" s="123"/>
-      <c r="AP1" s="123"/>
-      <c r="AQ1" s="123"/>
-      <c r="AR1" s="123"/>
-      <c r="AS1" s="123"/>
-      <c r="AT1" s="123"/>
-      <c r="AU1" s="123"/>
-      <c r="AV1" s="123"/>
-      <c r="AW1" s="123"/>
-      <c r="AX1" s="123"/>
-      <c r="AY1" s="123"/>
-      <c r="AZ1" s="123"/>
-      <c r="BA1" s="121" t="s">
+      <c r="AK1" s="124"/>
+      <c r="AL1" s="124"/>
+      <c r="AM1" s="124"/>
+      <c r="AN1" s="124"/>
+      <c r="AO1" s="124"/>
+      <c r="AP1" s="124"/>
+      <c r="AQ1" s="124"/>
+      <c r="AR1" s="124"/>
+      <c r="AS1" s="124"/>
+      <c r="AT1" s="124"/>
+      <c r="AU1" s="124"/>
+      <c r="AV1" s="124"/>
+      <c r="AW1" s="124"/>
+      <c r="AX1" s="124"/>
+      <c r="AY1" s="124"/>
+      <c r="AZ1" s="124"/>
+      <c r="BA1" s="122" t="s">
         <v>387</v>
       </c>
-      <c r="BB1" s="122"/>
+      <c r="BB1" s="123"/>
     </row>
     <row r="2" spans="1:54" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="139" t="s">
+      <c r="C2" s="139"/>
+      <c r="D2" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="141" t="s">
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="142" t="s">
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
       <c r="O2" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="143" t="s">
+      <c r="P2" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="140"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="141"/>
+      <c r="AA2" s="141"/>
       <c r="AB2" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="AC2" s="136" t="s">
+      <c r="AC2" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="125" t="s">
+      <c r="AD2" s="126" t="s">
         <v>65</v>
       </c>
       <c r="AE2" s="55"/>
       <c r="AF2" s="55"/>
-      <c r="AG2" s="131" t="s">
+      <c r="AG2" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AH2" s="131" t="s">
+      <c r="AH2" s="132" t="s">
         <v>67</v>
       </c>
       <c r="AI2" s="43"/>
-      <c r="AJ2" s="126" t="s">
+      <c r="AJ2" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="AK2" s="127"/>
-      <c r="AL2" s="128"/>
+      <c r="AK2" s="128"/>
+      <c r="AL2" s="129"/>
       <c r="AM2" s="26" t="s">
         <v>61</v>
       </c>
@@ -3000,21 +3006,21 @@
       <c r="AO2" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AP2" s="129" t="s">
+      <c r="AP2" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="AQ2" s="130"/>
-      <c r="AR2" s="126" t="s">
+      <c r="AQ2" s="131"/>
+      <c r="AR2" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="AS2" s="127"/>
-      <c r="AT2" s="127"/>
-      <c r="AU2" s="127"/>
-      <c r="AV2" s="127"/>
-      <c r="AW2" s="127"/>
-      <c r="AX2" s="127"/>
-      <c r="AY2" s="127"/>
-      <c r="AZ2" s="127"/>
+      <c r="AS2" s="128"/>
+      <c r="AT2" s="128"/>
+      <c r="AU2" s="128"/>
+      <c r="AV2" s="128"/>
+      <c r="AW2" s="128"/>
+      <c r="AX2" s="128"/>
+      <c r="AY2" s="128"/>
+      <c r="AZ2" s="128"/>
       <c r="BA2" s="110"/>
       <c r="BB2" s="111" t="s">
         <v>61</v>
@@ -3101,16 +3107,16 @@
         <v>19</v>
       </c>
       <c r="AB3" s="27"/>
-      <c r="AC3" s="127"/>
-      <c r="AD3" s="125"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="126"/>
       <c r="AE3" s="58" t="s">
         <v>72</v>
       </c>
       <c r="AF3" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="132"/>
-      <c r="AH3" s="132"/>
+      <c r="AG3" s="133"/>
+      <c r="AH3" s="133"/>
       <c r="AI3" s="35" t="s">
         <v>61</v>
       </c>
@@ -3169,7 +3175,7 @@
       <c r="BB3" s="111"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="120" t="s">
         <v>363</v>
       </c>
       <c r="B4" s="11"/>
@@ -3267,7 +3273,7 @@
       </c>
     </row>
     <row r="5" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="120" t="s">
         <v>364</v>
       </c>
       <c r="B5" s="11"/>
@@ -3348,7 +3354,9 @@
       </c>
       <c r="AP5" s="105"/>
       <c r="AQ5" s="105"/>
-      <c r="AR5" s="106"/>
+      <c r="AR5" s="106">
+        <v>100</v>
+      </c>
       <c r="AS5" s="107"/>
       <c r="AT5" s="106"/>
       <c r="AU5" s="108"/>
@@ -3363,7 +3371,7 @@
       </c>
     </row>
     <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="166" t="s">
+      <c r="A6" s="120" t="s">
         <v>365</v>
       </c>
       <c r="B6" s="11"/>
@@ -3444,7 +3452,9 @@
       </c>
       <c r="AP6" s="105"/>
       <c r="AQ6" s="105"/>
-      <c r="AR6" s="106"/>
+      <c r="AR6" s="106">
+        <v>100</v>
+      </c>
       <c r="AS6" s="40"/>
       <c r="AT6" s="106"/>
       <c r="AU6" s="40"/>
@@ -3459,7 +3469,7 @@
       </c>
     </row>
     <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="167" t="s">
+      <c r="A7" s="121" t="s">
         <v>366</v>
       </c>
       <c r="B7" s="11"/>
@@ -3532,7 +3542,9 @@
       </c>
       <c r="AP7" s="105"/>
       <c r="AQ7" s="105"/>
-      <c r="AR7" s="106"/>
+      <c r="AR7" s="106">
+        <v>100</v>
+      </c>
       <c r="AS7" s="40"/>
       <c r="AT7" s="106"/>
       <c r="AU7" s="40"/>
@@ -3547,7 +3559,7 @@
       </c>
     </row>
     <row r="8" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="167" t="s">
+      <c r="A8" s="121" t="s">
         <v>367</v>
       </c>
       <c r="B8" s="11"/>
@@ -3611,22 +3623,26 @@
       <c r="AH8" s="53">
         <v>945577</v>
       </c>
-      <c r="AI8" s="120" t="s">
+      <c r="AI8" s="95" t="s">
         <v>392</v>
       </c>
       <c r="AJ8" s="104"/>
       <c r="AK8" s="104"/>
       <c r="AL8" s="104"/>
-      <c r="AM8" s="118" t="s">
+      <c r="AM8" s="117" t="s">
         <v>393</v>
       </c>
-      <c r="AN8" s="104"/>
+      <c r="AN8" s="53">
+        <v>668111</v>
+      </c>
       <c r="AO8" s="104" t="b">
         <v>0</v>
       </c>
       <c r="AP8" s="105"/>
       <c r="AQ8" s="40"/>
-      <c r="AR8" s="40"/>
+      <c r="AR8" s="106">
+        <v>100</v>
+      </c>
       <c r="AS8" s="40"/>
       <c r="AT8" s="106"/>
       <c r="AU8" s="40"/>
@@ -3641,7 +3657,7 @@
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A9" s="167" t="s">
+      <c r="A9" s="121" t="s">
         <v>368</v>
       </c>
       <c r="B9" s="11"/>
@@ -3703,22 +3719,26 @@
       <c r="AH9" s="53">
         <v>945577</v>
       </c>
-      <c r="AI9" s="120" t="s">
+      <c r="AI9" s="95" t="s">
         <v>399</v>
       </c>
       <c r="AJ9" s="104"/>
       <c r="AK9" s="104"/>
       <c r="AL9" s="104"/>
-      <c r="AM9" s="118" t="s">
+      <c r="AM9" s="117" t="s">
         <v>396</v>
       </c>
-      <c r="AN9" s="104"/>
+      <c r="AN9" s="53">
+        <v>668111</v>
+      </c>
       <c r="AO9" s="104" t="b">
         <v>0</v>
       </c>
       <c r="AP9" s="105"/>
       <c r="AQ9" s="105"/>
-      <c r="AR9" s="106"/>
+      <c r="AR9" s="106">
+        <v>100</v>
+      </c>
       <c r="AS9" s="107"/>
       <c r="AT9" s="106"/>
       <c r="AU9" s="108"/>
@@ -3733,7 +3753,7 @@
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="120" t="s">
         <v>369</v>
       </c>
       <c r="B10" s="11"/>
@@ -3795,22 +3815,26 @@
       <c r="AH10" s="53">
         <v>945577</v>
       </c>
-      <c r="AI10" s="120" t="s">
+      <c r="AI10" s="95" t="s">
         <v>400</v>
       </c>
       <c r="AJ10" s="104"/>
       <c r="AK10" s="104"/>
       <c r="AL10" s="104"/>
-      <c r="AM10" s="118" t="s">
+      <c r="AM10" s="115" t="s">
         <v>397</v>
       </c>
-      <c r="AN10" s="104"/>
+      <c r="AN10" s="53">
+        <v>668111</v>
+      </c>
       <c r="AO10" s="104" t="b">
         <v>0</v>
       </c>
       <c r="AP10" s="40"/>
       <c r="AQ10" s="40"/>
-      <c r="AR10" s="40"/>
+      <c r="AR10" s="106">
+        <v>100</v>
+      </c>
       <c r="AS10" s="40"/>
       <c r="AT10" s="40"/>
       <c r="AU10" s="40"/>
@@ -3820,12 +3844,12 @@
       <c r="AY10" s="40"/>
       <c r="AZ10" s="39"/>
       <c r="BA10" s="113"/>
-      <c r="BB10" s="119" t="s">
+      <c r="BB10" s="116" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="121" t="s">
         <v>370</v>
       </c>
       <c r="B11" s="11"/>
@@ -3867,14 +3891,20 @@
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
+      <c r="Y11" s="6">
+        <v>1</v>
+      </c>
       <c r="Z11" s="5"/>
       <c r="AA11" s="16"/>
-      <c r="AB11" s="94"/>
+      <c r="AB11" s="94" t="s">
+        <v>391</v>
+      </c>
       <c r="AC11" s="47">
         <v>0.5</v>
       </c>
-      <c r="AD11" s="52"/>
+      <c r="AD11" s="52">
+        <v>2</v>
+      </c>
       <c r="AE11" s="52"/>
       <c r="AF11" s="52"/>
       <c r="AG11" s="53">
@@ -3883,18 +3913,26 @@
       <c r="AH11" s="53">
         <v>945577</v>
       </c>
-      <c r="AI11" s="95"/>
+      <c r="AI11" s="95" t="s">
+        <v>401</v>
+      </c>
       <c r="AJ11" s="40"/>
       <c r="AK11" s="40"/>
       <c r="AL11" s="40"/>
-      <c r="AM11" s="118"/>
-      <c r="AN11" s="104"/>
+      <c r="AM11" s="117" t="s">
+        <v>402</v>
+      </c>
+      <c r="AN11" s="53">
+        <v>668111</v>
+      </c>
       <c r="AO11" s="104" t="b">
         <v>0</v>
       </c>
       <c r="AP11" s="40"/>
       <c r="AQ11" s="40"/>
-      <c r="AR11" s="40"/>
+      <c r="AR11" s="106">
+        <v>100</v>
+      </c>
       <c r="AS11" s="40"/>
       <c r="AT11" s="40"/>
       <c r="AU11" s="40"/>
@@ -3904,7 +3942,9 @@
       <c r="AY11" s="40"/>
       <c r="AZ11" s="39"/>
       <c r="BA11" s="113"/>
-      <c r="BB11" s="119"/>
+      <c r="BB11" s="119" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A12" s="92" t="s">
@@ -4097,7 +4137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA249011-D726-47B3-9440-8B01236A4F88}">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C15" sqref="C15:C18"/>
     </sheetView>
   </sheetViews>
@@ -4111,64 +4151,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="149" t="s">
+      <c r="D1" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="151" t="s">
+      <c r="E1" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="152" t="s">
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="147" t="s">
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="128"/>
+      <c r="AB1" s="128"/>
+      <c r="AC1" s="148" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="127"/>
-      <c r="AH1" s="127"/>
-      <c r="AI1" s="127"/>
-      <c r="AJ1" s="148" t="s">
+      <c r="AD1" s="128"/>
+      <c r="AE1" s="128"/>
+      <c r="AF1" s="128"/>
+      <c r="AG1" s="128"/>
+      <c r="AH1" s="128"/>
+      <c r="AI1" s="128"/>
+      <c r="AJ1" s="149" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A2" s="125"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="150"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="151"/>
       <c r="E2" s="25">
         <v>1</v>
       </c>
@@ -4262,16 +4302,16 @@
       <c r="AI2" s="23">
         <v>7</v>
       </c>
-      <c r="AJ2" s="127"/>
+      <c r="AJ2" s="128"/>
     </row>
     <row r="3" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="146">
-        <v>1</v>
-      </c>
-      <c r="B3" s="146">
+      <c r="A3" s="147">
+        <v>1</v>
+      </c>
+      <c r="B3" s="147">
         <v>732497</v>
       </c>
-      <c r="C3" s="146">
+      <c r="C3" s="147">
         <v>936659</v>
       </c>
       <c r="D3" s="20" t="s">
@@ -4372,9 +4412,9 @@
       </c>
     </row>
     <row r="4" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
+      <c r="A4" s="147"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
@@ -4417,9 +4457,9 @@
       </c>
     </row>
     <row r="5" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="146"/>
-      <c r="B5" s="146"/>
-      <c r="C5" s="146"/>
+      <c r="A5" s="147"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="147"/>
       <c r="D5" s="15" t="s">
         <v>1</v>
       </c>
@@ -4462,9 +4502,9 @@
       </c>
     </row>
     <row r="6" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="146"/>
-      <c r="B6" s="146"/>
-      <c r="C6" s="146"/>
+      <c r="A6" s="147"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="147"/>
       <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
@@ -4563,13 +4603,13 @@
       </c>
     </row>
     <row r="7" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="144">
+      <c r="A7" s="145">
         <v>2</v>
       </c>
-      <c r="B7" s="146">
+      <c r="B7" s="147">
         <v>732497</v>
       </c>
-      <c r="C7" s="146">
+      <c r="C7" s="147">
         <v>936659</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -4670,9 +4710,9 @@
       </c>
     </row>
     <row r="8" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="145"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
+      <c r="A8" s="146"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
       <c r="D8" s="15" t="s">
         <v>2</v>
       </c>
@@ -4715,9 +4755,9 @@
       </c>
     </row>
     <row r="9" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="145"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="146"/>
+      <c r="A9" s="146"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
       <c r="D9" s="15" t="s">
         <v>1</v>
       </c>
@@ -4760,9 +4800,9 @@
       </c>
     </row>
     <row r="10" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="145"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="146"/>
+      <c r="A10" s="146"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
       <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
@@ -4861,13 +4901,13 @@
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A11" s="144">
+      <c r="A11" s="145">
         <v>3</v>
       </c>
-      <c r="B11" s="146">
+      <c r="B11" s="147">
         <v>732497</v>
       </c>
-      <c r="C11" s="146">
+      <c r="C11" s="147">
         <v>936659</v>
       </c>
       <c r="D11" s="20" t="s">
@@ -4968,9 +5008,9 @@
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A12" s="145"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="146"/>
+      <c r="A12" s="146"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
       <c r="D12" s="15" t="s">
         <v>2</v>
       </c>
@@ -5013,9 +5053,9 @@
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A13" s="145"/>
-      <c r="B13" s="146"/>
-      <c r="C13" s="146"/>
+      <c r="A13" s="146"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="147"/>
       <c r="D13" s="15" t="s">
         <v>1</v>
       </c>
@@ -5058,9 +5098,9 @@
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A14" s="145"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
+      <c r="A14" s="146"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="147"/>
       <c r="D14" s="4" t="s">
         <v>0</v>
       </c>
@@ -5159,13 +5199,13 @@
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A15" s="144">
+      <c r="A15" s="145">
         <v>4</v>
       </c>
-      <c r="B15" s="146">
+      <c r="B15" s="147">
         <v>732497</v>
       </c>
-      <c r="C15" s="146">
+      <c r="C15" s="147">
         <v>936659</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -5266,9 +5306,9 @@
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A16" s="145"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
+      <c r="A16" s="146"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="15" t="s">
         <v>2</v>
       </c>
@@ -5311,9 +5351,9 @@
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A17" s="145"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
+      <c r="A17" s="146"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="147"/>
       <c r="D17" s="15" t="s">
         <v>1</v>
       </c>
@@ -5356,9 +5396,9 @@
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A18" s="145"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="146"/>
+      <c r="A18" s="146"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="147"/>
       <c r="D18" s="4" t="s">
         <v>0</v>
       </c>
@@ -5457,13 +5497,13 @@
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A19" s="144">
-        <v>1</v>
-      </c>
-      <c r="B19" s="146">
+      <c r="A19" s="145">
+        <v>1</v>
+      </c>
+      <c r="B19" s="147">
         <v>732497</v>
       </c>
-      <c r="C19" s="146">
+      <c r="C19" s="147">
         <v>936659</v>
       </c>
       <c r="D19" s="20" t="s">
@@ -5552,9 +5592,9 @@
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A20" s="145"/>
-      <c r="B20" s="146"/>
-      <c r="C20" s="146"/>
+      <c r="A20" s="146"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="147"/>
       <c r="D20" s="15" t="s">
         <v>2</v>
       </c>
@@ -5597,9 +5637,9 @@
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A21" s="145"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="146"/>
+      <c r="A21" s="146"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="147"/>
       <c r="D21" s="15" t="s">
         <v>1</v>
       </c>
@@ -5642,9 +5682,9 @@
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A22" s="145"/>
-      <c r="B22" s="146"/>
-      <c r="C22" s="146"/>
+      <c r="A22" s="146"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="147"/>
       <c r="D22" s="4" t="s">
         <v>0</v>
       </c>
@@ -5998,7 +6038,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="165">
+      <c r="A2" s="166">
         <v>0</v>
       </c>
       <c r="B2" s="62">
@@ -6007,13 +6047,13 @@
       <c r="C2" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="153" t="s">
+      <c r="D2" s="154" t="s">
         <v>81</v>
       </c>
       <c r="E2" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="156" t="s">
+      <c r="F2" s="157" t="s">
         <v>83</v>
       </c>
       <c r="G2" s="62">
@@ -6033,18 +6073,18 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="154"/>
+      <c r="A3" s="155"/>
       <c r="B3" s="62">
         <v>13500</v>
       </c>
       <c r="C3" s="62">
         <v>49</v>
       </c>
-      <c r="D3" s="154"/>
+      <c r="D3" s="155"/>
       <c r="E3" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="157"/>
+      <c r="F3" s="158"/>
       <c r="G3" s="62">
         <v>534</v>
       </c>
@@ -6062,18 +6102,18 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="154"/>
+      <c r="A4" s="155"/>
       <c r="B4" s="62">
         <v>11250</v>
       </c>
       <c r="C4" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="154"/>
+      <c r="D4" s="155"/>
       <c r="E4" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="157"/>
+      <c r="F4" s="158"/>
       <c r="G4" s="62">
         <v>707</v>
       </c>
@@ -6091,18 +6131,18 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="154"/>
+      <c r="A5" s="155"/>
       <c r="B5" s="62">
         <v>9500</v>
       </c>
       <c r="C5" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="154"/>
+      <c r="D5" s="155"/>
       <c r="E5" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="157"/>
+      <c r="F5" s="158"/>
       <c r="G5" s="62">
         <v>930</v>
       </c>
@@ -6120,18 +6160,18 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="155"/>
+      <c r="A6" s="156"/>
       <c r="B6" s="65">
         <v>10250</v>
       </c>
       <c r="C6" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="155"/>
+      <c r="D6" s="156"/>
       <c r="E6" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="158"/>
+      <c r="F6" s="159"/>
       <c r="G6" s="65">
         <v>2944</v>
       </c>
@@ -6149,7 +6189,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="153">
+      <c r="A7" s="154">
         <v>1</v>
       </c>
       <c r="B7" s="68">
@@ -6158,13 +6198,13 @@
       <c r="C7" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="153" t="s">
+      <c r="D7" s="154" t="s">
         <v>101</v>
       </c>
       <c r="E7" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="156" t="s">
+      <c r="F7" s="157" t="s">
         <v>103</v>
       </c>
       <c r="G7" s="68">
@@ -6184,18 +6224,18 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="154"/>
+      <c r="A8" s="155"/>
       <c r="B8" s="62">
         <v>11250</v>
       </c>
       <c r="C8" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="154"/>
+      <c r="D8" s="155"/>
       <c r="E8" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="157"/>
+      <c r="F8" s="158"/>
       <c r="G8" s="62">
         <v>657</v>
       </c>
@@ -6213,18 +6253,18 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="154"/>
+      <c r="A9" s="155"/>
       <c r="B9" s="62">
         <v>11750</v>
       </c>
       <c r="C9" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="154"/>
+      <c r="D9" s="155"/>
       <c r="E9" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="157"/>
+      <c r="F9" s="158"/>
       <c r="G9" s="62">
         <v>841</v>
       </c>
@@ -6242,18 +6282,18 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="154"/>
+      <c r="A10" s="155"/>
       <c r="B10" s="62">
         <v>11250</v>
       </c>
       <c r="C10" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="154"/>
+      <c r="D10" s="155"/>
       <c r="E10" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="157"/>
+      <c r="F10" s="158"/>
       <c r="G10" s="62">
         <v>963</v>
       </c>
@@ -6271,18 +6311,18 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="155"/>
+      <c r="A11" s="156"/>
       <c r="B11" s="64">
         <v>10500</v>
       </c>
       <c r="C11" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="155"/>
+      <c r="D11" s="156"/>
       <c r="E11" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="158"/>
+      <c r="F11" s="159"/>
       <c r="G11" s="64">
         <v>2745</v>
       </c>
@@ -6300,7 +6340,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="153">
+      <c r="A12" s="154">
         <v>2</v>
       </c>
       <c r="B12" s="62">
@@ -6309,13 +6349,13 @@
       <c r="C12" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="153" t="s">
+      <c r="D12" s="154" t="s">
         <v>123</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="156" t="s">
+      <c r="F12" s="157" t="s">
         <v>125</v>
       </c>
       <c r="G12" s="62">
@@ -6335,18 +6375,18 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="154"/>
+      <c r="A13" s="155"/>
       <c r="B13" s="68">
         <v>11750</v>
       </c>
       <c r="C13" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="154"/>
+      <c r="D13" s="155"/>
       <c r="E13" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="157"/>
+      <c r="F13" s="158"/>
       <c r="G13" s="68">
         <v>9989</v>
       </c>
@@ -6364,18 +6404,18 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="154"/>
+      <c r="A14" s="155"/>
       <c r="B14" s="62">
         <v>11500</v>
       </c>
       <c r="C14" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="154"/>
+      <c r="D14" s="155"/>
       <c r="E14" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="157"/>
+      <c r="F14" s="158"/>
       <c r="G14" s="62">
         <v>2414</v>
       </c>
@@ -6393,18 +6433,18 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="154"/>
+      <c r="A15" s="155"/>
       <c r="B15" s="62">
         <v>10750</v>
       </c>
       <c r="C15" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="154"/>
+      <c r="D15" s="155"/>
       <c r="E15" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="157"/>
+      <c r="F15" s="158"/>
       <c r="G15" s="62">
         <v>3244</v>
       </c>
@@ -6422,18 +6462,18 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="155"/>
+      <c r="A16" s="156"/>
       <c r="B16" s="64">
         <v>11250</v>
       </c>
       <c r="C16" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="155"/>
+      <c r="D16" s="156"/>
       <c r="E16" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="158"/>
+      <c r="F16" s="159"/>
       <c r="G16" s="64">
         <v>1970</v>
       </c>
@@ -6451,7 +6491,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="153">
+      <c r="A17" s="154">
         <v>3</v>
       </c>
       <c r="B17" s="62">
@@ -6460,13 +6500,13 @@
       <c r="C17" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="153" t="s">
+      <c r="D17" s="154" t="s">
         <v>144</v>
       </c>
       <c r="E17" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="F17" s="156" t="s">
+      <c r="F17" s="157" t="s">
         <v>146</v>
       </c>
       <c r="G17" s="62">
@@ -6486,18 +6526,18 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="154"/>
+      <c r="A18" s="155"/>
       <c r="B18" s="62">
         <v>12750</v>
       </c>
       <c r="C18" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="154"/>
+      <c r="D18" s="155"/>
       <c r="E18" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="157"/>
+      <c r="F18" s="158"/>
       <c r="G18" s="62">
         <v>611</v>
       </c>
@@ -6515,18 +6555,18 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="154"/>
+      <c r="A19" s="155"/>
       <c r="B19" s="68">
         <v>11000</v>
       </c>
       <c r="C19" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="154"/>
+      <c r="D19" s="155"/>
       <c r="E19" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="157"/>
+      <c r="F19" s="158"/>
       <c r="G19" s="68">
         <v>333</v>
       </c>
@@ -6544,18 +6584,18 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="154"/>
+      <c r="A20" s="155"/>
       <c r="B20" s="62">
         <v>10250</v>
       </c>
       <c r="C20" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="154"/>
+      <c r="D20" s="155"/>
       <c r="E20" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="157"/>
+      <c r="F20" s="158"/>
       <c r="G20" s="62">
         <v>441</v>
       </c>
@@ -6573,18 +6613,18 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="155"/>
+      <c r="A21" s="156"/>
       <c r="B21" s="64">
         <v>12250</v>
       </c>
       <c r="C21" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="D21" s="155"/>
+      <c r="D21" s="156"/>
       <c r="E21" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="F21" s="158"/>
+      <c r="F21" s="159"/>
       <c r="G21" s="64">
         <v>317</v>
       </c>
@@ -6602,7 +6642,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="153">
+      <c r="A22" s="154">
         <v>4</v>
       </c>
       <c r="B22" s="68">
@@ -6611,13 +6651,13 @@
       <c r="C22" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="153" t="s">
+      <c r="D22" s="154" t="s">
         <v>166</v>
       </c>
       <c r="E22" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="F22" s="156" t="s">
+      <c r="F22" s="157" t="s">
         <v>168</v>
       </c>
       <c r="G22" s="68">
@@ -6637,18 +6677,18 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="154"/>
+      <c r="A23" s="155"/>
       <c r="B23" s="62">
         <v>11000</v>
       </c>
       <c r="C23" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="154"/>
+      <c r="D23" s="155"/>
       <c r="E23" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="F23" s="157"/>
+      <c r="F23" s="158"/>
       <c r="G23" s="62">
         <v>113</v>
       </c>
@@ -6666,18 +6706,18 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="154"/>
+      <c r="A24" s="155"/>
       <c r="B24" s="62">
         <v>12750</v>
       </c>
       <c r="C24" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="154"/>
+      <c r="D24" s="155"/>
       <c r="E24" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="F24" s="157"/>
+      <c r="F24" s="158"/>
       <c r="G24" s="62">
         <v>4998</v>
       </c>
@@ -6695,18 +6735,18 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="154"/>
+      <c r="A25" s="155"/>
       <c r="B25" s="62">
         <v>12750</v>
       </c>
       <c r="C25" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="154"/>
+      <c r="D25" s="155"/>
       <c r="E25" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="F25" s="157"/>
+      <c r="F25" s="158"/>
       <c r="G25" s="62">
         <v>794</v>
       </c>
@@ -6724,18 +6764,18 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="155"/>
+      <c r="A26" s="156"/>
       <c r="B26" s="64">
         <v>12250</v>
       </c>
       <c r="C26" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="D26" s="155"/>
+      <c r="D26" s="156"/>
       <c r="E26" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="F26" s="158"/>
+      <c r="F26" s="159"/>
       <c r="G26" s="64">
         <v>1190</v>
       </c>
@@ -6753,7 +6793,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="153">
+      <c r="A27" s="154">
         <v>5</v>
       </c>
       <c r="B27" s="62">
@@ -6762,13 +6802,13 @@
       <c r="C27" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="153" t="s">
+      <c r="D27" s="154" t="s">
         <v>187</v>
       </c>
       <c r="E27" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="156" t="s">
+      <c r="F27" s="157" t="s">
         <v>189</v>
       </c>
       <c r="G27" s="62">
@@ -6788,18 +6828,18 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="154"/>
+      <c r="A28" s="155"/>
       <c r="B28" s="68">
         <v>11250</v>
       </c>
       <c r="C28" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="D28" s="154"/>
+      <c r="D28" s="155"/>
       <c r="E28" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="F28" s="157"/>
+      <c r="F28" s="158"/>
       <c r="G28" s="68">
         <v>408</v>
       </c>
@@ -6817,18 +6857,18 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="154"/>
+      <c r="A29" s="155"/>
       <c r="B29" s="62">
         <v>11500</v>
       </c>
       <c r="C29" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D29" s="154"/>
+      <c r="D29" s="155"/>
       <c r="E29" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="157"/>
+      <c r="F29" s="158"/>
       <c r="G29" s="62">
         <v>663</v>
       </c>
@@ -6846,18 +6886,18 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="154"/>
+      <c r="A30" s="155"/>
       <c r="B30" s="62">
         <v>11750</v>
       </c>
       <c r="C30" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D30" s="154"/>
+      <c r="D30" s="155"/>
       <c r="E30" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="F30" s="157"/>
+      <c r="F30" s="158"/>
       <c r="G30" s="62">
         <v>1311</v>
       </c>
@@ -6875,18 +6915,18 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="155"/>
+      <c r="A31" s="156"/>
       <c r="B31" s="64">
         <v>10750</v>
       </c>
       <c r="C31" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="D31" s="155"/>
+      <c r="D31" s="156"/>
       <c r="E31" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="F31" s="158"/>
+      <c r="F31" s="159"/>
       <c r="G31" s="64">
         <v>2568</v>
       </c>
@@ -6904,7 +6944,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="153">
+      <c r="A32" s="154">
         <v>6</v>
       </c>
       <c r="B32" s="62">
@@ -6913,13 +6953,13 @@
       <c r="C32" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D32" s="153" t="s">
+      <c r="D32" s="154" t="s">
         <v>209</v>
       </c>
       <c r="E32" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="F32" s="156" t="s">
+      <c r="F32" s="157" t="s">
         <v>211</v>
       </c>
       <c r="G32" s="62">
@@ -6939,18 +6979,18 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="154"/>
+      <c r="A33" s="155"/>
       <c r="B33" s="62">
         <v>11750</v>
       </c>
       <c r="C33" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="154"/>
+      <c r="D33" s="155"/>
       <c r="E33" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="F33" s="157"/>
+      <c r="F33" s="158"/>
       <c r="G33" s="62">
         <v>76</v>
       </c>
@@ -6968,18 +7008,18 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="154"/>
+      <c r="A34" s="155"/>
       <c r="B34" s="62">
         <v>11500</v>
       </c>
       <c r="C34" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D34" s="154"/>
+      <c r="D34" s="155"/>
       <c r="E34" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="F34" s="157"/>
+      <c r="F34" s="158"/>
       <c r="G34" s="62">
         <v>55</v>
       </c>
@@ -6997,18 +7037,18 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="154"/>
+      <c r="A35" s="155"/>
       <c r="B35" s="62">
         <v>12750</v>
       </c>
       <c r="C35" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="154"/>
+      <c r="D35" s="155"/>
       <c r="E35" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="F35" s="157"/>
+      <c r="F35" s="158"/>
       <c r="G35" s="62">
         <v>163</v>
       </c>
@@ -7026,18 +7066,18 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="155"/>
+      <c r="A36" s="156"/>
       <c r="B36" s="65">
         <v>10500</v>
       </c>
       <c r="C36" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="D36" s="155"/>
+      <c r="D36" s="156"/>
       <c r="E36" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="F36" s="158"/>
+      <c r="F36" s="159"/>
       <c r="G36" s="65">
         <v>968</v>
       </c>
@@ -7055,7 +7095,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="153">
+      <c r="A37" s="154">
         <v>7</v>
       </c>
       <c r="B37" s="62">
@@ -7064,13 +7104,13 @@
       <c r="C37" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="D37" s="153" t="s">
+      <c r="D37" s="154" t="s">
         <v>228</v>
       </c>
       <c r="E37" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="F37" s="156" t="s">
+      <c r="F37" s="157" t="s">
         <v>230</v>
       </c>
       <c r="G37" s="62">
@@ -7090,18 +7130,18 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="154"/>
+      <c r="A38" s="155"/>
       <c r="B38" s="62">
         <v>10250</v>
       </c>
       <c r="C38" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="154"/>
+      <c r="D38" s="155"/>
       <c r="E38" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="F38" s="157"/>
+      <c r="F38" s="158"/>
       <c r="G38" s="62">
         <v>82</v>
       </c>
@@ -7119,18 +7159,18 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="154"/>
+      <c r="A39" s="155"/>
       <c r="B39" s="62">
         <v>10000</v>
       </c>
       <c r="C39" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="D39" s="154"/>
+      <c r="D39" s="155"/>
       <c r="E39" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="F39" s="157"/>
+      <c r="F39" s="158"/>
       <c r="G39" s="62">
         <v>2045</v>
       </c>
@@ -7148,18 +7188,18 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="154"/>
+      <c r="A40" s="155"/>
       <c r="B40" s="68">
         <v>9750</v>
       </c>
       <c r="C40" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="154"/>
+      <c r="D40" s="155"/>
       <c r="E40" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="F40" s="157"/>
+      <c r="F40" s="158"/>
       <c r="G40" s="68">
         <v>2527</v>
       </c>
@@ -7177,18 +7217,18 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="155"/>
+      <c r="A41" s="156"/>
       <c r="B41" s="64">
         <v>12000</v>
       </c>
       <c r="C41" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="D41" s="155"/>
+      <c r="D41" s="156"/>
       <c r="E41" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="F41" s="158"/>
+      <c r="F41" s="159"/>
       <c r="G41" s="64">
         <v>374</v>
       </c>
@@ -7206,7 +7246,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="153">
+      <c r="A42" s="154">
         <v>8</v>
       </c>
       <c r="B42" s="62">
@@ -7215,13 +7255,13 @@
       <c r="C42" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="D42" s="153" t="s">
+      <c r="D42" s="154" t="s">
         <v>248</v>
       </c>
       <c r="E42" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="F42" s="156" t="s">
+      <c r="F42" s="157" t="s">
         <v>250</v>
       </c>
       <c r="G42" s="62">
@@ -7241,18 +7281,18 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="154"/>
+      <c r="A43" s="155"/>
       <c r="B43" s="62">
         <v>10750</v>
       </c>
       <c r="C43" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="154"/>
+      <c r="D43" s="155"/>
       <c r="E43" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="F43" s="157"/>
+      <c r="F43" s="158"/>
       <c r="G43" s="62">
         <v>542</v>
       </c>
@@ -7270,18 +7310,18 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="154"/>
+      <c r="A44" s="155"/>
       <c r="B44" s="62">
         <v>13500</v>
       </c>
       <c r="C44" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="154"/>
+      <c r="D44" s="155"/>
       <c r="E44" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="F44" s="157"/>
+      <c r="F44" s="158"/>
       <c r="G44" s="62">
         <v>1769</v>
       </c>
@@ -7299,18 +7339,18 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="154"/>
+      <c r="A45" s="155"/>
       <c r="B45" s="62">
         <v>10500</v>
       </c>
       <c r="C45" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="D45" s="154"/>
+      <c r="D45" s="155"/>
       <c r="E45" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="F45" s="157"/>
+      <c r="F45" s="158"/>
       <c r="G45" s="62">
         <v>643</v>
       </c>
@@ -7328,18 +7368,18 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="155"/>
+      <c r="A46" s="156"/>
       <c r="B46" s="65">
         <v>11500</v>
       </c>
       <c r="C46" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="D46" s="155"/>
+      <c r="D46" s="156"/>
       <c r="E46" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="F46" s="158"/>
+      <c r="F46" s="159"/>
       <c r="G46" s="65">
         <v>969</v>
       </c>
@@ -7357,7 +7397,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="153">
+      <c r="A47" s="154">
         <v>9</v>
       </c>
       <c r="B47" s="68">
@@ -7366,13 +7406,13 @@
       <c r="C47" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="D47" s="162" t="s">
+      <c r="D47" s="163" t="s">
         <v>114</v>
       </c>
       <c r="E47" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="F47" s="156" t="s">
+      <c r="F47" s="157" t="s">
         <v>268</v>
       </c>
       <c r="G47" s="68">
@@ -7392,18 +7432,18 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="154"/>
+      <c r="A48" s="155"/>
       <c r="B48" s="62">
         <v>13500</v>
       </c>
       <c r="C48" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="163"/>
+      <c r="D48" s="164"/>
       <c r="E48" s="63" t="s">
         <v>271</v>
       </c>
-      <c r="F48" s="157"/>
+      <c r="F48" s="158"/>
       <c r="G48" s="62">
         <v>1061</v>
       </c>
@@ -7421,18 +7461,18 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="154"/>
+      <c r="A49" s="155"/>
       <c r="B49" s="62">
         <v>12250</v>
       </c>
       <c r="C49" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="163"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="F49" s="157"/>
+      <c r="F49" s="158"/>
       <c r="G49" s="62">
         <v>81</v>
       </c>
@@ -7450,18 +7490,18 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="154"/>
+      <c r="A50" s="155"/>
       <c r="B50" s="62">
         <v>11750</v>
       </c>
       <c r="C50" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="163"/>
+      <c r="D50" s="164"/>
       <c r="E50" s="63" t="s">
         <v>275</v>
       </c>
-      <c r="F50" s="157"/>
+      <c r="F50" s="158"/>
       <c r="G50" s="62">
         <v>52</v>
       </c>
@@ -7479,18 +7519,18 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="155"/>
+      <c r="A51" s="156"/>
       <c r="B51" s="64">
         <v>12250</v>
       </c>
       <c r="C51" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="D51" s="164"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="F51" s="158"/>
+      <c r="F51" s="159"/>
       <c r="G51" s="64">
         <v>661</v>
       </c>
@@ -7508,7 +7548,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="153">
+      <c r="A52" s="154">
         <v>10</v>
       </c>
       <c r="B52" s="62">
@@ -7517,13 +7557,13 @@
       <c r="C52" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="D52" s="153" t="s">
+      <c r="D52" s="154" t="s">
         <v>283</v>
       </c>
       <c r="E52" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="F52" s="156" t="s">
+      <c r="F52" s="157" t="s">
         <v>285</v>
       </c>
       <c r="G52" s="62">
@@ -7543,18 +7583,18 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="154"/>
+      <c r="A53" s="155"/>
       <c r="B53" s="62">
         <v>12250</v>
       </c>
       <c r="C53" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D53" s="154"/>
+      <c r="D53" s="155"/>
       <c r="E53" s="63" t="s">
         <v>288</v>
       </c>
-      <c r="F53" s="157"/>
+      <c r="F53" s="158"/>
       <c r="G53" s="62">
         <v>1860</v>
       </c>
@@ -7572,18 +7612,18 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="154"/>
+      <c r="A54" s="155"/>
       <c r="B54" s="62">
         <v>12250</v>
       </c>
       <c r="C54" s="62" t="s">
         <v>291</v>
       </c>
-      <c r="D54" s="154"/>
+      <c r="D54" s="155"/>
       <c r="E54" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="F54" s="157"/>
+      <c r="F54" s="158"/>
       <c r="G54" s="62">
         <v>1153</v>
       </c>
@@ -7601,18 +7641,18 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="154"/>
+      <c r="A55" s="155"/>
       <c r="B55" s="68">
         <v>11000</v>
       </c>
       <c r="C55" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="D55" s="154"/>
+      <c r="D55" s="155"/>
       <c r="E55" s="69" t="s">
         <v>295</v>
       </c>
-      <c r="F55" s="157"/>
+      <c r="F55" s="158"/>
       <c r="G55" s="68">
         <v>1949</v>
       </c>
@@ -7630,18 +7670,18 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="155"/>
+      <c r="A56" s="156"/>
       <c r="B56" s="64">
         <v>11500</v>
       </c>
       <c r="C56" s="64" t="s">
         <v>298</v>
       </c>
-      <c r="D56" s="155"/>
+      <c r="D56" s="156"/>
       <c r="E56" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="F56" s="158"/>
+      <c r="F56" s="159"/>
       <c r="G56" s="64">
         <v>131</v>
       </c>
@@ -7659,7 +7699,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="153">
+      <c r="A57" s="154">
         <v>11</v>
       </c>
       <c r="B57" s="62">
@@ -7668,13 +7708,13 @@
       <c r="C57" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="D57" s="153" t="s">
+      <c r="D57" s="154" t="s">
         <v>298</v>
       </c>
       <c r="E57" s="63" t="s">
         <v>303</v>
       </c>
-      <c r="F57" s="156" t="s">
+      <c r="F57" s="157" t="s">
         <v>304</v>
       </c>
       <c r="G57" s="62">
@@ -7694,18 +7734,18 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="154"/>
+      <c r="A58" s="155"/>
       <c r="B58" s="62">
         <v>11250</v>
       </c>
       <c r="C58" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="D58" s="154"/>
+      <c r="D58" s="155"/>
       <c r="E58" s="63" t="s">
         <v>308</v>
       </c>
-      <c r="F58" s="157"/>
+      <c r="F58" s="158"/>
       <c r="G58" s="62">
         <v>67</v>
       </c>
@@ -7723,18 +7763,18 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="154"/>
+      <c r="A59" s="155"/>
       <c r="B59" s="62">
         <v>13500</v>
       </c>
       <c r="C59" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="D59" s="154"/>
+      <c r="D59" s="155"/>
       <c r="E59" s="63" t="s">
         <v>311</v>
       </c>
-      <c r="F59" s="157"/>
+      <c r="F59" s="158"/>
       <c r="G59" s="62">
         <v>56</v>
       </c>
@@ -7752,18 +7792,18 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="154"/>
+      <c r="A60" s="155"/>
       <c r="B60" s="68">
         <v>10750</v>
       </c>
       <c r="C60" s="68" t="s">
         <v>314</v>
       </c>
-      <c r="D60" s="154"/>
+      <c r="D60" s="155"/>
       <c r="E60" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="F60" s="157"/>
+      <c r="F60" s="158"/>
       <c r="G60" s="68">
         <v>72</v>
       </c>
@@ -7781,18 +7821,18 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="155"/>
+      <c r="A61" s="156"/>
       <c r="B61" s="64">
         <v>13250</v>
       </c>
       <c r="C61" s="64" t="s">
         <v>318</v>
       </c>
-      <c r="D61" s="155"/>
+      <c r="D61" s="156"/>
       <c r="E61" s="66" t="s">
         <v>319</v>
       </c>
-      <c r="F61" s="158"/>
+      <c r="F61" s="159"/>
       <c r="G61" s="64">
         <v>144</v>
       </c>
@@ -7810,7 +7850,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="159">
+      <c r="A62" s="160">
         <v>12</v>
       </c>
       <c r="B62" s="68">
@@ -7819,13 +7859,13 @@
       <c r="C62" s="68" t="s">
         <v>322</v>
       </c>
-      <c r="D62" s="153" t="s">
+      <c r="D62" s="154" t="s">
         <v>323</v>
       </c>
       <c r="E62" s="69" t="s">
         <v>324</v>
       </c>
-      <c r="F62" s="156" t="s">
+      <c r="F62" s="157" t="s">
         <v>325</v>
       </c>
       <c r="G62" s="68">
@@ -7845,18 +7885,18 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="160"/>
+      <c r="A63" s="161"/>
       <c r="B63" s="62">
         <v>11750</v>
       </c>
       <c r="C63" s="62" t="s">
         <v>328</v>
       </c>
-      <c r="D63" s="154"/>
+      <c r="D63" s="155"/>
       <c r="E63" s="63" t="s">
         <v>329</v>
       </c>
-      <c r="F63" s="157"/>
+      <c r="F63" s="158"/>
       <c r="G63" s="62">
         <v>1968</v>
       </c>
@@ -7874,12 +7914,12 @@
       </c>
     </row>
     <row r="64" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A64" s="160"/>
+      <c r="A64" s="161"/>
       <c r="B64" s="62"/>
       <c r="C64" s="62"/>
-      <c r="D64" s="154"/>
+      <c r="D64" s="155"/>
       <c r="E64" s="63"/>
-      <c r="F64" s="157"/>
+      <c r="F64" s="158"/>
       <c r="G64" s="62"/>
       <c r="H64" s="62"/>
       <c r="I64" s="62"/>
@@ -7887,12 +7927,12 @@
       <c r="K64" s="63"/>
     </row>
     <row r="65" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="160"/>
+      <c r="A65" s="161"/>
       <c r="B65" s="62"/>
       <c r="C65" s="62"/>
-      <c r="D65" s="154"/>
+      <c r="D65" s="155"/>
       <c r="E65" s="63"/>
-      <c r="F65" s="157"/>
+      <c r="F65" s="158"/>
       <c r="G65" s="62"/>
       <c r="H65" s="62"/>
       <c r="I65" s="62"/>
@@ -7900,12 +7940,12 @@
       <c r="K65" s="63"/>
     </row>
     <row r="66" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="161"/>
+      <c r="A66" s="162"/>
       <c r="B66" s="70"/>
       <c r="C66" s="64"/>
-      <c r="D66" s="155"/>
+      <c r="D66" s="156"/>
       <c r="E66" s="66"/>
-      <c r="F66" s="158"/>
+      <c r="F66" s="159"/>
       <c r="G66" s="64"/>
       <c r="H66" s="64"/>
       <c r="I66" s="64"/>
@@ -7913,7 +7953,7 @@
       <c r="K66" s="66"/>
     </row>
     <row r="67" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A67" s="153">
+      <c r="A67" s="154">
         <v>13</v>
       </c>
       <c r="B67" s="62">
@@ -7922,13 +7962,13 @@
       <c r="C67" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="D67" s="153" t="s">
+      <c r="D67" s="154" t="s">
         <v>333</v>
       </c>
       <c r="E67" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="F67" s="156" t="s">
+      <c r="F67" s="157" t="s">
         <v>335</v>
       </c>
       <c r="G67" s="62">
@@ -7948,18 +7988,18 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A68" s="154"/>
+      <c r="A68" s="155"/>
       <c r="B68" s="62">
         <v>11250</v>
       </c>
       <c r="C68" s="62" t="s">
         <v>338</v>
       </c>
-      <c r="D68" s="154"/>
+      <c r="D68" s="155"/>
       <c r="E68" s="63" t="s">
         <v>339</v>
       </c>
-      <c r="F68" s="157"/>
+      <c r="F68" s="158"/>
       <c r="G68" s="62">
         <v>34</v>
       </c>
@@ -7977,18 +8017,18 @@
       </c>
     </row>
     <row r="69" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="154"/>
+      <c r="A69" s="155"/>
       <c r="B69" s="62">
         <v>10500</v>
       </c>
       <c r="C69" s="62" t="s">
         <v>342</v>
       </c>
-      <c r="D69" s="154"/>
+      <c r="D69" s="155"/>
       <c r="E69" s="63" t="s">
         <v>343</v>
       </c>
-      <c r="F69" s="157"/>
+      <c r="F69" s="158"/>
       <c r="G69" s="62">
         <v>4745</v>
       </c>
@@ -8006,18 +8046,18 @@
       </c>
     </row>
     <row r="70" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="154"/>
+      <c r="A70" s="155"/>
       <c r="B70" s="62">
         <v>11250</v>
       </c>
       <c r="C70" s="62" t="s">
         <v>344</v>
       </c>
-      <c r="D70" s="154"/>
+      <c r="D70" s="155"/>
       <c r="E70" s="63" t="s">
         <v>345</v>
       </c>
-      <c r="F70" s="157"/>
+      <c r="F70" s="158"/>
       <c r="G70" s="62">
         <v>48</v>
       </c>
@@ -8035,18 +8075,18 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="155"/>
+      <c r="A71" s="156"/>
       <c r="B71" s="65">
         <v>10750</v>
       </c>
       <c r="C71" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="D71" s="155"/>
+      <c r="D71" s="156"/>
       <c r="E71" s="67" t="s">
         <v>346</v>
       </c>
-      <c r="F71" s="158"/>
+      <c r="F71" s="159"/>
       <c r="G71" s="65">
         <v>50</v>
       </c>
@@ -8064,14 +8104,14 @@
       </c>
     </row>
     <row r="72" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="153">
+      <c r="A72" s="154">
         <v>14</v>
       </c>
       <c r="B72" s="71"/>
       <c r="C72" s="71"/>
-      <c r="D72" s="153"/>
+      <c r="D72" s="154"/>
       <c r="E72" s="63"/>
-      <c r="F72" s="156" t="s">
+      <c r="F72" s="157" t="s">
         <v>349</v>
       </c>
       <c r="G72" s="62"/>
@@ -8081,12 +8121,12 @@
       <c r="K72" s="63"/>
     </row>
     <row r="73" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="154"/>
+      <c r="A73" s="155"/>
       <c r="B73" s="71"/>
       <c r="C73" s="71"/>
-      <c r="D73" s="154"/>
+      <c r="D73" s="155"/>
       <c r="E73" s="63"/>
-      <c r="F73" s="157"/>
+      <c r="F73" s="158"/>
       <c r="G73" s="62"/>
       <c r="H73" s="62"/>
       <c r="I73" s="62"/>
@@ -8094,12 +8134,12 @@
       <c r="K73" s="63"/>
     </row>
     <row r="74" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A74" s="154"/>
+      <c r="A74" s="155"/>
       <c r="B74" s="71"/>
       <c r="C74" s="71"/>
-      <c r="D74" s="154"/>
+      <c r="D74" s="155"/>
       <c r="E74" s="63"/>
-      <c r="F74" s="157"/>
+      <c r="F74" s="158"/>
       <c r="G74" s="62"/>
       <c r="H74" s="62"/>
       <c r="I74" s="62"/>
@@ -8107,12 +8147,12 @@
       <c r="K74" s="63"/>
     </row>
     <row r="75" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="154"/>
+      <c r="A75" s="155"/>
       <c r="B75" s="71"/>
       <c r="C75" s="71"/>
-      <c r="D75" s="154"/>
+      <c r="D75" s="155"/>
       <c r="E75" s="63"/>
-      <c r="F75" s="157"/>
+      <c r="F75" s="158"/>
       <c r="G75" s="62"/>
       <c r="H75" s="62"/>
       <c r="I75" s="62"/>
@@ -8120,12 +8160,12 @@
       <c r="K75" s="63"/>
     </row>
     <row r="76" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A76" s="155"/>
+      <c r="A76" s="156"/>
       <c r="B76" s="70"/>
       <c r="C76" s="70"/>
-      <c r="D76" s="155"/>
+      <c r="D76" s="156"/>
       <c r="E76" s="66"/>
-      <c r="F76" s="158"/>
+      <c r="F76" s="159"/>
       <c r="G76" s="64"/>
       <c r="H76" s="64"/>
       <c r="I76" s="64"/>
@@ -8150,7 +8190,7 @@
       <c r="K77" s="66"/>
     </row>
     <row r="78" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="159">
+      <c r="A78" s="160">
         <v>16</v>
       </c>
       <c r="B78" s="62">
@@ -8159,13 +8199,13 @@
       <c r="C78" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="D78" s="153" t="s">
+      <c r="D78" s="154" t="s">
         <v>351</v>
       </c>
       <c r="E78" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="F78" s="156" t="s">
+      <c r="F78" s="157" t="s">
         <v>353</v>
       </c>
       <c r="G78" s="62">
@@ -8185,18 +8225,18 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A79" s="160"/>
+      <c r="A79" s="161"/>
       <c r="B79" s="62">
         <v>13750</v>
       </c>
       <c r="C79" s="62" t="s">
         <v>356</v>
       </c>
-      <c r="D79" s="154"/>
+      <c r="D79" s="155"/>
       <c r="E79" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F79" s="157"/>
+      <c r="F79" s="158"/>
       <c r="G79" s="62">
         <v>3446</v>
       </c>
@@ -8214,18 +8254,18 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A80" s="160"/>
+      <c r="A80" s="161"/>
       <c r="B80" s="74">
         <v>11750</v>
       </c>
       <c r="C80" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="D80" s="154"/>
+      <c r="D80" s="155"/>
       <c r="E80" s="75" t="s">
         <v>360</v>
       </c>
-      <c r="F80" s="157"/>
+      <c r="F80" s="158"/>
       <c r="G80" s="74">
         <v>1311</v>
       </c>
@@ -8243,12 +8283,12 @@
       </c>
     </row>
     <row r="81" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A81" s="160"/>
+      <c r="A81" s="161"/>
       <c r="B81" s="71"/>
       <c r="C81" s="71"/>
-      <c r="D81" s="154"/>
+      <c r="D81" s="155"/>
       <c r="E81" s="63"/>
-      <c r="F81" s="157"/>
+      <c r="F81" s="158"/>
       <c r="G81" s="71"/>
       <c r="H81" s="71"/>
       <c r="I81" s="71"/>
@@ -8256,12 +8296,12 @@
       <c r="K81" s="76"/>
     </row>
     <row r="82" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A82" s="161"/>
+      <c r="A82" s="162"/>
       <c r="B82" s="70"/>
       <c r="C82" s="70"/>
-      <c r="D82" s="155"/>
+      <c r="D82" s="156"/>
       <c r="E82" s="66"/>
-      <c r="F82" s="158"/>
+      <c r="F82" s="159"/>
       <c r="G82" s="70"/>
       <c r="H82" s="70"/>
       <c r="I82" s="70"/>

--- a/Competencia_final/registro_experimento.xlsx
+++ b/Competencia_final/registro_experimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juancho\Desktop\DMEF\labo\Competencia_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77E9755-89DA-423D-9F78-0C49E5B8AE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF65447D-3B9B-40E4-B053-0876DEC06568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{F72DCF91-BE68-43C8-A18E-59730E9D26D2}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="408">
   <si>
     <t>Final Train</t>
   </si>
@@ -1298,6 +1298,18 @@
   </si>
   <si>
     <t>ZZ9420KF7</t>
+  </si>
+  <si>
+    <t>semillerio</t>
+  </si>
+  <si>
+    <t>ZZ9420KF3_semillerio</t>
+  </si>
+  <si>
+    <t>ZZ9420KF0_semillerio</t>
+  </si>
+  <si>
+    <t>ZZ9420KF1_semillerio</t>
   </si>
 </sst>
 </file>
@@ -2051,7 +2063,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2492,6 +2504,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2810,10 +2825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185828D6-25AC-4D34-9841-603A418DDB2C}">
-  <dimension ref="A1:BB13"/>
+  <dimension ref="A1:BC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BC6" sqref="BC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2866,9 +2881,10 @@
     <col min="51" max="51" width="15.3984375" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:55" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="41" t="s">
         <v>60</v>
       </c>
@@ -2934,7 +2950,7 @@
       </c>
       <c r="BB1" s="123"/>
     </row>
-    <row r="2" spans="1:54" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:55" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="36" t="s">
         <v>56</v>
       </c>
@@ -3026,7 +3042,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:54" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:55" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A3" s="34" t="s">
         <v>41</v>
       </c>
@@ -3173,8 +3189,11 @@
         <v>64</v>
       </c>
       <c r="BB3" s="111"/>
-    </row>
-    <row r="4" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="BC3" s="167" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="120" t="s">
         <v>363</v>
       </c>
@@ -3271,8 +3290,11 @@
       <c r="BB4" s="116" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="5" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="BC4" s="117" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="120" t="s">
         <v>364</v>
       </c>
@@ -3369,8 +3391,11 @@
       <c r="BB5" s="116" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="BC5" s="117" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="120" t="s">
         <v>365</v>
       </c>
@@ -3468,7 +3493,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="121" t="s">
         <v>366</v>
       </c>
@@ -3531,7 +3556,7 @@
       <c r="AJ7" s="104"/>
       <c r="AK7" s="104"/>
       <c r="AL7" s="104"/>
-      <c r="AM7" s="117" t="s">
+      <c r="AM7" s="115" t="s">
         <v>390</v>
       </c>
       <c r="AN7" s="53">
@@ -3557,8 +3582,11 @@
       <c r="BB7" s="119" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="8" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="BC7" s="117" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="121" t="s">
         <v>367</v>
       </c>
@@ -3629,7 +3657,7 @@
       <c r="AJ8" s="104"/>
       <c r="AK8" s="104"/>
       <c r="AL8" s="104"/>
-      <c r="AM8" s="117" t="s">
+      <c r="AM8" s="115" t="s">
         <v>393</v>
       </c>
       <c r="AN8" s="53">
@@ -3652,11 +3680,11 @@
       <c r="AY8" s="40"/>
       <c r="AZ8" s="109"/>
       <c r="BA8" s="113"/>
-      <c r="BB8" s="119" t="s">
+      <c r="BB8" s="116" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A9" s="121" t="s">
         <v>368</v>
       </c>
@@ -3725,7 +3753,7 @@
       <c r="AJ9" s="104"/>
       <c r="AK9" s="104"/>
       <c r="AL9" s="104"/>
-      <c r="AM9" s="117" t="s">
+      <c r="AM9" s="115" t="s">
         <v>396</v>
       </c>
       <c r="AN9" s="53">
@@ -3748,11 +3776,11 @@
       <c r="AY9" s="40"/>
       <c r="AZ9" s="109"/>
       <c r="BA9" s="113"/>
-      <c r="BB9" s="119" t="s">
+      <c r="BB9" s="116" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A10" s="120" t="s">
         <v>369</v>
       </c>
@@ -3848,7 +3876,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A11" s="121" t="s">
         <v>370</v>
       </c>
@@ -3946,7 +3974,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A12" s="92" t="s">
         <v>371</v>
       </c>
@@ -4026,7 +4054,7 @@
       <c r="BA12" s="113"/>
       <c r="BB12" s="119"/>
     </row>
-    <row r="13" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="92" t="s">
         <v>388</v>
       </c>
